--- a/Results/BITCOIN(05-2020-04-2024)Results.xlsx
+++ b/Results/BITCOIN(05-2020-04-2024)Results.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5041498321394997</v>
+        <v>0.4303334452717079</v>
       </c>
       <c r="C3" t="n">
-        <v>995024.4399999999</v>
+        <v>995045.1075641916</v>
       </c>
       <c r="D3" t="n">
         <v>9675.69498</v>
       </c>
       <c r="E3" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.05934448366602</v>
+        <v>0.9042378521697807</v>
       </c>
       <c r="C4" t="n">
-        <v>990048.8799999999</v>
+        <v>990090.2151283831</v>
       </c>
       <c r="D4" t="n">
         <v>8786.107695000001</v>
       </c>
       <c r="E4" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.574792841746602</v>
+        <v>1.344215520814695</v>
       </c>
       <c r="C5" t="n">
-        <v>985073.3199999998</v>
+        <v>985135.3226925747</v>
       </c>
       <c r="D5" t="n">
         <v>9463.605662</v>
       </c>
       <c r="E5" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.074584684693974</v>
+        <v>1.770829063025944</v>
       </c>
       <c r="C6" t="n">
-        <v>980097.7599999998</v>
+        <v>980180.4302567663</v>
       </c>
       <c r="D6" t="n">
         <v>9760.063252</v>
       </c>
       <c r="E6" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.594292937301693</v>
+        <v>2.214442902847546</v>
       </c>
       <c r="C7" t="n">
-        <v>975122.1999999997</v>
+        <v>975225.5378209578</v>
       </c>
       <c r="D7" t="n">
         <v>9386.035291</v>
       </c>
       <c r="E7" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.118757439965706</v>
+        <v>2.662116594210924</v>
       </c>
       <c r="C8" t="n">
-        <v>970146.6399999997</v>
+        <v>970270.6453851494</v>
       </c>
       <c r="D8" t="n">
         <v>9300.915457999999</v>
       </c>
       <c r="E8" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.652453773107271</v>
+        <v>3.117670413985155</v>
       </c>
       <c r="C9" t="n">
-        <v>965171.0799999996</v>
+        <v>965315.752949341</v>
       </c>
       <c r="D9" t="n">
         <v>9140.029071000001</v>
       </c>
       <c r="E9" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.190101806549248</v>
+        <v>3.576597335755159</v>
       </c>
       <c r="C10" t="n">
-        <v>960195.5199999996</v>
+        <v>960360.8605135325</v>
       </c>
       <c r="D10" t="n">
         <v>9072.850074</v>
       </c>
       <c r="E10" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.715906742278671</v>
+        <v>4.025415197248964</v>
       </c>
       <c r="C11" t="n">
-        <v>955219.9599999995</v>
+        <v>955405.9680777241</v>
       </c>
       <c r="D11" t="n">
         <v>9277.204659999999</v>
       </c>
       <c r="E11" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.246861677889952</v>
+        <v>4.478629008222519</v>
       </c>
       <c r="C12" t="n">
-        <v>950244.3999999994</v>
+        <v>950451.0756419157</v>
       </c>
       <c r="D12" t="n">
         <v>9187.220369999999</v>
       </c>
       <c r="E12" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.739329389590212</v>
+        <v>4.898990800592226</v>
       </c>
       <c r="C13" t="n">
-        <v>945268.8399999994</v>
+        <v>945496.1832061072</v>
       </c>
       <c r="D13" t="n">
         <v>9905.217914000001</v>
       </c>
       <c r="E13" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.181026427350025</v>
+        <v>5.276015637075545</v>
       </c>
       <c r="C14" t="n">
-        <v>940293.2799999993</v>
+        <v>940541.2907702988</v>
       </c>
       <c r="D14" t="n">
         <v>11043.76888</v>
       </c>
       <c r="E14" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.599298810584168</v>
+        <v>5.633045599726314</v>
       </c>
       <c r="C15" t="n">
-        <v>935317.7199999993</v>
+        <v>935586.3983344904</v>
       </c>
       <c r="D15" t="n">
         <v>11662.25693</v>
       </c>
       <c r="E15" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.009364407150166</v>
+        <v>5.983070393365074</v>
       </c>
       <c r="C16" t="n">
-        <v>930342.1599999992</v>
+        <v>930631.5058986819</v>
       </c>
       <c r="D16" t="n">
         <v>11895.65777</v>
       </c>
       <c r="E16" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.427585415098719</v>
+        <v>6.340056502974067</v>
       </c>
       <c r="C17" t="n">
-        <v>925366.5999999992</v>
+        <v>925676.6134628735</v>
       </c>
       <c r="D17" t="n">
         <v>11663.68955</v>
       </c>
       <c r="E17" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="18">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.844034869040983</v>
+        <v>6.695530445186762</v>
       </c>
       <c r="C18" t="n">
-        <v>920391.0399999991</v>
+        <v>920721.7210270651</v>
       </c>
       <c r="D18" t="n">
         <v>11713.30627</v>
       </c>
       <c r="E18" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="19">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.318502443132299</v>
+        <v>7.100527636124889</v>
       </c>
       <c r="C19" t="n">
-        <v>915415.4799999991</v>
+        <v>915766.8285912566</v>
       </c>
       <c r="D19" t="n">
         <v>10280.99762</v>
       </c>
       <c r="E19" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="20">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.790777162187876</v>
+        <v>7.50365304450483</v>
       </c>
       <c r="C20" t="n">
-        <v>910439.919999999</v>
+        <v>910811.9361554482</v>
       </c>
       <c r="D20" t="n">
         <v>10328.73411</v>
       </c>
       <c r="E20" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="21">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.236870735172639</v>
+        <v>7.884430686265466</v>
       </c>
       <c r="C21" t="n">
-        <v>905464.3599999989</v>
+        <v>905857.0437196398</v>
       </c>
       <c r="D21" t="n">
         <v>10934.92553</v>
       </c>
       <c r="E21" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="22">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.689517564960999</v>
+        <v>8.27080207297703</v>
       </c>
       <c r="C22" t="n">
-        <v>900488.7999999989</v>
+        <v>900902.1512838313</v>
       </c>
       <c r="D22" t="n">
         <v>10776.61364</v>
       </c>
       <c r="E22" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="23">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.14640762897671</v>
+        <v>8.660795409925893</v>
       </c>
       <c r="C23" t="n">
-        <v>895513.2399999988</v>
+        <v>895947.2588480229</v>
       </c>
       <c r="D23" t="n">
         <v>10676.52896</v>
       </c>
       <c r="E23" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="24">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.5745789412</v>
+        <v>9.026274924564653</v>
       </c>
       <c r="C24" t="n">
-        <v>890537.6799999988</v>
+        <v>890992.3664122145</v>
       </c>
       <c r="D24" t="n">
         <v>11392.63622</v>
       </c>
       <c r="E24" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="25">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.99893595728481</v>
+        <v>9.388498622987832</v>
       </c>
       <c r="C25" t="n">
-        <v>885562.1199999987</v>
+        <v>886037.473976406</v>
       </c>
       <c r="D25" t="n">
         <v>11495.03794</v>
       </c>
       <c r="E25" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="26">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11.37326829291657</v>
+        <v>9.70802213246794</v>
       </c>
       <c r="C26" t="n">
-        <v>880586.5599999987</v>
+        <v>881082.5815405976</v>
       </c>
       <c r="D26" t="n">
         <v>13031.20125</v>
       </c>
       <c r="E26" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="27">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11.72836682696885</v>
+        <v>10.01112800661087</v>
       </c>
       <c r="C27" t="n">
-        <v>875610.9999999986</v>
+        <v>876127.6891047892</v>
       </c>
       <c r="D27" t="n">
         <v>13737.03221</v>
       </c>
       <c r="E27" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="28">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12.04349133591823</v>
+        <v>10.28011275475657</v>
       </c>
       <c r="C28" t="n">
-        <v>870635.4399999985</v>
+        <v>871172.7966689807</v>
       </c>
       <c r="D28" t="n">
         <v>15479.59572</v>
       </c>
       <c r="E28" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="29">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>12.34921515938851</v>
+        <v>10.54107324282672</v>
       </c>
       <c r="C29" t="n">
-        <v>865659.8799999985</v>
+        <v>866217.9042331723</v>
       </c>
       <c r="D29" t="n">
         <v>15955.57698</v>
       </c>
       <c r="E29" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="30">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>12.6147565527207</v>
+        <v>10.7677347140206</v>
       </c>
       <c r="C30" t="n">
-        <v>860684.3199999984</v>
+        <v>861263.0117973639</v>
       </c>
       <c r="D30" t="n">
         <v>18370.01734</v>
       </c>
       <c r="E30" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="31">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12.88309815035545</v>
+        <v>10.99678639044351</v>
       </c>
       <c r="C31" t="n">
-        <v>855708.7599999984</v>
+        <v>856308.1193615554</v>
       </c>
       <c r="D31" t="n">
         <v>18178.32212</v>
       </c>
       <c r="E31" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="32">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.1352807238386</v>
+        <v>11.21204500755728</v>
       </c>
       <c r="C32" t="n">
-        <v>850733.1999999983</v>
+        <v>851353.226925747</v>
       </c>
       <c r="D32" t="n">
         <v>19343.1288</v>
       </c>
       <c r="E32" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="33">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13.39007985263201</v>
+        <v>11.42953707034459</v>
       </c>
       <c r="C33" t="n">
-        <v>845757.6399999983</v>
+        <v>846398.3344899386</v>
       </c>
       <c r="D33" t="n">
         <v>19144.49246</v>
       </c>
       <c r="E33" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="34">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13.59788020049107</v>
+        <v>11.60691179889177</v>
       </c>
       <c r="C34" t="n">
-        <v>840782.0799999982</v>
+        <v>841443.4420541301</v>
       </c>
       <c r="D34" t="n">
         <v>23474.45541</v>
       </c>
       <c r="E34" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="35">
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13.78349083731416</v>
+        <v>11.76534577968709</v>
       </c>
       <c r="C35" t="n">
-        <v>835806.5199999982</v>
+        <v>836488.5496183217</v>
       </c>
       <c r="D35" t="n">
         <v>26280.82142</v>
       </c>
       <c r="E35" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="36">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>13.93216072803238</v>
+        <v>11.89224778818213</v>
       </c>
       <c r="C36" t="n">
-        <v>830830.9599999981</v>
+        <v>831533.6571825133</v>
       </c>
       <c r="D36" t="n">
         <v>32810.94764</v>
       </c>
       <c r="E36" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="37">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>14.05936911073622</v>
+        <v>12.00083063023937</v>
       </c>
       <c r="C37" t="n">
-        <v>825855.399999998</v>
+        <v>826578.7647467048</v>
       </c>
       <c r="D37" t="n">
         <v>38346.5295</v>
       </c>
       <c r="E37" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="38">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>14.19565564809275</v>
+        <v>12.11716242572147</v>
       </c>
       <c r="C38" t="n">
-        <v>820879.839999998</v>
+        <v>821623.8723108964</v>
       </c>
       <c r="D38" t="n">
         <v>35792.23667</v>
       </c>
       <c r="E38" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="39">
@@ -1170,16 +1170,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14.34674374765002</v>
+        <v>12.24612857482463</v>
       </c>
       <c r="C39" t="n">
-        <v>815904.2799999979</v>
+        <v>816668.979875088</v>
       </c>
       <c r="D39" t="n">
         <v>32285.79891</v>
       </c>
       <c r="E39" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="40">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>14.49405047497577</v>
+        <v>12.37186701098114</v>
       </c>
       <c r="C40" t="n">
-        <v>810928.7199999979</v>
+        <v>811714.0874392795</v>
       </c>
       <c r="D40" t="n">
         <v>33114.57724</v>
       </c>
       <c r="E40" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="41">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14.61949141063303</v>
+        <v>12.47894119127078</v>
       </c>
       <c r="C41" t="n">
-        <v>805953.1599999978</v>
+        <v>806759.1950034711</v>
       </c>
       <c r="D41" t="n">
         <v>38886.82729</v>
       </c>
       <c r="E41" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="42">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>14.71966280545025</v>
+        <v>12.56444573516089</v>
       </c>
       <c r="C42" t="n">
-        <v>800977.5999999978</v>
+        <v>801804.3025676627</v>
       </c>
       <c r="D42" t="n">
         <v>48696.53666</v>
       </c>
       <c r="E42" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="43">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>14.80444931303978</v>
+        <v>12.63681800942848</v>
       </c>
       <c r="C43" t="n">
-        <v>796002.0399999977</v>
+        <v>796849.4101318542</v>
       </c>
       <c r="D43" t="n">
         <v>57532.73886</v>
       </c>
       <c r="E43" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="44">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.91246644499535</v>
+        <v>12.72901953679098</v>
       </c>
       <c r="C44" t="n">
-        <v>791026.4799999977</v>
+        <v>791894.5176960458</v>
       </c>
       <c r="D44" t="n">
         <v>45159.50305</v>
       </c>
       <c r="E44" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="45">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>15.00778807027647</v>
+        <v>12.81038440255329</v>
       </c>
       <c r="C45" t="n">
-        <v>786050.9199999976</v>
+        <v>786939.6252602374</v>
       </c>
       <c r="D45" t="n">
         <v>51174.11695</v>
       </c>
       <c r="E45" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="46">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.09009297329301</v>
+        <v>12.88063842272732</v>
       </c>
       <c r="C46" t="n">
-        <v>781075.3599999975</v>
+        <v>781984.7328244289</v>
       </c>
       <c r="D46" t="n">
         <v>59267.42905</v>
       </c>
       <c r="E46" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="47">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>15.17490136723159</v>
+        <v>12.95302937879819</v>
       </c>
       <c r="C47" t="n">
-        <v>776099.7999999975</v>
+        <v>777029.8403886205</v>
       </c>
       <c r="D47" t="n">
         <v>57517.89149</v>
       </c>
       <c r="E47" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="48">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>15.26208962791347</v>
+        <v>13.02745174733744</v>
       </c>
       <c r="C48" t="n">
-        <v>771124.2399999974</v>
+        <v>772074.9479528121</v>
       </c>
       <c r="D48" t="n">
         <v>55947.89897</v>
       </c>
       <c r="E48" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="49">
@@ -1360,16 +1360,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>15.34510405110654</v>
+        <v>13.09831140147699</v>
       </c>
       <c r="C49" t="n">
-        <v>766148.6799999974</v>
+        <v>767120.0555170036</v>
       </c>
       <c r="D49" t="n">
         <v>58760.87326</v>
       </c>
       <c r="E49" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="50">
@@ -1379,16 +1379,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>15.42616634301496</v>
+        <v>13.16750475062585</v>
       </c>
       <c r="C50" t="n">
-        <v>761173.1199999973</v>
+        <v>762165.1630811952</v>
       </c>
       <c r="D50" t="n">
         <v>60175.94476</v>
       </c>
       <c r="E50" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="51">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>15.51297649576756</v>
+        <v>13.24160437287517</v>
       </c>
       <c r="C51" t="n">
-        <v>756197.5599999973</v>
+        <v>757210.2706453868</v>
       </c>
       <c r="D51" t="n">
         <v>56191.58411</v>
       </c>
       <c r="E51" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="52">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>15.61236971957475</v>
+        <v>13.32644468365359</v>
       </c>
       <c r="C52" t="n">
-        <v>751221.9999999972</v>
+        <v>752255.3782095783</v>
       </c>
       <c r="D52" t="n">
         <v>49077.79236</v>
       </c>
       <c r="E52" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="53">
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>15.69852260747654</v>
+        <v>13.39998327616597</v>
       </c>
       <c r="C53" t="n">
-        <v>746246.4399999972</v>
+        <v>747300.4857737699</v>
       </c>
       <c r="D53" t="n">
         <v>56620.27262</v>
       </c>
       <c r="E53" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="54">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>15.7822638423823</v>
+        <v>13.47146332402271</v>
       </c>
       <c r="C54" t="n">
-        <v>741270.8799999971</v>
+        <v>742345.5933379615</v>
       </c>
       <c r="D54" t="n">
         <v>58250.87253</v>
       </c>
       <c r="E54" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="55">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>15.88735714185123</v>
+        <v>13.56116911930883</v>
       </c>
       <c r="C55" t="n">
-        <v>736295.319999997</v>
+        <v>737390.700902153</v>
       </c>
       <c r="D55" t="n">
         <v>46415.89925</v>
       </c>
       <c r="E55" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="56">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>16.0279320378508</v>
+        <v>13.6811613824372</v>
       </c>
       <c r="C56" t="n">
-        <v>731319.759999997</v>
+        <v>732435.8084663446</v>
       </c>
       <c r="D56" t="n">
         <v>34700.36357</v>
       </c>
       <c r="E56" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="57">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>16.16472935919974</v>
+        <v>13.7979291741673</v>
       </c>
       <c r="C57" t="n">
-        <v>726344.1999999969</v>
+        <v>727480.9160305362</v>
       </c>
       <c r="D57" t="n">
         <v>35658.59296</v>
       </c>
       <c r="E57" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="58">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>16.30085225184689</v>
+        <v>13.91412128539861</v>
       </c>
       <c r="C58" t="n">
-        <v>721368.6399999969</v>
+        <v>722526.0235947277</v>
       </c>
       <c r="D58" t="n">
         <v>35835.26551</v>
       </c>
       <c r="E58" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="59">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>16.42587477352133</v>
+        <v>14.02083831485868</v>
       </c>
       <c r="C59" t="n">
-        <v>716393.0799999968</v>
+        <v>717571.1311589193</v>
       </c>
       <c r="D59" t="n">
         <v>39016.97018</v>
       </c>
       <c r="E59" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="60">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>16.56273905930463</v>
+        <v>14.13766326625424</v>
       </c>
       <c r="C60" t="n">
-        <v>711417.5199999968</v>
+        <v>712616.2387231109</v>
       </c>
       <c r="D60" t="n">
         <v>35641.14606</v>
       </c>
       <c r="E60" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="61">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>16.70340005899933</v>
+        <v>14.25772902598504</v>
       </c>
       <c r="C61" t="n">
-        <v>706441.9599999967</v>
+        <v>707661.3462873024</v>
       </c>
       <c r="D61" t="n">
         <v>34679.12222</v>
       </c>
       <c r="E61" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="62">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>16.84164834102926</v>
+        <v>14.37573533227767</v>
       </c>
       <c r="C62" t="n">
-        <v>701466.3999999966</v>
+        <v>702706.453851494</v>
       </c>
       <c r="D62" t="n">
         <v>35284.34443</v>
       </c>
       <c r="E62" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="63">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>16.9840549982802</v>
+        <v>14.49729115464967</v>
       </c>
       <c r="C63" t="n">
-        <v>696490.8399999966</v>
+        <v>697751.5614156856</v>
       </c>
       <c r="D63" t="n">
         <v>34254.01659</v>
       </c>
       <c r="E63" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="64">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>17.13745116372273</v>
+        <v>14.62822742826939</v>
       </c>
       <c r="C64" t="n">
-        <v>691515.2799999965</v>
+        <v>692796.6689798771</v>
       </c>
       <c r="D64" t="n">
         <v>31800.01264</v>
       </c>
       <c r="E64" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="65">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>17.27530996659349</v>
+        <v>14.74590128198991</v>
       </c>
       <c r="C65" t="n">
-        <v>686539.7199999965</v>
+        <v>687841.7765440687</v>
       </c>
       <c r="D65" t="n">
         <v>35384.02988</v>
       </c>
       <c r="E65" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="66">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>17.39754335599769</v>
+        <v>14.85023755711336</v>
       </c>
       <c r="C66" t="n">
-        <v>681564.1599999964</v>
+        <v>682886.8841082603</v>
       </c>
       <c r="D66" t="n">
         <v>39907.26285</v>
       </c>
       <c r="E66" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="67">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>17.50893374887116</v>
+        <v>14.94531844077047</v>
       </c>
       <c r="C67" t="n">
-        <v>676588.5999999964</v>
+        <v>677931.9916724518</v>
       </c>
       <c r="D67" t="n">
         <v>43791.92742</v>
       </c>
       <c r="E67" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="68">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>17.61267692226091</v>
+        <v>15.03387179213979</v>
       </c>
       <c r="C68" t="n">
-        <v>671613.0399999963</v>
+        <v>672977.0992366434</v>
       </c>
       <c r="D68" t="n">
         <v>47019.96132</v>
       </c>
       <c r="E68" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="69">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>17.71163886188783</v>
+        <v>15.11834396631408</v>
       </c>
       <c r="C69" t="n">
-        <v>666637.4799999963</v>
+        <v>668022.206800835</v>
       </c>
       <c r="D69" t="n">
         <v>49291.67737</v>
       </c>
       <c r="E69" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="70">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>17.81152653907536</v>
+        <v>15.20360633381676</v>
       </c>
       <c r="C70" t="n">
-        <v>661661.9199999962</v>
+        <v>663067.3143650265</v>
       </c>
       <c r="D70" t="n">
         <v>48834.85268</v>
       </c>
       <c r="E70" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="71">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>17.90575280562372</v>
+        <v>15.28403622059619</v>
       </c>
       <c r="C71" t="n">
-        <v>656686.3599999961</v>
+        <v>658112.4219292181</v>
       </c>
       <c r="D71" t="n">
         <v>51769.00432</v>
       </c>
       <c r="E71" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="72">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>18.0116645496371</v>
+        <v>15.37444062577588</v>
       </c>
       <c r="C72" t="n">
-        <v>651710.7999999961</v>
+        <v>653157.5294934097</v>
       </c>
       <c r="D72" t="n">
         <v>46057.21533</v>
       </c>
       <c r="E72" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="73">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>18.11487772844929</v>
+        <v>15.462541583079</v>
       </c>
       <c r="C73" t="n">
-        <v>646735.239999996</v>
+        <v>648202.6370576012</v>
       </c>
       <c r="D73" t="n">
         <v>47261.4065</v>
       </c>
       <c r="E73" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="74">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>18.22770511279568</v>
+        <v>15.5588490574279</v>
       </c>
       <c r="C74" t="n">
-        <v>641759.679999996</v>
+        <v>643247.7446217928</v>
       </c>
       <c r="D74" t="n">
         <v>43234.18493</v>
       </c>
       <c r="E74" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="75">
@@ -1854,16 +1854,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>18.32888973281317</v>
+        <v>15.6452184725596</v>
       </c>
       <c r="C75" t="n">
-        <v>636784.1199999959</v>
+        <v>638292.8521859844</v>
       </c>
       <c r="D75" t="n">
         <v>48208.90763</v>
       </c>
       <c r="E75" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="76">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>18.41801146471735</v>
+        <v>15.72129121818791</v>
       </c>
       <c r="C76" t="n">
-        <v>631808.5599999959</v>
+        <v>633337.9597501759</v>
       </c>
       <c r="D76" t="n">
         <v>54734.12484</v>
       </c>
       <c r="E76" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="77">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>18.49726564559753</v>
+        <v>15.78894119550838</v>
       </c>
       <c r="C77" t="n">
-        <v>626832.9999999958</v>
+        <v>628383.0673143675</v>
       </c>
       <c r="D77" t="n">
         <v>61548.80343</v>
       </c>
       <c r="E77" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="78">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>18.57737215529164</v>
+        <v>15.85731870573995</v>
       </c>
       <c r="C78" t="n">
-        <v>621857.4399999958</v>
+        <v>623428.1748785591</v>
       </c>
       <c r="D78" t="n">
         <v>60893.92758</v>
       </c>
       <c r="E78" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="79">
@@ -1930,16 +1930,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>18.65692147432909</v>
+        <v>15.92522060780967</v>
       </c>
       <c r="C79" t="n">
-        <v>616881.8799999957</v>
+        <v>618473.2824427506</v>
       </c>
       <c r="D79" t="n">
         <v>61320.44949</v>
       </c>
       <c r="E79" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="80">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>18.7339294754582</v>
+        <v>15.99095328553118</v>
       </c>
       <c r="C80" t="n">
-        <v>611906.3199999956</v>
+        <v>613518.3900069422</v>
       </c>
       <c r="D80" t="n">
         <v>63344.06722</v>
       </c>
       <c r="E80" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="81">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>18.80837855985713</v>
+        <v>16.05450171685913</v>
       </c>
       <c r="C81" t="n">
-        <v>606930.7599999956</v>
+        <v>608563.4975711338</v>
       </c>
       <c r="D81" t="n">
         <v>65521.28934</v>
       </c>
       <c r="E81" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="82">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>18.89146937552031</v>
+        <v>16.12542657826993</v>
       </c>
       <c r="C82" t="n">
-        <v>601955.1999999955</v>
+        <v>603608.6051353253</v>
       </c>
       <c r="D82" t="n">
         <v>58706.84938</v>
       </c>
       <c r="E82" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="83">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>18.9766122944543</v>
+        <v>16.19810307900357</v>
       </c>
       <c r="C83" t="n">
-        <v>596979.6399999955</v>
+        <v>598653.7126995169</v>
       </c>
       <c r="D83" t="n">
         <v>57291.90473</v>
       </c>
       <c r="E83" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="84">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>19.07533029789883</v>
+        <v>16.2823670335354</v>
       </c>
       <c r="C84" t="n">
-        <v>592004.0799999954</v>
+        <v>593698.8202637085</v>
       </c>
       <c r="D84" t="n">
         <v>49413.4791</v>
       </c>
       <c r="E84" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="85">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>19.1726669278731</v>
+        <v>16.36545187192601</v>
       </c>
       <c r="C85" t="n">
-        <v>587028.5199999954</v>
+        <v>588743.9278279</v>
       </c>
       <c r="D85" t="n">
         <v>50114.74099</v>
       </c>
       <c r="E85" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="86">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>19.27710509065299</v>
+        <v>16.45459845403671</v>
       </c>
       <c r="C86" t="n">
-        <v>582052.9599999953</v>
+        <v>583789.0353920916</v>
       </c>
       <c r="D86" t="n">
         <v>46707.06445</v>
       </c>
       <c r="E86" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="87">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>19.37312378147891</v>
+        <v>16.53655832270957</v>
       </c>
       <c r="C87" t="n">
-        <v>577077.3999999953</v>
+        <v>578834.1429562832</v>
       </c>
       <c r="D87" t="n">
         <v>50802.60893</v>
       </c>
       <c r="E87" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="88">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>19.4761578936632</v>
+        <v>16.62450643188301</v>
       </c>
       <c r="C88" t="n">
-        <v>572101.8399999952</v>
+        <v>573879.2505204747</v>
       </c>
       <c r="D88" t="n">
         <v>47343.54377</v>
       </c>
       <c r="E88" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="89">
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>19.59254952175484</v>
+        <v>16.72385628211483</v>
       </c>
       <c r="C89" t="n">
-        <v>567126.2799999951</v>
+        <v>568924.3580846663</v>
       </c>
       <c r="D89" t="n">
         <v>41910.23083</v>
       </c>
       <c r="E89" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="90">
@@ -2139,16 +2139,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>19.70568061347885</v>
+        <v>16.82042299574903</v>
       </c>
       <c r="C90" t="n">
-        <v>562150.7199999951</v>
+        <v>563969.4656488579</v>
       </c>
       <c r="D90" t="n">
         <v>43118.1201</v>
       </c>
       <c r="E90" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="91">
@@ -2158,16 +2158,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>19.84015067385567</v>
+        <v>16.93520427837344</v>
       </c>
       <c r="C91" t="n">
-        <v>557175.159999995</v>
+        <v>559014.5732130494</v>
       </c>
       <c r="D91" t="n">
         <v>36275.73295</v>
       </c>
       <c r="E91" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="92">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>19.9687889611428</v>
+        <v>17.04500766187789</v>
       </c>
       <c r="C92" t="n">
-        <v>552199.599999995</v>
+        <v>554059.680777241</v>
       </c>
       <c r="D92" t="n">
         <v>37920.28099</v>
       </c>
       <c r="E92" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="93">
@@ -2196,16 +2196,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>20.08381773359408</v>
+        <v>17.14319420246299</v>
       </c>
       <c r="C93" t="n">
-        <v>547224.0399999949</v>
+        <v>549104.7883414326</v>
       </c>
       <c r="D93" t="n">
         <v>42406.78133</v>
       </c>
       <c r="E93" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="94">
@@ -2215,16 +2215,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>20.19952695898163</v>
+        <v>17.24196156572766</v>
       </c>
       <c r="C94" t="n">
-        <v>542248.4799999949</v>
+        <v>544149.8959056241</v>
       </c>
       <c r="D94" t="n">
         <v>42157.39915</v>
       </c>
       <c r="E94" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="95">
@@ -2234,16 +2234,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>20.32648147466379</v>
+        <v>17.35032771135237</v>
       </c>
       <c r="C95" t="n">
-        <v>537272.9199999948</v>
+        <v>539195.0034698157</v>
       </c>
       <c r="D95" t="n">
         <v>38423.20987</v>
       </c>
       <c r="E95" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="96">
@@ -2253,16 +2253,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>20.45585080144735</v>
+        <v>17.460755097336</v>
       </c>
       <c r="C96" t="n">
-        <v>532297.3599999947</v>
+        <v>534240.1110340073</v>
       </c>
       <c r="D96" t="n">
         <v>37706.00127</v>
       </c>
       <c r="E96" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="97">
@@ -2272,16 +2272,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>20.58278518867591</v>
+        <v>17.56910406166612</v>
       </c>
       <c r="C97" t="n">
-        <v>527321.7999999947</v>
+        <v>529285.2185981988</v>
       </c>
       <c r="D97" t="n">
         <v>38429.30278</v>
       </c>
       <c r="E97" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="98">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>20.71167487884519</v>
+        <v>17.67912203825686</v>
       </c>
       <c r="C98" t="n">
-        <v>522346.2399999947</v>
+        <v>524330.3261623904</v>
       </c>
       <c r="D98" t="n">
         <v>37846.31644</v>
       </c>
       <c r="E98" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="99">
@@ -2310,16 +2310,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>20.82994051159529</v>
+        <v>17.78007150596294</v>
       </c>
       <c r="C99" t="n">
-        <v>517370.6799999947</v>
+        <v>519375.4337265819</v>
       </c>
       <c r="D99" t="n">
         <v>41246.13285</v>
       </c>
       <c r="E99" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="100">
@@ -2329,16 +2329,16 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>20.93412263968195</v>
+        <v>17.86899954135474</v>
       </c>
       <c r="C100" t="n">
-        <v>512395.1199999947</v>
+        <v>514420.5412907734</v>
       </c>
       <c r="D100" t="n">
         <v>46821.85025</v>
       </c>
       <c r="E100" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="101">
@@ -2348,16 +2348,16 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>21.03914947728795</v>
+        <v>17.95864860596153</v>
       </c>
       <c r="C101" t="n">
-        <v>507419.5599999947</v>
+        <v>509465.6488549649</v>
       </c>
       <c r="D101" t="n">
         <v>46445.27162</v>
       </c>
       <c r="E101" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="102">
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>21.15473905054476</v>
+        <v>18.05731383626815</v>
       </c>
       <c r="C102" t="n">
-        <v>502443.9999999947</v>
+        <v>504510.7564191564</v>
       </c>
       <c r="D102" t="n">
         <v>42201.03823</v>
       </c>
       <c r="E102" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="103">
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>21.27754499904094</v>
+        <v>18.16213883778001</v>
       </c>
       <c r="C103" t="n">
-        <v>497468.4399999947</v>
+        <v>499555.863983348</v>
       </c>
       <c r="D103" t="n">
         <v>39721.20292</v>
       </c>
       <c r="E103" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="104">
@@ -2405,16 +2405,16 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>21.40112437028124</v>
+        <v>18.26762401936713</v>
       </c>
       <c r="C104" t="n">
-        <v>492492.8799999947</v>
+        <v>494600.9715475395</v>
       </c>
       <c r="D104" t="n">
         <v>39472.60737</v>
       </c>
       <c r="E104" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="105">
@@ -2424,16 +2424,16 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>21.52791726565215</v>
+        <v>18.37585220873175</v>
       </c>
       <c r="C105" t="n">
-        <v>487517.3199999947</v>
+        <v>489646.079111731</v>
       </c>
       <c r="D105" t="n">
         <v>38472.18715</v>
       </c>
       <c r="E105" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="106">
@@ -2443,16 +2443,16 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>21.67113505141224</v>
+        <v>18.49810039615805</v>
       </c>
       <c r="C106" t="n">
-        <v>482541.7599999947</v>
+        <v>484691.1866759225</v>
       </c>
       <c r="D106" t="n">
         <v>34060.01548</v>
       </c>
       <c r="E106" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="107">
@@ -2462,16 +2462,16 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>21.82695992042845</v>
+        <v>18.63110976850711</v>
       </c>
       <c r="C107" t="n">
-        <v>477566.1999999947</v>
+        <v>479736.294240114</v>
       </c>
       <c r="D107" t="n">
         <v>31304.37414</v>
       </c>
       <c r="E107" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="108">
@@ -2481,16 +2481,16 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>21.98790010949552</v>
+        <v>18.76848548824105</v>
       </c>
       <c r="C108" t="n">
-        <v>472590.6399999947</v>
+        <v>474781.4018043055</v>
       </c>
       <c r="D108" t="n">
         <v>30309.39648</v>
       </c>
       <c r="E108" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="109">
@@ -2500,16 +2500,16 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>22.15357410370004</v>
+        <v>18.90990190092812</v>
       </c>
       <c r="C109" t="n">
-        <v>467615.0799999947</v>
+        <v>469826.509368497</v>
       </c>
       <c r="D109" t="n">
         <v>29443.36571</v>
       </c>
       <c r="E109" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="110">
@@ -2519,16 +2519,16 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>22.31666182448746</v>
+        <v>19.04911071603399</v>
       </c>
       <c r="C110" t="n">
-        <v>462639.5199999947</v>
+        <v>464871.6169326885</v>
       </c>
       <c r="D110" t="n">
         <v>29910.28372</v>
       </c>
       <c r="E110" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="111">
@@ -2538,16 +2538,16 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>22.4991016872914</v>
+        <v>19.20483817979637</v>
       </c>
       <c r="C111" t="n">
-        <v>457663.9599999947</v>
+        <v>459916.72449688</v>
       </c>
       <c r="D111" t="n">
         <v>26737.57766</v>
       </c>
       <c r="E111" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="112">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>22.73643502681998</v>
+        <v>19.407421751517</v>
       </c>
       <c r="C112" t="n">
-        <v>452688.3999999947</v>
+        <v>454961.8320610715</v>
       </c>
       <c r="D112" t="n">
         <v>20553.37025</v>
       </c>
       <c r="E112" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="113">
@@ -2576,16 +2576,16 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>22.9684088111497</v>
+        <v>19.60543050101849</v>
       </c>
       <c r="C113" t="n">
-        <v>447712.8399999947</v>
+        <v>450006.939625263</v>
       </c>
       <c r="D113" t="n">
         <v>21028.23823</v>
       </c>
       <c r="E113" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="114">
@@ -2595,16 +2595,16 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>23.22119010247199</v>
+        <v>19.82120017316795</v>
       </c>
       <c r="C114" t="n">
-        <v>442737.2799999947</v>
+        <v>445052.0471894545</v>
       </c>
       <c r="D114" t="n">
         <v>19297.31419</v>
       </c>
       <c r="E114" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="115">
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>23.45507567235166</v>
+        <v>20.02084078924933</v>
       </c>
       <c r="C115" t="n">
-        <v>437761.7199999947</v>
+        <v>440097.1547536461</v>
       </c>
       <c r="D115" t="n">
         <v>20856.35297</v>
       </c>
       <c r="E115" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="116">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>23.68979902780431</v>
+        <v>20.22119652438667</v>
       </c>
       <c r="C116" t="n">
-        <v>432786.1599999947</v>
+        <v>435142.2623178376</v>
       </c>
       <c r="D116" t="n">
         <v>20781.9115</v>
       </c>
       <c r="E116" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="117">
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>23.9055714185065</v>
+        <v>20.40537604873827</v>
       </c>
       <c r="C117" t="n">
-        <v>427810.5999999947</v>
+        <v>430187.3698820291</v>
       </c>
       <c r="D117" t="n">
         <v>22607.15555</v>
       </c>
       <c r="E117" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="118">
@@ -2671,16 +2671,16 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>24.11459824008221</v>
+        <v>20.58379767371657</v>
       </c>
       <c r="C118" t="n">
-        <v>422835.0399999947</v>
+        <v>425232.4774462206</v>
       </c>
       <c r="D118" t="n">
         <v>23336.71805</v>
       </c>
       <c r="E118" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="119">
@@ -2690,16 +2690,16 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>24.32504256836716</v>
+        <v>20.76342925753448</v>
       </c>
       <c r="C119" t="n">
-        <v>417859.4799999947</v>
+        <v>420277.5850104121</v>
       </c>
       <c r="D119" t="n">
         <v>23179.52705</v>
       </c>
       <c r="E119" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="120">
@@ -2709,16 +2709,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>24.5256321200576</v>
+        <v>20.93464897707328</v>
       </c>
       <c r="C120" t="n">
-        <v>412883.9199999947</v>
+        <v>415322.6925746036</v>
       </c>
       <c r="D120" t="n">
         <v>24318.31548</v>
       </c>
       <c r="E120" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="121">
@@ -2728,16 +2728,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>24.75218429662966</v>
+        <v>21.12802993738089</v>
       </c>
       <c r="C121" t="n">
-        <v>407908.3599999947</v>
+        <v>410367.8001387951</v>
       </c>
       <c r="D121" t="n">
         <v>21531.46385</v>
       </c>
       <c r="E121" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="122">
@@ -2747,16 +2747,16 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>25.00086958144356</v>
+        <v>21.34030333028907</v>
       </c>
       <c r="C122" t="n">
-        <v>402932.7999999947</v>
+        <v>405412.9077029866</v>
       </c>
       <c r="D122" t="n">
         <v>19615.15336</v>
       </c>
       <c r="E122" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="123">
@@ -2766,16 +2766,16 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>25.24490636625778</v>
+        <v>21.54860884521202</v>
       </c>
       <c r="C123" t="n">
-        <v>397957.2399999948</v>
+        <v>400458.0152671781</v>
       </c>
       <c r="D123" t="n">
         <v>19988.78982</v>
       </c>
       <c r="E123" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="124">
@@ -2785,16 +2785,16 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>25.46897466248026</v>
+        <v>21.73986960886312</v>
       </c>
       <c r="C124" t="n">
-        <v>392981.6799999948</v>
+        <v>395503.1228313696</v>
       </c>
       <c r="D124" t="n">
         <v>21770.14813</v>
       </c>
       <c r="E124" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="125">
@@ -2804,16 +2804,16 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>25.72017748757458</v>
+        <v>21.9542919299538</v>
       </c>
       <c r="C125" t="n">
-        <v>388006.1199999948</v>
+        <v>390548.2303955611</v>
       </c>
       <c r="D125" t="n">
         <v>19418.57142</v>
       </c>
       <c r="E125" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="126">
@@ -2823,16 +2823,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>25.97959174932715</v>
+        <v>22.17572338920639</v>
       </c>
       <c r="C126" t="n">
-        <v>383030.5599999948</v>
+        <v>385593.3379597527</v>
       </c>
       <c r="D126" t="n">
         <v>18803.90063</v>
       </c>
       <c r="E126" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="127">
@@ -2842,16 +2842,16 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>26.23573450403804</v>
+        <v>22.3943623474866</v>
       </c>
       <c r="C127" t="n">
-        <v>378054.9999999948</v>
+        <v>380638.4455239442</v>
       </c>
       <c r="D127" t="n">
         <v>19044.06785</v>
       </c>
       <c r="E127" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="128">
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>26.48657763843905</v>
+        <v>22.60847764291662</v>
       </c>
       <c r="C128" t="n">
-        <v>373079.4399999948</v>
+        <v>375683.5530881357</v>
       </c>
       <c r="D128" t="n">
         <v>19446.41623</v>
       </c>
       <c r="E128" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="129">
@@ -2880,16 +2880,16 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>26.73973612399102</v>
+        <v>22.82456928143808</v>
       </c>
       <c r="C129" t="n">
-        <v>368103.8799999948</v>
+        <v>370728.6606523272</v>
       </c>
       <c r="D129" t="n">
         <v>19268.5621</v>
       </c>
       <c r="E129" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="130">
@@ -2899,16 +2899,16 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>26.98902360563562</v>
+        <v>23.03735669898808</v>
       </c>
       <c r="C130" t="n">
-        <v>363128.3199999948</v>
+        <v>365773.7682165187</v>
       </c>
       <c r="D130" t="n">
         <v>19567.76958</v>
       </c>
       <c r="E130" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="131">
@@ -2918,16 +2918,16 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>27.2254330198022</v>
+        <v>23.23915162424121</v>
       </c>
       <c r="C131" t="n">
-        <v>358152.7599999948</v>
+        <v>360818.8757807102</v>
       </c>
       <c r="D131" t="n">
         <v>20633.69607</v>
       </c>
       <c r="E131" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="132">
@@ -2937,16 +2937,16 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>27.4585555275515</v>
+        <v>23.43814090388532</v>
       </c>
       <c r="C132" t="n">
-        <v>353177.1999999948</v>
+        <v>355863.9833449017</v>
       </c>
       <c r="D132" t="n">
         <v>20924.62048</v>
       </c>
       <c r="E132" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="133">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>27.7568671396002</v>
+        <v>23.69277445842344</v>
       </c>
       <c r="C133" t="n">
-        <v>348201.6399999948</v>
+        <v>350909.0909090932</v>
       </c>
       <c r="D133" t="n">
         <v>16352.02856</v>
       </c>
       <c r="E133" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="134">
@@ -2975,16 +2975,16 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>28.05629215885504</v>
+        <v>23.94835839780444</v>
       </c>
       <c r="C134" t="n">
-        <v>343226.0799999948</v>
+        <v>345954.1984732847</v>
       </c>
       <c r="D134" t="n">
         <v>16291.2238</v>
       </c>
       <c r="E134" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="135">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>28.35300347901215</v>
+        <v>24.20162597128049</v>
       </c>
       <c r="C135" t="n">
-        <v>338250.5199999948</v>
+        <v>340999.3060374762</v>
       </c>
       <c r="D135" t="n">
         <v>16440.22209</v>
       </c>
       <c r="E135" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="136">
@@ -3013,16 +3013,16 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>28.63778543733459</v>
+        <v>24.44471085094024</v>
       </c>
       <c r="C136" t="n">
-        <v>333274.9599999948</v>
+        <v>336044.4136016677</v>
       </c>
       <c r="D136" t="n">
         <v>17128.89408</v>
       </c>
       <c r="E136" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="137">
@@ -3032,16 +3032,16 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>28.92300688534547</v>
+        <v>24.68817087128186</v>
       </c>
       <c r="C137" t="n">
-        <v>328299.3999999948</v>
+        <v>331089.5211658592</v>
       </c>
       <c r="D137" t="n">
         <v>17102.50065</v>
       </c>
       <c r="E137" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="138">
@@ -3051,16 +3051,16 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>29.21407366060872</v>
+        <v>24.93662036033873</v>
       </c>
       <c r="C138" t="n">
-        <v>323323.8399999948</v>
+        <v>326134.6287300508</v>
       </c>
       <c r="D138" t="n">
         <v>16759.04093</v>
       </c>
       <c r="E138" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="139">
@@ -3070,16 +3070,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>29.50370243347718</v>
+        <v>25.18384239579864</v>
       </c>
       <c r="C139" t="n">
-        <v>318348.2799999948</v>
+        <v>321179.7362942423</v>
       </c>
       <c r="D139" t="n">
         <v>16842.24931</v>
       </c>
       <c r="E139" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="140">
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>29.79710695974869</v>
+        <v>25.43428734807187</v>
       </c>
       <c r="C140" t="n">
-        <v>313372.7199999948</v>
+        <v>316224.8438584338</v>
       </c>
       <c r="D140" t="n">
         <v>16625.51039</v>
       </c>
       <c r="E140" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="141">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>30.0824703703153</v>
+        <v>25.6778685451586</v>
       </c>
       <c r="C141" t="n">
-        <v>308397.1599999948</v>
+        <v>311269.9514226253</v>
       </c>
       <c r="D141" t="n">
         <v>17093.9925</v>
       </c>
       <c r="E141" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="142">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>30.31606618022671</v>
+        <v>25.87726182721844</v>
       </c>
       <c r="C142" t="n">
-        <v>303421.5999999948</v>
+        <v>306315.0589868168</v>
       </c>
       <c r="D142" t="n">
         <v>20882.22388</v>
       </c>
       <c r="E142" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="143">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>30.53075659717142</v>
+        <v>26.06051779776704</v>
       </c>
       <c r="C143" t="n">
-        <v>298446.0399999948</v>
+        <v>301360.1665510083</v>
       </c>
       <c r="D143" t="n">
         <v>22721.08867</v>
       </c>
       <c r="E143" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="144">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>30.73593312811222</v>
+        <v>26.23565288225958</v>
       </c>
       <c r="C144" t="n">
-        <v>293470.4799999948</v>
+        <v>296405.2741151998</v>
       </c>
       <c r="D144" t="n">
         <v>23774.64897</v>
       </c>
       <c r="E144" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="145">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>30.94844490528576</v>
+        <v>26.41704920415025</v>
       </c>
       <c r="C145" t="n">
-        <v>288494.9199999948</v>
+        <v>291450.3816793913</v>
       </c>
       <c r="D145" t="n">
         <v>22954.02196</v>
       </c>
       <c r="E145" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="146">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>31.17233989613729</v>
+        <v>26.60816203737947</v>
       </c>
       <c r="C146" t="n">
-        <v>283519.3599999948</v>
+        <v>286495.4892435828</v>
       </c>
       <c r="D146" t="n">
         <v>21786.99926</v>
       </c>
       <c r="E146" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="147">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>31.37277854910286</v>
+        <v>26.77925295241607</v>
       </c>
       <c r="C147" t="n">
-        <v>278543.7999999948</v>
+        <v>281540.5968077743</v>
       </c>
       <c r="D147" t="n">
         <v>24336.62334</v>
       </c>
       <c r="E147" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="148">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>31.57981164168491</v>
+        <v>26.95597276532963</v>
       </c>
       <c r="C148" t="n">
-        <v>273568.2399999948</v>
+        <v>276585.7043719658</v>
       </c>
       <c r="D148" t="n">
         <v>23561.45068</v>
       </c>
       <c r="E148" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="149">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>31.79722216153852</v>
+        <v>27.14155056796396</v>
       </c>
       <c r="C149" t="n">
-        <v>268592.6799999948</v>
+        <v>271630.8119361573</v>
       </c>
       <c r="D149" t="n">
         <v>22436.81678</v>
       </c>
       <c r="E149" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="150">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>32.01738421536123</v>
+        <v>27.32947703168518</v>
       </c>
       <c r="C150" t="n">
-        <v>263617.1199999948</v>
+        <v>266675.9195003489</v>
       </c>
       <c r="D150" t="n">
         <v>22156.40668</v>
       </c>
       <c r="E150" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="151">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>32.19134004049264</v>
+        <v>27.47796266984595</v>
       </c>
       <c r="C151" t="n">
-        <v>258641.5599999948</v>
+        <v>261721.0270645404</v>
       </c>
       <c r="D151" t="n">
         <v>28041.60192</v>
       </c>
       <c r="E151" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="152">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>32.3655912430667</v>
+        <v>27.62670043700579</v>
       </c>
       <c r="C152" t="n">
-        <v>253665.9999999948</v>
+        <v>256766.1346287319</v>
       </c>
       <c r="D152" t="n">
         <v>27994.06792</v>
       </c>
       <c r="E152" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="153">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>32.53867381380383</v>
+        <v>27.77444068054749</v>
       </c>
       <c r="C153" t="n">
-        <v>248690.4399999948</v>
+        <v>251811.2421929235</v>
       </c>
       <c r="D153" t="n">
         <v>28183.08036</v>
       </c>
       <c r="E153" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="154">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>32.71082214590897</v>
+        <v>27.92138347439549</v>
       </c>
       <c r="C154" t="n">
-        <v>243714.8799999948</v>
+        <v>246856.349757115</v>
       </c>
       <c r="D154" t="n">
         <v>28336.02824</v>
       </c>
       <c r="E154" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="155">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>32.87172119782731</v>
+        <v>28.05872408018153</v>
       </c>
       <c r="C155" t="n">
-        <v>238739.3199999948</v>
+        <v>241901.4573213065</v>
       </c>
       <c r="D155" t="n">
         <v>30317.1457</v>
       </c>
       <c r="E155" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="156">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>33.04851330491375</v>
+        <v>28.20963071882204</v>
       </c>
       <c r="C156" t="n">
-        <v>233763.7599999948</v>
+        <v>236946.5648854981</v>
       </c>
       <c r="D156" t="n">
         <v>27591.72952</v>
       </c>
       <c r="E156" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="157">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>33.21541317988385</v>
+        <v>28.35209352180762</v>
       </c>
       <c r="C157" t="n">
-        <v>228788.1999999948</v>
+        <v>231991.6724496896</v>
       </c>
       <c r="D157" t="n">
         <v>29227.10398</v>
       </c>
       <c r="E157" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="158">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>33.38686912232095</v>
+        <v>28.49844530399139</v>
       </c>
       <c r="C158" t="n">
-        <v>223812.6399999948</v>
+        <v>227036.7800138812</v>
       </c>
       <c r="D158" t="n">
         <v>28450.45748</v>
       </c>
       <c r="E158" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="159">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>33.56799608875869</v>
+        <v>28.65305210246633</v>
       </c>
       <c r="C159" t="n">
-        <v>218837.0799999948</v>
+        <v>222081.8875780727</v>
       </c>
       <c r="D159" t="n">
         <v>26931.38463</v>
       </c>
       <c r="E159" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="160">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>33.7503519569375</v>
+        <v>28.80870786989141</v>
       </c>
       <c r="C160" t="n">
-        <v>213861.5199999948</v>
+        <v>217126.9951422642</v>
       </c>
       <c r="D160" t="n">
         <v>26749.89321</v>
       </c>
       <c r="E160" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="161">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>33.92409717932411</v>
+        <v>28.95701374124681</v>
       </c>
       <c r="C161" t="n">
-        <v>208885.9599999948</v>
+        <v>212172.1027064558</v>
       </c>
       <c r="D161" t="n">
         <v>28075.59214</v>
       </c>
       <c r="E161" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="162">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>34.10394381222107</v>
+        <v>29.11052766949037</v>
       </c>
       <c r="C162" t="n">
-        <v>203910.3999999948</v>
+        <v>207217.2102706473</v>
       </c>
       <c r="D162" t="n">
         <v>27123.10996</v>
       </c>
       <c r="E162" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="163">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>34.29203459194164</v>
+        <v>29.27107865671871</v>
       </c>
       <c r="C163" t="n">
-        <v>198934.8399999948</v>
+        <v>202262.3178348388</v>
       </c>
       <c r="D163" t="n">
         <v>25934.2856</v>
       </c>
       <c r="E163" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="164">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>34.47726026354672</v>
+        <v>29.42918403796283</v>
       </c>
       <c r="C164" t="n">
-        <v>193959.2799999948</v>
+        <v>197307.4253990304</v>
       </c>
       <c r="D164" t="n">
         <v>26335.44237</v>
       </c>
       <c r="E164" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="165">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>34.63729688249727</v>
+        <v>29.56578848610945</v>
       </c>
       <c r="C165" t="n">
-        <v>188983.7199999948</v>
+        <v>192352.5329632219</v>
       </c>
       <c r="D165" t="n">
         <v>30480.52397</v>
       </c>
       <c r="E165" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="166">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>34.79658103087767</v>
+        <v>29.70175063858864</v>
       </c>
       <c r="C166" t="n">
-        <v>184008.1599999949</v>
+        <v>187397.6405274135</v>
       </c>
       <c r="D166" t="n">
         <v>30624.51631</v>
       </c>
       <c r="E166" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="167">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>34.95825183890216</v>
+        <v>29.83975000183704</v>
       </c>
       <c r="C167" t="n">
-        <v>179032.5999999949</v>
+        <v>182442.748091605</v>
       </c>
       <c r="D167" t="n">
         <v>30172.42296</v>
       </c>
       <c r="E167" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="168">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>35.11951002768176</v>
+        <v>29.97739716054242</v>
       </c>
       <c r="C168" t="n">
-        <v>174057.0399999949</v>
+        <v>177487.8556557965</v>
       </c>
       <c r="D168" t="n">
         <v>30249.62662</v>
       </c>
       <c r="E168" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="169">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>35.2816686231203</v>
+        <v>30.11581289056329</v>
       </c>
       <c r="C169" t="n">
-        <v>169081.4799999949</v>
+        <v>172532.9632199881</v>
       </c>
       <c r="D169" t="n">
         <v>30081.66164</v>
       </c>
       <c r="E169" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="170">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>35.44827657710528</v>
+        <v>30.25802651492127</v>
       </c>
       <c r="C170" t="n">
-        <v>164105.9199999949</v>
+        <v>167578.0707841796</v>
       </c>
       <c r="D170" t="n">
         <v>29278.31405</v>
       </c>
       <c r="E170" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="171">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>35.61626038623481</v>
+        <v>30.40141454507453</v>
       </c>
       <c r="C171" t="n">
-        <v>159130.3599999949</v>
+        <v>162623.1783483711</v>
       </c>
       <c r="D171" t="n">
         <v>29038.51285</v>
       </c>
       <c r="E171" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="172">
@@ -3697,16 +3697,16 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>35.78284018336995</v>
+        <v>30.54360413523984</v>
       </c>
       <c r="C172" t="n">
-        <v>154154.7999999949</v>
+        <v>157668.2859125627</v>
       </c>
       <c r="D172" t="n">
         <v>29283.26294</v>
       </c>
       <c r="E172" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="173">
@@ -3716,16 +3716,16 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>35.96910379101617</v>
+        <v>30.70259548046547</v>
       </c>
       <c r="C173" t="n">
-        <v>149179.2399999949</v>
+        <v>152713.3934767542</v>
       </c>
       <c r="D173" t="n">
         <v>26188.69065</v>
       </c>
       <c r="E173" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="174">
@@ -3735,16 +3735,16 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>36.15607473769199</v>
+        <v>30.8621905978679</v>
       </c>
       <c r="C174" t="n">
-        <v>144203.6799999949</v>
+        <v>147758.5010409458</v>
       </c>
       <c r="D174" t="n">
         <v>26089.61492</v>
       </c>
       <c r="E174" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="175">
@@ -3754,16 +3754,16 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>36.34392008742515</v>
+        <v>31.02253209036803</v>
       </c>
       <c r="C175" t="n">
-        <v>139228.1199999949</v>
+        <v>142803.6086051373</v>
       </c>
       <c r="D175" t="n">
         <v>25968.17013</v>
       </c>
       <c r="E175" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="176">
@@ -3773,16 +3773,16 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>36.5327577199858</v>
+        <v>31.18372057806803</v>
       </c>
       <c r="C176" t="n">
-        <v>134252.5599999949</v>
+        <v>137848.7161693288</v>
       </c>
       <c r="D176" t="n">
         <v>25831.7155</v>
       </c>
       <c r="E176" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="177">
@@ -3792,16 +3792,16 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>36.71660428682108</v>
+        <v>31.34064877969384</v>
       </c>
       <c r="C177" t="n">
-        <v>129276.9999999949</v>
+        <v>132893.8237335204</v>
       </c>
       <c r="D177" t="n">
         <v>26532.99479</v>
       </c>
       <c r="E177" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="178">
@@ -3811,16 +3811,16 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>36.90240613605074</v>
+        <v>31.49924597604226</v>
       </c>
       <c r="C178" t="n">
-        <v>124301.4399999949</v>
+        <v>127938.9312977119</v>
       </c>
       <c r="D178" t="n">
         <v>26253.7753</v>
       </c>
       <c r="E178" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="179">
@@ -3830,16 +3830,16 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>37.07676489574467</v>
+        <v>31.64807555207121</v>
       </c>
       <c r="C179" t="n">
-        <v>119325.8799999949</v>
+        <v>122984.0388619034</v>
       </c>
       <c r="D179" t="n">
         <v>27976.79915</v>
       </c>
       <c r="E179" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="180">
@@ -3849,16 +3849,16 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>37.2513878480618</v>
+        <v>31.79713063828486</v>
       </c>
       <c r="C180" t="n">
-        <v>114350.3199999949</v>
+        <v>118029.146426095</v>
       </c>
       <c r="D180" t="n">
         <v>27934.47216</v>
       </c>
       <c r="E180" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="181">
@@ -3868,16 +3868,16 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>37.43097282631558</v>
+        <v>31.95042122271892</v>
       </c>
       <c r="C181" t="n">
-        <v>109374.7599999949</v>
+        <v>113074.2539902865</v>
       </c>
       <c r="D181" t="n">
         <v>27162.62823</v>
       </c>
       <c r="E181" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="182">
@@ -3887,16 +3887,16 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>37.59281387348016</v>
+        <v>32.08856589910838</v>
       </c>
       <c r="C182" t="n">
-        <v>104399.1999999949</v>
+        <v>108119.361554478</v>
       </c>
       <c r="D182" t="n">
         <v>30140.68486</v>
       </c>
       <c r="E182" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="183">
@@ -3906,16 +3906,16 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>37.73407521178724</v>
+        <v>32.20914409733846</v>
       </c>
       <c r="C183" t="n">
-        <v>99423.63999999489</v>
+        <v>103164.4691186696</v>
       </c>
       <c r="D183" t="n">
         <v>34531.74137</v>
       </c>
       <c r="E183" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="184">
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>37.87326851302075</v>
+        <v>32.32795705543142</v>
       </c>
       <c r="C184" t="n">
-        <v>94448.07999999489</v>
+        <v>98209.57668286112</v>
       </c>
       <c r="D184" t="n">
         <v>35044.78992</v>
       </c>
       <c r="E184" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="185">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>38.00485631316209</v>
+        <v>32.44027809132314</v>
       </c>
       <c r="C185" t="n">
-        <v>89472.5199999949</v>
+        <v>93254.68424705266</v>
       </c>
       <c r="D185" t="n">
         <v>37070.30587</v>
       </c>
       <c r="E185" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="186">
@@ -3963,16 +3963,16 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>38.13537459466514</v>
+        <v>32.55168620488293</v>
       </c>
       <c r="C186" t="n">
-        <v>84496.9599999949</v>
+        <v>88299.7918112442</v>
       </c>
       <c r="D186" t="n">
         <v>37374.07468</v>
       </c>
       <c r="E186" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="187">
@@ -3982,16 +3982,16 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>38.26561368793431</v>
+        <v>32.66285600826805</v>
       </c>
       <c r="C187" t="n">
-        <v>79521.3999999949</v>
+        <v>83344.89937543574</v>
       </c>
       <c r="D187" t="n">
         <v>37454.19196</v>
       </c>
       <c r="E187" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="188">
@@ -4001,16 +4001,16 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>38.38762887866798</v>
+        <v>32.76700603283728</v>
       </c>
       <c r="C188" t="n">
-        <v>74545.8399999949</v>
+        <v>78390.00693962727</v>
       </c>
       <c r="D188" t="n">
         <v>39978.62865</v>
       </c>
       <c r="E188" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="189">
@@ -4020,16 +4020,16 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>38.49901904149615</v>
+        <v>32.86208672013177</v>
       </c>
       <c r="C189" t="n">
-        <v>69570.27999999491</v>
+        <v>73435.11450381881</v>
       </c>
       <c r="D189" t="n">
         <v>43792.01786</v>
       </c>
       <c r="E189" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="190">
@@ -4039,16 +4039,16 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>38.61699273209054</v>
+        <v>32.96278699113941</v>
       </c>
       <c r="C190" t="n">
-        <v>64594.71999999491</v>
+        <v>68480.22206801035</v>
       </c>
       <c r="D190" t="n">
         <v>41348.20209</v>
       </c>
       <c r="E190" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="191">
@@ -4058,16 +4058,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>38.73040670611672</v>
+        <v>33.05959516814013</v>
       </c>
       <c r="C191" t="n">
-        <v>59619.15999999491</v>
+        <v>63525.32963220188</v>
       </c>
       <c r="D191" t="n">
         <v>43010.57292</v>
       </c>
       <c r="E191" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="192">
@@ -4077,16 +4077,16 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>38.84577976323657</v>
+        <v>33.15807558407365</v>
       </c>
       <c r="C192" t="n">
-        <v>54643.59999999491</v>
+        <v>58570.43719639341</v>
       </c>
       <c r="D192" t="n">
         <v>42280.23528</v>
       </c>
       <c r="E192" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="193">
@@ -4096,16 +4096,16 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>38.95677278982185</v>
+        <v>33.25281728284379</v>
       </c>
       <c r="C193" t="n">
-        <v>49668.03999999491</v>
+        <v>53615.54476058494</v>
       </c>
       <c r="D193" t="n">
         <v>43948.70696</v>
       </c>
       <c r="E193" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="194">
@@ -4115,16 +4115,16 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>39.07370895715344</v>
+        <v>33.35263194221027</v>
       </c>
       <c r="C194" t="n">
-        <v>44692.47999999492</v>
+        <v>48660.65232477647</v>
       </c>
       <c r="D194" t="n">
         <v>41715.06653</v>
       </c>
       <c r="E194" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="195">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>39.1910993593015</v>
+        <v>33.45283432844101</v>
       </c>
       <c r="C195" t="n">
-        <v>39716.91999999492</v>
+        <v>43705.759888968</v>
       </c>
       <c r="D195" t="n">
         <v>41553.65269</v>
       </c>
       <c r="E195" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="196">
@@ -4153,16 +4153,16 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>39.30715678883636</v>
+        <v>33.55189891265234</v>
       </c>
       <c r="C196" t="n">
-        <v>34741.35999999492</v>
+        <v>38750.86745315953</v>
       </c>
       <c r="D196" t="n">
         <v>42030.91538</v>
       </c>
       <c r="E196" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="197">
@@ -4172,16 +4172,16 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>39.42172401120787</v>
+        <v>33.64969148219286</v>
       </c>
       <c r="C197" t="n">
-        <v>29765.79999999492</v>
+        <v>33795.97501735106</v>
       </c>
       <c r="D197" t="n">
         <v>42577.62298</v>
       </c>
       <c r="E197" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="198">
@@ -4191,16 +4191,16 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>39.52272535902717</v>
+        <v>33.73590445939392</v>
       </c>
       <c r="C198" t="n">
-        <v>24790.23999999492</v>
+        <v>28841.0825815426</v>
       </c>
       <c r="D198" t="n">
         <v>48296.3852</v>
       </c>
       <c r="E198" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="199">
@@ -4210,16 +4210,16 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>39.61629047978278</v>
+        <v>33.81577000373251</v>
       </c>
       <c r="C199" t="n">
-        <v>19814.67999999492</v>
+        <v>23886.19014573413</v>
       </c>
       <c r="D199" t="n">
         <v>52134.81221</v>
       </c>
       <c r="E199" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="200">
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>39.71058680879467</v>
+        <v>33.89625969460069</v>
       </c>
       <c r="C200" t="n">
-        <v>14839.11999999492</v>
+        <v>18931.29770992566</v>
       </c>
       <c r="D200" t="n">
         <v>51730.53979</v>
       </c>
       <c r="E200" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="201">
@@ -4248,16 +4248,16 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>39.78784736343648</v>
+        <v>33.96220794756653</v>
       </c>
       <c r="C201" t="n">
-        <v>9863.559999994919</v>
+        <v>13976.4052741172</v>
       </c>
       <c r="D201" t="n">
         <v>63137.00468</v>
       </c>
       <c r="E201" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="202">
@@ -4267,16 +4267,16 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>39.85852196710532</v>
+        <v>34.02253454841246</v>
       </c>
       <c r="C202" t="n">
-        <v>4887.999999994919</v>
+        <v>9021.512838308732</v>
       </c>
       <c r="D202" t="n">
         <v>69020.54977</v>
       </c>
       <c r="E202" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="203">
@@ -4286,16 +4286,16 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>39.92986768500201</v>
+        <v>34.08343400058043</v>
       </c>
       <c r="C203" t="n">
-        <v>-87.56000000508135</v>
+        <v>4066.620402500266</v>
       </c>
       <c r="D203" t="n">
         <v>68371.30726</v>
       </c>
       <c r="E203" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="204">
@@ -4305,16 +4305,16 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>40.00242015726797</v>
+        <v>34.14536351709081</v>
       </c>
       <c r="C204" t="n">
-        <v>-5063.120000005082</v>
+        <v>-888.2720333082008</v>
       </c>
       <c r="D204" t="n">
         <v>67234.09758</v>
       </c>
       <c r="E204" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="205">
@@ -4324,16 +4324,16 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>40.07080318971265</v>
+        <v>34.2037340729733</v>
       </c>
       <c r="C205" t="n">
-        <v>-10038.68000000508</v>
+        <v>-5843.164469116668</v>
       </c>
       <c r="D205" t="n">
         <v>71333.48471999999</v>
       </c>
       <c r="E205" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="206">
@@ -4343,16 +4343,16 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>40.14112931986062</v>
+        <v>34.26376322294004</v>
       </c>
       <c r="C206" t="n">
-        <v>-15014.24000000508</v>
+        <v>-10798.05690492513</v>
       </c>
       <c r="D206" t="n">
         <v>69362.554</v>
       </c>
       <c r="E206" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
     <row r="207">
@@ -4362,16 +4362,16 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>40.21533112052646</v>
+        <v>34.32710057721502</v>
       </c>
       <c r="C207" t="n">
-        <v>-19989.80000000508</v>
+        <v>-15752.9493407336</v>
       </c>
       <c r="D207" t="n">
         <v>65739.64453999999</v>
       </c>
       <c r="E207" t="n">
-        <v>97.56</v>
+        <v>97.15475364330327</v>
       </c>
     </row>
   </sheetData>
@@ -4385,7 +4385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E207"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4416,7 +4416,22 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>percent_changes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transaction_fee</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>bitcoin_change</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cash_change</t>
         </is>
       </c>
     </row>
@@ -4436,6 +4451,15 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4453,7 +4477,16 @@
         <v>9675.69498</v>
       </c>
       <c r="E3" t="n">
+        <v>0.105094029608682</v>
+      </c>
+      <c r="F3" t="n">
         <v>2101.880592173639</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-10.86165178066433</v>
+      </c>
+      <c r="H3" t="n">
+        <v>105094.029608682</v>
       </c>
     </row>
     <row r="4">
@@ -4472,7 +4505,16 @@
         <v>8786.107695000001</v>
       </c>
       <c r="E4" t="n">
+        <v>-0.0919404018872864</v>
+      </c>
+      <c r="F4" t="n">
         <v>2028.19082918199</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-11.54203260185504</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-101409.5414590995</v>
       </c>
     </row>
     <row r="5">
@@ -4491,7 +4533,16 @@
         <v>9463.605662</v>
       </c>
       <c r="E5" t="n">
+        <v>0.07711013687955931</v>
+      </c>
+      <c r="F5" t="n">
         <v>1541.515557849633</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-8.144440992714902</v>
+      </c>
+      <c r="H5" t="n">
+        <v>77075.77789248164</v>
       </c>
     </row>
     <row r="6">
@@ -4510,7 +4561,16 @@
         <v>9760.063252</v>
       </c>
       <c r="E6" t="n">
+        <v>0.03132607175195293</v>
+      </c>
+      <c r="F6" t="n">
         <v>673.5661020007082</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-3.450623651761085</v>
+      </c>
+      <c r="H6" t="n">
+        <v>33678.30510003541</v>
       </c>
     </row>
     <row r="7">
@@ -4529,7 +4589,16 @@
         <v>9386.035291</v>
       </c>
       <c r="E7" t="n">
+        <v>-0.03832228863100402</v>
+      </c>
+      <c r="F7" t="n">
         <v>849.2935159409076</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-4.524239945886793</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-42464.67579704538</v>
       </c>
     </row>
     <row r="8">
@@ -4548,7 +4617,16 @@
         <v>9300.915457999999</v>
       </c>
       <c r="E8" t="n">
+        <v>-0.00906877402023191</v>
+      </c>
+      <c r="F8" t="n">
         <v>193.1248840416375</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1.038203631210974</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-9656.244202081876</v>
       </c>
     </row>
     <row r="9">
@@ -4567,7 +4645,16 @@
         <v>9140.029071000001</v>
       </c>
       <c r="E9" t="n">
+        <v>-0.01729790876247729</v>
+      </c>
+      <c r="F9" t="n">
         <v>364.9616853756487</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1.996501775544783</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-18248.08426878243</v>
       </c>
     </row>
     <row r="10">
@@ -4586,7 +4673,16 @@
         <v>9072.850074</v>
       </c>
       <c r="E10" t="n">
+        <v>-0.007349976294183811</v>
+      </c>
+      <c r="F10" t="n">
         <v>152.3381126201987</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.8395273336255876</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-7616.905631009935</v>
       </c>
     </row>
     <row r="11">
@@ -4605,7 +4701,16 @@
         <v>9277.204659999999</v>
       </c>
       <c r="E11" t="n">
+        <v>0.0225237477014656</v>
+      </c>
+      <c r="F11" t="n">
         <v>463.3350184009813</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-2.497169327301341</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23166.75092004906</v>
       </c>
     </row>
     <row r="12">
@@ -4624,7 +4729,16 @@
         <v>9187.220369999999</v>
       </c>
       <c r="E12" t="n">
+        <v>-0.009699504678168902</v>
+      </c>
+      <c r="F12" t="n">
         <v>203.9323197844902</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1.109869533827728</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-10196.61598922451</v>
       </c>
     </row>
     <row r="13">
@@ -4643,7 +4757,16 @@
         <v>9905.217914000001</v>
       </c>
       <c r="E13" t="n">
+        <v>0.07815177116514532</v>
+      </c>
+      <c r="F13" t="n">
         <v>1626.886448129143</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-8.212269847338275</v>
+      </c>
+      <c r="H13" t="n">
+        <v>81344.32240645714</v>
       </c>
     </row>
     <row r="14">
@@ -4662,7 +4785,16 @@
         <v>11043.76888</v>
       </c>
       <c r="E14" t="n">
+        <v>0.1149445651660803</v>
+      </c>
+      <c r="F14" t="n">
         <v>2576.06424496122</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-11.66297607706374</v>
+      </c>
+      <c r="H14" t="n">
+        <v>128803.212248061</v>
       </c>
     </row>
     <row r="15">
@@ -4681,7 +4813,16 @@
         <v>11662.25693</v>
       </c>
       <c r="E15" t="n">
+        <v>0.05600334964633921</v>
+      </c>
+      <c r="F15" t="n">
         <v>1396.49419696256</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-5.987238170727558</v>
+      </c>
+      <c r="H15" t="n">
+        <v>69824.70984812798</v>
       </c>
     </row>
     <row r="16">
@@ -4700,7 +4841,16 @@
         <v>11895.65777</v>
       </c>
       <c r="E16" t="n">
+        <v>0.02001335088061726</v>
+      </c>
+      <c r="F16" t="n">
         <v>526.4405706949249</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-2.212742585881087</v>
+      </c>
+      <c r="H16" t="n">
+        <v>26322.02853474624</v>
       </c>
     </row>
     <row r="17">
@@ -4719,7 +4869,16 @@
         <v>11663.68955</v>
       </c>
       <c r="E17" t="n">
+        <v>-0.01950024323875624</v>
+      </c>
+      <c r="F17" t="n">
         <v>523.0039513580716</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-2.242017627081268</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-26150.19756790358</v>
       </c>
     </row>
     <row r="18">
@@ -4738,7 +4897,16 @@
         <v>11713.30627</v>
       </c>
       <c r="E18" t="n">
+        <v>0.004253947242620152</v>
+      </c>
+      <c r="F18" t="n">
         <v>111.8231575458221</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.477333875543844</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5591.157877291107</v>
       </c>
     </row>
     <row r="19">
@@ -4757,7 +4925,16 @@
         <v>10280.99762</v>
       </c>
       <c r="E19" t="n">
+        <v>-0.1222804746144488</v>
+      </c>
+      <c r="F19" t="n">
         <v>3227.776984295041</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-15.69778101113421</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-161388.849214752</v>
       </c>
     </row>
     <row r="20">
@@ -4776,7 +4953,16 @@
         <v>10328.73411</v>
       </c>
       <c r="E20" t="n">
+        <v>0.004643176835984845</v>
+      </c>
+      <c r="F20" t="n">
         <v>107.2767518000701</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.5193121957520798</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5363.837590003503</v>
       </c>
     </row>
     <row r="21">
@@ -4795,7 +4981,16 @@
         <v>10934.92553</v>
       </c>
       <c r="E21" t="n">
+        <v>0.05868980782583056</v>
+      </c>
+      <c r="F21" t="n">
         <v>1362.149489379227</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-6.228435144081073</v>
+      </c>
+      <c r="H21" t="n">
+        <v>68107.47446896136</v>
       </c>
     </row>
     <row r="22">
@@ -4814,7 +5009,16 @@
         <v>10776.61364</v>
       </c>
       <c r="E22" t="n">
+        <v>-0.01447763769087148</v>
+      </c>
+      <c r="F22" t="n">
         <v>355.3421618226407</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1.648672642877826</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-17767.10809113203</v>
       </c>
     </row>
     <row r="23">
@@ -4833,7 +5037,16 @@
         <v>10676.52896</v>
       </c>
       <c r="E23" t="n">
+        <v>-0.009287210560144006</v>
+      </c>
+      <c r="F23" t="n">
         <v>224.5810945501299</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1.051751441838125</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-11229.05472750649</v>
       </c>
     </row>
     <row r="24">
@@ -4852,7 +5065,16 @@
         <v>11392.63622</v>
       </c>
       <c r="E24" t="n">
+        <v>0.06707304056242645</v>
+      </c>
+      <c r="F24" t="n">
         <v>1606.579549248684</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-7.050956065938019</v>
+      </c>
+      <c r="H24" t="n">
+        <v>80328.97746243418</v>
       </c>
     </row>
     <row r="25">
@@ -4871,7 +5093,16 @@
         <v>11495.03794</v>
       </c>
       <c r="E25" t="n">
+        <v>0.008988413043526447</v>
+      </c>
+      <c r="F25" t="n">
         <v>229.4484331602305</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.9980325178475683</v>
+      </c>
+      <c r="H25" t="n">
+        <v>11472.42165801152</v>
       </c>
     </row>
     <row r="26">
@@ -4890,7 +5121,16 @@
         <v>13031.20125</v>
       </c>
       <c r="E26" t="n">
+        <v>0.1336370804531681</v>
+      </c>
+      <c r="F26" t="n">
         <v>3441.421355522057</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-13.20454380797034</v>
+      </c>
+      <c r="H26" t="n">
+        <v>172071.0677761029</v>
       </c>
     </row>
     <row r="27">
@@ -4909,7 +5149,16 @@
         <v>13737.03221</v>
       </c>
       <c r="E27" t="n">
+        <v>0.05416468876957903</v>
+      </c>
+      <c r="F27" t="n">
         <v>1577.524211452541</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-5.741866901586531</v>
+      </c>
+      <c r="H27" t="n">
+        <v>78876.21057262707</v>
       </c>
     </row>
     <row r="28">
@@ -4928,7 +5177,16 @@
         <v>15479.59572</v>
       </c>
       <c r="E28" t="n">
+        <v>0.1268515268335387</v>
+      </c>
+      <c r="F28" t="n">
         <v>3890.607506399066</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-12.5668899135793</v>
+      </c>
+      <c r="H28" t="n">
+        <v>194530.3753199533</v>
       </c>
     </row>
     <row r="29">
@@ -4947,7 +5205,16 @@
         <v>15955.57698</v>
       </c>
       <c r="E29" t="n">
+        <v>0.03074894645891957</v>
+      </c>
+      <c r="F29" t="n">
         <v>1060.326881888029</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-3.322746909175169</v>
+      </c>
+      <c r="H29" t="n">
+        <v>53016.34409440147</v>
       </c>
     </row>
     <row r="30">
@@ -4966,7 +5233,16 @@
         <v>18370.01734</v>
       </c>
       <c r="E30" t="n">
+        <v>0.1513226605986391</v>
+      </c>
+      <c r="F30" t="n">
         <v>5375.35570292126</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-14.63078559870663</v>
+      </c>
+      <c r="H30" t="n">
+        <v>268767.785146063</v>
       </c>
     </row>
     <row r="31">
@@ -4985,7 +5261,16 @@
         <v>18178.32212</v>
       </c>
       <c r="E31" t="n">
+        <v>-0.01043522259407937</v>
+      </c>
+      <c r="F31" t="n">
         <v>425.6561252895475</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-1.170779466002629</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-21282.80626447737</v>
       </c>
     </row>
     <row r="32">
@@ -5004,7 +5289,16 @@
         <v>19343.1288</v>
       </c>
       <c r="E32" t="n">
+        <v>0.06407668828348377</v>
+      </c>
+      <c r="F32" t="n">
         <v>2585.888838425931</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-6.684256888228783</v>
+      </c>
+      <c r="H32" t="n">
+        <v>129294.4419212966</v>
       </c>
     </row>
     <row r="33">
@@ -5023,7 +5317,16 @@
         <v>19144.49246</v>
       </c>
       <c r="E33" t="n">
+        <v>-0.01026909048964185</v>
+      </c>
+      <c r="F33" t="n">
         <v>440.4446513442304</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-1.150316865971986</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-22022.23256721152</v>
       </c>
     </row>
     <row r="34">
@@ -5042,7 +5345,16 @@
         <v>23474.45541</v>
       </c>
       <c r="E34" t="n">
+        <v>0.2261727731381183</v>
+      </c>
+      <c r="F34" t="n">
         <v>9599.015327993407</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-20.44566138029399</v>
+      </c>
+      <c r="H34" t="n">
+        <v>479950.7663996704</v>
       </c>
     </row>
     <row r="35">
@@ -5061,7 +5373,16 @@
         <v>26280.82142</v>
       </c>
       <c r="E35" t="n">
+        <v>0.1195497812828707</v>
+      </c>
+      <c r="F35" t="n">
         <v>6198.430054567712</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-11.79268706162022</v>
+      </c>
+      <c r="H35" t="n">
+        <v>309921.5027283856</v>
       </c>
     </row>
     <row r="36">
@@ -5080,7 +5401,16 @@
         <v>32810.94764</v>
       </c>
       <c r="E36" t="n">
+        <v>0.2484749664266772</v>
+      </c>
+      <c r="F36" t="n">
         <v>14392.30867330119</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-21.93217463758262</v>
+      </c>
+      <c r="H36" t="n">
+        <v>719615.4336650593</v>
       </c>
     </row>
     <row r="37">
@@ -5099,7 +5429,16 @@
         <v>38346.5295</v>
       </c>
       <c r="E37" t="n">
+        <v>0.1687114289028197</v>
+      </c>
+      <c r="F37" t="n">
         <v>12151.7835979383</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-15.84469801620287</v>
+      </c>
+      <c r="H37" t="n">
+        <v>607589.179896915</v>
       </c>
     </row>
     <row r="38">
@@ -5118,7 +5457,16 @@
         <v>35792.23667</v>
       </c>
       <c r="E38" t="n">
+        <v>-0.066610795378497</v>
+      </c>
+      <c r="F38" t="n">
         <v>5591.029104852076</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-7.810393572774836</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-279551.4552426038</v>
       </c>
     </row>
     <row r="39">
@@ -5137,7 +5485,16 @@
         <v>32285.79891</v>
       </c>
       <c r="E39" t="n">
+        <v>-0.09796643312148721</v>
+      </c>
+      <c r="F39" t="n">
         <v>7664.201191795597</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-11.86930701817283</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-383210.0595897798</v>
       </c>
     </row>
     <row r="40">
@@ -5156,7 +5513,16 @@
         <v>33114.57724</v>
       </c>
       <c r="E40" t="n">
+        <v>0.02567005798153865</v>
+      </c>
+      <c r="F40" t="n">
         <v>1807.56857322089</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-2.729264154756411</v>
+      </c>
+      <c r="H40" t="n">
+        <v>90378.42866104448</v>
       </c>
     </row>
     <row r="41">
@@ -5175,7 +5541,16 @@
         <v>38886.82729</v>
       </c>
       <c r="E41" t="n">
+        <v>0.1743114522696531</v>
+      </c>
+      <c r="F41" t="n">
         <v>12582.99690248296</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-16.17899656436971</v>
+      </c>
+      <c r="H41" t="n">
+        <v>629149.8451241482</v>
       </c>
     </row>
     <row r="42">
@@ -5194,7 +5569,16 @@
         <v>48696.53666</v>
       </c>
       <c r="E42" t="n">
+        <v>0.2522630426196438</v>
+      </c>
+      <c r="F42" t="n">
         <v>21320.81824816021</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-21.89151396640638</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1066040.91240801</v>
       </c>
     </row>
     <row r="43">
@@ -5213,7 +5597,16 @@
         <v>57532.73886</v>
       </c>
       <c r="E43" t="n">
+        <v>0.1814544278927782</v>
+      </c>
+      <c r="F43" t="n">
         <v>19127.58333821858</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-16.62321637838552</v>
+      </c>
+      <c r="H43" t="n">
+        <v>956379.1669109289</v>
       </c>
     </row>
     <row r="44">
@@ -5232,7 +5625,16 @@
         <v>45159.50305</v>
       </c>
       <c r="E44" t="n">
+        <v>-0.2150642582844699</v>
+      </c>
+      <c r="F44" t="n">
         <v>26701.86933619396</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-29.56395391090775</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-1335093.466809698</v>
       </c>
     </row>
     <row r="45">
@@ -5251,7 +5653,16 @@
         <v>51174.11695</v>
       </c>
       <c r="E45" t="n">
+        <v>0.1331860072361891</v>
+      </c>
+      <c r="F45" t="n">
         <v>12908.61778973281</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-12.61244800994345</v>
+      </c>
+      <c r="H45" t="n">
+        <v>645430.8894866407</v>
       </c>
     </row>
     <row r="46">
@@ -5270,7 +5681,16 @@
         <v>59267.42905</v>
       </c>
       <c r="E46" t="n">
+        <v>0.1581524524967889</v>
+      </c>
+      <c r="F46" t="n">
         <v>17329.10774377848</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-14.61941914939406</v>
+      </c>
+      <c r="H46" t="n">
+        <v>866455.3871889238</v>
       </c>
     </row>
     <row r="47">
@@ -5289,7 +5709,16 @@
         <v>57517.89149</v>
       </c>
       <c r="E47" t="n">
+        <v>-0.02951937662968353</v>
+      </c>
+      <c r="F47" t="n">
         <v>3735.815785476927</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-3.247524977620599</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-186790.7892738463</v>
       </c>
     </row>
     <row r="48">
@@ -5308,7 +5737,16 @@
         <v>55947.89897</v>
       </c>
       <c r="E48" t="n">
+        <v>-0.02729572450118338</v>
+      </c>
+      <c r="F48" t="n">
         <v>3350.390928141671</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-2.994206207759647</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-167519.5464070835</v>
       </c>
     </row>
     <row r="49">
@@ -5327,7 +5765,16 @@
         <v>58760.87326</v>
       </c>
       <c r="E49" t="n">
+        <v>0.05027846160064656</v>
+      </c>
+      <c r="F49" t="n">
         <v>5999.566264787768</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-5.105069012709706</v>
+      </c>
+      <c r="H49" t="n">
+        <v>299978.3132393884</v>
       </c>
     </row>
     <row r="50">
@@ -5346,7 +5793,16 @@
         <v>60175.94476</v>
       </c>
       <c r="E50" t="n">
+        <v>0.02408186641030185</v>
+      </c>
+      <c r="F50" t="n">
         <v>3015.202396596911</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-2.505322025788258</v>
+      </c>
+      <c r="H50" t="n">
+        <v>150760.1198298455</v>
       </c>
     </row>
     <row r="51">
@@ -5365,7 +5821,16 @@
         <v>56191.58411</v>
       </c>
       <c r="E51" t="n">
+        <v>-0.06621185036464054</v>
+      </c>
+      <c r="F51" t="n">
         <v>8485.792854298836</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-7.550768490248598</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-424289.6427149418</v>
       </c>
     </row>
     <row r="52">
@@ -5384,7 +5849,16 @@
         <v>49077.79236</v>
       </c>
       <c r="E52" t="n">
+        <v>-0.1265988824247084</v>
+      </c>
+      <c r="F52" t="n">
         <v>15129.2920414498</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-15.41358251250587</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-756464.6020724899</v>
       </c>
     </row>
     <row r="53">
@@ -5403,7 +5877,16 @@
         <v>56620.27262</v>
       </c>
       <c r="E53" t="n">
+        <v>0.1536841796932042</v>
+      </c>
+      <c r="F53" t="n">
         <v>15994.5048088565</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-14.12436223700445</v>
+      </c>
+      <c r="H53" t="n">
+        <v>799725.2404428248</v>
       </c>
     </row>
     <row r="54">
@@ -5422,7 +5905,16 @@
         <v>58250.87253</v>
       </c>
       <c r="E54" t="n">
+        <v>0.02879887069678325</v>
+      </c>
+      <c r="F54" t="n">
         <v>3448.62065335631</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-2.960145061844544</v>
+      </c>
+      <c r="H54" t="n">
+        <v>172431.0326678155</v>
       </c>
     </row>
     <row r="55">
@@ -5441,7 +5933,16 @@
         <v>46415.89925</v>
       </c>
       <c r="E55" t="n">
+        <v>-0.2031724636211213</v>
+      </c>
+      <c r="F55" t="n">
         <v>25016.24276897215</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-26.94792428154039</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-1250812.138448608</v>
       </c>
     </row>
     <row r="56">
@@ -5460,7 +5961,16 @@
         <v>34700.36357</v>
       </c>
       <c r="E56" t="n">
+        <v>-0.2524035054647789</v>
+      </c>
+      <c r="F56" t="n">
         <v>24637.49710836912</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-35.50034433885488</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-1231874.855418456</v>
       </c>
     </row>
     <row r="57">
@@ -5479,7 +5989,16 @@
         <v>35658.59296</v>
       </c>
       <c r="E57" t="n">
+        <v>0.02761439049671607</v>
+      </c>
+      <c r="F57" t="n">
         <v>2001.526972123959</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-2.806514231182888</v>
+      </c>
+      <c r="H57" t="n">
+        <v>100076.348606198</v>
       </c>
     </row>
     <row r="58">
@@ -5498,7 +6017,16 @@
         <v>35835.26551</v>
       </c>
       <c r="E58" t="n">
+        <v>0.004954557522731701</v>
+      </c>
+      <c r="F58" t="n">
         <v>368.8311260881525</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-0.5146203339629623</v>
+      </c>
+      <c r="H58" t="n">
+        <v>18441.55630440762</v>
       </c>
     </row>
     <row r="59">
@@ -5517,7 +6045,16 @@
         <v>39016.97018</v>
       </c>
       <c r="E59" t="n">
+        <v>0.08878697073172598</v>
+      </c>
+      <c r="F59" t="n">
         <v>6641.6429999366</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-8.511223410347082</v>
+      </c>
+      <c r="H59" t="n">
+        <v>332082.14999683</v>
       </c>
     </row>
     <row r="60">
@@ -5536,7 +6073,16 @@
         <v>35641.14606</v>
       </c>
       <c r="E60" t="n">
+        <v>-0.08652194428286071</v>
+      </c>
+      <c r="F60" t="n">
         <v>7035.364297235115</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-9.869722322328593</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-351768.2148617558</v>
       </c>
     </row>
     <row r="61">
@@ -5555,7 +6101,16 @@
         <v>34679.12222</v>
       </c>
       <c r="E61" t="n">
+        <v>-0.02699194460190716</v>
+      </c>
+      <c r="F61" t="n">
         <v>2001.101562429859</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-2.885167550861181</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-100055.078121493</v>
       </c>
     </row>
     <row r="62">
@@ -5574,7 +6129,16 @@
         <v>35284.34443</v>
       </c>
       <c r="E62" t="n">
+        <v>0.01745206254531318</v>
+      </c>
+      <c r="F62" t="n">
         <v>1258.221592668611</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.782974309136981</v>
+      </c>
+      <c r="H62" t="n">
+        <v>62911.07963343053</v>
       </c>
     </row>
     <row r="63">
@@ -5593,7 +6157,16 @@
         <v>34254.01659</v>
       </c>
       <c r="E63" t="n">
+        <v>-0.0292007080376411</v>
+      </c>
+      <c r="F63" t="n">
         <v>2141.256526092787</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-3.125555393579592</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-107062.8263046393</v>
       </c>
     </row>
     <row r="64">
@@ -5612,7 +6185,16 @@
         <v>31800.01264</v>
       </c>
       <c r="E64" t="n">
+        <v>-0.07164134879050686</v>
+      </c>
+      <c r="F64" t="n">
         <v>5096.912527908921</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-8.014010223218769</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-254845.626395446</v>
       </c>
     </row>
     <row r="65">
@@ -5631,7 +6213,16 @@
         <v>35384.02988</v>
       </c>
       <c r="E65" t="n">
+        <v>0.1127048998556625</v>
+      </c>
+      <c r="F65" t="n">
         <v>7432.43647422387</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-10.50252967147883</v>
+      </c>
+      <c r="H65" t="n">
+        <v>371621.8237111935</v>
       </c>
     </row>
     <row r="66">
@@ -5650,7 +6241,16 @@
         <v>39907.26285</v>
       </c>
       <c r="E66" t="n">
+        <v>0.1278326122078212</v>
+      </c>
+      <c r="F66" t="n">
         <v>9361.154092863706</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-11.72863461978038</v>
+      </c>
+      <c r="H66" t="n">
+        <v>468057.7046431853</v>
       </c>
     </row>
     <row r="67">
@@ -5669,7 +6269,16 @@
         <v>43791.92742</v>
       </c>
       <c r="E67" t="n">
+        <v>0.09734229542630737</v>
+      </c>
+      <c r="F67" t="n">
         <v>8021.366399778447</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-9.158498920185741</v>
+      </c>
+      <c r="H67" t="n">
+        <v>401068.3199889223</v>
       </c>
     </row>
     <row r="68">
@@ -5688,7 +6297,16 @@
         <v>47019.96132</v>
       </c>
       <c r="E68" t="n">
+        <v>0.07371298981751925</v>
+      </c>
+      <c r="F68" t="n">
         <v>6653.677246308267</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-7.075375074243326</v>
+      </c>
+      <c r="H68" t="n">
+        <v>332683.8623154134</v>
       </c>
     </row>
     <row r="69">
@@ -5707,7 +6325,16 @@
         <v>49291.67737</v>
       </c>
       <c r="E69" t="n">
+        <v>0.04831386471246879</v>
+      </c>
+      <c r="F69" t="n">
         <v>4676.069666583672</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-4.743264904015654</v>
+      </c>
+      <c r="H69" t="n">
+        <v>233803.4833291836</v>
       </c>
     </row>
     <row r="70">
@@ -5726,7 +6353,16 @@
         <v>48834.85268</v>
       </c>
       <c r="E70" t="n">
+        <v>-0.00926778544318777</v>
+      </c>
+      <c r="F70" t="n">
         <v>939.4550420600378</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.9618694339225329</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-46972.75210300189</v>
       </c>
     </row>
     <row r="71">
@@ -5745,7 +6381,16 @@
         <v>51769.00432</v>
       </c>
       <c r="E71" t="n">
+        <v>0.06008314715776053</v>
+      </c>
+      <c r="F71" t="n">
         <v>6032.922255532292</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-5.826770607988673</v>
+      </c>
+      <c r="H71" t="n">
+        <v>301646.1127766146</v>
       </c>
     </row>
     <row r="72">
@@ -5764,7 +6409,16 @@
         <v>46057.21533</v>
       </c>
       <c r="E72" t="n">
+        <v>-0.1103322164493196</v>
+      </c>
+      <c r="F72" t="n">
         <v>11730.72226860834</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-12.73494520300207</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-586536.1134304168</v>
       </c>
     </row>
     <row r="73">
@@ -5783,7 +6437,16 @@
         <v>47261.4065</v>
       </c>
       <c r="E73" t="n">
+        <v>0.02614554877823088</v>
+      </c>
+      <c r="F73" t="n">
         <v>2467.002086317462</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-2.609954156059091</v>
+      </c>
+      <c r="H73" t="n">
+        <v>123350.1043158731</v>
       </c>
     </row>
     <row r="74">
@@ -5802,7 +6465,16 @@
         <v>43234.18493</v>
       </c>
       <c r="E74" t="n">
+        <v>-0.08521163182056367</v>
+      </c>
+      <c r="F74" t="n">
         <v>8246.283004684854</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-9.536762423110694</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-412314.1502342427</v>
       </c>
     </row>
     <row r="75">
@@ -5821,7 +6493,16 @@
         <v>48208.90763</v>
       </c>
       <c r="E75" t="n">
+        <v>0.1150645654140241</v>
+      </c>
+      <c r="F75" t="n">
         <v>10167.44312629736</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-10.54519136207335</v>
+      </c>
+      <c r="H75" t="n">
+        <v>508372.1563148678</v>
       </c>
     </row>
     <row r="76">
@@ -5840,7 +6521,16 @@
         <v>54734.12484</v>
       </c>
       <c r="E76" t="n">
+        <v>0.1353529364340836</v>
+      </c>
+      <c r="F76" t="n">
         <v>13308.85262611806</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-12.15772853317998</v>
+      </c>
+      <c r="H76" t="n">
+        <v>665442.6313059031</v>
       </c>
     </row>
     <row r="77">
@@ -5859,7 +6549,16 @@
         <v>61548.80343</v>
       </c>
       <c r="E77" t="n">
+        <v>0.1245051165049377</v>
+      </c>
+      <c r="F77" t="n">
         <v>13866.09852149923</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-11.26431201645477</v>
+      </c>
+      <c r="H77" t="n">
+        <v>693304.9260749617</v>
       </c>
     </row>
     <row r="78">
@@ -5878,7 +6577,16 @@
         <v>60893.92758</v>
       </c>
       <c r="E78" t="n">
+        <v>-0.01063994445878697</v>
+      </c>
+      <c r="F78" t="n">
         <v>1329.551339707562</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1.09169451909704</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-66477.56698537809</v>
       </c>
     </row>
     <row r="79">
@@ -5897,7 +6605,16 @@
         <v>61320.44949</v>
       </c>
       <c r="E79" t="n">
+        <v>0.007004342254646794</v>
+      </c>
+      <c r="F79" t="n">
         <v>865.7531110529723</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-0.7059252812507166</v>
+      </c>
+      <c r="H79" t="n">
+        <v>43287.65555264861</v>
       </c>
     </row>
     <row r="80">
@@ -5916,7 +6633,16 @@
         <v>63344.06722</v>
       </c>
       <c r="E80" t="n">
+        <v>0.03300069955178664</v>
+      </c>
+      <c r="F80" t="n">
         <v>4106.962821207854</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-3.24178964301738</v>
+      </c>
+      <c r="H80" t="n">
+        <v>205348.1410603927</v>
       </c>
     </row>
     <row r="81">
@@ -5935,7 +6661,16 @@
         <v>65521.28934</v>
       </c>
       <c r="E81" t="n">
+        <v>0.03437136602609216</v>
+      </c>
+      <c r="F81" t="n">
         <v>4415.882017881244</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-3.36980702178078</v>
+      </c>
+      <c r="H81" t="n">
+        <v>220794.1008940622</v>
       </c>
     </row>
     <row r="82">
@@ -5954,7 +6689,16 @@
         <v>58706.84938</v>
       </c>
       <c r="E82" t="n">
+        <v>-0.1040034472557283</v>
+      </c>
+      <c r="F82" t="n">
         <v>13811.9873400581</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-11.763522898883</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-690599.3670029051</v>
       </c>
     </row>
     <row r="83">
@@ -5973,7 +6717,16 @@
         <v>57291.90473</v>
       </c>
       <c r="E83" t="n">
+        <v>-0.0241018665614516</v>
+      </c>
+      <c r="F83" t="n">
         <v>2861.251679008926</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-2.497081998314743</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-143062.5839504463</v>
       </c>
     </row>
     <row r="84">
@@ -5992,7 +6745,16 @@
         <v>49413.4791</v>
       </c>
       <c r="E84" t="n">
+        <v>-0.1375137668598857</v>
+      </c>
+      <c r="F84" t="n">
         <v>15923.60806269042</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-16.11261578087347</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-796180.4031345211</v>
       </c>
     </row>
     <row r="85">
@@ -6011,7 +6773,16 @@
         <v>50114.74099</v>
       </c>
       <c r="E85" t="n">
+        <v>0.01419171251999541</v>
+      </c>
+      <c r="F85" t="n">
         <v>1412.847205903622</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-1.409612399459018</v>
+      </c>
+      <c r="H85" t="n">
+        <v>70642.3602951811</v>
       </c>
     </row>
     <row r="86">
@@ -6030,7 +6801,16 @@
         <v>46707.06445</v>
       </c>
       <c r="E86" t="n">
+        <v>-0.06799748881631405</v>
+      </c>
+      <c r="F86" t="n">
         <v>6863.59681216406</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-7.347493246456917</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-343179.840608203</v>
       </c>
     </row>
     <row r="87">
@@ -6049,7 +6829,16 @@
         <v>50802.60893</v>
       </c>
       <c r="E87" t="n">
+        <v>0.08768576077788602</v>
+      </c>
+      <c r="F87" t="n">
         <v>8237.034297838098</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-8.106900877066922</v>
+      </c>
+      <c r="H87" t="n">
+        <v>411851.7148919048</v>
       </c>
     </row>
     <row r="88">
@@ -6068,7 +6857,16 @@
         <v>47343.54377</v>
       </c>
       <c r="E88" t="n">
+        <v>-0.06808833705304759</v>
+      </c>
+      <c r="F88" t="n">
         <v>6945.718477276329</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-7.335444206520929</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-347285.9238638165</v>
       </c>
     </row>
     <row r="89">
@@ -6087,7 +6885,16 @@
         <v>41910.23083</v>
       </c>
       <c r="E89" t="n">
+        <v>-0.1147635455088789</v>
+      </c>
+      <c r="F89" t="n">
         <v>10894.0175635232</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-12.99684748541767</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-544700.8781761598</v>
       </c>
     </row>
     <row r="90">
@@ -6106,7 +6913,16 @@
         <v>43118.1201</v>
       </c>
       <c r="E90" t="n">
+        <v>0.02882086894008166</v>
+      </c>
+      <c r="F90" t="n">
         <v>2415.588531859385</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-2.80112923088614</v>
+      </c>
+      <c r="H90" t="n">
+        <v>120779.4265929692</v>
       </c>
     </row>
     <row r="91">
@@ -6125,7 +6941,16 @@
         <v>36275.73295</v>
       </c>
       <c r="E91" t="n">
+        <v>-0.1586893661906193</v>
+      </c>
+      <c r="F91" t="n">
         <v>13676.03138768857</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-18.85011035688608</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-683801.5693844286</v>
       </c>
     </row>
     <row r="92">
@@ -6144,7 +6969,16 @@
         <v>37920.28099</v>
       </c>
       <c r="E92" t="n">
+        <v>0.04533466056403973</v>
+      </c>
+      <c r="F92" t="n">
         <v>3274.594781395993</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-4.317735385794662</v>
+      </c>
+      <c r="H92" t="n">
+        <v>163729.7390697996</v>
       </c>
     </row>
     <row r="93">
@@ -6163,7 +6997,16 @@
         <v>42406.78133</v>
       </c>
       <c r="E93" t="n">
+        <v>0.1183140056684479</v>
+      </c>
+      <c r="F93" t="n">
         <v>8925.691000888342</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-10.52389584985315</v>
+      </c>
+      <c r="H93" t="n">
+        <v>446284.5500444171</v>
       </c>
     </row>
     <row r="94">
@@ -6182,7 +7025,16 @@
         <v>42157.39915</v>
       </c>
       <c r="E94" t="n">
+        <v>-0.005880714644654701</v>
+      </c>
+      <c r="F94" t="n">
         <v>495.0848620329854</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-0.5871862022031137</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-24754.24310164927</v>
       </c>
     </row>
     <row r="95">
@@ -6201,7 +7053,16 @@
         <v>38423.20987</v>
       </c>
       <c r="E95" t="n">
+        <v>-0.08857731632621361</v>
+      </c>
+      <c r="F95" t="n">
         <v>7412.405569317177</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-9.645739638093875</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-370620.2784658588</v>
       </c>
     </row>
     <row r="96">
@@ -6220,7 +7081,16 @@
         <v>37706.00127</v>
       </c>
       <c r="E96" t="n">
+        <v>-0.01866602510374801</v>
+      </c>
+      <c r="F96" t="n">
         <v>1420.899521553118</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-1.88418219075862</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-71044.9760776559</v>
       </c>
     </row>
     <row r="97">
@@ -6239,7 +7109,16 @@
         <v>38429.30278</v>
       </c>
       <c r="E97" t="n">
+        <v>0.0191826628557263</v>
+      </c>
+      <c r="F97" t="n">
         <v>1432.425371943289</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-1.863715014742311</v>
+      </c>
+      <c r="H97" t="n">
+        <v>71621.26859716442</v>
       </c>
     </row>
     <row r="98">
@@ -6258,7 +7137,16 @@
         <v>37846.31644</v>
       </c>
       <c r="E98" t="n">
+        <v>-0.01517035953885177</v>
+      </c>
+      <c r="F98" t="n">
         <v>1154.110783171657</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-1.524733305289217</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-57705.53915858283</v>
       </c>
     </row>
     <row r="99">
@@ -6277,7 +7165,16 @@
         <v>41246.13285</v>
       </c>
       <c r="E99" t="n">
+        <v>0.08983216148366589</v>
+      </c>
+      <c r="F99" t="n">
         <v>6728.383966329176</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-8.156381582242291</v>
+      </c>
+      <c r="H99" t="n">
+        <v>336419.1983164588</v>
       </c>
     </row>
     <row r="100">
@@ -6296,7 +7193,16 @@
         <v>46821.85025</v>
       </c>
       <c r="E100" t="n">
+        <v>0.1351815798168822</v>
+      </c>
+      <c r="F100" t="n">
         <v>11016.39522105754</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-11.76416049583339</v>
+      </c>
+      <c r="H100" t="n">
+        <v>550819.7610528767</v>
       </c>
     </row>
     <row r="101">
@@ -6315,7 +7221,16 @@
         <v>46445.27162</v>
       </c>
       <c r="E101" t="n">
+        <v>-0.008042796856367366</v>
+      </c>
+      <c r="F101" t="n">
         <v>742.2647631848896</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.7990746283689077</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-37113.23815924448</v>
       </c>
     </row>
     <row r="102">
@@ -6334,7 +7249,16 @@
         <v>42201.03823</v>
       </c>
       <c r="E102" t="n">
+        <v>-0.09138138807164115</v>
+      </c>
+      <c r="F102" t="n">
         <v>8364.34619697669</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-9.910118977867491</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-418217.3098488345</v>
       </c>
     </row>
     <row r="103">
@@ -6353,7 +7277,16 @@
         <v>39721.20292</v>
       </c>
       <c r="E103" t="n">
+        <v>-0.05876242419640573</v>
+      </c>
+      <c r="F103" t="n">
         <v>4877.31883286612</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-6.13943998963126</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-243865.941643306</v>
       </c>
     </row>
     <row r="104">
@@ -6372,7 +7305,16 @@
         <v>39472.60737</v>
       </c>
       <c r="E104" t="n">
+        <v>-0.00625851010858574</v>
+      </c>
+      <c r="F104" t="n">
         <v>488.3251020258003</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-0.6185620035793956</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-24416.25510129001</v>
       </c>
     </row>
     <row r="105">
@@ -6391,7 +7333,16 @@
         <v>38472.18715</v>
       </c>
       <c r="E105" t="n">
+        <v>-0.02534467030825889</v>
+      </c>
+      <c r="F105" t="n">
         <v>1964.913577288007</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-2.553680623390301</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-98245.67886440032</v>
       </c>
     </row>
     <row r="106">
@@ -6410,7 +7361,16 @@
         <v>34060.01548</v>
       </c>
       <c r="E106" t="n">
+        <v>-0.1146847111342355</v>
+      </c>
+      <c r="F106" t="n">
         <v>8661.387526627643</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-12.71489076643785</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-433069.3763313821</v>
       </c>
     </row>
     <row r="107">
@@ -6429,7 +7389,16 @@
         <v>31304.37414</v>
       </c>
       <c r="E107" t="n">
+        <v>-0.08090546352270776</v>
+      </c>
+      <c r="F107" t="n">
         <v>5395.492834240225</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-8.617793810715401</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-269774.6417120112</v>
       </c>
     </row>
     <row r="108">
@@ -6448,7 +7417,16 @@
         <v>30309.39648</v>
       </c>
       <c r="E108" t="n">
+        <v>-0.03178398186624792</v>
+      </c>
+      <c r="F108" t="n">
         <v>1944.717349359844</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-3.208109654448395</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-97235.86746799221</v>
       </c>
     </row>
     <row r="109">
@@ -6467,7 +7445,16 @@
         <v>29443.36571</v>
       </c>
       <c r="E109" t="n">
+        <v>-0.02857301268177549</v>
+      </c>
+      <c r="F109" t="n">
         <v>1691.574980989205</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-2.872591057778911</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-84578.74904946022</v>
       </c>
     </row>
     <row r="110">
@@ -6486,7 +7473,16 @@
         <v>29910.28372</v>
       </c>
       <c r="E110" t="n">
+        <v>0.01585817377669631</v>
+      </c>
+      <c r="F110" t="n">
         <v>911.4713018315747</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-1.523675452837822</v>
+      </c>
+      <c r="H110" t="n">
+        <v>45573.56509157873</v>
       </c>
     </row>
     <row r="111">
@@ -6505,7 +7501,16 @@
         <v>26737.57766</v>
       </c>
       <c r="E111" t="n">
+        <v>-0.1060740877519165</v>
+      </c>
+      <c r="F111" t="n">
         <v>6191.510277385714</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-11.57829320987508</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-309575.5138692857</v>
       </c>
     </row>
     <row r="112">
@@ -6524,7 +7529,16 @@
         <v>20553.37025</v>
       </c>
       <c r="E112" t="n">
+        <v>-0.2312927329707847</v>
+      </c>
+      <c r="F112" t="n">
         <v>12039.78983720721</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-29.28908906607959</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-601989.4918603606</v>
       </c>
     </row>
     <row r="113">
@@ -6543,7 +7557,16 @@
         <v>21028.23823</v>
       </c>
       <c r="E113" t="n">
+        <v>0.02310414176477938</v>
+      </c>
+      <c r="F113" t="n">
         <v>918.9383870310874</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2.185010405959928</v>
+      </c>
+      <c r="H113" t="n">
+        <v>45946.91935155437</v>
       </c>
     </row>
     <row r="114">
@@ -6562,7 +7585,16 @@
         <v>19297.31419</v>
       </c>
       <c r="E114" t="n">
+        <v>-0.08231426813162931</v>
+      </c>
+      <c r="F114" t="n">
         <v>3348.076129660111</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-8.674979576678879</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-167403.8064830056</v>
       </c>
     </row>
     <row r="115">
@@ -6581,7 +7613,16 @@
         <v>20856.35297</v>
       </c>
       <c r="E115" t="n">
+        <v>0.08079045429067551</v>
+      </c>
+      <c r="F115" t="n">
         <v>3010.19360846506</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-7.216490852439432</v>
+      </c>
+      <c r="H115" t="n">
+        <v>150509.680423253</v>
       </c>
     </row>
     <row r="116">
@@ -6600,7 +7641,16 @@
         <v>20781.9115</v>
       </c>
       <c r="E116" t="n">
+        <v>-0.003569246747361774</v>
+      </c>
+      <c r="F116" t="n">
         <v>143.5167809534587</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-0.3452925419142958</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-7175.839047672935</v>
       </c>
     </row>
     <row r="117">
@@ -6619,7 +7669,16 @@
         <v>22607.15555</v>
       </c>
       <c r="E117" t="n">
+        <v>0.08782849691184573</v>
+      </c>
+      <c r="F117" t="n">
         <v>3518.662165317311</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-7.782186833578254</v>
+      </c>
+      <c r="H117" t="n">
+        <v>175933.1082658655</v>
       </c>
     </row>
     <row r="118">
@@ -6638,7 +7697,16 @@
         <v>23336.71805</v>
       </c>
       <c r="E118" t="n">
+        <v>0.03227130889538202</v>
+      </c>
+      <c r="F118" t="n">
         <v>1404.162237816973</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-3.008482672688787</v>
+      </c>
+      <c r="H118" t="n">
+        <v>70208.11189084865</v>
       </c>
     </row>
     <row r="119">
@@ -6657,7 +7725,16 @@
         <v>23179.52705</v>
       </c>
       <c r="E119" t="n">
+        <v>-0.006735780055413529</v>
+      </c>
+      <c r="F119" t="n">
         <v>302.3506010993765</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-0.6521932057698659</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-15117.53005496882</v>
       </c>
     </row>
     <row r="120">
@@ -6676,7 +7753,16 @@
         <v>24318.31548</v>
       </c>
       <c r="E120" t="n">
+        <v>0.04912906236367754</v>
+      </c>
+      <c r="F120" t="n">
         <v>2190.116911271265</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-4.503019366354698</v>
+      </c>
+      <c r="H120" t="n">
+        <v>109505.8455635632</v>
       </c>
     </row>
     <row r="121">
@@ -6695,7 +7781,16 @@
         <v>21531.46385</v>
       </c>
       <c r="E121" t="n">
+        <v>-0.1145988764021085</v>
+      </c>
+      <c r="F121" t="n">
         <v>5354.650915459915</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-12.43447949652507</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-267732.5457729957</v>
       </c>
     </row>
     <row r="122">
@@ -6714,7 +7809,16 @@
         <v>19615.15336</v>
       </c>
       <c r="E122" t="n">
+        <v>-0.08900047406669936</v>
+      </c>
+      <c r="F122" t="n">
         <v>3672.463653442847</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-9.361292226579989</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-183623.1826721424</v>
       </c>
     </row>
     <row r="123">
@@ -6733,7 +7837,16 @@
         <v>19988.78982</v>
       </c>
       <c r="E123" t="n">
+        <v>0.01904835782532987</v>
+      </c>
+      <c r="F123" t="n">
         <v>714.6468377743618</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1.787619071013779</v>
+      </c>
+      <c r="H123" t="n">
+        <v>35732.34188871809</v>
       </c>
     </row>
     <row r="124">
@@ -6752,7 +7865,16 @@
         <v>21770.14813</v>
       </c>
       <c r="E124" t="n">
+        <v>0.08911786686643941</v>
+      </c>
+      <c r="F124" t="n">
         <v>3405.893957695643</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-7.822395000156672</v>
+      </c>
+      <c r="H124" t="n">
+        <v>170294.6978847821</v>
       </c>
     </row>
     <row r="125">
@@ -6771,7 +7893,16 @@
         <v>19418.57142</v>
       </c>
       <c r="E125" t="n">
+        <v>-0.1080184064875263</v>
+      </c>
+      <c r="F125" t="n">
         <v>4488.773345296595</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-11.55793917124464</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-224438.6672648297</v>
       </c>
     </row>
     <row r="126">
@@ -6790,7 +7921,16 @@
         <v>18803.90063</v>
       </c>
       <c r="E126" t="n">
+        <v>-0.03165375952254268</v>
+      </c>
+      <c r="F126" t="n">
         <v>1170.463756529363</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-3.112289783806848</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-58523.18782646814</v>
       </c>
     </row>
     <row r="127">
@@ -6809,7 +7949,16 @@
         <v>19044.06785</v>
       </c>
       <c r="E127" t="n">
+        <v>0.01277220214708183</v>
+      </c>
+      <c r="F127" t="n">
         <v>457.0304167697454</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1.199928556150742</v>
+      </c>
+      <c r="H127" t="n">
+        <v>22851.52083848727</v>
       </c>
     </row>
     <row r="128">
@@ -6828,7 +7977,16 @@
         <v>19446.41623</v>
       </c>
       <c r="E128" t="n">
+        <v>0.02112722886565432</v>
+      </c>
+      <c r="F128" t="n">
         <v>765.4627793559636</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1.968133280452682</v>
+      </c>
+      <c r="H128" t="n">
+        <v>38273.13896779818</v>
       </c>
     </row>
     <row r="129">
@@ -6847,7 +8005,16 @@
         <v>19268.5621</v>
       </c>
       <c r="E129" t="n">
+        <v>-0.009145856382813818</v>
+      </c>
+      <c r="F129" t="n">
         <v>338.2252498623152</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-0.8776608449218823</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-16911.26249311576</v>
       </c>
     </row>
     <row r="130">
@@ -6866,7 +8033,16 @@
         <v>19567.76958</v>
       </c>
       <c r="E130" t="n">
+        <v>0.01552827234576061</v>
+      </c>
+      <c r="F130" t="n">
         <v>568.8979091714598</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-1.453660589280763</v>
+      </c>
+      <c r="H130" t="n">
+        <v>28444.89545857299</v>
       </c>
     </row>
     <row r="131">
@@ -6885,7 +8061,16 @@
         <v>20633.69607</v>
       </c>
       <c r="E131" t="n">
+        <v>0.05447358144943986</v>
+      </c>
+      <c r="F131" t="n">
         <v>2026.078703828986</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-4.909635910491983</v>
+      </c>
+      <c r="H131" t="n">
+        <v>101303.9351914493</v>
       </c>
     </row>
     <row r="132">
@@ -6904,7 +8089,16 @@
         <v>20924.62048</v>
       </c>
       <c r="E132" t="n">
+        <v>0.01409948120845804</v>
+      </c>
+      <c r="F132" t="n">
         <v>552.4084051632072</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-1.319996235275105</v>
+      </c>
+      <c r="H132" t="n">
+        <v>27620.42025816036</v>
       </c>
     </row>
     <row r="133">
@@ -6923,7 +8117,16 @@
         <v>16352.02856</v>
       </c>
       <c r="E133" t="n">
+        <v>-0.21852687480619</v>
+      </c>
+      <c r="F133" t="n">
         <v>8680.041062516528</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-26.54117509233523</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-434002.0531258264</v>
       </c>
     </row>
     <row r="134">
@@ -6942,7 +8145,16 @@
         <v>16291.2238</v>
       </c>
       <c r="E134" t="n">
+        <v>-0.003718484209888201</v>
+      </c>
+      <c r="F134" t="n">
         <v>114.7786788698644</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-0.3522715060542733</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-5738.933943493221</v>
       </c>
     </row>
     <row r="135">
@@ -6961,7 +8173,16 @@
         <v>16440.22209</v>
       </c>
       <c r="E135" t="n">
+        <v>0.009145923708935822</v>
+      </c>
+      <c r="F135" t="n">
         <v>281.2370326857746</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-0.8553322185861499</v>
+      </c>
+      <c r="H135" t="n">
+        <v>14061.85163428873</v>
       </c>
     </row>
     <row r="136">
@@ -6980,7 +8201,16 @@
         <v>17128.89408</v>
       </c>
       <c r="E136" t="n">
+        <v>0.04188945783274385</v>
+      </c>
+      <c r="F136" t="n">
         <v>1299.645521980049</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-3.793722805191313</v>
+      </c>
+      <c r="H136" t="n">
+        <v>64982.27609900247</v>
       </c>
     </row>
     <row r="137">
@@ -6999,7 +8229,16 @@
         <v>17102.50065</v>
       </c>
       <c r="E137" t="n">
+        <v>-0.001540871808578341</v>
+      </c>
+      <c r="F137" t="n">
         <v>49.76900628075512</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-0.145502132405284</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-2488.450314037756</v>
       </c>
     </row>
     <row r="138">
@@ -7018,7 +8257,16 @@
         <v>16759.04093</v>
       </c>
       <c r="E138" t="n">
+        <v>-0.02008242695199094</v>
+      </c>
+      <c r="F138" t="n">
         <v>647.6278894587078</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1.932174675638518</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-32381.39447293539</v>
       </c>
     </row>
     <row r="139">
@@ -7037,7 +8285,16 @@
         <v>16842.24931</v>
       </c>
       <c r="E139" t="n">
+        <v>0.004964984592349226</v>
+      </c>
+      <c r="F139" t="n">
         <v>156.8334705674635</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-0.4655953836116901</v>
+      </c>
+      <c r="H139" t="n">
+        <v>7841.673528373172</v>
       </c>
     </row>
     <row r="140">
@@ -7056,7 +8313,16 @@
         <v>16625.51039</v>
       </c>
       <c r="E140" t="n">
+        <v>-0.01286876331128243</v>
+      </c>
+      <c r="F140" t="n">
         <v>408.4751838661611</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1.228459079703962</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-20423.75919330805</v>
       </c>
     </row>
     <row r="141">
@@ -7075,7 +8341,16 @@
         <v>17093.9925</v>
       </c>
       <c r="E141" t="n">
+        <v>0.02817850995310111</v>
+      </c>
+      <c r="F141" t="n">
         <v>882.6906665328254</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-2.581873914279608</v>
+      </c>
+      <c r="H141" t="n">
+        <v>44134.53332664127</v>
       </c>
     </row>
     <row r="142">
@@ -7094,7 +8369,16 @@
         <v>20882.22388</v>
       </c>
       <c r="E142" t="n">
+        <v>0.2216118545740558</v>
+      </c>
+      <c r="F142" t="n">
         <v>7133.684660655011</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-17.0807589786625</v>
+      </c>
+      <c r="H142" t="n">
+        <v>356684.2330327505</v>
       </c>
     </row>
     <row r="143">
@@ -7113,7 +8397,16 @@
         <v>22721.08867</v>
       </c>
       <c r="E143" t="n">
+        <v>0.08805885812579457</v>
+      </c>
+      <c r="F143" t="n">
         <v>3450.234713253678</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-7.592582299564781</v>
+      </c>
+      <c r="H143" t="n">
+        <v>172511.7356626839</v>
       </c>
     </row>
     <row r="144">
@@ -7132,7 +8425,16 @@
         <v>23774.64897</v>
       </c>
       <c r="E144" t="n">
+        <v>0.04636927020979745</v>
+      </c>
+      <c r="F144" t="n">
         <v>1973.579856753011</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-4.150597258540745</v>
+      </c>
+      <c r="H144" t="n">
+        <v>98678.99283765054</v>
       </c>
     </row>
     <row r="145">
@@ -7151,7 +8453,16 @@
         <v>22954.02196</v>
       </c>
       <c r="E145" t="n">
+        <v>-0.03451689280609388</v>
+      </c>
+      <c r="F145" t="n">
         <v>1535.87557107823</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-3.345547838532759</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-76793.77855391147</v>
       </c>
     </row>
     <row r="146">
@@ -7170,7 +8481,16 @@
         <v>21786.99926</v>
       </c>
       <c r="E146" t="n">
+        <v>-0.05084175235318969</v>
+      </c>
+      <c r="F146" t="n">
         <v>2182.623816236624</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-5.009005118579658</v>
+      </c>
+      <c r="H146" t="n">
+        <v>-109131.1908118312</v>
       </c>
     </row>
     <row r="147">
@@ -7189,7 +8509,16 @@
         <v>24336.62334</v>
       </c>
       <c r="E147" t="n">
+        <v>0.1170250225638461</v>
+      </c>
+      <c r="F147" t="n">
         <v>4763.325154961969</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-9.786331259712814</v>
+      </c>
+      <c r="H147" t="n">
+        <v>238166.2577480984</v>
       </c>
     </row>
     <row r="148">
@@ -7208,7 +8537,16 @@
         <v>23561.45068</v>
       </c>
       <c r="E148" t="n">
+        <v>-0.03185210409719874</v>
+      </c>
+      <c r="F148" t="n">
         <v>1445.178833249802</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-3.066829060904415</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-72258.94166249009</v>
       </c>
     </row>
     <row r="149">
@@ -7227,7 +8565,16 @@
         <v>22436.81678</v>
       </c>
       <c r="E149" t="n">
+        <v>-0.04773194635908558</v>
+      </c>
+      <c r="F149" t="n">
         <v>2095.310818433424</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-4.669358490062564</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-104765.5409216712</v>
       </c>
     </row>
     <row r="150">
@@ -7246,7 +8593,16 @@
         <v>22156.40668</v>
       </c>
       <c r="E150" t="n">
+        <v>-0.01249776662837289</v>
+      </c>
+      <c r="F150" t="n">
         <v>521.9096694404712</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-1.177785001372956</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-26095.48347202356</v>
       </c>
     </row>
     <row r="151">
@@ -7265,7 +8621,16 @@
         <v>28041.60192</v>
       </c>
       <c r="E151" t="n">
+        <v>0.2656204737978749</v>
+      </c>
+      <c r="F151" t="n">
         <v>10950.97087392376</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-19.52629330015779</v>
+      </c>
+      <c r="H151" t="n">
+        <v>547548.5436961879</v>
       </c>
     </row>
     <row r="152">
@@ -7284,7 +8649,16 @@
         <v>27994.06792</v>
       </c>
       <c r="E152" t="n">
+        <v>-0.001695124270560918</v>
+      </c>
+      <c r="F152" t="n">
         <v>88.0783832319412</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-0.1573161562007477</v>
+      </c>
+      <c r="H152" t="n">
+        <v>-4403.91916159706</v>
       </c>
     </row>
     <row r="153">
@@ -7303,7 +8677,16 @@
         <v>28183.08036</v>
       </c>
       <c r="E153" t="n">
+        <v>0.006751874737896207</v>
+      </c>
+      <c r="F153" t="n">
         <v>350.2197324448198</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-0.6213297623454312</v>
+      </c>
+      <c r="H153" t="n">
+        <v>17510.98662224099</v>
       </c>
     </row>
     <row r="154">
@@ -7322,7 +8705,16 @@
         <v>28336.02824</v>
       </c>
       <c r="E154" t="n">
+        <v>0.005426939782532689</v>
+      </c>
+      <c r="F154" t="n">
         <v>283.3579672842765</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-0.4999959148902169</v>
+      </c>
+      <c r="H154" t="n">
+        <v>14167.89836421382</v>
       </c>
     </row>
     <row r="155">
@@ -7341,7 +8733,16 @@
         <v>30317.1457</v>
       </c>
       <c r="E155" t="n">
+        <v>0.06991514277231682</v>
+      </c>
+      <c r="F155" t="n">
         <v>3669.909091705034</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-6.052530683495436</v>
+      </c>
+      <c r="H155" t="n">
+        <v>183495.4545852517</v>
       </c>
     </row>
     <row r="156">
@@ -7360,7 +8761,16 @@
         <v>27591.72952</v>
       </c>
       <c r="E156" t="n">
+        <v>-0.08989685925479456</v>
+      </c>
+      <c r="F156" t="n">
         <v>5042.082501075071</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-9.136945361508225</v>
+      </c>
+      <c r="H156" t="n">
+        <v>-252104.1250537536</v>
       </c>
     </row>
     <row r="157">
@@ -7379,7 +8789,16 @@
         <v>29227.10398</v>
       </c>
       <c r="E157" t="n">
+        <v>0.05927045851962958</v>
+      </c>
+      <c r="F157" t="n">
         <v>3019.503363874354</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-5.165587678376532</v>
+      </c>
+      <c r="H157" t="n">
+        <v>150975.1681937177</v>
       </c>
     </row>
     <row r="158">
@@ -7398,7 +8817,16 @@
         <v>28450.45748</v>
       </c>
       <c r="E158" t="n">
+        <v>-0.0265728174960973</v>
+      </c>
+      <c r="F158" t="n">
         <v>1432.37064978136</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-2.517306884763246</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-71618.53248906799</v>
       </c>
     </row>
     <row r="159">
@@ -7417,7 +8845,16 @@
         <v>26931.38463</v>
       </c>
       <c r="E159" t="n">
+        <v>-0.05339361769728564</v>
+      </c>
+      <c r="F159" t="n">
         <v>2800.099421374901</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-5.198580503461662</v>
+      </c>
+      <c r="H159" t="n">
+        <v>-140004.9710687451</v>
       </c>
     </row>
     <row r="160">
@@ -7436,7 +8873,16 @@
         <v>26749.89321</v>
       </c>
       <c r="E160" t="n">
+        <v>-0.00673903040981529</v>
+      </c>
+      <c r="F160" t="n">
         <v>334.1648317890075</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-0.6246096557575893</v>
+      </c>
+      <c r="H160" t="n">
+        <v>-16708.24158945038</v>
       </c>
     </row>
     <row r="161">
@@ -7455,7 +8901,16 @@
         <v>28075.59214</v>
       </c>
       <c r="E161" t="n">
+        <v>0.0495590363517568</v>
+      </c>
+      <c r="F161" t="n">
         <v>2440.566318607148</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-4.346420026400818</v>
+      </c>
+      <c r="H161" t="n">
+        <v>122028.3159303574</v>
       </c>
     </row>
     <row r="162">
@@ -7474,7 +8929,16 @@
         <v>27123.10996</v>
       </c>
       <c r="E162" t="n">
+        <v>-0.03392563103390343</v>
+      </c>
+      <c r="F162" t="n">
         <v>1751.831111265371</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-3.229406793411405</v>
+      </c>
+      <c r="H162" t="n">
+        <v>-87591.55556326854</v>
       </c>
     </row>
     <row r="163">
@@ -7493,7 +8957,16 @@
         <v>25934.2856</v>
       </c>
       <c r="E163" t="n">
+        <v>-0.04383068024843868</v>
+      </c>
+      <c r="F163" t="n">
         <v>2184.982392856976</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-4.212536305331997</v>
+      </c>
+      <c r="H163" t="n">
+        <v>-109249.1196428488</v>
       </c>
     </row>
     <row r="164">
@@ -7512,7 +8985,16 @@
         <v>26335.44237</v>
       </c>
       <c r="E164" t="n">
+        <v>0.01546820206221533</v>
+      </c>
+      <c r="F164" t="n">
         <v>736.62427936386</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-1.398541685791056</v>
+      </c>
+      <c r="H164" t="n">
+        <v>36831.213968193</v>
       </c>
     </row>
     <row r="165">
@@ -7531,7 +9013,16 @@
         <v>30480.52397</v>
       </c>
       <c r="E165" t="n">
+        <v>0.1573955562152191</v>
+      </c>
+      <c r="F165" t="n">
         <v>7609.088918151911</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-12.48188667235682</v>
+      </c>
+      <c r="H165" t="n">
+        <v>380454.4459075955</v>
       </c>
     </row>
     <row r="166">
@@ -7550,7 +9041,16 @@
         <v>30624.51631</v>
       </c>
       <c r="E166" t="n">
+        <v>0.004724076926686792</v>
+      </c>
+      <c r="F166" t="n">
         <v>263.6065217740663</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-0.4303847922130108</v>
+      </c>
+      <c r="H166" t="n">
+        <v>13180.32608870331</v>
       </c>
     </row>
     <row r="167">
@@ -7569,7 +9069,16 @@
         <v>30172.42296</v>
       </c>
       <c r="E167" t="n">
+        <v>-0.01476246499450424</v>
+      </c>
+      <c r="F167" t="n">
         <v>827.5686653786985</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-1.371399085973005</v>
+      </c>
+      <c r="H167" t="n">
+        <v>-41378.43326893492</v>
       </c>
     </row>
     <row r="168">
@@ -7588,7 +9097,16 @@
         <v>30249.62662</v>
       </c>
       <c r="E168" t="n">
+        <v>0.002558749096893848</v>
+      </c>
+      <c r="F168" t="n">
         <v>141.2809618816614</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-0.2335251334776003</v>
+      </c>
+      <c r="H168" t="n">
+        <v>7064.04809408307</v>
       </c>
     </row>
     <row r="169">
@@ -7607,7 +9125,16 @@
         <v>30081.66164</v>
       </c>
       <c r="E169" t="n">
+        <v>-0.005552629859204545</v>
+      </c>
+      <c r="F169" t="n">
         <v>307.3564471026384</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-0.5108701287530313</v>
+      </c>
+      <c r="H169" t="n">
+        <v>-15367.82235513192</v>
       </c>
     </row>
     <row r="170">
@@ -7626,7 +9153,16 @@
         <v>29278.31405</v>
       </c>
       <c r="E170" t="n">
+        <v>-0.02670555900847496</v>
+      </c>
+      <c r="F170" t="n">
         <v>1469.868823235462</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-2.510166433636335</v>
+      </c>
+      <c r="H170" t="n">
+        <v>-73493.44116177309</v>
       </c>
     </row>
     <row r="171">
@@ -7645,7 +9181,16 @@
         <v>29038.51285</v>
       </c>
       <c r="E171" t="n">
+        <v>-0.00819040329953704</v>
+      </c>
+      <c r="F171" t="n">
         <v>438.5186249684697</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-0.7550638478520943</v>
+      </c>
+      <c r="H171" t="n">
+        <v>-21925.93124842349</v>
       </c>
     </row>
     <row r="172">
@@ -7664,7 +9209,16 @@
         <v>29283.26294</v>
       </c>
       <c r="E172" t="n">
+        <v>0.008428465027264692</v>
+      </c>
+      <c r="F172" t="n">
         <v>447.4946190280399</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-0.7640791600733411</v>
+      </c>
+      <c r="H172" t="n">
+        <v>22374.730951402</v>
       </c>
     </row>
     <row r="173">
@@ -7683,7 +9237,16 @@
         <v>26188.69065</v>
       </c>
       <c r="E173" t="n">
+        <v>-0.1056771677507602</v>
+      </c>
+      <c r="F173" t="n">
         <v>5657.088679762073</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-10.80063290556695</v>
+      </c>
+      <c r="H173" t="n">
+        <v>-282854.4339881036</v>
       </c>
     </row>
     <row r="174">
@@ -7702,7 +9265,16 @@
         <v>26089.61492</v>
       </c>
       <c r="E174" t="n">
+        <v>-0.00378314942599089</v>
+      </c>
+      <c r="F174" t="n">
         <v>180.6891426426921</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-0.3462855684086351</v>
+      </c>
+      <c r="H174" t="n">
+        <v>-9034.457132134607</v>
       </c>
     </row>
     <row r="175">
@@ -7721,7 +9293,16 @@
         <v>25968.17013</v>
       </c>
       <c r="E175" t="n">
+        <v>-0.004654909256897586</v>
+      </c>
+      <c r="F175" t="n">
         <v>221.4678443278742</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-0.4264217371096571</v>
+      </c>
+      <c r="H175" t="n">
+        <v>-11073.39221639371</v>
       </c>
     </row>
     <row r="176">
@@ -7740,7 +9321,16 @@
         <v>25831.7155</v>
       </c>
       <c r="E176" t="n">
+        <v>-0.005254687924366282</v>
+      </c>
+      <c r="F176" t="n">
         <v>248.816652741994</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-0.4816107794737713</v>
+      </c>
+      <c r="H176" t="n">
+        <v>-12440.8326370997</v>
       </c>
     </row>
     <row r="177">
@@ -7759,7 +9349,16 @@
         <v>26532.99479</v>
       </c>
       <c r="E177" t="n">
+        <v>0.0271479952618711</v>
+      </c>
+      <c r="F177" t="n">
         <v>1278.604697402491</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-2.409461705175444</v>
+      </c>
+      <c r="H177" t="n">
+        <v>63930.23487012457</v>
       </c>
     </row>
     <row r="178">
@@ -7778,7 +9377,16 @@
         <v>26253.7753</v>
       </c>
       <c r="E178" t="n">
+        <v>-0.01052348188396865</v>
+      </c>
+      <c r="F178" t="n">
         <v>508.8167255397717</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-0.96903534772725</v>
+      </c>
+      <c r="H178" t="n">
+        <v>-25440.83627698859</v>
       </c>
     </row>
     <row r="179">
@@ -7797,7 +9405,16 @@
         <v>27976.79915</v>
       </c>
       <c r="E179" t="n">
+        <v>0.06562956490299503</v>
+      </c>
+      <c r="F179" t="n">
         <v>3139.167940992053</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-5.610305746846048</v>
+      </c>
+      <c r="H179" t="n">
+        <v>156958.3970496026</v>
       </c>
     </row>
     <row r="180">
@@ -7816,7 +9433,16 @@
         <v>27934.47216</v>
       </c>
       <c r="E180" t="n">
+        <v>-0.001512931832303545</v>
+      </c>
+      <c r="F180" t="n">
         <v>77.02032985789012</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-0.1378589318186174</v>
+      </c>
+      <c r="H180" t="n">
+        <v>-3851.016492894506</v>
       </c>
     </row>
     <row r="181">
@@ -7835,7 +9461,16 @@
         <v>27162.62823</v>
       </c>
       <c r="E181" t="n">
+        <v>-0.02763051779103324</v>
+      </c>
+      <c r="F181" t="n">
         <v>1404.443655366236</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-2.585249931402231</v>
+      </c>
+      <c r="H181" t="n">
+        <v>-70222.1827683118</v>
       </c>
     </row>
     <row r="182">
@@ -7854,7 +9489,16 @@
         <v>30140.68486</v>
       </c>
       <c r="E182" t="n">
+        <v>0.109638014583245</v>
+      </c>
+      <c r="F182" t="n">
         <v>5415.778501189529</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-8.984166296063268</v>
+      </c>
+      <c r="H182" t="n">
+        <v>270788.9250594765</v>
       </c>
     </row>
     <row r="183">
@@ -7873,7 +9517,16 @@
         <v>34531.74137</v>
       </c>
       <c r="E183" t="n">
+        <v>0.1456853595197306</v>
+      </c>
+      <c r="F183" t="n">
         <v>7969.625390335359</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-11.53956486720808</v>
+      </c>
+      <c r="H183" t="n">
+        <v>398481.2695167679</v>
       </c>
     </row>
     <row r="184">
@@ -7892,7 +9545,16 @@
         <v>35044.78992</v>
       </c>
       <c r="E184" t="n">
+        <v>0.01485730315487995</v>
+      </c>
+      <c r="F184" t="n">
         <v>928.7983637578425</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1.325158983515234</v>
+      </c>
+      <c r="H184" t="n">
+        <v>46439.91818789212</v>
       </c>
     </row>
     <row r="185">
@@ -7911,7 +9573,16 @@
         <v>37070.30587</v>
       </c>
       <c r="E185" t="n">
+        <v>0.05779791959443407</v>
+      </c>
+      <c r="F185" t="n">
         <v>3665.822784975599</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-4.944419393019159</v>
+      </c>
+      <c r="H185" t="n">
+        <v>183291.1392487799</v>
       </c>
     </row>
     <row r="186">
@@ -7930,7 +9601,16 @@
         <v>37374.07468</v>
       </c>
       <c r="E186" t="n">
+        <v>0.008194397183159834</v>
+      </c>
+      <c r="F186" t="n">
         <v>549.1666097066615</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-0.7346892390094906</v>
+      </c>
+      <c r="H186" t="n">
+        <v>27458.33048533307</v>
       </c>
     </row>
     <row r="187">
@@ -7949,7 +9629,16 @@
         <v>37454.19196</v>
       </c>
       <c r="E187" t="n">
+        <v>0.002143659225973339</v>
+      </c>
+      <c r="F187" t="n">
         <v>144.8159965642085</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-0.1933241500962934</v>
+      </c>
+      <c r="H187" t="n">
+        <v>7240.799828210424</v>
       </c>
     </row>
     <row r="188">
@@ -7968,7 +9657,16 @@
         <v>39978.62865</v>
       </c>
       <c r="E188" t="n">
+        <v>0.06740064483826078</v>
+      </c>
+      <c r="F188" t="n">
         <v>4562.850548900917</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-5.706612136258101</v>
+      </c>
+      <c r="H188" t="n">
+        <v>228142.5274450458</v>
       </c>
     </row>
     <row r="189">
@@ -7987,7 +9685,16 @@
         <v>43792.01786</v>
       </c>
       <c r="E189" t="n">
+        <v>0.09538569327589982</v>
+      </c>
+      <c r="F189" t="n">
         <v>6883.892503138786</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-7.859757142438728</v>
+      </c>
+      <c r="H189" t="n">
+        <v>344194.6251569393</v>
       </c>
     </row>
     <row r="190">
@@ -8006,7 +9713,16 @@
         <v>41348.20209</v>
       </c>
       <c r="E190" t="n">
+        <v>-0.05580505054169251</v>
+      </c>
+      <c r="F190" t="n">
         <v>4403.868949324436</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-5.325345150121419</v>
+      </c>
+      <c r="H190" t="n">
+        <v>-220193.4474662218</v>
       </c>
     </row>
     <row r="191">
@@ -8025,7 +9741,16 @@
         <v>43010.57292</v>
       </c>
       <c r="E191" t="n">
+        <v>0.04020418654193532</v>
+      </c>
+      <c r="F191" t="n">
         <v>2992.127976521115</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-3.478363310907874</v>
+      </c>
+      <c r="H191" t="n">
+        <v>149606.3988260558</v>
       </c>
     </row>
     <row r="192">
@@ -8044,7 +9769,16 @@
         <v>42280.23528</v>
       </c>
       <c r="E192" t="n">
+        <v>-0.01698042110153779</v>
+      </c>
+      <c r="F192" t="n">
         <v>1313.530305231869</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1.55336210469625</v>
+      </c>
+      <c r="H192" t="n">
+        <v>-65676.51526159343</v>
       </c>
     </row>
     <row r="193">
@@ -8063,7 +9797,16 @@
         <v>43948.70696</v>
       </c>
       <c r="E193" t="n">
+        <v>0.03946221370223185</v>
+      </c>
+      <c r="F193" t="n">
         <v>2999.75087795326</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-3.412786274558075</v>
+      </c>
+      <c r="H193" t="n">
+        <v>149987.543897663</v>
       </c>
     </row>
     <row r="194">
@@ -8082,7 +9825,16 @@
         <v>41715.06653</v>
       </c>
       <c r="E194" t="n">
+        <v>-0.05082380312196576</v>
+      </c>
+      <c r="F194" t="n">
         <v>4012.820510597506</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-4.809797567638575</v>
+      </c>
+      <c r="H194" t="n">
+        <v>-200641.0255298753</v>
       </c>
     </row>
     <row r="195">
@@ -8101,7 +9853,16 @@
         <v>41553.65269</v>
       </c>
       <c r="E195" t="n">
+        <v>-0.003869437434168077</v>
+      </c>
+      <c r="F195" t="n">
         <v>289.6755934699541</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-0.3485561132627761</v>
+      </c>
+      <c r="H195" t="n">
+        <v>-14483.7796734977</v>
       </c>
     </row>
     <row r="196">
@@ -8120,7 +9881,16 @@
         <v>42030.91538</v>
       </c>
       <c r="E196" t="n">
+        <v>0.01148545697198962</v>
+      </c>
+      <c r="F196" t="n">
         <v>856.435930817958</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1.018816653259811</v>
+      </c>
+      <c r="H196" t="n">
+        <v>42821.7965408979</v>
       </c>
     </row>
     <row r="197">
@@ -8139,7 +9909,16 @@
         <v>42577.62298</v>
       </c>
       <c r="E197" t="n">
+        <v>0.01300727321918254</v>
+      </c>
+      <c r="F197" t="n">
         <v>980.8302827007694</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1.151814279488424</v>
+      </c>
+      <c r="H197" t="n">
+        <v>49041.51413503847</v>
       </c>
     </row>
     <row r="198">
@@ -8158,7 +9937,16 @@
         <v>48296.3852</v>
       </c>
       <c r="E198" t="n">
+        <v>0.1343137972424218</v>
+      </c>
+      <c r="F198" t="n">
         <v>10257.21008864049</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-10.61902463938491</v>
+      </c>
+      <c r="H198" t="n">
+        <v>512860.5044320245</v>
       </c>
     </row>
     <row r="199">
@@ -8177,7 +9965,16 @@
         <v>52134.81221</v>
       </c>
       <c r="E199" t="n">
+        <v>0.07947648657564541</v>
+      </c>
+      <c r="F199" t="n">
         <v>6868.324164969911</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-6.587080564617911</v>
+      </c>
+      <c r="H199" t="n">
+        <v>343416.2082484955</v>
       </c>
     </row>
     <row r="200">
@@ -8196,7 +9993,16 @@
         <v>51730.53979</v>
       </c>
       <c r="E200" t="n">
+        <v>-0.007754366091731127</v>
+      </c>
+      <c r="F200" t="n">
         <v>722.3233293809933</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-0.6981594743774789</v>
+      </c>
+      <c r="H200" t="n">
+        <v>-36116.16646904966</v>
       </c>
     </row>
     <row r="201">
@@ -8215,7 +10021,16 @@
         <v>63137.00468</v>
       </c>
       <c r="E201" t="n">
+        <v>0.2204976970335997</v>
+      </c>
+      <c r="F201" t="n">
         <v>20377.02181451466</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-16.13714644667767</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1018851.090725733</v>
       </c>
     </row>
     <row r="202">
@@ -8234,7 +10049,16 @@
         <v>69020.54977</v>
       </c>
       <c r="E202" t="n">
+        <v>0.09318695303680979</v>
+      </c>
+      <c r="F202" t="n">
         <v>10472.65207323111</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-7.586618846220117</v>
+      </c>
+      <c r="H202" t="n">
+        <v>523632.6036615555</v>
       </c>
     </row>
     <row r="203">
@@ -8253,7 +10077,16 @@
         <v>68371.30726</v>
       </c>
       <c r="E203" t="n">
+        <v>-0.009406510266340876</v>
+      </c>
+      <c r="F203" t="n">
         <v>1153.675024749293</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-0.8436836086533623</v>
+      </c>
+      <c r="H203" t="n">
+        <v>-57683.75123746463</v>
       </c>
     </row>
     <row r="204">
@@ -8272,7 +10105,16 @@
         <v>67234.09758</v>
       </c>
       <c r="E204" t="n">
+        <v>-0.01663284973732415</v>
+      </c>
+      <c r="F204" t="n">
         <v>2020.387175023196</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-1.502501890963282</v>
+      </c>
+      <c r="H204" t="n">
+        <v>-101019.3587511598</v>
       </c>
     </row>
     <row r="205">
@@ -8291,7 +10133,16 @@
         <v>71333.48471999999</v>
       </c>
       <c r="E205" t="n">
+        <v>0.06097184743384477</v>
+      </c>
+      <c r="F205" t="n">
         <v>7280.581203001627</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-5.10320029336822</v>
+      </c>
+      <c r="H205" t="n">
+        <v>364029.0601500814</v>
       </c>
     </row>
     <row r="206">
@@ -8310,7 +10161,16 @@
         <v>69362.554</v>
       </c>
       <c r="E206" t="n">
+        <v>-0.02762981126936861</v>
+      </c>
+      <c r="F206" t="n">
         <v>3496.383220148196</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-2.520367992900172</v>
+      </c>
+      <c r="H206" t="n">
+        <v>-174819.1610074098</v>
       </c>
     </row>
     <row r="207">
@@ -8329,7 +10189,16 @@
         <v>65739.64453999999</v>
       </c>
       <c r="E207" t="n">
+        <v>-0.05223148876553781</v>
+      </c>
+      <c r="F207" t="n">
         <v>6423.300949624206</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-4.885408945066533</v>
+      </c>
+      <c r="H207" t="n">
+        <v>-321165.0474812103</v>
       </c>
     </row>
   </sheetData>

--- a/Results/BITCOIN(05-2020-04-2024)Results.xlsx
+++ b/Results/BITCOIN(05-2020-04-2024)Results.xlsx
@@ -4468,10 +4468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.86165178066433</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1102992.149016508</v>
+        <v>1000000</v>
       </c>
       <c r="D3" t="n">
         <v>9675.69498</v>
@@ -4480,13 +4480,13 @@
         <v>0.105094029608682</v>
       </c>
       <c r="F3" t="n">
-        <v>2101.880592173639</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.86165178066433</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105094.029608682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4496,10 +4496,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6803808211907096</v>
+        <v>10.25500676492</v>
       </c>
       <c r="C4" t="n">
-        <v>999554.4167282268</v>
+        <v>908059.5981127135</v>
       </c>
       <c r="D4" t="n">
         <v>8786.107695000001</v>
@@ -4508,13 +4508,13 @@
         <v>-0.0919404018872864</v>
       </c>
       <c r="F4" t="n">
-        <v>2028.19082918199</v>
+        <v>1838.808037745728</v>
       </c>
       <c r="G4" t="n">
-        <v>-11.54203260185504</v>
+        <v>10.25500676492</v>
       </c>
       <c r="H4" t="n">
-        <v>-101409.5414590995</v>
+        <v>91940.4018872864</v>
       </c>
     </row>
     <row r="5">
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.464060171524192</v>
+        <v>3.00405080183503</v>
       </c>
       <c r="C5" t="n">
-        <v>1075088.679062859</v>
+        <v>908059.5981127135</v>
       </c>
       <c r="D5" t="n">
         <v>9463.605662</v>
@@ -4536,13 +4536,13 @@
         <v>0.07711013687955931</v>
       </c>
       <c r="F5" t="n">
-        <v>1541.515557849633</v>
+        <v>1400.411998105379</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.144440992714902</v>
+        <v>7.250955963084969</v>
       </c>
       <c r="H5" t="n">
-        <v>77075.77789248164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4552,10 +4552,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.91468382328528</v>
+        <v>0.1478171276008626</v>
       </c>
       <c r="C6" t="n">
-        <v>1108093.418060894</v>
+        <v>908059.5981127135</v>
       </c>
       <c r="D6" t="n">
         <v>9760.063252</v>
@@ -4564,13 +4564,13 @@
         <v>0.03132607175195293</v>
       </c>
       <c r="F6" t="n">
-        <v>673.5661020007082</v>
+        <v>568.9188025105681</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.450623651761085</v>
+        <v>2.856233674234167</v>
       </c>
       <c r="H6" t="n">
-        <v>33678.30510003541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4580,10 +4580,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.390443877398483</v>
+        <v>3.781187609967222</v>
       </c>
       <c r="C7" t="n">
-        <v>1064779.448747907</v>
+        <v>873260.6760996847</v>
       </c>
       <c r="D7" t="n">
         <v>9386.035291</v>
@@ -4592,13 +4592,13 @@
         <v>-0.03832228863100402</v>
       </c>
       <c r="F7" t="n">
-        <v>849.2935159409076</v>
+        <v>695.9784402605785</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.524239945886793</v>
+        <v>3.63337048236636</v>
       </c>
       <c r="H7" t="n">
-        <v>-42464.67579704538</v>
+        <v>34798.92201302892</v>
       </c>
     </row>
     <row r="8">
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.35224024618751</v>
+        <v>4.615623283821394</v>
       </c>
       <c r="C8" t="n">
-        <v>1054930.079661784</v>
+        <v>865341.2723673817</v>
       </c>
       <c r="D8" t="n">
         <v>9300.915457999999</v>
@@ -4620,13 +4620,13 @@
         <v>-0.00906877402023191</v>
       </c>
       <c r="F8" t="n">
-        <v>193.1248840416375</v>
+        <v>158.3880746460595</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.038203631210974</v>
+        <v>0.8344356738541719</v>
       </c>
       <c r="H8" t="n">
-        <v>-9656.244202081876</v>
+        <v>7919.403732302973</v>
       </c>
     </row>
     <row r="9">
@@ -4636,10 +4636,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.355738470642727</v>
+        <v>6.220565935131331</v>
       </c>
       <c r="C9" t="n">
-        <v>1036317.033707626</v>
+        <v>850372.6779895647</v>
       </c>
       <c r="D9" t="n">
         <v>9140.029071000001</v>
@@ -4648,13 +4648,13 @@
         <v>-0.01729790876247729</v>
       </c>
       <c r="F9" t="n">
-        <v>364.9616853756487</v>
+        <v>299.3718875563395</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.996501775544783</v>
+        <v>1.604942651309937</v>
       </c>
       <c r="H9" t="n">
-        <v>-18248.08426878243</v>
+        <v>14968.59437781698</v>
       </c>
     </row>
     <row r="10">
@@ -4664,10 +4664,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.51621113701714</v>
+        <v>6.895680655863793</v>
       </c>
       <c r="C10" t="n">
-        <v>1028547.789963996</v>
+        <v>844122.4589651198</v>
       </c>
       <c r="D10" t="n">
         <v>9072.850074</v>
@@ -4676,13 +4676,13 @@
         <v>-0.007349976294183811</v>
       </c>
       <c r="F10" t="n">
-        <v>152.3381126201987</v>
+        <v>125.0043804888981</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.8395273336255876</v>
+        <v>0.6751147207324618</v>
       </c>
       <c r="H10" t="n">
-        <v>-7616.905631009935</v>
+        <v>6250.219024444904</v>
       </c>
     </row>
     <row r="11">
@@ -4692,10 +4692,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.01338046431848</v>
+        <v>4.887258296776408</v>
       </c>
       <c r="C11" t="n">
-        <v>1051251.205865644</v>
+        <v>863135.2602599909</v>
       </c>
       <c r="D11" t="n">
         <v>9277.204659999999</v>
@@ -4704,13 +4704,13 @@
         <v>0.0225237477014656</v>
       </c>
       <c r="F11" t="n">
-        <v>463.3350184009813</v>
+        <v>380.2560258974221</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.497169327301341</v>
+        <v>2.008422359087385</v>
       </c>
       <c r="H11" t="n">
-        <v>23166.75092004906</v>
+        <v>19012.8012948711</v>
       </c>
     </row>
     <row r="12">
@@ -4720,10 +4720,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.903510930490752</v>
+        <v>5.780297156677907</v>
       </c>
       <c r="C12" t="n">
-        <v>1040850.657556635</v>
+        <v>854763.2757652067</v>
       </c>
       <c r="D12" t="n">
         <v>9187.220369999999</v>
@@ -4732,13 +4732,13 @@
         <v>-0.009699504678168902</v>
       </c>
       <c r="F12" t="n">
-        <v>203.9323197844902</v>
+        <v>167.4396898956863</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.109869533827728</v>
+        <v>0.8930388599014993</v>
       </c>
       <c r="H12" t="n">
-        <v>-10196.61598922451</v>
+        <v>8371.984494784316</v>
       </c>
     </row>
     <row r="13">
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.11578077782903</v>
+        <v>5.780297156677907</v>
       </c>
       <c r="C13" t="n">
-        <v>1120568.093514963</v>
+        <v>854763.2757652067</v>
       </c>
       <c r="D13" t="n">
         <v>9905.217914000001</v>
@@ -4760,13 +4760,13 @@
         <v>0.07815177116514532</v>
       </c>
       <c r="F13" t="n">
-        <v>1626.886448129143</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.212269847338275</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>81344.32240645714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4776,10 +4776,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.77875685489276</v>
+        <v>5.780297156677907</v>
       </c>
       <c r="C14" t="n">
-        <v>1246795.241518062</v>
+        <v>854763.2757652067</v>
       </c>
       <c r="D14" t="n">
         <v>11043.76888</v>
@@ -4788,13 +4788,13 @@
         <v>0.1149445651660803</v>
       </c>
       <c r="F14" t="n">
-        <v>2576.06424496122</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-11.66297607706374</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>128803.212248061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4804,10 +4804,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>29.76599502562032</v>
+        <v>1.757729762805669</v>
       </c>
       <c r="C15" t="n">
-        <v>1315223.457169228</v>
+        <v>854763.2757652067</v>
       </c>
       <c r="D15" t="n">
         <v>11662.25693</v>
@@ -4816,13 +4816,13 @@
         <v>0.05600334964633921</v>
       </c>
       <c r="F15" t="n">
-        <v>1396.49419696256</v>
+        <v>957.3921319505826</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.987238170727558</v>
+        <v>4.022567393872238</v>
       </c>
       <c r="H15" t="n">
-        <v>69824.70984812798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4832,10 +4832,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.97873761150141</v>
+        <v>0.3484303247469529</v>
       </c>
       <c r="C16" t="n">
-        <v>1341019.045133279</v>
+        <v>854763.2757652067</v>
       </c>
       <c r="D16" t="n">
         <v>11895.65777</v>
@@ -4844,13 +4844,13 @@
         <v>0.02001335088061726</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4405706949249</v>
+        <v>342.1335471550979</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.212742585881087</v>
+        <v>1.409299438058716</v>
       </c>
       <c r="H16" t="n">
-        <v>26322.02853474624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4860,10 +4860,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.73671998442014</v>
+        <v>1.748907410764563</v>
       </c>
       <c r="C17" t="n">
-        <v>1314345.843614017</v>
+        <v>838095.183976229</v>
       </c>
       <c r="D17" t="n">
         <v>11663.68955</v>
@@ -4872,13 +4872,13 @@
         <v>-0.01950024323875624</v>
       </c>
       <c r="F17" t="n">
-        <v>523.0039513580716</v>
+        <v>333.3618357795521</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.242017627081268</v>
+        <v>1.400477086017611</v>
       </c>
       <c r="H17" t="n">
-        <v>-26150.19756790358</v>
+        <v>16668.09178897761</v>
       </c>
     </row>
     <row r="18">
@@ -4888,10 +4888,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30.21405385996399</v>
+        <v>1.45062199395284</v>
       </c>
       <c r="C18" t="n">
-        <v>1319825.178333763</v>
+        <v>841660.3966731579</v>
       </c>
       <c r="D18" t="n">
         <v>11713.30627</v>
@@ -4900,13 +4900,13 @@
         <v>0.004253947242620152</v>
       </c>
       <c r="F18" t="n">
-        <v>111.8231575458221</v>
+        <v>71.30425393857819</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.477333875543844</v>
+        <v>0.298285416811724</v>
       </c>
       <c r="H18" t="n">
-        <v>5591.157877291107</v>
+        <v>3565.212696928909</v>
       </c>
     </row>
     <row r="19">
@@ -4916,10 +4916,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.51627284882977</v>
+        <v>11.26097929991936</v>
       </c>
       <c r="C19" t="n">
-        <v>1155208.552134715</v>
+        <v>738741.763903779</v>
       </c>
       <c r="D19" t="n">
         <v>10280.99762</v>
@@ -4928,13 +4928,13 @@
         <v>-0.1222804746144488</v>
       </c>
       <c r="F19" t="n">
-        <v>3227.776984295041</v>
+        <v>2058.37265538758</v>
       </c>
       <c r="G19" t="n">
-        <v>-15.69778101113421</v>
+        <v>9.810357305966523</v>
       </c>
       <c r="H19" t="n">
-        <v>-161388.849214752</v>
+        <v>102918.632769379</v>
       </c>
     </row>
     <row r="20">
@@ -4944,10 +4944,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.03558504458185</v>
+        <v>10.93552736774508</v>
       </c>
       <c r="C20" t="n">
-        <v>1160465.112972919</v>
+        <v>742171.8725497116</v>
       </c>
       <c r="D20" t="n">
         <v>10328.73411</v>
@@ -4956,13 +4956,13 @@
         <v>0.004643176835984845</v>
       </c>
       <c r="F20" t="n">
-        <v>107.2767518000701</v>
+        <v>68.60217291865224</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.5193121957520798</v>
+        <v>0.3254519321742865</v>
       </c>
       <c r="H20" t="n">
-        <v>5363.837590003503</v>
+        <v>3430.108645932612</v>
       </c>
     </row>
     <row r="21">
@@ -4972,10 +4972,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>21.26402018866293</v>
+        <v>7.03181847049703</v>
       </c>
       <c r="C21" t="n">
-        <v>1227210.437952501</v>
+        <v>785729.7971233909</v>
       </c>
       <c r="D21" t="n">
         <v>10934.92553</v>
@@ -4984,13 +4984,13 @@
         <v>0.05868980782583056</v>
       </c>
       <c r="F21" t="n">
-        <v>1362.149489379227</v>
+        <v>871.1584914735878</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.228435144081073</v>
+        <v>3.903708897248046</v>
       </c>
       <c r="H21" t="n">
-        <v>68107.47446896136</v>
+        <v>43557.92457367939</v>
       </c>
     </row>
     <row r="22">
@@ -5000,10 +5000,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.6153475457851</v>
+        <v>8.066280823103087</v>
       </c>
       <c r="C22" t="n">
-        <v>1209087.987699546</v>
+        <v>774354.2857977166</v>
       </c>
       <c r="D22" t="n">
         <v>10776.61364</v>
@@ -5012,13 +5012,13 @@
         <v>-0.01447763769087148</v>
       </c>
       <c r="F22" t="n">
-        <v>355.3421618226407</v>
+        <v>227.5102265134882</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.648672642877826</v>
+        <v>1.034462352606057</v>
       </c>
       <c r="H22" t="n">
-        <v>-17767.10809113203</v>
+        <v>11375.51132567441</v>
       </c>
     </row>
     <row r="23">
@@ -5028,10 +5028,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18.56359610394697</v>
+        <v>8.726397936141504</v>
       </c>
       <c r="C23" t="n">
-        <v>1197634.35187749</v>
+        <v>767162.6944973633</v>
       </c>
       <c r="D23" t="n">
         <v>10676.52896</v>
@@ -5040,13 +5040,13 @@
         <v>-0.009287210560144006</v>
       </c>
       <c r="F23" t="n">
-        <v>224.5810945501299</v>
+        <v>143.8318260070665</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.051751441838125</v>
+        <v>0.6601171130384174</v>
       </c>
       <c r="H23" t="n">
-        <v>-11229.05472750649</v>
+        <v>7191.591300353323</v>
       </c>
     </row>
     <row r="24">
@@ -5056,10 +5056,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25.61455216988499</v>
+        <v>4.300133912459549</v>
       </c>
       <c r="C24" t="n">
-        <v>1276356.749790675</v>
+        <v>767162.6944973633</v>
       </c>
       <c r="D24" t="n">
         <v>11392.63622</v>
@@ -5068,13 +5068,13 @@
         <v>0.06707304056242645</v>
       </c>
       <c r="F24" t="n">
-        <v>1606.579549248684</v>
+        <v>1029.11869052004</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.050956065938019</v>
+        <v>4.426264023681955</v>
       </c>
       <c r="H24" t="n">
-        <v>80328.97746243418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -5084,10 +5084,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.61258468773256</v>
+        <v>3.71225732591803</v>
       </c>
       <c r="C25" t="n">
-        <v>1287599.723015526</v>
+        <v>774058.2696670903</v>
       </c>
       <c r="D25" t="n">
         <v>11495.03794</v>
@@ -5096,13 +5096,13 @@
         <v>0.008988413043526447</v>
       </c>
       <c r="F25" t="n">
-        <v>229.4484331602305</v>
+        <v>137.9115033945399</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.9980325178475683</v>
+        <v>0.5878765865415191</v>
       </c>
       <c r="H25" t="n">
-        <v>11472.42165801152</v>
+        <v>6895.575169726995</v>
       </c>
     </row>
     <row r="26">
@@ -5112,10 +5112,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>39.8171284957029</v>
+        <v>3.71225732591803</v>
       </c>
       <c r="C26" t="n">
-        <v>1456229.369436107</v>
+        <v>774058.2696670903</v>
       </c>
       <c r="D26" t="n">
         <v>13031.20125</v>
@@ -5124,13 +5124,13 @@
         <v>0.1336370804531681</v>
       </c>
       <c r="F26" t="n">
-        <v>3441.421355522057</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-13.20454380797034</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>172071.0677761029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>45.55899539728944</v>
+        <v>0.7212115066612599</v>
       </c>
       <c r="C27" t="n">
-        <v>1533528.055797282</v>
+        <v>774058.2696670903</v>
       </c>
       <c r="D27" t="n">
         <v>13737.03221</v>
@@ -5152,13 +5152,13 @@
         <v>0.05416468876957903</v>
       </c>
       <c r="F27" t="n">
-        <v>1577.524211452541</v>
+        <v>838.5325053207365</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.741866901586531</v>
+        <v>2.991045819256771</v>
       </c>
       <c r="H27" t="n">
-        <v>78876.21057262707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5168,10 +5168,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>58.12588531086874</v>
+        <v>0.7212115066612599</v>
       </c>
       <c r="C28" t="n">
-        <v>1724167.823610836</v>
+        <v>774058.2696670903</v>
       </c>
       <c r="D28" t="n">
         <v>15479.59572</v>
@@ -5180,13 +5180,13 @@
         <v>0.1268515268335387</v>
       </c>
       <c r="F28" t="n">
-        <v>3890.607506399066</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-12.5668899135793</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>194530.3753199533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5196,10 +5196,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>61.4486322200439</v>
+        <v>0.7212115066612599</v>
       </c>
       <c r="C29" t="n">
-        <v>1776123.840823349</v>
+        <v>774058.2696670903</v>
       </c>
       <c r="D29" t="n">
         <v>15955.57698</v>
@@ -5208,13 +5208,13 @@
         <v>0.03074894645891957</v>
       </c>
       <c r="F29" t="n">
-        <v>1060.326881888029</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.322746909175169</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>53016.34409440147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5224,10 +5224,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>76.07941781875053</v>
+        <v>0.7212115066612599</v>
       </c>
       <c r="C30" t="n">
-        <v>2039516.270266491</v>
+        <v>774058.2696670903</v>
       </c>
       <c r="D30" t="n">
         <v>18370.01734</v>
@@ -5236,13 +5236,13 @@
         <v>0.1513226605986391</v>
       </c>
       <c r="F30" t="n">
-        <v>5375.35570292126</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-14.63078559870663</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>268767.785146063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.9086383527479</v>
+        <v>1.156670889854802</v>
       </c>
       <c r="C31" t="n">
-        <v>2017807.807876724</v>
+        <v>765980.7993223263</v>
       </c>
       <c r="D31" t="n">
         <v>18178.32212</v>
@@ -5264,13 +5264,13 @@
         <v>-0.01043522259407937</v>
       </c>
       <c r="F31" t="n">
-        <v>425.6561252895475</v>
+        <v>161.54940689528</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.170779466002629</v>
+        <v>0.435459383193542</v>
       </c>
       <c r="H31" t="n">
-        <v>-21282.80626447737</v>
+        <v>8077.470344764002</v>
       </c>
     </row>
     <row r="32">
@@ -5280,10 +5280,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>81.59289524097669</v>
+        <v>1.156670889854802</v>
       </c>
       <c r="C32" t="n">
-        <v>2144516.360959595</v>
+        <v>765980.7993223263</v>
       </c>
       <c r="D32" t="n">
         <v>19343.1288</v>
@@ -5292,13 +5292,13 @@
         <v>0.06407668828348377</v>
       </c>
       <c r="F32" t="n">
-        <v>2585.888838425931</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.684256888228783</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>129294.4419212966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5308,10 +5308,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>80.4425783750047</v>
+        <v>1.559324950015652</v>
       </c>
       <c r="C33" t="n">
-        <v>2122053.683741039</v>
+        <v>758114.8731807572</v>
       </c>
       <c r="D33" t="n">
         <v>19144.49246</v>
@@ -5320,13 +5320,13 @@
         <v>-0.01026909048964185</v>
       </c>
       <c r="F33" t="n">
-        <v>440.4446513442304</v>
+        <v>157.3185228313832</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.150316865971986</v>
+        <v>0.4026540601608499</v>
       </c>
       <c r="H33" t="n">
-        <v>-22022.23256721152</v>
+        <v>7865.926141569161</v>
       </c>
     </row>
     <row r="34">
@@ -5336,10 +5336,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.8882397552987</v>
+        <v>1.559324950015652</v>
       </c>
       <c r="C34" t="n">
-        <v>2592405.434812716</v>
+        <v>758114.8731807572</v>
       </c>
       <c r="D34" t="n">
         <v>23474.45541</v>
@@ -5348,13 +5348,13 @@
         <v>0.2261727731381183</v>
       </c>
       <c r="F34" t="n">
-        <v>9599.015327993407</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-20.44566138029399</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>479950.7663996704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5364,10 +5364,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>112.6809268169189</v>
+        <v>1.559324950015652</v>
       </c>
       <c r="C35" t="n">
-        <v>2896128.507486534</v>
+        <v>758114.8731807572</v>
       </c>
       <c r="D35" t="n">
         <v>26280.82142</v>
@@ -5376,13 +5376,13 @@
         <v>0.1195497812828707</v>
       </c>
       <c r="F35" t="n">
-        <v>6198.430054567712</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-11.79268706162022</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>309921.5027283856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>134.6131014545015</v>
+        <v>1.559324950015652</v>
       </c>
       <c r="C36" t="n">
-        <v>3601351.632478293</v>
+        <v>758114.8731807572</v>
       </c>
       <c r="D36" t="n">
         <v>32810.94764</v>
@@ -5404,13 +5404,13 @@
         <v>0.2484749664266772</v>
       </c>
       <c r="F36" t="n">
-        <v>14392.30867330119</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-21.93217463758262</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>719615.4336650593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5420,10 +5420,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>150.4577994707044</v>
+        <v>1.559324950015652</v>
       </c>
       <c r="C37" t="n">
-        <v>4196789.028777269</v>
+        <v>758114.8731807572</v>
       </c>
       <c r="D37" t="n">
         <v>38346.5295</v>
@@ -5432,13 +5432,13 @@
         <v>0.1687114289028197</v>
       </c>
       <c r="F37" t="n">
-        <v>12151.7835979383</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-15.84469801620287</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>607589.179896915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -5448,10 +5448,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>142.6474058979296</v>
+        <v>2.941989644968952</v>
       </c>
       <c r="C38" t="n">
-        <v>3911646.544429813</v>
+        <v>707616.2384899185</v>
       </c>
       <c r="D38" t="n">
         <v>35792.23667</v>
@@ -5460,13 +5460,13 @@
         <v>-0.066610795378497</v>
       </c>
       <c r="F38" t="n">
-        <v>5591.029104852076</v>
+        <v>1009.972693816772</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.810393572774836</v>
+        <v>1.382664694953299</v>
       </c>
       <c r="H38" t="n">
-        <v>-279551.4552426038</v>
+        <v>50498.63469083862</v>
       </c>
     </row>
     <row r="39">
@@ -5476,10 +5476,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>130.7780988797567</v>
+        <v>5.046202283937746</v>
       </c>
       <c r="C39" t="n">
-        <v>3520772.283648237</v>
+        <v>638293.5995862175</v>
       </c>
       <c r="D39" t="n">
         <v>32285.79891</v>
@@ -5488,13 +5488,13 @@
         <v>-0.09796643312148721</v>
       </c>
       <c r="F39" t="n">
-        <v>7664.201191795597</v>
+        <v>1386.452778074019</v>
       </c>
       <c r="G39" t="n">
-        <v>-11.86930701817283</v>
+        <v>2.104212638968795</v>
       </c>
       <c r="H39" t="n">
-        <v>-383210.0595897798</v>
+        <v>69322.63890370095</v>
       </c>
     </row>
     <row r="40">
@@ -5504,10 +5504,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>133.5073630345131</v>
+        <v>4.561300033184725</v>
       </c>
       <c r="C40" t="n">
-        <v>3609343.143736061</v>
+        <v>654678.6332968408</v>
       </c>
       <c r="D40" t="n">
         <v>33114.57724</v>
@@ -5516,13 +5516,13 @@
         <v>0.02567005798153865</v>
       </c>
       <c r="F40" t="n">
-        <v>1807.56857322089</v>
+        <v>327.7006742124644</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.729264154756411</v>
+        <v>0.4849022507530207</v>
       </c>
       <c r="H40" t="n">
-        <v>90378.42866104448</v>
+        <v>16385.03371062322</v>
       </c>
     </row>
     <row r="41">
@@ -5532,10 +5532,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>149.6863595988828</v>
+        <v>1.685374392888388</v>
       </c>
       <c r="C41" t="n">
-        <v>4225909.991957726</v>
+        <v>654678.6332968408</v>
       </c>
       <c r="D41" t="n">
         <v>38886.82729</v>
@@ -5544,13 +5544,13 @@
         <v>0.1743114522696531</v>
       </c>
       <c r="F41" t="n">
-        <v>12582.99690248296</v>
+        <v>2282.35966679768</v>
       </c>
       <c r="G41" t="n">
-        <v>-16.17899656436971</v>
+        <v>2.875925640296337</v>
       </c>
       <c r="H41" t="n">
-        <v>629149.8451241482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -5560,10 +5560,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>171.5778735652892</v>
+        <v>1.685374392888388</v>
       </c>
       <c r="C42" t="n">
-        <v>5270630.086117576</v>
+        <v>654678.6332968408</v>
       </c>
       <c r="D42" t="n">
         <v>48696.53666</v>
@@ -5572,13 +5572,13 @@
         <v>0.2522630426196438</v>
       </c>
       <c r="F42" t="n">
-        <v>21320.81824816021</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-21.89151396640638</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1066040.91240801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -5588,10 +5588,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.2010899436747</v>
+        <v>1.685374392888388</v>
       </c>
       <c r="C43" t="n">
-        <v>6207881.669690286</v>
+        <v>654678.6332968408</v>
       </c>
       <c r="D43" t="n">
         <v>57532.73886</v>
@@ -5600,13 +5600,13 @@
         <v>0.1814544278927782</v>
       </c>
       <c r="F43" t="n">
-        <v>19127.58333821858</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-16.62321637838552</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>956379.1669109289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5616,10 +5616,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>158.637136032767</v>
+        <v>4.740811363446062</v>
       </c>
       <c r="C44" t="n">
-        <v>4846086.333544393</v>
+        <v>513880.6586121653</v>
       </c>
       <c r="D44" t="n">
         <v>45159.50305</v>
@@ -5628,13 +5628,13 @@
         <v>-0.2150642582844699</v>
       </c>
       <c r="F44" t="n">
-        <v>26701.86933619396</v>
+        <v>2815.959493693511</v>
       </c>
       <c r="G44" t="n">
-        <v>-29.56395391090775</v>
+        <v>3.055436970557674</v>
       </c>
       <c r="H44" t="n">
-        <v>-1335093.466809698</v>
+        <v>140797.9746846755</v>
       </c>
     </row>
     <row r="45">
@@ -5644,10 +5644,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>171.2495840427104</v>
+        <v>3.430131612593452</v>
       </c>
       <c r="C45" t="n">
-        <v>5478608.605241301</v>
+        <v>582322.3717286227</v>
       </c>
       <c r="D45" t="n">
         <v>51174.11695</v>
@@ -5656,13 +5656,13 @@
         <v>0.1331860072361891</v>
       </c>
       <c r="F45" t="n">
-        <v>12908.61778973281</v>
+        <v>1368.834262329149</v>
       </c>
       <c r="G45" t="n">
-        <v>-12.61244800994345</v>
+        <v>1.31067975085261</v>
       </c>
       <c r="H45" t="n">
-        <v>645430.8894866407</v>
+        <v>68441.71311645747</v>
       </c>
     </row>
     <row r="46">
@@ -5672,10 +5672,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8690031921045</v>
+        <v>1.907308732393355</v>
       </c>
       <c r="C46" t="n">
-        <v>6327734.884686446</v>
+        <v>674418.0829612511</v>
       </c>
       <c r="D46" t="n">
         <v>59267.42905</v>
@@ -5684,13 +5684,13 @@
         <v>0.1581524524967889</v>
       </c>
       <c r="F46" t="n">
-        <v>17329.10774377848</v>
+        <v>1841.914224652569</v>
       </c>
       <c r="G46" t="n">
-        <v>-14.61941914939406</v>
+        <v>1.522822880200097</v>
       </c>
       <c r="H46" t="n">
-        <v>866455.3871889238</v>
+        <v>92095.71123262846</v>
       </c>
     </row>
     <row r="47">
@@ -5700,10 +5700,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>182.6214782144839</v>
+        <v>2.246511593684929</v>
       </c>
       <c r="C47" t="n">
-        <v>6137208.279627123</v>
+        <v>654509.6815644489</v>
       </c>
       <c r="D47" t="n">
         <v>57517.89149</v>
@@ -5712,13 +5712,13 @@
         <v>-0.02951937662968353</v>
       </c>
       <c r="F47" t="n">
-        <v>3735.815785476927</v>
+        <v>398.1680279360466</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.247524977620599</v>
+        <v>0.3392028612915741</v>
       </c>
       <c r="H47" t="n">
-        <v>-186790.7892738463</v>
+        <v>19908.40139680233</v>
       </c>
     </row>
     <row r="48">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>179.6272720067242</v>
+        <v>2.559445769134514</v>
       </c>
       <c r="C48" t="n">
-        <v>5966338.342291897</v>
+        <v>636644.3656131084</v>
       </c>
       <c r="D48" t="n">
         <v>55947.89897</v>
@@ -5740,13 +5740,13 @@
         <v>-0.02729572450118338</v>
       </c>
       <c r="F48" t="n">
-        <v>3350.390928141671</v>
+        <v>357.3063190268091</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.994206207759647</v>
+        <v>0.3129341754495852</v>
       </c>
       <c r="H48" t="n">
-        <v>-167519.5464070835</v>
+        <v>17865.31595134046</v>
       </c>
     </row>
     <row r="49">
@@ -5756,10 +5756,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>184.732341019434</v>
+        <v>2.025598881509963</v>
       </c>
       <c r="C49" t="n">
-        <v>6260317.089266498</v>
+        <v>668653.864902855</v>
       </c>
       <c r="D49" t="n">
         <v>58760.87326</v>
@@ -5768,13 +5768,13 @@
         <v>0.05027846160064656</v>
       </c>
       <c r="F49" t="n">
-        <v>5999.566264787768</v>
+        <v>640.1899857949331</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.105069012709706</v>
+        <v>0.5338468876245513</v>
       </c>
       <c r="H49" t="n">
-        <v>299978.3132393884</v>
+        <v>32009.49928974666</v>
       </c>
     </row>
     <row r="50">
@@ -5784,10 +5784,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>187.2376630452222</v>
+        <v>1.763361463364339</v>
       </c>
       <c r="C50" t="n">
-        <v>6408062.006699746</v>
+        <v>684756.2979521776</v>
       </c>
       <c r="D50" t="n">
         <v>60175.94476</v>
@@ -5796,13 +5796,13 @@
         <v>0.02408186641030185</v>
       </c>
       <c r="F50" t="n">
-        <v>3015.202396596911</v>
+        <v>322.0486609864515</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.505322025788258</v>
+        <v>0.2622374181456246</v>
       </c>
       <c r="H50" t="n">
-        <v>150760.1198298455</v>
+        <v>16102.43304932258</v>
       </c>
     </row>
     <row r="51">
@@ -5812,10 +5812,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>179.6868945549736</v>
+        <v>2.554088448717692</v>
       </c>
       <c r="C51" t="n">
-        <v>5975286.571130506</v>
+        <v>639417.3164159228</v>
       </c>
       <c r="D51" t="n">
         <v>56191.58411</v>
@@ -5824,13 +5824,13 @@
         <v>-0.06621185036464054</v>
       </c>
       <c r="F51" t="n">
-        <v>8485.792854298836</v>
+        <v>906.7796307250959</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.550768490248598</v>
+        <v>0.7907269853533534</v>
       </c>
       <c r="H51" t="n">
-        <v>-424289.6427149418</v>
+        <v>45338.9815362548</v>
       </c>
     </row>
     <row r="52">
@@ -5840,10 +5840,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>164.2733120424678</v>
+        <v>4.170512568330165</v>
       </c>
       <c r="C52" t="n">
-        <v>5203692.677016567</v>
+        <v>558467.7987546609</v>
       </c>
       <c r="D52" t="n">
         <v>49077.79236</v>
@@ -5852,13 +5852,13 @@
         <v>-0.1265988824247084</v>
       </c>
       <c r="F52" t="n">
-        <v>15129.2920414498</v>
+        <v>1618.99035322524</v>
       </c>
       <c r="G52" t="n">
-        <v>-15.41358251250587</v>
+        <v>1.616424119612473</v>
       </c>
       <c r="H52" t="n">
-        <v>-756464.6020724899</v>
+        <v>80949.51766126198</v>
       </c>
     </row>
     <row r="53">
@@ -5868,10 +5868,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>178.3976742794722</v>
+        <v>2.684982592336455</v>
       </c>
       <c r="C53" t="n">
-        <v>5987423.412650535</v>
+        <v>644295.4642913404</v>
       </c>
       <c r="D53" t="n">
         <v>56620.27262</v>
@@ -5880,13 +5880,13 @@
         <v>0.1536841796932042</v>
       </c>
       <c r="F53" t="n">
-        <v>15994.5048088565</v>
+        <v>1716.55331073359</v>
       </c>
       <c r="G53" t="n">
-        <v>-14.12436223700445</v>
+        <v>1.48552997599371</v>
       </c>
       <c r="H53" t="n">
-        <v>799725.2404428248</v>
+        <v>85827.6655366795</v>
       </c>
     </row>
     <row r="54">
@@ -5896,10 +5896,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>181.3578193413167</v>
+        <v>2.37281761794998</v>
       </c>
       <c r="C54" t="n">
-        <v>6156405.824664994</v>
+        <v>662850.4460579907</v>
       </c>
       <c r="D54" t="n">
         <v>58250.87253</v>
@@ -5908,13 +5908,13 @@
         <v>0.02879887069678325</v>
       </c>
       <c r="F54" t="n">
-        <v>3448.62065335631</v>
+        <v>371.0996353330049</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.960145061844544</v>
+        <v>0.3121649743864745</v>
       </c>
       <c r="H54" t="n">
-        <v>172431.0326678155</v>
+        <v>18554.98176665025</v>
       </c>
     </row>
     <row r="55">
@@ -5924,10 +5924,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>154.4098950597763</v>
+        <v>5.216229059024278</v>
       </c>
       <c r="C55" t="n">
-        <v>4880577.443447414</v>
+        <v>528177.4879200296</v>
       </c>
       <c r="D55" t="n">
         <v>46415.89925</v>
@@ -5936,13 +5936,13 @@
         <v>-0.2031724636211213</v>
       </c>
       <c r="F55" t="n">
-        <v>25016.24276897215</v>
+        <v>2693.459162759223</v>
       </c>
       <c r="G55" t="n">
-        <v>-26.94792428154039</v>
+        <v>2.843411441074298</v>
       </c>
       <c r="H55" t="n">
-        <v>-1250812.138448608</v>
+        <v>134672.9581379611</v>
       </c>
     </row>
     <row r="56">
@@ -5952,10 +5952,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>118.9095507209215</v>
+        <v>8.98124933628659</v>
       </c>
       <c r="C56" t="n">
-        <v>3624065.090920589</v>
+        <v>394863.6384614332</v>
       </c>
       <c r="D56" t="n">
         <v>34700.36357</v>
@@ -5964,13 +5964,13 @@
         <v>-0.2524035054647789</v>
       </c>
       <c r="F56" t="n">
-        <v>24637.49710836912</v>
+        <v>2666.276989171927</v>
       </c>
       <c r="G56" t="n">
-        <v>-35.50034433885488</v>
+        <v>3.765020277262312</v>
       </c>
       <c r="H56" t="n">
-        <v>-1231874.855418456</v>
+        <v>133313.8494585963</v>
       </c>
     </row>
     <row r="57">
@@ -5980,10 +5980,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>121.7160649521043</v>
+        <v>8.681578501172417</v>
       </c>
       <c r="C57" t="n">
-        <v>3722139.912554663</v>
+        <v>405767.5571668614</v>
       </c>
       <c r="D57" t="n">
         <v>35658.59296</v>
@@ -5992,13 +5992,13 @@
         <v>0.02761439049671607</v>
       </c>
       <c r="F57" t="n">
-        <v>2001.526972123959</v>
+        <v>218.0783741085626</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.806514231182888</v>
+        <v>0.2996708351141729</v>
       </c>
       <c r="H57" t="n">
-        <v>100076.348606198</v>
+        <v>10903.91870542813</v>
       </c>
     </row>
     <row r="58">
@@ -6008,10 +6008,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>122.2306852860673</v>
+        <v>8.626599398862295</v>
       </c>
       <c r="C58" t="n">
-        <v>3740212.637732983</v>
+        <v>407777.9558697029</v>
       </c>
       <c r="D58" t="n">
         <v>35835.26551</v>
@@ -6020,13 +6020,13 @@
         <v>0.004954557522731701</v>
       </c>
       <c r="F58" t="n">
-        <v>368.8311260881525</v>
+        <v>40.20797405683077</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.5146203339629623</v>
+        <v>0.05497910231012288</v>
       </c>
       <c r="H58" t="n">
-        <v>18441.55630440762</v>
+        <v>2010.398702841539</v>
       </c>
     </row>
     <row r="59">
@@ -6036,10 +6036,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>130.7419086964144</v>
+        <v>7.717219150203801</v>
       </c>
       <c r="C59" t="n">
-        <v>4065653.144729876</v>
+        <v>443983.3253025493</v>
       </c>
       <c r="D59" t="n">
         <v>39016.97018</v>
@@ -6048,13 +6048,13 @@
         <v>0.08878697073172598</v>
       </c>
       <c r="F59" t="n">
-        <v>6641.6429999366</v>
+        <v>724.1073886569272</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.511223410347082</v>
+        <v>0.9093802486584938</v>
       </c>
       <c r="H59" t="n">
-        <v>332082.14999683</v>
+        <v>36205.36943284636</v>
       </c>
     </row>
     <row r="60">
@@ -6064,10 +6064,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>120.8721863740858</v>
+        <v>8.773470665244433</v>
       </c>
       <c r="C60" t="n">
-        <v>3706849.565570885</v>
+        <v>405569.0247682029</v>
       </c>
       <c r="D60" t="n">
         <v>35641.14606</v>
@@ -6076,13 +6076,13 @@
         <v>-0.08652194428286071</v>
       </c>
       <c r="F60" t="n">
-        <v>7035.364297235115</v>
+        <v>768.2860106869277</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.869722322328593</v>
+        <v>1.056251515040632</v>
       </c>
       <c r="H60" t="n">
-        <v>-351768.2148617558</v>
+        <v>38414.30053434639</v>
       </c>
     </row>
     <row r="61">
@@ -6092,10 +6092,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>117.9870188232246</v>
+        <v>9.082825517070235</v>
       </c>
       <c r="C61" t="n">
-        <v>3604793.385886963</v>
+        <v>394621.9281194101</v>
       </c>
       <c r="D61" t="n">
         <v>34679.12222</v>
@@ -6104,13 +6104,13 @@
         <v>-0.02699194460190716</v>
       </c>
       <c r="F61" t="n">
-        <v>2001.101562429859</v>
+        <v>218.9419329758569</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.885167550861181</v>
+        <v>0.3093548518258024</v>
       </c>
       <c r="H61" t="n">
-        <v>-100055.078121493</v>
+        <v>10947.09664879285</v>
       </c>
     </row>
     <row r="62">
@@ -6120,10 +6120,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>119.7699931323616</v>
+        <v>8.891544444716578</v>
       </c>
       <c r="C62" t="n">
-        <v>3666446.243927725</v>
+        <v>401508.8946907021</v>
       </c>
       <c r="D62" t="n">
         <v>35284.34443</v>
@@ -6132,13 +6132,13 @@
         <v>0.01745206254531318</v>
       </c>
       <c r="F62" t="n">
-        <v>1258.221592668611</v>
+        <v>137.7393314258405</v>
       </c>
       <c r="G62" t="n">
-        <v>-1.782974309136981</v>
+        <v>0.191281072353657</v>
       </c>
       <c r="H62" t="n">
-        <v>62911.07963343053</v>
+        <v>6886.966571292025</v>
       </c>
     </row>
     <row r="63">
@@ -6148,10 +6148,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>116.644437738782</v>
+        <v>9.226975388939508</v>
       </c>
       <c r="C63" t="n">
-        <v>3557242.161096992</v>
+        <v>389784.5506823229</v>
       </c>
       <c r="D63" t="n">
         <v>34254.01659</v>
@@ -6160,13 +6160,13 @@
         <v>-0.0292007080376411</v>
       </c>
       <c r="F63" t="n">
-        <v>2141.256526092787</v>
+        <v>234.4868801675836</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.125555393579592</v>
+        <v>0.3354309442229296</v>
       </c>
       <c r="H63" t="n">
-        <v>-107062.8263046393</v>
+        <v>11724.34400837918</v>
       </c>
     </row>
     <row r="64">
@@ -6176,10 +6176,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>108.6304275155632</v>
+        <v>10.08754728365595</v>
       </c>
       <c r="C64" t="n">
-        <v>3297299.622173637</v>
+        <v>361859.8597337396</v>
       </c>
       <c r="D64" t="n">
         <v>31800.01264</v>
@@ -6188,13 +6188,13 @@
         <v>-0.07164134879050686</v>
       </c>
       <c r="F64" t="n">
-        <v>5096.912527908921</v>
+        <v>558.493818971666</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.014010223218769</v>
+        <v>0.8605718947164428</v>
       </c>
       <c r="H64" t="n">
-        <v>-254845.626395446</v>
+        <v>27924.6909485833</v>
       </c>
     </row>
     <row r="65">
@@ -6204,10 +6204,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>119.132957187042</v>
+        <v>8.95800630701879</v>
       </c>
       <c r="C65" t="n">
-        <v>3661489.009410607</v>
+        <v>402643.2389868149</v>
       </c>
       <c r="D65" t="n">
         <v>35384.02988</v>
@@ -6216,13 +6216,13 @@
         <v>0.1127048998556625</v>
       </c>
       <c r="F65" t="n">
-        <v>7432.43647422387</v>
+        <v>815.6675850615039</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.50252967147883</v>
+        <v>1.129540976637161</v>
       </c>
       <c r="H65" t="n">
-        <v>371621.8237111935</v>
+        <v>40783.3792530752</v>
       </c>
     </row>
     <row r="66">
@@ -6232,10 +6232,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>130.8615918068224</v>
+        <v>7.694037929218795</v>
       </c>
       <c r="C66" t="n">
-        <v>4120185.559960928</v>
+        <v>454114.1760143174</v>
       </c>
       <c r="D66" t="n">
         <v>39907.26285</v>
@@ -6244,13 +6244,13 @@
         <v>0.1278326122078212</v>
       </c>
       <c r="F66" t="n">
-        <v>9361.154092863706</v>
+        <v>1029.418740550051</v>
       </c>
       <c r="G66" t="n">
-        <v>-11.72863461978038</v>
+        <v>1.263968377799995</v>
       </c>
       <c r="H66" t="n">
-        <v>468057.7046431853</v>
+        <v>51470.93702750256</v>
       </c>
     </row>
     <row r="67">
@@ -6260,10 +6260,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>140.0200907270082</v>
+        <v>6.704804787279079</v>
       </c>
       <c r="C67" t="n">
-        <v>4513232.513550073</v>
+        <v>498318.6922931772</v>
       </c>
       <c r="D67" t="n">
         <v>43791.92742</v>
@@ -6272,13 +6272,13 @@
         <v>0.09734229542630737</v>
       </c>
       <c r="F67" t="n">
-        <v>8021.366399778447</v>
+        <v>884.0903255771966</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.158498920185741</v>
+        <v>0.9892331419397167</v>
       </c>
       <c r="H67" t="n">
-        <v>401068.3199889223</v>
+        <v>44204.51627885983</v>
       </c>
     </row>
     <row r="68">
@@ -6288,10 +6288,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>147.0954658012515</v>
+        <v>5.939216971668584</v>
       </c>
       <c r="C68" t="n">
-        <v>4839262.698619178</v>
+        <v>535051.2529840637</v>
       </c>
       <c r="D68" t="n">
         <v>47019.96132</v>
@@ -6300,13 +6300,13 @@
         <v>0.07371298981751925</v>
       </c>
       <c r="F68" t="n">
-        <v>6653.677246308267</v>
+        <v>734.6512138177297</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.075375074243326</v>
+        <v>0.7655878156104948</v>
       </c>
       <c r="H68" t="n">
-        <v>332683.8623154134</v>
+        <v>36732.56069088649</v>
       </c>
     </row>
     <row r="69">
@@ -6316,10 +6316,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>151.8387307052672</v>
+        <v>5.425268424457869</v>
       </c>
       <c r="C69" t="n">
-        <v>5068390.112281778</v>
+        <v>560901.6468349727</v>
       </c>
       <c r="D69" t="n">
         <v>49291.67737</v>
@@ -6328,13 +6328,13 @@
         <v>0.04831386471246879</v>
       </c>
       <c r="F69" t="n">
-        <v>4676.069666583672</v>
+        <v>517.0078770181793</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.743264904015654</v>
+        <v>0.5139485472107153</v>
       </c>
       <c r="H69" t="n">
-        <v>233803.4833291836</v>
+        <v>25850.39385090897</v>
       </c>
     </row>
     <row r="70">
@@ -6344,10 +6344,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>150.8768612713446</v>
+        <v>5.529586335041668</v>
       </c>
       <c r="C70" t="n">
-        <v>5020477.905136716</v>
+        <v>555703.3307173755</v>
       </c>
       <c r="D70" t="n">
         <v>48834.85268</v>
@@ -6356,13 +6356,13 @@
         <v>-0.00926778544318777</v>
       </c>
       <c r="F70" t="n">
-        <v>939.4550420600378</v>
+        <v>103.9663223519441</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.9618694339225329</v>
+        <v>0.1043179105837995</v>
       </c>
       <c r="H70" t="n">
-        <v>-46972.75210300189</v>
+        <v>5198.316117597207</v>
       </c>
     </row>
     <row r="71">
@@ -6372,10 +6372,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>156.7036318793333</v>
+        <v>4.897535606513406</v>
       </c>
       <c r="C71" t="n">
-        <v>5316091.095657798</v>
+        <v>589091.7357129252</v>
       </c>
       <c r="D71" t="n">
         <v>51769.00432</v>
@@ -6384,13 +6384,13 @@
         <v>0.06008314715776053</v>
       </c>
       <c r="F71" t="n">
-        <v>6032.922255532292</v>
+        <v>667.7680999109948</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.826770607988673</v>
+        <v>0.6320507285282621</v>
       </c>
       <c r="H71" t="n">
-        <v>301646.1127766146</v>
+        <v>33388.40499554974</v>
       </c>
     </row>
     <row r="72">
@@ -6400,10 +6400,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>143.9686866763312</v>
+        <v>6.280508513124001</v>
       </c>
       <c r="C72" t="n">
-        <v>4717824.259958773</v>
+        <v>524095.9388197414</v>
       </c>
       <c r="D72" t="n">
         <v>46057.21533</v>
@@ -6412,13 +6412,13 @@
         <v>-0.1103322164493196</v>
       </c>
       <c r="F72" t="n">
-        <v>11730.72226860834</v>
+        <v>1299.915937863677</v>
       </c>
       <c r="G72" t="n">
-        <v>-12.73494520300207</v>
+        <v>1.382972906610595</v>
       </c>
       <c r="H72" t="n">
-        <v>-586536.1134304168</v>
+        <v>64995.79689318383</v>
       </c>
     </row>
     <row r="73">
@@ -6428,10 +6428,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>146.5786408323903</v>
+        <v>5.996371382879548</v>
       </c>
       <c r="C73" t="n">
-        <v>4838707.362188329</v>
+        <v>537798.7147526257</v>
       </c>
       <c r="D73" t="n">
         <v>47261.4065</v>
@@ -6440,13 +6440,13 @@
         <v>0.02614554877823088</v>
       </c>
       <c r="F73" t="n">
-        <v>2467.002086317462</v>
+        <v>274.0555186576851</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.609954156059091</v>
+        <v>0.2841371302444537</v>
       </c>
       <c r="H73" t="n">
-        <v>123350.1043158731</v>
+        <v>13702.77593288426</v>
       </c>
     </row>
     <row r="74">
@@ -6456,10 +6456,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>137.0418784092796</v>
+        <v>7.035136703106705</v>
       </c>
       <c r="C74" t="n">
-        <v>4418146.928949401</v>
+        <v>491972.0086775526</v>
       </c>
       <c r="D74" t="n">
         <v>43234.18493</v>
@@ -6468,13 +6468,13 @@
         <v>-0.08521163182056367</v>
       </c>
       <c r="F74" t="n">
-        <v>8246.283004684854</v>
+        <v>916.5341215014616</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.536762423110694</v>
+        <v>1.038765320227158</v>
       </c>
       <c r="H74" t="n">
-        <v>-412314.1502342427</v>
+        <v>45826.70607507308</v>
       </c>
     </row>
     <row r="75">
@@ -6484,10 +6484,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>147.587069771353</v>
+        <v>5.884387242184723</v>
       </c>
       <c r="C75" t="n">
-        <v>4916351.642137971</v>
+        <v>548580.5540518996</v>
       </c>
       <c r="D75" t="n">
         <v>48208.90763</v>
@@ -6496,13 +6496,13 @@
         <v>0.1150645654140241</v>
       </c>
       <c r="F75" t="n">
-        <v>10167.44312629736</v>
+        <v>1132.170907486941</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.54519136207335</v>
+        <v>1.150749460921982</v>
       </c>
       <c r="H75" t="n">
-        <v>508372.1563148678</v>
+        <v>56608.54537434706</v>
       </c>
     </row>
     <row r="76">
@@ -6512,10 +6512,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>159.7447983045329</v>
+        <v>4.554925059368357</v>
       </c>
       <c r="C76" t="n">
-        <v>5568485.420817756</v>
+        <v>622832.5429134606</v>
       </c>
       <c r="D76" t="n">
         <v>54734.12484</v>
@@ -6524,13 +6524,13 @@
         <v>0.1353529364340836</v>
       </c>
       <c r="F76" t="n">
-        <v>13308.85262611806</v>
+        <v>1485.039777231222</v>
       </c>
       <c r="G76" t="n">
-        <v>-12.15772853317998</v>
+        <v>1.329462182816366</v>
       </c>
       <c r="H76" t="n">
-        <v>665442.6313059031</v>
+        <v>74251.9888615611</v>
       </c>
     </row>
     <row r="77">
@@ -6540,10 +6540,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>171.0091103209877</v>
+        <v>3.320215084241601</v>
       </c>
       <c r="C77" t="n">
-        <v>6247924.248371219</v>
+        <v>700378.3812319676</v>
       </c>
       <c r="D77" t="n">
         <v>61548.80343</v>
@@ -6552,13 +6552,13 @@
         <v>0.1245051165049377</v>
       </c>
       <c r="F77" t="n">
-        <v>13866.09852149923</v>
+        <v>1550.91676637014</v>
       </c>
       <c r="G77" t="n">
-        <v>-11.26431201645477</v>
+        <v>1.234709975126756</v>
       </c>
       <c r="H77" t="n">
-        <v>693304.9260749617</v>
+        <v>77545.83831850701</v>
       </c>
     </row>
     <row r="78">
@@ -6568,10 +6568,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>169.9174158018907</v>
+        <v>3.440144075934904</v>
       </c>
       <c r="C78" t="n">
-        <v>6180117.130046134</v>
+        <v>692926.3941555243</v>
       </c>
       <c r="D78" t="n">
         <v>60893.92758</v>
@@ -6580,13 +6580,13 @@
         <v>-0.01063994445878697</v>
       </c>
       <c r="F78" t="n">
-        <v>1329.551339707562</v>
+        <v>149.0397415288652</v>
       </c>
       <c r="G78" t="n">
-        <v>-1.09169451909704</v>
+        <v>0.1199289916933027</v>
       </c>
       <c r="H78" t="n">
-        <v>-66477.56698537809</v>
+        <v>7451.987076443259</v>
       </c>
     </row>
     <row r="79">
@@ -6596,10 +6596,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>170.6233410831414</v>
+        <v>3.362577394851127</v>
       </c>
       <c r="C79" t="n">
-        <v>6222539.03248773</v>
+        <v>697779.887777468</v>
       </c>
       <c r="D79" t="n">
         <v>61320.44949</v>
@@ -6608,13 +6608,13 @@
         <v>0.007004342254646794</v>
       </c>
       <c r="F79" t="n">
-        <v>865.7531110529723</v>
+        <v>97.06987243887157</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.7059252812507166</v>
+        <v>0.07756668108377734</v>
       </c>
       <c r="H79" t="n">
-        <v>43287.65555264861</v>
+        <v>4853.493621943579</v>
       </c>
     </row>
     <row r="80">
@@ -6624,10 +6624,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>173.8651307261588</v>
+        <v>3.006321774844112</v>
       </c>
       <c r="C80" t="n">
-        <v>6423780.210726914</v>
+        <v>720807.1122072915</v>
       </c>
       <c r="D80" t="n">
         <v>63344.06722</v>
@@ -6636,13 +6636,13 @@
         <v>0.03300069955178664</v>
       </c>
       <c r="F80" t="n">
-        <v>4106.962821207854</v>
+        <v>460.5444885964724</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.24178964301738</v>
+        <v>0.3562556200070152</v>
       </c>
       <c r="H80" t="n">
-        <v>205348.1410603927</v>
+        <v>23027.22442982362</v>
       </c>
     </row>
     <row r="81">
@@ -6652,10 +6652,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>177.2349377479395</v>
+        <v>2.635760956662728</v>
       </c>
       <c r="C81" t="n">
-        <v>6640158.429603094</v>
+        <v>745582.2372951788</v>
       </c>
       <c r="D81" t="n">
         <v>65521.28934</v>
@@ -6664,13 +6664,13 @@
         <v>0.03437136602609216</v>
       </c>
       <c r="F81" t="n">
-        <v>4415.882017881244</v>
+        <v>495.502501757746</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.36980702178078</v>
+        <v>0.3705608181813833</v>
       </c>
       <c r="H81" t="n">
-        <v>220794.1008940622</v>
+        <v>24775.1250878873</v>
       </c>
     </row>
     <row r="82">
@@ -6680,10 +6680,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>165.4714148490565</v>
+        <v>3.930196976242397</v>
       </c>
       <c r="C82" t="n">
-        <v>5935747.075260131</v>
+        <v>668039.1144038418</v>
       </c>
       <c r="D82" t="n">
         <v>58706.84938</v>
@@ -6692,13 +6692,13 @@
         <v>-0.1040034472557283</v>
       </c>
       <c r="F82" t="n">
-        <v>13811.9873400581</v>
+        <v>1550.862457826741</v>
       </c>
       <c r="G82" t="n">
-        <v>-11.763522898883</v>
+        <v>1.294436019579668</v>
       </c>
       <c r="H82" t="n">
-        <v>-690599.3670029051</v>
+        <v>77543.12289133703</v>
       </c>
     </row>
     <row r="83">
@@ -6708,10 +6708,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>162.9743328507418</v>
+        <v>4.205610577442942</v>
       </c>
       <c r="C83" t="n">
-        <v>5789823.239630676</v>
+        <v>651938.1248106501</v>
       </c>
       <c r="D83" t="n">
         <v>57291.90473</v>
@@ -6720,13 +6720,13 @@
         <v>-0.0241018665614516</v>
       </c>
       <c r="F83" t="n">
-        <v>2861.251679008926</v>
+        <v>322.0197918638339</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.497081998314743</v>
+        <v>0.2754136012005454</v>
       </c>
       <c r="H83" t="n">
-        <v>-143062.5839504463</v>
+        <v>16100.98959319169</v>
       </c>
     </row>
     <row r="84">
@@ -6736,10 +6736,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>146.8617170698683</v>
+        <v>5.983616489118107</v>
       </c>
       <c r="C84" t="n">
-        <v>4977719.228433465</v>
+        <v>562287.6575083673</v>
       </c>
       <c r="D84" t="n">
         <v>49413.4791</v>
@@ -6748,13 +6748,13 @@
         <v>-0.1375137668598857</v>
       </c>
       <c r="F84" t="n">
-        <v>15923.60806269042</v>
+        <v>1793.009346045656</v>
       </c>
       <c r="G84" t="n">
-        <v>-16.11261578087347</v>
+        <v>1.778005911675164</v>
       </c>
       <c r="H84" t="n">
-        <v>-796180.4031345211</v>
+        <v>89650.46730228282</v>
       </c>
     </row>
     <row r="85">
@@ -6764,10 +6764,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>148.2713294693274</v>
+        <v>5.827570021778629</v>
       </c>
       <c r="C85" t="n">
-        <v>5046948.741522742</v>
+        <v>570267.4822972678</v>
       </c>
       <c r="D85" t="n">
         <v>50114.74099</v>
@@ -6776,13 +6776,13 @@
         <v>0.01419171251999541</v>
       </c>
       <c r="F85" t="n">
-        <v>1412.847205903622</v>
+        <v>159.5964957780078</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.409612399459018</v>
+        <v>0.1560464673394769</v>
       </c>
       <c r="H85" t="n">
-        <v>70642.3602951811</v>
+        <v>7979.824788900389</v>
       </c>
     </row>
     <row r="86">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>140.9238362228704</v>
+        <v>6.64117760046729</v>
       </c>
       <c r="C86" t="n">
-        <v>4696905.304102375</v>
+        <v>531490.7255474518</v>
       </c>
       <c r="D86" t="n">
         <v>46707.06445</v>
@@ -6804,13 +6804,13 @@
         <v>-0.06799748881631405</v>
       </c>
       <c r="F86" t="n">
-        <v>6863.59681216406</v>
+        <v>775.5351349963207</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.347493246456917</v>
+        <v>0.8136075786886605</v>
       </c>
       <c r="H86" t="n">
-        <v>-343179.840608203</v>
+        <v>38776.75674981604</v>
       </c>
     </row>
     <row r="87">
@@ -6820,10 +6820,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>149.0307370999374</v>
+        <v>5.742166974721095</v>
       </c>
       <c r="C87" t="n">
-        <v>5100519.984696442</v>
+        <v>578094.8941634707</v>
       </c>
       <c r="D87" t="n">
         <v>50802.60893</v>
@@ -6832,13 +6832,13 @@
         <v>0.08768576077788602</v>
       </c>
       <c r="F87" t="n">
-        <v>8237.034297838098</v>
+        <v>932.0833723203785</v>
       </c>
       <c r="G87" t="n">
-        <v>-8.106900877066922</v>
+        <v>0.8990106257461953</v>
       </c>
       <c r="H87" t="n">
-        <v>411851.7148919048</v>
+        <v>46604.16861601893</v>
       </c>
     </row>
     <row r="88">
@@ -6848,10 +6848,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>141.6952928934165</v>
+        <v>6.556940997337512</v>
       </c>
       <c r="C88" t="n">
-        <v>4746288.34235535</v>
+        <v>538733.3741610225</v>
       </c>
       <c r="D88" t="n">
         <v>47343.54377</v>
@@ -6860,13 +6860,13 @@
         <v>-0.06808833705304759</v>
       </c>
       <c r="F88" t="n">
-        <v>6945.718477276329</v>
+        <v>787.2304000489654</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.335444206520929</v>
+        <v>0.814774022616417</v>
       </c>
       <c r="H88" t="n">
-        <v>-347285.9238638165</v>
+        <v>39361.52000244827</v>
       </c>
     </row>
     <row r="89">
@@ -6876,10 +6876,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>128.6984454079988</v>
+        <v>8.002659903215148</v>
       </c>
       <c r="C89" t="n">
-        <v>4190693.446615667</v>
+        <v>476906.4220583421</v>
       </c>
       <c r="D89" t="n">
         <v>41910.23083</v>
@@ -6888,13 +6888,13 @@
         <v>-0.1147635455088789</v>
       </c>
       <c r="F89" t="n">
-        <v>10894.0175635232</v>
+        <v>1236.539042053608</v>
       </c>
       <c r="G89" t="n">
-        <v>-12.99684748541767</v>
+        <v>1.445718905877637</v>
       </c>
       <c r="H89" t="n">
-        <v>-544700.8781761598</v>
+        <v>61826.95210268041</v>
       </c>
     </row>
     <row r="90">
@@ -6904,10 +6904,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>131.4995746388849</v>
+        <v>7.690263158972808</v>
       </c>
       <c r="C90" t="n">
-        <v>4309057.284676776</v>
+        <v>490651.2795451689</v>
       </c>
       <c r="D90" t="n">
         <v>43118.1201</v>
@@ -6916,13 +6916,13 @@
         <v>0.02882086894008166</v>
       </c>
       <c r="F90" t="n">
-        <v>2415.588531859385</v>
+        <v>274.8971497365349</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.80112923088614</v>
+        <v>0.3123967442423403</v>
       </c>
       <c r="H90" t="n">
-        <v>120779.4265929692</v>
+        <v>13744.85748682675</v>
       </c>
     </row>
     <row r="91">
@@ -6932,10 +6932,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>112.6494642819988</v>
+        <v>9.793705641179262</v>
       </c>
       <c r="C91" t="n">
-        <v>3611579.683904659</v>
+        <v>412790.1389735296</v>
       </c>
       <c r="D91" t="n">
         <v>36275.73295</v>
@@ -6944,13 +6944,13 @@
         <v>-0.1586893661906193</v>
       </c>
       <c r="F91" t="n">
-        <v>13676.03138768857</v>
+        <v>1557.222811432785</v>
       </c>
       <c r="G91" t="n">
-        <v>-18.85011035688608</v>
+        <v>2.103442482206454</v>
       </c>
       <c r="H91" t="n">
-        <v>-683801.5693844286</v>
+        <v>77861.14057163922</v>
       </c>
     </row>
     <row r="92">
@@ -6960,10 +6960,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>116.9671996677935</v>
+        <v>9.31007455145466</v>
       </c>
       <c r="C92" t="n">
-        <v>3772034.828193062</v>
+        <v>431503.8398080774</v>
       </c>
       <c r="D92" t="n">
         <v>37920.28099</v>
@@ -6972,13 +6972,13 @@
         <v>0.04533466056403973</v>
       </c>
       <c r="F92" t="n">
-        <v>3274.594781395993</v>
+        <v>374.274016690955</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.317735385794662</v>
+        <v>0.4836310897246017</v>
       </c>
       <c r="H92" t="n">
-        <v>163729.7390697996</v>
+        <v>18713.70083454775</v>
       </c>
     </row>
     <row r="93">
@@ -6988,10 +6988,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>127.4910955176467</v>
+        <v>8.130265869331561</v>
       </c>
       <c r="C93" t="n">
-        <v>4209393.687236591</v>
+        <v>482556.7875570873</v>
       </c>
       <c r="D93" t="n">
         <v>42406.78133</v>
@@ -7000,13 +7000,13 @@
         <v>0.1183140056684479</v>
       </c>
       <c r="F93" t="n">
-        <v>8925.691000888342</v>
+        <v>1021.058954980198</v>
       </c>
       <c r="G93" t="n">
-        <v>-10.52389584985315</v>
+        <v>1.179808682123099</v>
       </c>
       <c r="H93" t="n">
-        <v>446284.5500444171</v>
+        <v>51052.94774900992</v>
       </c>
     </row>
     <row r="94">
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>126.9039093154435</v>
+        <v>8.19623348707335</v>
       </c>
       <c r="C94" t="n">
-        <v>4184144.359272909</v>
+        <v>479719.0087896228</v>
       </c>
       <c r="D94" t="n">
         <v>42157.39915</v>
@@ -7028,13 +7028,13 @@
         <v>-0.005880714644654701</v>
       </c>
       <c r="F94" t="n">
-        <v>495.0848620329854</v>
+        <v>56.75557534928981</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5871862022031137</v>
+        <v>0.06596761774178854</v>
       </c>
       <c r="H94" t="n">
-        <v>-24754.24310164927</v>
+        <v>2837.778767464491</v>
       </c>
     </row>
     <row r="95">
@@ -7044,10 +7044,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>117.2581696773497</v>
+        <v>9.280015349191652</v>
       </c>
       <c r="C95" t="n">
-        <v>3806111.675237733</v>
+        <v>437226.7864003667</v>
       </c>
       <c r="D95" t="n">
         <v>38423.20987</v>
@@ -7056,13 +7056,13 @@
         <v>-0.08857731632621361</v>
       </c>
       <c r="F95" t="n">
-        <v>7412.405569317177</v>
+        <v>849.8444477851215</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.645739638093875</v>
+        <v>1.083781862118303</v>
       </c>
       <c r="H95" t="n">
-        <v>-370620.2784658588</v>
+        <v>42492.22238925607</v>
       </c>
     </row>
     <row r="96">
@@ -7072,10 +7072,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>115.373987486591</v>
+        <v>9.492131727968847</v>
       </c>
       <c r="C96" t="n">
-        <v>3733645.799638524</v>
+        <v>429065.5002293864</v>
       </c>
       <c r="D96" t="n">
         <v>37706.00127</v>
@@ -7084,13 +7084,13 @@
         <v>-0.01866602510374801</v>
       </c>
       <c r="F96" t="n">
-        <v>1420.899521553118</v>
+        <v>163.2257234196063</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.88418219075862</v>
+        <v>0.2121163787771948</v>
       </c>
       <c r="H96" t="n">
-        <v>-71044.9760776559</v>
+        <v>8161.286170980313</v>
       </c>
     </row>
     <row r="97">
@@ -7100,10 +7100,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>117.2377025013334</v>
+        <v>9.282239643706438</v>
       </c>
       <c r="C97" t="n">
-        <v>3803834.642863745</v>
+        <v>437296.1190633103</v>
       </c>
       <c r="D97" t="n">
         <v>38429.30278</v>
@@ -7112,13 +7112,13 @@
         <v>0.0191826628557263</v>
       </c>
       <c r="F97" t="n">
-        <v>1432.425371943289</v>
+        <v>164.6123766784775</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.863715014742311</v>
+        <v>0.2098920842624092</v>
       </c>
       <c r="H97" t="n">
-        <v>71621.26859716442</v>
+        <v>8230.618833923872</v>
       </c>
     </row>
     <row r="98">
@@ -7128,10 +7128,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>115.7129691960441</v>
+        <v>9.454020180774533</v>
       </c>
       <c r="C98" t="n">
-        <v>3744974.992921991</v>
+        <v>430662.1797121754</v>
       </c>
       <c r="D98" t="n">
         <v>37846.31644</v>
@@ -7140,13 +7140,13 @@
         <v>-0.01517035953885177</v>
       </c>
       <c r="F98" t="n">
-        <v>1154.110783171657</v>
+        <v>132.678787022699</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.524733305289217</v>
+        <v>0.1717805370680944</v>
       </c>
       <c r="H98" t="n">
-        <v>-57705.53915858283</v>
+        <v>6633.939351134949</v>
       </c>
     </row>
     <row r="99">
@@ -7156,10 +7156,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>123.8693507782864</v>
+        <v>8.534817201885922</v>
       </c>
       <c r="C99" t="n">
-        <v>4074665.80727212</v>
+        <v>469349.4941849871</v>
       </c>
       <c r="D99" t="n">
         <v>41246.13285</v>
@@ -7168,13 +7168,13 @@
         <v>0.08983216148366589</v>
       </c>
       <c r="F99" t="n">
-        <v>6728.383966329176</v>
+        <v>773.7462894562336</v>
       </c>
       <c r="G99" t="n">
-        <v>-8.156381582242291</v>
+        <v>0.9192029788886122</v>
       </c>
       <c r="H99" t="n">
-        <v>336419.1983164588</v>
+        <v>38687.31447281168</v>
       </c>
     </row>
     <row r="100">
@@ -7184,10 +7184,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>135.6335112741198</v>
+        <v>7.20683768685218</v>
       </c>
       <c r="C100" t="n">
-        <v>4614469.17310394</v>
+        <v>532796.9002951682</v>
       </c>
       <c r="D100" t="n">
         <v>46821.85025</v>
@@ -7196,13 +7196,13 @@
         <v>0.1351815798168822</v>
       </c>
       <c r="F100" t="n">
-        <v>11016.39522105754</v>
+        <v>1268.948122203622</v>
       </c>
       <c r="G100" t="n">
-        <v>-11.76416049583339</v>
+        <v>1.327979515033742</v>
       </c>
       <c r="H100" t="n">
-        <v>550819.7610528767</v>
+        <v>63447.40611018111</v>
       </c>
     </row>
     <row r="101">
@@ -7212,10 +7212,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>134.8344366457509</v>
+        <v>7.29725536649112</v>
       </c>
       <c r="C101" t="n">
-        <v>4576613.67018151</v>
+        <v>528511.723060392</v>
       </c>
       <c r="D101" t="n">
         <v>46445.27162</v>
@@ -7224,13 +7224,13 @@
         <v>-0.008042796856367366</v>
       </c>
       <c r="F101" t="n">
-        <v>742.2647631848896</v>
+        <v>85.70354469552511</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.7990746283689077</v>
+        <v>0.0904176796389404</v>
       </c>
       <c r="H101" t="n">
-        <v>-37113.23815924448</v>
+        <v>4285.177234776255</v>
       </c>
     </row>
     <row r="102">
@@ -7240,10 +7240,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>124.9243176678834</v>
+        <v>8.418796782371246</v>
       </c>
       <c r="C102" t="n">
-        <v>4150032.014135699</v>
+        <v>480215.5881949986</v>
       </c>
       <c r="D102" t="n">
         <v>42201.03823</v>
@@ -7252,13 +7252,13 @@
         <v>-0.09138138807164115</v>
       </c>
       <c r="F102" t="n">
-        <v>8364.34619697669</v>
+        <v>965.9226973078682</v>
       </c>
       <c r="G102" t="n">
-        <v>-9.910118977867491</v>
+        <v>1.121541415880126</v>
       </c>
       <c r="H102" t="n">
-        <v>-418217.3098488345</v>
+        <v>48296.13486539341</v>
       </c>
     </row>
     <row r="103">
@@ -7268,10 +7268,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>118.7848776782522</v>
+        <v>9.115005794795993</v>
       </c>
       <c r="C103" t="n">
-        <v>3901288.753659527</v>
+        <v>451996.9560957575</v>
       </c>
       <c r="D103" t="n">
         <v>39721.20292</v>
@@ -7280,13 +7280,13 @@
         <v>-0.05876242419640573</v>
       </c>
       <c r="F103" t="n">
-        <v>4877.31883286612</v>
+        <v>564.3726419848199</v>
       </c>
       <c r="G103" t="n">
-        <v>-6.13943998963126</v>
+        <v>0.6962090124247469</v>
       </c>
       <c r="H103" t="n">
-        <v>-243865.941643306</v>
+        <v>28218.63209924099</v>
       </c>
     </row>
     <row r="104">
@@ -7296,10 +7296,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>118.1663156746728</v>
+        <v>9.185238068595741</v>
       </c>
       <c r="C104" t="n">
-        <v>3876384.173456212</v>
+        <v>449168.1285769822</v>
       </c>
       <c r="D104" t="n">
         <v>39472.60737</v>
@@ -7308,13 +7308,13 @@
         <v>-0.00625851010858574</v>
       </c>
       <c r="F104" t="n">
-        <v>488.3251020258003</v>
+        <v>56.57655037550568</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.6185620035793956</v>
+        <v>0.07023227379974768</v>
       </c>
       <c r="H104" t="n">
-        <v>-24416.25510129001</v>
+        <v>2828.827518775284</v>
       </c>
     </row>
     <row r="105">
@@ -7324,10 +7324,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>115.6126350512825</v>
+        <v>9.475222563774773</v>
       </c>
       <c r="C105" t="n">
-        <v>3776173.581014523</v>
+        <v>437784.110445221</v>
       </c>
       <c r="D105" t="n">
         <v>38472.18715</v>
@@ -7336,13 +7336,13 @@
         <v>-0.02534467030825889</v>
       </c>
       <c r="F105" t="n">
-        <v>1964.913577288007</v>
+        <v>227.6803626352251</v>
       </c>
       <c r="G105" t="n">
-        <v>-2.553680623390301</v>
+        <v>0.289984495179033</v>
       </c>
       <c r="H105" t="n">
-        <v>-98245.67886440032</v>
+        <v>11384.01813176125</v>
       </c>
     </row>
     <row r="106">
@@ -7352,10 +7352,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>102.8977442848446</v>
+        <v>10.91981971580922</v>
       </c>
       <c r="C106" t="n">
-        <v>3334442.817156514</v>
+        <v>387576.9661996526</v>
       </c>
       <c r="D106" t="n">
         <v>34060.01548</v>
@@ -7364,13 +7364,13 @@
         <v>-0.1146847111342355</v>
       </c>
       <c r="F106" t="n">
-        <v>8661.387526627643</v>
+        <v>1004.142884911368</v>
       </c>
       <c r="G106" t="n">
-        <v>-12.71489076643785</v>
+        <v>1.444597152034443</v>
       </c>
       <c r="H106" t="n">
-        <v>-433069.3763313821</v>
+        <v>50207.14424556842</v>
       </c>
     </row>
     <row r="107">
@@ -7380,10 +7380,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>94.27995047412922</v>
+        <v>11.90147014209324</v>
       </c>
       <c r="C107" t="n">
-        <v>3059272.682610262</v>
+        <v>356219.8720985448</v>
       </c>
       <c r="D107" t="n">
         <v>31304.37414</v>
@@ -7392,13 +7392,13 @@
         <v>-0.08090546352270776</v>
       </c>
       <c r="F107" t="n">
-        <v>5395.492834240225</v>
+        <v>627.1418820221546</v>
       </c>
       <c r="G107" t="n">
-        <v>-8.617793810715401</v>
+        <v>0.9816504262840239</v>
       </c>
       <c r="H107" t="n">
-        <v>-269774.6417120112</v>
+        <v>31357.09410110773</v>
       </c>
     </row>
     <row r="108">
@@ -7408,10 +7408,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>91.07184081968083</v>
+        <v>12.26754949452757</v>
       </c>
       <c r="C108" t="n">
-        <v>2960092.09779291</v>
+        <v>344897.7861433675</v>
       </c>
       <c r="D108" t="n">
         <v>30309.39648</v>
@@ -7420,13 +7420,13 @@
         <v>-0.03178398186624792</v>
       </c>
       <c r="F108" t="n">
-        <v>1944.717349359844</v>
+        <v>226.4417191035461</v>
       </c>
       <c r="G108" t="n">
-        <v>-3.208109654448395</v>
+        <v>0.3660793524343299</v>
       </c>
       <c r="H108" t="n">
-        <v>-97235.86746799221</v>
+        <v>11322.0859551773</v>
       </c>
     </row>
     <row r="109">
@@ -7436,10 +7436,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>88.19924976190192</v>
+        <v>12.5955579680209</v>
       </c>
       <c r="C109" t="n">
-        <v>2873821.773762461</v>
+        <v>335043.0173259768</v>
       </c>
       <c r="D109" t="n">
         <v>29443.36571</v>
@@ -7448,13 +7448,13 @@
         <v>-0.02857301268177549</v>
       </c>
       <c r="F109" t="n">
-        <v>1691.574980989205</v>
+        <v>197.0953763478146</v>
       </c>
       <c r="G109" t="n">
-        <v>-2.872591057778911</v>
+        <v>0.3280084734933287</v>
       </c>
       <c r="H109" t="n">
-        <v>-84578.74904946022</v>
+        <v>9854.76881739073</v>
       </c>
     </row>
     <row r="110">
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>89.72292521473975</v>
+        <v>12.4214737957563</v>
       </c>
       <c r="C110" t="n">
-        <v>2918483.867552208</v>
+        <v>340356.1877174008</v>
       </c>
       <c r="D110" t="n">
         <v>29910.28372</v>
@@ -7476,13 +7476,13 @@
         <v>0.01585817377669631</v>
       </c>
       <c r="F110" t="n">
-        <v>911.4713018315747</v>
+        <v>106.2634078284803</v>
       </c>
       <c r="G110" t="n">
-        <v>-1.523675452837822</v>
+        <v>0.1740841722645997</v>
       </c>
       <c r="H110" t="n">
-        <v>45573.56509157873</v>
+        <v>5313.170391424012</v>
       </c>
     </row>
     <row r="111">
@@ -7492,10 +7492,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>78.14463200486466</v>
+        <v>13.74473924374477</v>
       </c>
       <c r="C111" t="n">
-        <v>2602716.843405537</v>
+        <v>304253.2155945575</v>
       </c>
       <c r="D111" t="n">
         <v>26737.57766</v>
@@ -7504,13 +7504,13 @@
         <v>-0.1060740877519165</v>
       </c>
       <c r="F111" t="n">
-        <v>6191.510277385714</v>
+        <v>722.0594424568671</v>
       </c>
       <c r="G111" t="n">
-        <v>-11.57829320987508</v>
+        <v>1.323265447988473</v>
       </c>
       <c r="H111" t="n">
-        <v>-309575.5138692857</v>
+        <v>36102.97212284336</v>
       </c>
     </row>
     <row r="112">
@@ -7520,10 +7520,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>48.85554293878506</v>
+        <v>17.1001075242833</v>
       </c>
       <c r="C112" t="n">
-        <v>1988687.561707969</v>
+        <v>233881.6578445429</v>
       </c>
       <c r="D112" t="n">
         <v>20553.37025</v>
@@ -7532,13 +7532,13 @@
         <v>-0.2312927329707847</v>
       </c>
       <c r="F112" t="n">
-        <v>12039.78983720721</v>
+        <v>1407.431155000291</v>
       </c>
       <c r="G112" t="n">
-        <v>-29.28908906607959</v>
+        <v>3.355368280538531</v>
       </c>
       <c r="H112" t="n">
-        <v>-601989.4918603606</v>
+        <v>70371.55775001457</v>
       </c>
     </row>
     <row r="113">
@@ -7548,10 +7548,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>51.04055334474499</v>
+        <v>16.84827652343956</v>
       </c>
       <c r="C113" t="n">
-        <v>2033715.542672492</v>
+        <v>239285.2928235648</v>
       </c>
       <c r="D113" t="n">
         <v>21028.23823</v>
@@ -7560,13 +7560,13 @@
         <v>0.02310414176477938</v>
       </c>
       <c r="F113" t="n">
-        <v>918.9383870310874</v>
+        <v>108.0726995804389</v>
       </c>
       <c r="G113" t="n">
-        <v>-2.185010405959928</v>
+        <v>0.2518310008437405</v>
       </c>
       <c r="H113" t="n">
-        <v>45946.91935155437</v>
+        <v>5403.634979021945</v>
       </c>
     </row>
     <row r="114">
@@ -7576,10 +7576,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>42.36557376806611</v>
+        <v>17.84855364430276</v>
       </c>
       <c r="C114" t="n">
-        <v>1862963.660059827</v>
+        <v>219588.6990701305</v>
       </c>
       <c r="D114" t="n">
         <v>19297.31419</v>
@@ -7588,13 +7588,13 @@
         <v>-0.08231426813162931</v>
       </c>
       <c r="F114" t="n">
-        <v>3348.076129660111</v>
+        <v>393.931875068687</v>
       </c>
       <c r="G114" t="n">
-        <v>-8.674979576678879</v>
+        <v>1.000277120863194</v>
       </c>
       <c r="H114" t="n">
-        <v>-167403.8064830056</v>
+        <v>19696.59375343435</v>
       </c>
     </row>
     <row r="115">
@@ -7604,10 +7604,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>49.58206462050555</v>
+        <v>17.01495357218647</v>
       </c>
       <c r="C115" t="n">
-        <v>2010463.146874615</v>
+        <v>237329.3698251047</v>
       </c>
       <c r="D115" t="n">
         <v>20856.35297</v>
@@ -7616,13 +7616,13 @@
         <v>0.08079045429067551</v>
       </c>
       <c r="F115" t="n">
-        <v>3010.19360846506</v>
+        <v>354.8134150994855</v>
       </c>
       <c r="G115" t="n">
-        <v>-7.216490852439432</v>
+        <v>0.8336000721162896</v>
       </c>
       <c r="H115" t="n">
-        <v>150509.680423253</v>
+        <v>17740.67075497428</v>
       </c>
     </row>
     <row r="116">
@@ -7632,10 +7632,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>49.23677207859125</v>
+        <v>17.05489914406881</v>
       </c>
       <c r="C116" t="n">
-        <v>2003143.791045988</v>
+        <v>236482.2827438031</v>
       </c>
       <c r="D116" t="n">
         <v>20781.9115</v>
@@ -7644,13 +7644,13 @@
         <v>-0.003569246747361774</v>
       </c>
       <c r="F116" t="n">
-        <v>143.5167809534587</v>
+        <v>16.94174162603349</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.3452925419142958</v>
+        <v>0.03994557188233822</v>
       </c>
       <c r="H116" t="n">
-        <v>-7175.839047672935</v>
+        <v>847.0870813016746</v>
       </c>
     </row>
     <row r="117">
@@ -7660,10 +7660,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>57.0189589121695</v>
+        <v>16.15454324896917</v>
       </c>
       <c r="C117" t="n">
-        <v>2175558.237146536</v>
+        <v>257252.1661834734</v>
       </c>
       <c r="D117" t="n">
         <v>22607.15555</v>
@@ -7672,13 +7672,13 @@
         <v>0.08782849691184573</v>
       </c>
       <c r="F117" t="n">
-        <v>3518.662165317311</v>
+        <v>415.3976687934068</v>
       </c>
       <c r="G117" t="n">
-        <v>-7.782186833578254</v>
+        <v>0.900355895099635</v>
       </c>
       <c r="H117" t="n">
-        <v>175933.1082658655</v>
+        <v>20769.88343967034</v>
       </c>
     </row>
     <row r="118">
@@ -7688,10 +7688,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>60.02744158485829</v>
+        <v>15.80591552766306</v>
       </c>
       <c r="C118" t="n">
-        <v>2244362.186799568</v>
+        <v>265554.0303023864</v>
       </c>
       <c r="D118" t="n">
         <v>23336.71805</v>
@@ -7700,13 +7700,13 @@
         <v>0.03227130889538202</v>
       </c>
       <c r="F118" t="n">
-        <v>1404.162237816973</v>
+        <v>166.0372823782604</v>
       </c>
       <c r="G118" t="n">
-        <v>-3.008482672688787</v>
+        <v>0.3486277213061141</v>
       </c>
       <c r="H118" t="n">
-        <v>70208.11189084865</v>
+        <v>8301.864118913021</v>
       </c>
     </row>
     <row r="119">
@@ -7716,10 +7716,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>59.37524837908842</v>
+        <v>15.88153998998903</v>
       </c>
       <c r="C119" t="n">
-        <v>2228942.3061435</v>
+        <v>263765.3167614409</v>
       </c>
       <c r="D119" t="n">
         <v>23179.52705</v>
@@ -7728,13 +7728,13 @@
         <v>-0.006735780055413529</v>
       </c>
       <c r="F119" t="n">
-        <v>302.3506010993765</v>
+        <v>35.77427081890989</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.6521932057698659</v>
+        <v>0.07562446232597246</v>
       </c>
       <c r="H119" t="n">
-        <v>-15117.53005496882</v>
+        <v>1788.713540945495</v>
       </c>
     </row>
     <row r="120">
@@ -7744,10 +7744,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>63.87826774544312</v>
+        <v>15.35932570039067</v>
       </c>
       <c r="C120" t="n">
-        <v>2336258.034795792</v>
+        <v>276723.8594579889</v>
       </c>
       <c r="D120" t="n">
         <v>24318.31548</v>
@@ -7756,13 +7756,13 @@
         <v>0.04912906236367754</v>
       </c>
       <c r="F120" t="n">
-        <v>2190.116911271265</v>
+        <v>259.1708539309599</v>
       </c>
       <c r="G120" t="n">
-        <v>-4.503019366354698</v>
+        <v>0.5222142895983612</v>
       </c>
       <c r="H120" t="n">
-        <v>109505.8455635632</v>
+        <v>12958.54269654799</v>
       </c>
     </row>
     <row r="121">
@@ -7772,10 +7772,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>51.44378824891805</v>
+        <v>16.80270171591363</v>
       </c>
       <c r="C121" t="n">
-        <v>2063170.838107336</v>
+        <v>245011.6160904484</v>
       </c>
       <c r="D121" t="n">
         <v>21531.46385</v>
@@ -7784,13 +7784,13 @@
         <v>-0.1145988764021085</v>
       </c>
       <c r="F121" t="n">
-        <v>5354.650915459915</v>
+        <v>634.2448673508101</v>
       </c>
       <c r="G121" t="n">
-        <v>-12.43447949652507</v>
+        <v>1.443376015522962</v>
       </c>
       <c r="H121" t="n">
-        <v>-267732.5457729957</v>
+        <v>31712.2433675405</v>
       </c>
     </row>
     <row r="122">
@@ -7800,10 +7800,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>42.08249602233806</v>
+        <v>17.89216691621121</v>
       </c>
       <c r="C122" t="n">
-        <v>1875875.191781751</v>
+        <v>223205.4661065504</v>
       </c>
       <c r="D122" t="n">
         <v>19615.15336</v>
@@ -7812,13 +7812,13 @@
         <v>-0.08900047406669936</v>
       </c>
       <c r="F122" t="n">
-        <v>3672.463653442847</v>
+        <v>436.1229996779612</v>
       </c>
       <c r="G122" t="n">
-        <v>-9.361292226579989</v>
+        <v>1.089465200297577</v>
       </c>
       <c r="H122" t="n">
-        <v>-183623.1826721424</v>
+        <v>21806.14998389806</v>
       </c>
     </row>
     <row r="123">
@@ -7828,10 +7828,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>43.87011509335183</v>
+        <v>17.68371689633763</v>
       </c>
       <c r="C123" t="n">
-        <v>1910892.886832695</v>
+        <v>227457.1636935175</v>
       </c>
       <c r="D123" t="n">
         <v>19988.78982</v>
@@ -7840,13 +7840,13 @@
         <v>0.01904835782532987</v>
       </c>
       <c r="F123" t="n">
-        <v>714.6468377743618</v>
+        <v>85.03395173934221</v>
       </c>
       <c r="G123" t="n">
-        <v>-1.787619071013779</v>
+        <v>0.2084500198735777</v>
       </c>
       <c r="H123" t="n">
-        <v>35732.34188871809</v>
+        <v>4251.697586967111</v>
       </c>
     </row>
     <row r="124">
@@ -7856,10 +7856,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>51.69251009350851</v>
+        <v>16.77122483755164</v>
       </c>
       <c r="C124" t="n">
-        <v>2077781.690759781</v>
+        <v>247727.6609253743</v>
       </c>
       <c r="D124" t="n">
         <v>21770.14813</v>
@@ -7868,13 +7868,13 @@
         <v>0.08911786686643941</v>
       </c>
       <c r="F124" t="n">
-        <v>3405.893957695643</v>
+        <v>405.4099446371362</v>
       </c>
       <c r="G124" t="n">
-        <v>-7.822395000156672</v>
+        <v>0.9124920587859899</v>
       </c>
       <c r="H124" t="n">
-        <v>170294.6978847821</v>
+        <v>20270.49723185681</v>
       </c>
     </row>
     <row r="125">
@@ -7884,10 +7884,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>40.13457092226386</v>
+        <v>18.12168279170944</v>
       </c>
       <c r="C125" t="n">
-        <v>1848854.250149655</v>
+        <v>220968.5137493331</v>
       </c>
       <c r="D125" t="n">
         <v>19418.57142</v>
@@ -7896,13 +7896,13 @@
         <v>-0.1080184064875263</v>
       </c>
       <c r="F125" t="n">
-        <v>4488.773345296595</v>
+        <v>535.1829435208234</v>
       </c>
       <c r="G125" t="n">
-        <v>-11.55793917124464</v>
+        <v>1.350457954157801</v>
       </c>
       <c r="H125" t="n">
-        <v>-224438.6672648297</v>
+        <v>26759.14717604117</v>
       </c>
     </row>
     <row r="126">
@@ -7912,10 +7912,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>37.02228113845702</v>
+        <v>18.48621324989606</v>
       </c>
       <c r="C126" t="n">
-        <v>1789160.598566657</v>
+        <v>213974.029553058</v>
       </c>
       <c r="D126" t="n">
         <v>18803.90063</v>
@@ -7924,13 +7924,13 @@
         <v>-0.03165375952254268</v>
       </c>
       <c r="F126" t="n">
-        <v>1170.463756529363</v>
+        <v>139.8896839255011</v>
       </c>
       <c r="G126" t="n">
-        <v>-3.112289783806848</v>
+        <v>0.364530458186619</v>
       </c>
       <c r="H126" t="n">
-        <v>-58523.18782646814</v>
+        <v>6994.484196275055</v>
       </c>
     </row>
     <row r="127">
@@ -7940,10 +7940,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>38.22220969460776</v>
+        <v>18.34557831887297</v>
       </c>
       <c r="C127" t="n">
-        <v>1811555.088988375</v>
+        <v>216706.9491127353</v>
       </c>
       <c r="D127" t="n">
         <v>19044.06785</v>
@@ -7952,13 +7952,13 @@
         <v>0.01277220214708183</v>
       </c>
       <c r="F127" t="n">
-        <v>457.0304167697454</v>
+        <v>54.65839119354637</v>
       </c>
       <c r="G127" t="n">
-        <v>-1.199928556150742</v>
+        <v>0.1406349310230887</v>
       </c>
       <c r="H127" t="n">
-        <v>22851.52083848727</v>
+        <v>2732.919559677318</v>
       </c>
     </row>
     <row r="128">
@@ -7968,10 +7968,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>40.19034297506045</v>
+        <v>18.11484948372919</v>
       </c>
       <c r="C128" t="n">
-        <v>1849062.765176817</v>
+        <v>221285.3664234178</v>
       </c>
       <c r="D128" t="n">
         <v>19446.41623</v>
@@ -7980,13 +7980,13 @@
         <v>0.02112722886565432</v>
       </c>
       <c r="F128" t="n">
-        <v>765.4627793559636</v>
+        <v>91.56834621364929</v>
       </c>
       <c r="G128" t="n">
-        <v>-1.968133280452682</v>
+        <v>0.2307288351437706</v>
       </c>
       <c r="H128" t="n">
-        <v>38273.13896779818</v>
+        <v>4578.417310682465</v>
       </c>
     </row>
     <row r="129">
@@ -7996,10 +7996,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>39.31268213013856</v>
+        <v>18.2177822966197</v>
       </c>
       <c r="C129" t="n">
-        <v>1831813.277433839</v>
+        <v>219261.5222424909</v>
       </c>
       <c r="D129" t="n">
         <v>19268.5621</v>
@@ -8008,13 +8008,13 @@
         <v>-0.009145856382813818</v>
       </c>
       <c r="F129" t="n">
-        <v>338.2252498623152</v>
+        <v>40.47688361853821</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.8776608449218823</v>
+        <v>0.1029328128905048</v>
       </c>
       <c r="H129" t="n">
-        <v>-16911.26249311576</v>
+        <v>2023.84418092691</v>
       </c>
     </row>
     <row r="130">
@@ -8024,10 +8024,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>40.76634271941933</v>
+        <v>18.04726426358382</v>
       </c>
       <c r="C130" t="n">
-        <v>1859689.274983241</v>
+        <v>222666.2748748183</v>
       </c>
       <c r="D130" t="n">
         <v>19567.76958</v>
@@ -8036,13 +8036,13 @@
         <v>0.01552827234576061</v>
       </c>
       <c r="F130" t="n">
-        <v>568.8979091714598</v>
+        <v>68.09505264654892</v>
       </c>
       <c r="G130" t="n">
-        <v>-1.453660589280763</v>
+        <v>0.1705180330358784</v>
       </c>
       <c r="H130" t="n">
-        <v>28444.89545857299</v>
+        <v>3404.752632327446</v>
       </c>
     </row>
     <row r="131">
@@ -8052,10 +8052,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>45.67597862991131</v>
+        <v>17.47117547993101</v>
       </c>
       <c r="C131" t="n">
-        <v>1958967.131470861</v>
+        <v>234795.7043352551</v>
       </c>
       <c r="D131" t="n">
         <v>20633.69607</v>
@@ -8064,13 +8064,13 @@
         <v>0.05447358144943986</v>
       </c>
       <c r="F131" t="n">
-        <v>2026.078703828986</v>
+        <v>242.5885892087356</v>
       </c>
       <c r="G131" t="n">
-        <v>-4.909635910491983</v>
+        <v>0.5760887836528089</v>
       </c>
       <c r="H131" t="n">
-        <v>101303.9351914493</v>
+        <v>12129.42946043678</v>
       </c>
     </row>
     <row r="132">
@@ -8080,10 +8080,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>46.99597486518642</v>
+        <v>17.31612905164427</v>
       </c>
       <c r="C132" t="n">
-        <v>1986035.143323858</v>
+        <v>238106.2019563567</v>
       </c>
       <c r="D132" t="n">
         <v>20924.62048</v>
@@ -8092,13 +8092,13 @@
         <v>0.01409948120845804</v>
       </c>
       <c r="F132" t="n">
-        <v>552.4084051632072</v>
+        <v>66.20995242203202</v>
       </c>
       <c r="G132" t="n">
-        <v>-1.319996235275105</v>
+        <v>0.1550464282867399</v>
       </c>
       <c r="H132" t="n">
-        <v>27620.42025816036</v>
+        <v>3310.497621101601</v>
       </c>
     </row>
     <row r="133">
@@ -8108,10 +8108,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>20.45479977285119</v>
+        <v>20.43451597927719</v>
       </c>
       <c r="C133" t="n">
-        <v>1543353.049135515</v>
+        <v>186073.5977708625</v>
       </c>
       <c r="D133" t="n">
         <v>16352.02856</v>
@@ -8120,13 +8120,13 @@
         <v>-0.21852687480619</v>
       </c>
       <c r="F133" t="n">
-        <v>8680.041062516528</v>
+        <v>1040.652083709883</v>
       </c>
       <c r="G133" t="n">
-        <v>-26.54117509233523</v>
+        <v>3.118386927632927</v>
       </c>
       <c r="H133" t="n">
-        <v>-434002.0531258264</v>
+        <v>52032.60418549416</v>
       </c>
     </row>
     <row r="134">
@@ -8136,10 +8136,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>20.10252826679691</v>
+        <v>20.47613799053974</v>
       </c>
       <c r="C134" t="n">
-        <v>1537499.336513152</v>
+        <v>185381.6860356745</v>
       </c>
       <c r="D134" t="n">
         <v>16291.2238</v>
@@ -8148,13 +8148,13 @@
         <v>-0.003718484209888201</v>
       </c>
       <c r="F134" t="n">
-        <v>114.7786788698644</v>
+        <v>13.83823470376081</v>
       </c>
       <c r="G134" t="n">
-        <v>-0.3522715060542733</v>
+        <v>0.04162201126254738</v>
       </c>
       <c r="H134" t="n">
-        <v>-5738.933943493221</v>
+        <v>691.9117351880407</v>
       </c>
     </row>
     <row r="135">
@@ -8164,10 +8164,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>20.95786048538306</v>
+        <v>20.37507019393275</v>
       </c>
       <c r="C135" t="n">
-        <v>1551279.951114755</v>
+        <v>187077.1727931907</v>
       </c>
       <c r="D135" t="n">
         <v>16440.22209</v>
@@ -8176,13 +8176,13 @@
         <v>0.009145923708935822</v>
       </c>
       <c r="F135" t="n">
-        <v>281.2370326857746</v>
+        <v>33.90973515032344</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.8553322185861499</v>
+        <v>0.1010677966069891</v>
       </c>
       <c r="H135" t="n">
-        <v>14061.85163428873</v>
+        <v>1695.486757516172</v>
       </c>
     </row>
     <row r="136">
@@ -8192,10 +8192,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>24.75158329057437</v>
+        <v>19.92671491317165</v>
       </c>
       <c r="C136" t="n">
-        <v>1614962.581691777</v>
+        <v>194913.7341343799</v>
       </c>
       <c r="D136" t="n">
         <v>17128.89408</v>
@@ -8204,13 +8204,13 @@
         <v>0.04188945783274385</v>
       </c>
       <c r="F136" t="n">
-        <v>1299.645521980049</v>
+        <v>156.7312268237859</v>
       </c>
       <c r="G136" t="n">
-        <v>-3.793722805191313</v>
+        <v>0.4483552807610981</v>
       </c>
       <c r="H136" t="n">
-        <v>64982.27609900247</v>
+        <v>7836.561341189295</v>
       </c>
     </row>
     <row r="137">
@@ -8220,10 +8220,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>24.60608115816909</v>
+        <v>19.9439246968457</v>
       </c>
       <c r="C137" t="n">
-        <v>1612424.362371459</v>
+        <v>194613.3970563475</v>
       </c>
       <c r="D137" t="n">
         <v>17102.50065</v>
@@ -8232,13 +8232,13 @@
         <v>-0.001540871808578341</v>
       </c>
       <c r="F137" t="n">
-        <v>49.76900628075512</v>
+        <v>6.006741560648001</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.145502132405284</v>
+        <v>0.01720978367404722</v>
       </c>
       <c r="H137" t="n">
-        <v>-2488.450314037756</v>
+        <v>300.3370780324</v>
       </c>
     </row>
     <row r="138">
@@ -8248,10 +8248,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>22.67390648253057</v>
+        <v>20.17246660205707</v>
       </c>
       <c r="C138" t="n">
-        <v>1579395.340009065</v>
+        <v>190705.0877260846</v>
       </c>
       <c r="D138" t="n">
         <v>16759.04093</v>
@@ -8260,13 +8260,13 @@
         <v>-0.02008242695199094</v>
       </c>
       <c r="F138" t="n">
-        <v>647.6278894587078</v>
+        <v>78.16618660525816</v>
       </c>
       <c r="G138" t="n">
-        <v>-1.932174675638518</v>
+        <v>0.2285419052113771</v>
       </c>
       <c r="H138" t="n">
-        <v>-32381.39447293539</v>
+        <v>3908.309330262908</v>
       </c>
     </row>
     <row r="139">
@@ -8276,10 +8276,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>23.13950186614226</v>
+        <v>20.11737236560928</v>
       </c>
       <c r="C139" t="n">
-        <v>1587080.180066871</v>
+        <v>191651.9355483273</v>
       </c>
       <c r="D139" t="n">
         <v>16842.24931</v>
@@ -8288,13 +8288,13 @@
         <v>0.004964984592349226</v>
       </c>
       <c r="F139" t="n">
-        <v>156.8334705674635</v>
+        <v>18.93695644485235</v>
       </c>
       <c r="G139" t="n">
-        <v>-0.4655953836116901</v>
+        <v>0.05509423644778984</v>
       </c>
       <c r="H139" t="n">
-        <v>7841.673528373172</v>
+        <v>946.8478222426177</v>
       </c>
     </row>
     <row r="140">
@@ -8304,10 +8304,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>21.9110427864383</v>
+        <v>20.26275117636988</v>
       </c>
       <c r="C140" t="n">
-        <v>1566247.945689696</v>
+        <v>189185.6121516067</v>
       </c>
       <c r="D140" t="n">
         <v>16625.51039</v>
@@ -8316,13 +8316,13 @@
         <v>-0.01286876331128243</v>
       </c>
       <c r="F140" t="n">
-        <v>408.4751838661611</v>
+        <v>49.32646793441157</v>
       </c>
       <c r="G140" t="n">
-        <v>-1.228459079703962</v>
+        <v>0.1453788107605981</v>
       </c>
       <c r="H140" t="n">
-        <v>-20423.75919330805</v>
+        <v>2466.323396720578</v>
       </c>
     </row>
     <row r="141">
@@ -8332,10 +8332,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>24.49291670071791</v>
+        <v>19.95712630366108</v>
       </c>
       <c r="C141" t="n">
-        <v>1609499.788349805</v>
+        <v>194516.5808066042</v>
       </c>
       <c r="D141" t="n">
         <v>17093.9925</v>
@@ -8344,13 +8344,13 @@
         <v>0.02817850995310111</v>
       </c>
       <c r="F141" t="n">
-        <v>882.6906665328254</v>
+        <v>106.6193730999515</v>
       </c>
       <c r="G141" t="n">
-        <v>-2.581873914279608</v>
+        <v>0.3056248727087966</v>
       </c>
       <c r="H141" t="n">
-        <v>44134.53332664127</v>
+        <v>5330.968654997574</v>
       </c>
     </row>
     <row r="142">
@@ -8360,10 +8360,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>41.57367567938041</v>
+        <v>17.93411204730801</v>
       </c>
       <c r="C142" t="n">
-        <v>1959050.3367219</v>
+        <v>237623.76102456</v>
       </c>
       <c r="D142" t="n">
         <v>20882.22388</v>
@@ -8372,13 +8372,13 @@
         <v>0.2216118545740558</v>
       </c>
       <c r="F142" t="n">
-        <v>7133.684660655011</v>
+        <v>862.1436043591151</v>
       </c>
       <c r="G142" t="n">
-        <v>-17.0807589786625</v>
+        <v>2.023014256353076</v>
       </c>
       <c r="H142" t="n">
-        <v>356684.2330327505</v>
+        <v>43107.18021795576</v>
       </c>
     </row>
     <row r="143">
@@ -8388,10 +8388,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>49.16625797894519</v>
+        <v>17.03158577244391</v>
       </c>
       <c r="C143" t="n">
-        <v>2128111.837671331</v>
+        <v>258548.6380839394</v>
       </c>
       <c r="D143" t="n">
         <v>22721.08867</v>
@@ -8400,13 +8400,13 @@
         <v>0.08805885812579457</v>
       </c>
       <c r="F143" t="n">
-        <v>3450.234713253678</v>
+        <v>418.4975411875889</v>
       </c>
       <c r="G143" t="n">
-        <v>-7.592582299564781</v>
+        <v>0.9025262748640932</v>
       </c>
       <c r="H143" t="n">
-        <v>172511.7356626839</v>
+        <v>20924.87705937944</v>
       </c>
     </row>
     <row r="144">
@@ -8416,10 +8416,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>53.31685523748593</v>
+        <v>16.53740655477046</v>
       </c>
       <c r="C144" t="n">
-        <v>2224817.250652228</v>
+        <v>270537.3497456288</v>
       </c>
       <c r="D144" t="n">
         <v>23774.64897</v>
@@ -8428,13 +8428,13 @@
         <v>0.04636927020979745</v>
       </c>
       <c r="F144" t="n">
-        <v>1973.579856753011</v>
+        <v>239.7742332337863</v>
       </c>
       <c r="G144" t="n">
-        <v>-4.150597258540745</v>
+        <v>0.4941792176734515</v>
       </c>
       <c r="H144" t="n">
-        <v>98678.99283765054</v>
+        <v>11988.71166168931</v>
       </c>
     </row>
     <row r="145">
@@ -8444,10 +8444,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>49.97130739895317</v>
+        <v>16.93608816896154</v>
       </c>
       <c r="C145" t="n">
-        <v>2146487.596527239</v>
+        <v>261199.2410444142</v>
       </c>
       <c r="D145" t="n">
         <v>22954.02196</v>
@@ -8456,13 +8456,13 @@
         <v>-0.03451689280609388</v>
       </c>
       <c r="F145" t="n">
-        <v>1535.87557107823</v>
+        <v>186.762174024292</v>
       </c>
       <c r="G145" t="n">
-        <v>-3.345547838532759</v>
+        <v>0.3986816141910804</v>
       </c>
       <c r="H145" t="n">
-        <v>-76793.77855391147</v>
+        <v>9338.108701214598</v>
       </c>
     </row>
     <row r="146">
@@ -8472,10 +8472,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>44.96230228037351</v>
+        <v>17.53342745511805</v>
       </c>
       <c r="C146" t="n">
-        <v>2035173.781899171</v>
+        <v>247919.413916393</v>
       </c>
       <c r="D146" t="n">
         <v>21786.99926</v>
@@ -8484,13 +8484,13 @@
         <v>-0.05084175235318969</v>
       </c>
       <c r="F146" t="n">
-        <v>2182.623816236624</v>
+        <v>265.5965425604241</v>
       </c>
       <c r="G146" t="n">
-        <v>-5.009005118579658</v>
+        <v>0.5973392861565086</v>
       </c>
       <c r="H146" t="n">
-        <v>-109131.1908118312</v>
+        <v>13279.8271280212</v>
       </c>
     </row>
     <row r="147">
@@ -8500,10 +8500,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>54.74863354008633</v>
+        <v>16.36512571045088</v>
       </c>
       <c r="C147" t="n">
-        <v>2268576.714492308</v>
+        <v>276932.1889239743</v>
       </c>
       <c r="D147" t="n">
         <v>24336.62334</v>
@@ -8512,13 +8512,13 @@
         <v>0.1170250225638461</v>
       </c>
       <c r="F147" t="n">
-        <v>4763.325154961969</v>
+        <v>580.2555001516276</v>
       </c>
       <c r="G147" t="n">
-        <v>-9.786331259712814</v>
+        <v>1.16830174466717</v>
       </c>
       <c r="H147" t="n">
-        <v>238166.2577480984</v>
+        <v>29012.77500758138</v>
       </c>
     </row>
     <row r="148">
@@ -8528,10 +8528,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>51.68180447918191</v>
+        <v>16.73201549023086</v>
       </c>
       <c r="C148" t="n">
-        <v>2194872.593996568</v>
+        <v>268111.3160145028</v>
       </c>
       <c r="D148" t="n">
         <v>23561.45068</v>
@@ -8540,13 +8540,13 @@
         <v>-0.03185210409719874</v>
       </c>
       <c r="F148" t="n">
-        <v>1445.178833249802</v>
+        <v>176.4174581894308</v>
       </c>
       <c r="G148" t="n">
-        <v>-3.066829060904415</v>
+        <v>0.3668897797799821</v>
       </c>
       <c r="H148" t="n">
-        <v>-72258.94166249009</v>
+        <v>8820.87290947154</v>
       </c>
     </row>
     <row r="149">
@@ -8556,10 +8556,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>47.01244598911935</v>
+        <v>17.29098629157743</v>
       </c>
       <c r="C149" t="n">
-        <v>2088011.742256463</v>
+        <v>255313.8410602347</v>
       </c>
       <c r="D149" t="n">
         <v>22436.81678</v>
@@ -8568,13 +8568,13 @@
         <v>-0.04773194635908558</v>
       </c>
       <c r="F149" t="n">
-        <v>2095.310818433424</v>
+        <v>255.9494990853618</v>
       </c>
       <c r="G149" t="n">
-        <v>-4.669358490062564</v>
+        <v>0.5589708013465682</v>
       </c>
       <c r="H149" t="n">
-        <v>-104765.5409216712</v>
+        <v>12797.47495426809</v>
       </c>
     </row>
     <row r="150">
@@ -8584,10 +8584,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>45.8346609877464</v>
+        <v>17.43212089845101</v>
       </c>
       <c r="C150" t="n">
-        <v>2061394.349114999</v>
+        <v>252122.9882576704</v>
       </c>
       <c r="D150" t="n">
         <v>22156.40668</v>
@@ -8596,13 +8596,13 @@
         <v>-0.01249776662837289</v>
       </c>
       <c r="F150" t="n">
-        <v>521.9096694404712</v>
+        <v>63.81705605128604</v>
       </c>
       <c r="G150" t="n">
-        <v>-1.177785001372956</v>
+        <v>0.1411346068735825</v>
       </c>
       <c r="H150" t="n">
-        <v>-26095.48347202356</v>
+        <v>3190.852802564302</v>
       </c>
     </row>
     <row r="151">
@@ -8612,10 +8612,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>65.36095428790419</v>
+        <v>15.09168231610302</v>
       </c>
       <c r="C151" t="n">
-        <v>2597991.921937263</v>
+        <v>319092.0158540088</v>
       </c>
       <c r="D151" t="n">
         <v>28041.60192</v>
@@ -8624,13 +8624,13 @@
         <v>0.2656204737978749</v>
       </c>
       <c r="F151" t="n">
-        <v>10950.97087392376</v>
+        <v>1339.380551926769</v>
       </c>
       <c r="G151" t="n">
-        <v>-19.52629330015779</v>
+        <v>2.340438582347998</v>
       </c>
       <c r="H151" t="n">
-        <v>547548.5436961879</v>
+        <v>66969.02759633846</v>
       </c>
     </row>
     <row r="152">
@@ -8640,10 +8640,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>65.20363813170344</v>
+        <v>15.1106178495067</v>
       </c>
       <c r="C152" t="n">
-        <v>2593499.924392433</v>
+        <v>318551.1152333925</v>
       </c>
       <c r="D152" t="n">
         <v>27994.06792</v>
@@ -8652,13 +8652,13 @@
         <v>-0.001695124270560918</v>
       </c>
       <c r="F152" t="n">
-        <v>88.0783832319412</v>
+        <v>10.8180124123268</v>
       </c>
       <c r="G152" t="n">
-        <v>-0.1573161562007477</v>
+        <v>0.0189355334036788</v>
       </c>
       <c r="H152" t="n">
-        <v>-4403.91916159706</v>
+        <v>540.9006206163398</v>
       </c>
     </row>
     <row r="153">
@@ -8668,10 +8668,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>65.82496789404887</v>
+        <v>15.03582826454312</v>
       </c>
       <c r="C153" t="n">
-        <v>2610660.691282229</v>
+        <v>320701.9324610655</v>
       </c>
       <c r="D153" t="n">
         <v>28183.08036</v>
@@ -8680,13 +8680,13 @@
         <v>0.006751874737896207</v>
       </c>
       <c r="F153" t="n">
-        <v>350.2197324448198</v>
+        <v>43.01634455346013</v>
       </c>
       <c r="G153" t="n">
-        <v>-0.6213297623454312</v>
+        <v>0.07478958496357729</v>
       </c>
       <c r="H153" t="n">
-        <v>17510.98662224099</v>
+        <v>2150.817227673007</v>
       </c>
     </row>
     <row r="154">
@@ -8696,10 +8696,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>66.32496380893909</v>
+        <v>14.97563558476282</v>
       </c>
       <c r="C154" t="n">
-        <v>2624545.231679159</v>
+        <v>322442.3625366736</v>
       </c>
       <c r="D154" t="n">
         <v>28336.02824</v>
@@ -8708,13 +8708,13 @@
         <v>0.005426939782532689</v>
       </c>
       <c r="F154" t="n">
-        <v>283.3579672842765</v>
+        <v>34.80860151216137</v>
       </c>
       <c r="G154" t="n">
-        <v>-0.4999959148902169</v>
+        <v>0.06019267978030172</v>
       </c>
       <c r="H154" t="n">
-        <v>14167.89836421382</v>
+        <v>1740.430075608068</v>
       </c>
     </row>
     <row r="155">
@@ -8724,10 +8724,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>72.37749449243452</v>
+        <v>14.24691488146974</v>
       </c>
       <c r="C155" t="n">
-        <v>2804370.777172706</v>
+        <v>344985.9663492683</v>
       </c>
       <c r="D155" t="n">
         <v>30317.1457</v>
@@ -8736,13 +8736,13 @@
         <v>0.06991514277231682</v>
       </c>
       <c r="F155" t="n">
-        <v>3669.909091705034</v>
+        <v>450.8720762518935</v>
       </c>
       <c r="G155" t="n">
-        <v>-6.052530683495436</v>
+        <v>0.7287207032930803</v>
       </c>
       <c r="H155" t="n">
-        <v>183495.4545852517</v>
+        <v>22543.60381259468</v>
       </c>
     </row>
     <row r="156">
@@ -8752,10 +8752,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>63.2405491309263</v>
+        <v>15.34843668866611</v>
       </c>
       <c r="C156" t="n">
-        <v>2547224.569617877</v>
+        <v>313972.8114874888</v>
       </c>
       <c r="D156" t="n">
         <v>27591.72952</v>
@@ -8764,13 +8764,13 @@
         <v>-0.08989685925479456</v>
       </c>
       <c r="F156" t="n">
-        <v>5042.082501075071</v>
+        <v>620.2630972355893</v>
       </c>
       <c r="G156" t="n">
-        <v>-9.136945361508225</v>
+        <v>1.101521807196371</v>
       </c>
       <c r="H156" t="n">
-        <v>-252104.1250537536</v>
+        <v>31013.15486177946</v>
       </c>
     </row>
     <row r="157">
@@ -8780,10 +8780,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>68.40613680930284</v>
+        <v>14.72445676023909</v>
       </c>
       <c r="C157" t="n">
-        <v>2695180.23444772</v>
+        <v>332582.1239870495</v>
       </c>
       <c r="D157" t="n">
         <v>29227.10398</v>
@@ -8792,13 +8792,13 @@
         <v>0.05927045851962958</v>
       </c>
       <c r="F157" t="n">
-        <v>3019.503363874354</v>
+        <v>372.1862499912136</v>
       </c>
       <c r="G157" t="n">
-        <v>-5.165587678376532</v>
+        <v>0.6239799284270199</v>
       </c>
       <c r="H157" t="n">
-        <v>150975.1681937177</v>
+        <v>18609.31249956068</v>
       </c>
     </row>
     <row r="158">
@@ -8808,10 +8808,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>65.88882992453959</v>
+        <v>15.0288768634166</v>
       </c>
       <c r="C158" t="n">
-        <v>2622129.331308871</v>
+        <v>323744.4799038772</v>
       </c>
       <c r="D158" t="n">
         <v>28450.45748</v>
@@ -8820,13 +8820,13 @@
         <v>-0.0265728174960973</v>
       </c>
       <c r="F158" t="n">
-        <v>1432.37064978136</v>
+        <v>176.7528816634454</v>
       </c>
       <c r="G158" t="n">
-        <v>-2.517306884763246</v>
+        <v>0.3044201031775052</v>
       </c>
       <c r="H158" t="n">
-        <v>-71618.53248906799</v>
+        <v>8837.64408317227</v>
       </c>
     </row>
     <row r="159">
@@ -8836,10 +8836,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>60.69024942107793</v>
+        <v>15.65788912715635</v>
       </c>
       <c r="C159" t="n">
-        <v>2479324.260818751</v>
+        <v>306458.590912283</v>
       </c>
       <c r="D159" t="n">
         <v>26931.38463</v>
@@ -8848,13 +8848,13 @@
         <v>-0.05339361769728564</v>
       </c>
       <c r="F159" t="n">
-        <v>2800.099421374901</v>
+        <v>345.7177798318839</v>
       </c>
       <c r="G159" t="n">
-        <v>-5.198580503461662</v>
+        <v>0.6290122637397537</v>
       </c>
       <c r="H159" t="n">
-        <v>-140004.9710687451</v>
+        <v>17285.88899159419</v>
       </c>
     </row>
     <row r="160">
@@ -8864,10 +8864,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>60.06563976532034</v>
+        <v>15.73355032970202</v>
       </c>
       <c r="C160" t="n">
-        <v>2462281.854397511</v>
+        <v>304393.357148776</v>
       </c>
       <c r="D160" t="n">
         <v>26749.89321</v>
@@ -8876,13 +8876,13 @@
         <v>-0.00673903040981529</v>
       </c>
       <c r="F160" t="n">
-        <v>334.1648317890075</v>
+        <v>41.30467527014039</v>
       </c>
       <c r="G160" t="n">
-        <v>-0.6246096557575893</v>
+        <v>0.07566120254567099</v>
       </c>
       <c r="H160" t="n">
-        <v>-16708.24158945038</v>
+        <v>2065.233763507019</v>
       </c>
     </row>
     <row r="161">
@@ -8892,10 +8892,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>64.41205979172116</v>
+        <v>15.20698146699001</v>
       </c>
       <c r="C161" t="n">
-        <v>2581869.604009261</v>
+        <v>319478.7986009455</v>
       </c>
       <c r="D161" t="n">
         <v>28075.59214</v>
@@ -8904,13 +8904,13 @@
         <v>0.0495590363517568</v>
       </c>
       <c r="F161" t="n">
-        <v>2440.566318607148</v>
+        <v>301.7088290433896</v>
       </c>
       <c r="G161" t="n">
-        <v>-4.346420026400818</v>
+        <v>0.5265688627120115</v>
       </c>
       <c r="H161" t="n">
-        <v>122028.3159303574</v>
+        <v>15085.44145216948</v>
       </c>
     </row>
     <row r="162">
@@ -8920,10 +8920,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>61.18265299830976</v>
+        <v>15.59859398720856</v>
       </c>
       <c r="C162" t="n">
-        <v>2492526.217334727</v>
+        <v>308640.2787564551</v>
       </c>
       <c r="D162" t="n">
         <v>27123.10996</v>
@@ -8932,13 +8932,13 @@
         <v>-0.03392563103390343</v>
       </c>
       <c r="F162" t="n">
-        <v>1751.831111265371</v>
+        <v>216.7703968898084</v>
       </c>
       <c r="G162" t="n">
-        <v>-3.229406793411405</v>
+        <v>0.3916125202185558</v>
       </c>
       <c r="H162" t="n">
-        <v>-87591.55556326854</v>
+        <v>10838.51984449042</v>
       </c>
     </row>
     <row r="163">
@@ -8948,10 +8948,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>56.97011669297776</v>
+        <v>16.10978428205763</v>
       </c>
       <c r="C163" t="n">
-        <v>2381092.115299022</v>
+        <v>295112.3653864919</v>
       </c>
       <c r="D163" t="n">
         <v>25934.2856</v>
@@ -8960,13 +8960,13 @@
         <v>-0.04383068024843868</v>
       </c>
       <c r="F163" t="n">
-        <v>2184.982392856976</v>
+        <v>270.5582673992633</v>
       </c>
       <c r="G163" t="n">
-        <v>-4.212536305331997</v>
+        <v>0.5111902948490665</v>
       </c>
       <c r="H163" t="n">
-        <v>-109249.1196428488</v>
+        <v>13527.91336996316</v>
       </c>
     </row>
     <row r="164">
@@ -8976,10 +8976,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>58.36865837876881</v>
+        <v>15.93991584081301</v>
       </c>
       <c r="C164" t="n">
-        <v>2417186.704987851</v>
+        <v>299677.2230853485</v>
       </c>
       <c r="D164" t="n">
         <v>26335.44237</v>
@@ -8988,13 +8988,13 @@
         <v>0.01546820206221533</v>
       </c>
       <c r="F164" t="n">
-        <v>736.62427936386</v>
+        <v>91.29715397713159</v>
       </c>
       <c r="G164" t="n">
-        <v>-1.398541685791056</v>
+        <v>0.169868441244621</v>
       </c>
       <c r="H164" t="n">
-        <v>36831.213968193</v>
+        <v>4564.857698856579</v>
       </c>
     </row>
     <row r="165">
@@ -9004,10 +9004,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>70.85054505112564</v>
+        <v>14.42338987840516</v>
       </c>
       <c r="C165" t="n">
-        <v>2790032.061977295</v>
+        <v>346845.0862978992</v>
       </c>
       <c r="D165" t="n">
         <v>30480.52397</v>
@@ -9016,13 +9016,13 @@
         <v>0.1573955562152191</v>
       </c>
       <c r="F165" t="n">
-        <v>7609.088918151911</v>
+        <v>943.3572642510144</v>
       </c>
       <c r="G165" t="n">
-        <v>-12.48188667235682</v>
+        <v>1.516525962407847</v>
       </c>
       <c r="H165" t="n">
-        <v>380454.4459075955</v>
+        <v>47167.86321255072</v>
       </c>
     </row>
     <row r="166">
@@ -9032,10 +9032,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>71.28092984333864</v>
+        <v>14.37095631845359</v>
       </c>
       <c r="C166" t="n">
-        <v>2802948.781544224</v>
+        <v>348483.6091672138</v>
       </c>
       <c r="D166" t="n">
         <v>30624.51631</v>
@@ -9044,13 +9044,13 @@
         <v>0.004724076926686792</v>
       </c>
       <c r="F166" t="n">
-        <v>263.6065217740663</v>
+        <v>32.77045738629189</v>
       </c>
       <c r="G166" t="n">
-        <v>-0.4303847922130108</v>
+        <v>0.05243355995157277</v>
       </c>
       <c r="H166" t="n">
-        <v>13180.32608870331</v>
+        <v>1638.522869314595</v>
       </c>
     </row>
     <row r="167">
@@ -9060,10 +9060,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>69.90953075736563</v>
+        <v>14.53804888329478</v>
       </c>
       <c r="C167" t="n">
-        <v>2760742.77960991</v>
+        <v>343339.1320857243</v>
       </c>
       <c r="D167" t="n">
         <v>30172.42296</v>
@@ -9072,13 +9072,13 @@
         <v>-0.01476246499450424</v>
       </c>
       <c r="F167" t="n">
-        <v>827.5686653786985</v>
+        <v>102.8895416297898</v>
       </c>
       <c r="G167" t="n">
-        <v>-1.371399085973005</v>
+        <v>0.167092564841193</v>
       </c>
       <c r="H167" t="n">
-        <v>-41378.43326893492</v>
+        <v>5144.477081489491</v>
       </c>
     </row>
     <row r="168">
@@ -9088,10 +9088,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>70.14305589084323</v>
+        <v>14.50958743049456</v>
       </c>
       <c r="C168" t="n">
-        <v>2767665.546742111</v>
+        <v>344217.6507798769</v>
       </c>
       <c r="D168" t="n">
         <v>30249.62662</v>
@@ -9100,13 +9100,13 @@
         <v>0.002558749096893848</v>
       </c>
       <c r="F168" t="n">
-        <v>141.2809618816614</v>
+        <v>17.57037388305329</v>
       </c>
       <c r="G168" t="n">
-        <v>-0.2335251334776003</v>
+        <v>0.02846145280022671</v>
       </c>
       <c r="H168" t="n">
-        <v>7064.04809408307</v>
+        <v>878.5186941526647</v>
       </c>
     </row>
     <row r="169">
@@ -9116,10 +9116,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>69.6321857620902</v>
+        <v>14.57185416841901</v>
       </c>
       <c r="C169" t="n">
-        <v>2751990.367939877</v>
+        <v>342306.3375740913</v>
       </c>
       <c r="D169" t="n">
         <v>30081.66164</v>
@@ -9128,13 +9128,13 @@
         <v>-0.005552629859204545</v>
       </c>
       <c r="F169" t="n">
-        <v>307.3564471026384</v>
+        <v>38.22626411571175</v>
       </c>
       <c r="G169" t="n">
-        <v>-0.5108701287530313</v>
+        <v>0.0622667379244505</v>
       </c>
       <c r="H169" t="n">
-        <v>-15367.82235513192</v>
+        <v>1911.313205785587</v>
       </c>
     </row>
     <row r="170">
@@ -9144,10 +9144,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>67.12201932845387</v>
+        <v>14.87783669322626</v>
       </c>
       <c r="C170" t="n">
-        <v>2677027.057954868</v>
+        <v>333164.8554770315</v>
       </c>
       <c r="D170" t="n">
         <v>29278.31405</v>
@@ -9156,13 +9156,13 @@
         <v>-0.02670555900847496</v>
       </c>
       <c r="F170" t="n">
-        <v>1469.868823235462</v>
+        <v>182.8296419411969</v>
       </c>
       <c r="G170" t="n">
-        <v>-2.510166433636335</v>
+        <v>0.3059825248072523</v>
       </c>
       <c r="H170" t="n">
-        <v>-73493.44116177309</v>
+        <v>9141.482097059845</v>
       </c>
     </row>
     <row r="171">
@@ -9172,10 +9172,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>66.36695548060177</v>
+        <v>14.96992747813562</v>
       </c>
       <c r="C171" t="n">
-        <v>2654662.608081476</v>
+        <v>330436.1009454426</v>
       </c>
       <c r="D171" t="n">
         <v>29038.51285</v>
@@ -9184,13 +9184,13 @@
         <v>-0.00819040329953704</v>
       </c>
       <c r="F171" t="n">
-        <v>438.5186249684697</v>
+        <v>54.57509063177719</v>
       </c>
       <c r="G171" t="n">
-        <v>-0.7550638478520943</v>
+        <v>0.09209078490936159</v>
       </c>
       <c r="H171" t="n">
-        <v>-21925.93124842349</v>
+        <v>2728.75453158886</v>
       </c>
     </row>
     <row r="172">
@@ -9200,10 +9200,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>67.13103464067511</v>
+        <v>14.87672175363199</v>
       </c>
       <c r="C172" t="n">
-        <v>2676589.84441385</v>
+        <v>333221.170066007</v>
       </c>
       <c r="D172" t="n">
         <v>29283.26294</v>
@@ -9212,13 +9212,13 @@
         <v>0.008428465027264692</v>
       </c>
       <c r="F172" t="n">
-        <v>447.4946190280399</v>
+        <v>55.70138241128737</v>
       </c>
       <c r="G172" t="n">
-        <v>-0.7640791600733411</v>
+        <v>0.09320572450363282</v>
       </c>
       <c r="H172" t="n">
-        <v>22374.730951402</v>
+        <v>2785.069120564368</v>
       </c>
     </row>
     <row r="173">
@@ -9228,10 +9228,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>56.33040173510815</v>
+        <v>16.19445056102567</v>
       </c>
       <c r="C173" t="n">
-        <v>2388078.321745984</v>
+        <v>298007.300578837</v>
       </c>
       <c r="D173" t="n">
         <v>26188.69065</v>
@@ -9240,13 +9240,13 @@
         <v>-0.1056771677507602</v>
       </c>
       <c r="F173" t="n">
-        <v>5657.088679762073</v>
+        <v>704.2773897434005</v>
       </c>
       <c r="G173" t="n">
-        <v>-10.80063290556695</v>
+        <v>1.317728807393684</v>
       </c>
       <c r="H173" t="n">
-        <v>-282854.4339881036</v>
+        <v>35213.86948717002</v>
       </c>
     </row>
     <row r="174">
@@ -9256,10 +9256,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>55.98411616669952</v>
+        <v>16.2367991364474</v>
       </c>
       <c r="C174" t="n">
-        <v>2378863.175471207</v>
+        <v>296879.8944307111</v>
       </c>
       <c r="D174" t="n">
         <v>26089.61492</v>
@@ -9268,13 +9268,13 @@
         <v>-0.00378314942599089</v>
       </c>
       <c r="F174" t="n">
-        <v>180.6891426426921</v>
+        <v>22.54812296251843</v>
       </c>
       <c r="G174" t="n">
-        <v>-0.3462855684086351</v>
+        <v>0.04234857542172582</v>
       </c>
       <c r="H174" t="n">
-        <v>-9034.457132134607</v>
+        <v>1127.406148125922</v>
       </c>
     </row>
     <row r="175">
@@ -9284,10 +9284,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>55.55769442958987</v>
+        <v>16.28895182886342</v>
       </c>
       <c r="C175" t="n">
-        <v>2367568.315410485</v>
+        <v>295497.9454619387</v>
       </c>
       <c r="D175" t="n">
         <v>25968.17013</v>
@@ -9296,13 +9296,13 @@
         <v>-0.004654909256897586</v>
       </c>
       <c r="F175" t="n">
-        <v>221.4678443278742</v>
+        <v>27.6389793754459</v>
       </c>
       <c r="G175" t="n">
-        <v>-0.4264217371096571</v>
+        <v>0.05215269241602313</v>
       </c>
       <c r="H175" t="n">
-        <v>-11073.39221639371</v>
+        <v>1381.948968772295</v>
       </c>
     </row>
     <row r="176">
@@ -9312,10 +9312,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>55.0760836501161</v>
+        <v>16.34785982109414</v>
       </c>
       <c r="C176" t="n">
-        <v>2354878.666120644</v>
+        <v>293945.1959762449</v>
       </c>
       <c r="D176" t="n">
         <v>25831.7155</v>
@@ -9324,13 +9324,13 @@
         <v>-0.005254687924366282</v>
       </c>
       <c r="F176" t="n">
-        <v>248.816652741994</v>
+        <v>31.05498971387792</v>
       </c>
       <c r="G176" t="n">
-        <v>-0.4816107794737713</v>
+        <v>0.05890799223071414</v>
       </c>
       <c r="H176" t="n">
-        <v>-12440.8326370997</v>
+        <v>1552.749485693896</v>
       </c>
     </row>
     <row r="177">
@@ -9340,10 +9340,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>57.48554535529154</v>
+        <v>16.05311652529369</v>
       </c>
       <c r="C177" t="n">
-        <v>2417530.296293366</v>
+        <v>301925.2187638577</v>
       </c>
       <c r="D177" t="n">
         <v>26532.99479</v>
@@ -9352,13 +9352,13 @@
         <v>0.0271479952618711</v>
       </c>
       <c r="F177" t="n">
-        <v>1278.604697402491</v>
+        <v>159.6004557522573</v>
       </c>
       <c r="G177" t="n">
-        <v>-2.409461705175444</v>
+        <v>0.294743295800444</v>
       </c>
       <c r="H177" t="n">
-        <v>63930.23487012457</v>
+        <v>7980.022787612867</v>
       </c>
     </row>
     <row r="178">
@@ -9368,10 +9368,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>56.51651000756429</v>
+        <v>16.17171883840846</v>
       </c>
       <c r="C178" t="n">
-        <v>2391580.643290837</v>
+        <v>298747.914193883</v>
       </c>
       <c r="D178" t="n">
         <v>26253.7753</v>
@@ -9380,13 +9380,13 @@
         <v>-0.01052348188396865</v>
       </c>
       <c r="F178" t="n">
-        <v>508.8167255397717</v>
+        <v>63.54609139949454</v>
       </c>
       <c r="G178" t="n">
-        <v>-0.96903534772725</v>
+        <v>0.1186023131147631</v>
       </c>
       <c r="H178" t="n">
-        <v>-25440.83627698859</v>
+        <v>3177.304569974727</v>
       </c>
     </row>
     <row r="179">
@@ -9396,10 +9396,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>62.12681575441034</v>
+        <v>15.48491540500934</v>
       </c>
       <c r="C179" t="n">
-        <v>2545399.872399448</v>
+        <v>318354.6098181048</v>
       </c>
       <c r="D179" t="n">
         <v>27976.79915</v>
@@ -9408,13 +9408,13 @@
         <v>0.06562956490299503</v>
       </c>
       <c r="F179" t="n">
-        <v>3139.167940992053</v>
+        <v>392.1339124844367</v>
       </c>
       <c r="G179" t="n">
-        <v>-5.610305746846048</v>
+        <v>0.6868034333991133</v>
       </c>
       <c r="H179" t="n">
-        <v>156958.3970496026</v>
+        <v>19606.69562422183</v>
       </c>
     </row>
     <row r="180">
@@ -9424,10 +9424,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>61.98895682259172</v>
+        <v>15.50181265812326</v>
       </c>
       <c r="C180" t="n">
-        <v>2541471.835576696</v>
+        <v>317872.9609949504</v>
       </c>
       <c r="D180" t="n">
         <v>27934.47216</v>
@@ -9436,13 +9436,13 @@
         <v>-0.001512931832303545</v>
       </c>
       <c r="F180" t="n">
-        <v>77.02032985789012</v>
+        <v>9.632976463087708</v>
       </c>
       <c r="G180" t="n">
-        <v>-0.1378589318186174</v>
+        <v>0.01689725311392093</v>
       </c>
       <c r="H180" t="n">
-        <v>-3851.016492894506</v>
+        <v>481.6488231543854</v>
       </c>
     </row>
     <row r="181">
@@ -9452,10 +9452,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>59.40370689118949</v>
+        <v>15.81869416683057</v>
       </c>
       <c r="C181" t="n">
-        <v>2469845.209153018</v>
+        <v>309089.9664908911</v>
       </c>
       <c r="D181" t="n">
         <v>27162.62823</v>
@@ -9464,13 +9464,13 @@
         <v>-0.02763051779103324</v>
       </c>
       <c r="F181" t="n">
-        <v>1404.443655366236</v>
+        <v>175.6598900811879</v>
       </c>
       <c r="G181" t="n">
-        <v>-2.585249931402231</v>
+        <v>0.3168815087073113</v>
       </c>
       <c r="H181" t="n">
-        <v>-70222.1827683118</v>
+        <v>8782.994504059392</v>
       </c>
     </row>
     <row r="182">
@@ -9480,10 +9480,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>68.38787318725275</v>
+        <v>14.71685291130345</v>
       </c>
       <c r="C182" t="n">
-        <v>2735218.355711305</v>
+        <v>342977.9767445541</v>
       </c>
       <c r="D182" t="n">
         <v>30140.68486</v>
@@ -9492,13 +9492,13 @@
         <v>0.109638014583245</v>
       </c>
       <c r="F182" t="n">
-        <v>5415.778501189529</v>
+        <v>677.7602050732606</v>
       </c>
       <c r="G182" t="n">
-        <v>-8.984166296063268</v>
+        <v>1.101841255527124</v>
       </c>
       <c r="H182" t="n">
-        <v>270788.9250594765</v>
+        <v>33888.01025366303</v>
       </c>
     </row>
     <row r="183">
@@ -9508,10 +9508,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>79.92743805446084</v>
+        <v>13.29880880145923</v>
       </c>
       <c r="C183" t="n">
-        <v>3125729.999837738</v>
+        <v>392944.8465939343</v>
       </c>
       <c r="D183" t="n">
         <v>34531.74137</v>
@@ -9520,13 +9520,13 @@
         <v>0.1456853595197306</v>
       </c>
       <c r="F183" t="n">
-        <v>7969.625390335359</v>
+        <v>999.3373969876036</v>
       </c>
       <c r="G183" t="n">
-        <v>-11.53956486720808</v>
+        <v>1.418044109844223</v>
       </c>
       <c r="H183" t="n">
-        <v>398481.2695167679</v>
+        <v>49966.86984938018</v>
       </c>
     </row>
     <row r="184">
@@ -9536,10 +9536,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>81.25259703797607</v>
+        <v>13.13555090469698</v>
       </c>
       <c r="C184" t="n">
-        <v>3171241.119661872</v>
+        <v>398782.9473029281</v>
       </c>
       <c r="D184" t="n">
         <v>35044.78992</v>
@@ -9548,13 +9548,13 @@
         <v>0.01485730315487995</v>
       </c>
       <c r="F184" t="n">
-        <v>928.7983637578425</v>
+        <v>116.7620141798776</v>
       </c>
       <c r="G184" t="n">
-        <v>-1.325158983515234</v>
+        <v>0.1632578967622471</v>
       </c>
       <c r="H184" t="n">
-        <v>46439.91818789212</v>
+        <v>5838.100708993878</v>
       </c>
     </row>
     <row r="185">
@@ -9564,10 +9564,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>86.19701643099523</v>
+        <v>12.52622633347328</v>
       </c>
       <c r="C185" t="n">
-        <v>3350866.436125676</v>
+        <v>421831.7720267742</v>
       </c>
       <c r="D185" t="n">
         <v>37070.30587</v>
@@ -9576,13 +9576,13 @@
         <v>0.05779791959443407</v>
       </c>
       <c r="F185" t="n">
-        <v>3665.822784975599</v>
+        <v>460.9764944769216</v>
       </c>
       <c r="G185" t="n">
-        <v>-4.944419393019159</v>
+        <v>0.6093245712237</v>
       </c>
       <c r="H185" t="n">
-        <v>183291.1392487799</v>
+        <v>23048.82472384608</v>
       </c>
     </row>
     <row r="186">
@@ -9592,10 +9592,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>86.93170567000472</v>
+        <v>12.43558799735985</v>
       </c>
       <c r="C186" t="n">
-        <v>3377775.600001303</v>
+        <v>425288.4291112378</v>
       </c>
       <c r="D186" t="n">
         <v>37374.07468</v>
@@ -9604,13 +9604,13 @@
         <v>0.008194397183159834</v>
       </c>
       <c r="F186" t="n">
-        <v>549.1666097066615</v>
+        <v>69.1331416892704</v>
       </c>
       <c r="G186" t="n">
-        <v>-0.7346892390094906</v>
+        <v>0.09063833611342935</v>
       </c>
       <c r="H186" t="n">
-        <v>27458.33048533307</v>
+        <v>3456.65708446352</v>
       </c>
     </row>
     <row r="187">
@@ -9620,10 +9620,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>87.12502982010101</v>
+        <v>12.41173379176324</v>
       </c>
       <c r="C187" t="n">
-        <v>3384871.583832949</v>
+        <v>426200.1025760018</v>
       </c>
       <c r="D187" t="n">
         <v>37454.19196</v>
@@ -9632,13 +9632,13 @@
         <v>0.002143659225973339</v>
       </c>
       <c r="F187" t="n">
-        <v>144.8159965642085</v>
+        <v>18.23346929528027</v>
       </c>
       <c r="G187" t="n">
-        <v>-0.1933241500962934</v>
+        <v>0.02385420559660989</v>
       </c>
       <c r="H187" t="n">
-        <v>7240.799828210424</v>
+        <v>911.6734647640134</v>
       </c>
     </row>
     <row r="188">
@@ -9648,10 +9648,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>92.83164195635911</v>
+        <v>11.70756660395551</v>
       </c>
       <c r="C188" t="n">
-        <v>3608451.260729094</v>
+        <v>454926.2643197572</v>
       </c>
       <c r="D188" t="n">
         <v>39978.62865</v>
@@ -9660,13 +9660,13 @@
         <v>0.06740064483826078</v>
       </c>
       <c r="F188" t="n">
-        <v>4562.850548900917</v>
+        <v>574.5232348751082</v>
       </c>
       <c r="G188" t="n">
-        <v>-5.706612136258101</v>
+        <v>0.7041671878077364</v>
       </c>
       <c r="H188" t="n">
-        <v>228142.5274450458</v>
+        <v>28726.16174375541</v>
       </c>
     </row>
     <row r="189">
@@ -9676,10 +9676,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>100.6913990987978</v>
+        <v>10.73648579865269</v>
       </c>
       <c r="C189" t="n">
-        <v>3945761.993382894</v>
+        <v>498319.7214313124</v>
       </c>
       <c r="D189" t="n">
         <v>43792.01786</v>
@@ -9688,13 +9688,13 @@
         <v>0.09538569327589982</v>
       </c>
       <c r="F189" t="n">
-        <v>6883.892503138786</v>
+        <v>867.8691422311058</v>
       </c>
       <c r="G189" t="n">
-        <v>-7.859757142438728</v>
+        <v>0.9710808053028179</v>
       </c>
       <c r="H189" t="n">
-        <v>344194.6251569393</v>
+        <v>43393.45711155529</v>
       </c>
     </row>
     <row r="190">
@@ -9704,10 +9704,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>95.36605394867641</v>
+        <v>11.39558536569722</v>
       </c>
       <c r="C190" t="n">
-        <v>3721164.676967348</v>
+        <v>470510.9641909159</v>
       </c>
       <c r="D190" t="n">
         <v>41348.20209</v>
@@ -9716,13 +9716,13 @@
         <v>-0.05580505054169251</v>
       </c>
       <c r="F190" t="n">
-        <v>4403.868949324436</v>
+        <v>556.1751448079305</v>
       </c>
       <c r="G190" t="n">
-        <v>-5.325345150121419</v>
+        <v>0.6590995670445267</v>
       </c>
       <c r="H190" t="n">
-        <v>-220193.4474662218</v>
+        <v>27808.75724039652</v>
       </c>
     </row>
     <row r="191">
@@ -9732,10 +9732,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>98.84441725958429</v>
+        <v>10.96457087078799</v>
       </c>
       <c r="C191" t="n">
-        <v>3867778.947816883</v>
+        <v>489427.4747652733</v>
       </c>
       <c r="D191" t="n">
         <v>43010.57292</v>
@@ -9744,13 +9744,13 @@
         <v>0.04020418654193532</v>
       </c>
       <c r="F191" t="n">
-        <v>2992.127976521115</v>
+        <v>378.3302114871486</v>
       </c>
       <c r="G191" t="n">
-        <v>-3.478363310907874</v>
+        <v>0.4310144949092272</v>
       </c>
       <c r="H191" t="n">
-        <v>149606.3988260558</v>
+        <v>18916.51057435743</v>
       </c>
     </row>
     <row r="192">
@@ -9760,10 +9760,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>97.29105515488804</v>
+        <v>11.15720156155488</v>
       </c>
       <c r="C192" t="n">
-        <v>3800788.902250058</v>
+        <v>481116.7901450967</v>
       </c>
       <c r="D192" t="n">
         <v>42280.23528</v>
@@ -9772,13 +9772,13 @@
         <v>-0.01698042110153779</v>
       </c>
       <c r="F192" t="n">
-        <v>1313.530305231869</v>
+        <v>166.213692403532</v>
       </c>
       <c r="G192" t="n">
-        <v>-1.55336210469625</v>
+        <v>0.1926306907668909</v>
       </c>
       <c r="H192" t="n">
-        <v>-65676.51526159343</v>
+        <v>8310.684620176602</v>
       </c>
     </row>
     <row r="193">
@@ -9788,10 +9788,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>100.7038414294461</v>
+        <v>10.73383950602038</v>
       </c>
       <c r="C193" t="n">
-        <v>3947776.695269768</v>
+        <v>500102.7237335343</v>
       </c>
       <c r="D193" t="n">
         <v>43948.70696</v>
@@ -9800,13 +9800,13 @@
         <v>0.03946221370223185</v>
       </c>
       <c r="F193" t="n">
-        <v>2999.75087795326</v>
+        <v>379.7186717687528</v>
       </c>
       <c r="G193" t="n">
-        <v>-3.412786274558075</v>
+        <v>0.4233620555344976</v>
       </c>
       <c r="H193" t="n">
-        <v>149987.543897663</v>
+        <v>18985.93358843764</v>
       </c>
     </row>
     <row r="194">
@@ -9816,10 +9816,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>95.89404386180755</v>
+        <v>11.33095661492976</v>
       </c>
       <c r="C194" t="n">
-        <v>3743122.849229295</v>
+        <v>474685.6013617424</v>
       </c>
       <c r="D194" t="n">
         <v>41715.06653</v>
@@ -9828,13 +9828,13 @@
         <v>-0.05082380312196576</v>
       </c>
       <c r="F194" t="n">
-        <v>4012.820510597506</v>
+        <v>508.3424474358397</v>
       </c>
       <c r="G194" t="n">
-        <v>-4.809797567638575</v>
+        <v>0.5971171089093825</v>
       </c>
       <c r="H194" t="n">
-        <v>-200641.0255298753</v>
+        <v>25417.12237179199</v>
       </c>
     </row>
     <row r="195">
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>95.54548774854477</v>
+        <v>11.37427485037085</v>
       </c>
       <c r="C195" t="n">
-        <v>3728349.393962327</v>
+        <v>472848.8351263726</v>
       </c>
       <c r="D195" t="n">
         <v>41553.65269</v>
@@ -9856,13 +9856,13 @@
         <v>-0.003869437434168077</v>
       </c>
       <c r="F195" t="n">
-        <v>289.6755934699541</v>
+        <v>36.73532470739422</v>
       </c>
       <c r="G195" t="n">
-        <v>-0.3485561132627761</v>
+        <v>0.0433182354410807</v>
       </c>
       <c r="H195" t="n">
-        <v>-14483.7796734977</v>
+        <v>1836.766235369711</v>
       </c>
     </row>
     <row r="196">
@@ -9872,10 +9872,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>96.56430440180458</v>
+        <v>11.24764740952215</v>
       </c>
       <c r="C196" t="n">
-        <v>3770314.754572407</v>
+        <v>478279.720076472</v>
       </c>
       <c r="D196" t="n">
         <v>42030.91538</v>
@@ -9884,13 +9884,13 @@
         <v>0.01148545697198962</v>
       </c>
       <c r="F196" t="n">
-        <v>856.435930817958</v>
+        <v>108.6176990019874</v>
       </c>
       <c r="G196" t="n">
-        <v>-1.018816653259811</v>
+        <v>0.1266274408486933</v>
       </c>
       <c r="H196" t="n">
-        <v>42821.7965408979</v>
+        <v>5430.884950099369</v>
       </c>
     </row>
     <row r="197">
@@ -9900,10 +9900,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>97.716118681293</v>
+        <v>11.10445734235452</v>
       </c>
       <c r="C197" t="n">
-        <v>3818375.438424745</v>
+        <v>484500.8350707009</v>
       </c>
       <c r="D197" t="n">
         <v>42577.62298</v>
@@ -9912,13 +9912,13 @@
         <v>0.01300727321918254</v>
       </c>
       <c r="F197" t="n">
-        <v>980.8302827007694</v>
+        <v>124.4222998845763</v>
       </c>
       <c r="G197" t="n">
-        <v>-1.151814279488424</v>
+        <v>0.1431900671676304</v>
       </c>
       <c r="H197" t="n">
-        <v>49041.51413503847</v>
+        <v>6221.114994228818</v>
       </c>
     </row>
     <row r="198">
@@ -9928,10 +9928,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>108.3351433206779</v>
+        <v>9.783993218116901</v>
       </c>
       <c r="C198" t="n">
-        <v>4320978.73276813</v>
+        <v>549575.9819961709</v>
       </c>
       <c r="D198" t="n">
         <v>48296.3852</v>
@@ -9940,13 +9940,13 @@
         <v>0.1343137972424218</v>
       </c>
       <c r="F198" t="n">
-        <v>10257.21008864049</v>
+        <v>1301.502938509403</v>
       </c>
       <c r="G198" t="n">
-        <v>-10.61902463938491</v>
+        <v>1.32046412423762</v>
       </c>
       <c r="H198" t="n">
-        <v>512860.5044320245</v>
+        <v>65075.14692547014</v>
       </c>
     </row>
     <row r="199">
@@ -9956,10 +9956,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>114.9222238852958</v>
+        <v>8.962952554924541</v>
       </c>
       <c r="C199" t="n">
-        <v>4657526.616851655</v>
+        <v>593254.3501515868</v>
       </c>
       <c r="D199" t="n">
         <v>52134.81221</v>
@@ -9968,13 +9968,13 @@
         <v>0.07947648657564541</v>
       </c>
       <c r="F199" t="n">
-        <v>6868.324164969911</v>
+        <v>873.5673631083164</v>
       </c>
       <c r="G199" t="n">
-        <v>-6.587080564617911</v>
+        <v>0.8210406631923591</v>
       </c>
       <c r="H199" t="n">
-        <v>343416.2082484955</v>
+        <v>43678.36815541582</v>
       </c>
     </row>
     <row r="200">
@@ -9984,10 +9984,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>114.2240644109183</v>
+        <v>9.050102335432481</v>
       </c>
       <c r="C200" t="n">
-        <v>4620688.127053224</v>
+        <v>588654.0387349994</v>
       </c>
       <c r="D200" t="n">
         <v>51730.53979</v>
@@ -9996,13 +9996,13 @@
         <v>-0.007754366091731127</v>
       </c>
       <c r="F200" t="n">
-        <v>722.3233293809933</v>
+        <v>92.00622833174899</v>
       </c>
       <c r="G200" t="n">
-        <v>-0.6981594743774789</v>
+        <v>0.08714978050793891</v>
       </c>
       <c r="H200" t="n">
-        <v>-36116.16646904966</v>
+        <v>4600.311416587449</v>
       </c>
     </row>
     <row r="201">
@@ -10012,10 +10012,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>130.361210857596</v>
+        <v>7.035421351792525</v>
       </c>
       <c r="C201" t="n">
-        <v>5619162.195964443</v>
+        <v>718450.8986255941</v>
       </c>
       <c r="D201" t="n">
         <v>63137.00468</v>
@@ -10024,13 +10024,13 @@
         <v>0.2204976970335997</v>
       </c>
       <c r="F201" t="n">
-        <v>20377.02181451466</v>
+        <v>2595.937197811896</v>
       </c>
       <c r="G201" t="n">
-        <v>-16.13714644667767</v>
+        <v>2.014680983639956</v>
       </c>
       <c r="H201" t="n">
-        <v>1018851.090725733</v>
+        <v>129796.8598905948</v>
       </c>
     </row>
     <row r="202">
@@ -10040,10 +10040,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>137.9478297038161</v>
+        <v>6.084816852623415</v>
       </c>
       <c r="C202" t="n">
-        <v>6132322.147552767</v>
+        <v>785401.1487750711</v>
       </c>
       <c r="D202" t="n">
         <v>69020.54977</v>
@@ -10052,13 +10052,13 @@
         <v>0.09318695303680979</v>
       </c>
       <c r="F202" t="n">
-        <v>10472.65207323111</v>
+        <v>1339.005002989541</v>
       </c>
       <c r="G202" t="n">
-        <v>-7.586618846220117</v>
+        <v>0.9506044991691102</v>
       </c>
       <c r="H202" t="n">
-        <v>523632.6036615555</v>
+        <v>66950.25014947703</v>
       </c>
     </row>
     <row r="203">
@@ -10068,10 +10068,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>137.1041460951628</v>
+        <v>6.190711073165859</v>
       </c>
       <c r="C203" t="n">
-        <v>6073484.721290552</v>
+        <v>778013.2648059225</v>
       </c>
       <c r="D203" t="n">
         <v>68371.30726</v>
@@ -10080,13 +10080,13 @@
         <v>-0.009406510266340876</v>
       </c>
       <c r="F203" t="n">
-        <v>1153.675024749293</v>
+        <v>147.7576793829725</v>
       </c>
       <c r="G203" t="n">
-        <v>-0.8436836086533623</v>
+        <v>0.1058942205424441</v>
       </c>
       <c r="H203" t="n">
-        <v>-57683.75123746463</v>
+        <v>7387.883969148625</v>
       </c>
     </row>
     <row r="204">
@@ -10096,10 +10096,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>135.6016442041995</v>
+        <v>6.379332124523454</v>
       </c>
       <c r="C204" t="n">
-        <v>5970444.975364368</v>
+        <v>765072.6870787606</v>
       </c>
       <c r="D204" t="n">
         <v>67234.09758</v>
@@ -10108,13 +10108,13 @@
         <v>-0.01663284973732415</v>
       </c>
       <c r="F204" t="n">
-        <v>2020.387175023196</v>
+        <v>258.8115545432379</v>
       </c>
       <c r="G204" t="n">
-        <v>-1.502501890963282</v>
+        <v>0.1886210513575939</v>
       </c>
       <c r="H204" t="n">
-        <v>-101019.3587511598</v>
+        <v>12940.57772716189</v>
       </c>
     </row>
     <row r="205">
@@ -10124,10 +10124,10 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>140.7048444975677</v>
+        <v>5.738469878289978</v>
       </c>
       <c r="C205" t="n">
-        <v>6327193.454311448</v>
+        <v>811720.5822311285</v>
       </c>
       <c r="D205" t="n">
         <v>71333.48471999999</v>
@@ -10136,13 +10136,13 @@
         <v>0.06097184743384477</v>
       </c>
       <c r="F205" t="n">
-        <v>7280.581203001627</v>
+        <v>932.9579030473569</v>
       </c>
       <c r="G205" t="n">
-        <v>-5.10320029336822</v>
+        <v>0.6408622462334754</v>
       </c>
       <c r="H205" t="n">
-        <v>364029.0601500814</v>
+        <v>46647.89515236785</v>
       </c>
     </row>
     <row r="206">
@@ -10152,10 +10152,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>138.1844765046675</v>
+        <v>6.055343053990773</v>
       </c>
       <c r="C206" t="n">
-        <v>6148877.91008389</v>
+        <v>789292.8957406204</v>
       </c>
       <c r="D206" t="n">
         <v>69362.554</v>
@@ -10164,13 +10164,13 @@
         <v>-0.02762981126936861</v>
       </c>
       <c r="F206" t="n">
-        <v>3496.383220148196</v>
+        <v>448.5537298101617</v>
       </c>
       <c r="G206" t="n">
-        <v>-2.520367992900172</v>
+        <v>0.3168731757007955</v>
       </c>
       <c r="H206" t="n">
-        <v>-174819.1610074098</v>
+        <v>22427.68649050808</v>
       </c>
     </row>
     <row r="207">
@@ -10180,10 +10180,10 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>133.299067559601</v>
+        <v>6.669910176143076</v>
       </c>
       <c r="C207" t="n">
-        <v>5821289.561653056</v>
+        <v>748066.9527240255</v>
       </c>
       <c r="D207" t="n">
         <v>65739.64453999999</v>
@@ -10192,13 +10192,13 @@
         <v>-0.05223148876553781</v>
       </c>
       <c r="F207" t="n">
-        <v>6423.300949624206</v>
+        <v>824.5188603319003</v>
       </c>
       <c r="G207" t="n">
-        <v>-4.885408945066533</v>
+        <v>0.6145671221523024</v>
       </c>
       <c r="H207" t="n">
-        <v>-321165.0474812103</v>
+        <v>41225.94301659502</v>
       </c>
     </row>
   </sheetData>

--- a/Results/BITCOIN(05-2020-04-2024)Results.xlsx
+++ b/Results/BITCOIN(05-2020-04-2024)Results.xlsx
@@ -486,10 +486,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4303334452717079</v>
+        <v>0.4217267763662738</v>
       </c>
       <c r="C3" t="n">
-        <v>995045.1075641916</v>
+        <v>995142.2623178349</v>
       </c>
       <c r="D3" t="n">
         <v>9675.69498</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9042378521697807</v>
+        <v>0.8861530951263852</v>
       </c>
       <c r="C4" t="n">
-        <v>990090.2151283831</v>
+        <v>990284.5246356698</v>
       </c>
       <c r="D4" t="n">
         <v>8786.107695000001</v>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.344215520814695</v>
+        <v>1.317331210398401</v>
       </c>
       <c r="C5" t="n">
-        <v>985135.3226925747</v>
+        <v>985426.7869535047</v>
       </c>
       <c r="D5" t="n">
         <v>9463.605662</v>
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.770829063025944</v>
+        <v>1.735412481765426</v>
       </c>
       <c r="C6" t="n">
-        <v>980180.4302567663</v>
+        <v>980569.0492713396</v>
       </c>
       <c r="D6" t="n">
         <v>9760.063252</v>
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.214442902847546</v>
+        <v>2.170154044790595</v>
       </c>
       <c r="C7" t="n">
-        <v>975225.5378209578</v>
+        <v>975711.3115891744</v>
       </c>
       <c r="D7" t="n">
         <v>9386.035291</v>
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.662116594210924</v>
+        <v>2.608874262326706</v>
       </c>
       <c r="C8" t="n">
-        <v>970270.6453851494</v>
+        <v>970853.5739070093</v>
       </c>
       <c r="D8" t="n">
         <v>9300.915457999999</v>
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.117670413985155</v>
+        <v>3.055317005705453</v>
       </c>
       <c r="C9" t="n">
-        <v>965315.752949341</v>
+        <v>965995.8362248442</v>
       </c>
       <c r="D9" t="n">
         <v>9140.029071000001</v>
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.576597335755159</v>
+        <v>3.505065389040056</v>
       </c>
       <c r="C10" t="n">
-        <v>960360.8605135325</v>
+        <v>961138.0985426791</v>
       </c>
       <c r="D10" t="n">
         <v>9072.850074</v>
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.025415197248964</v>
+        <v>3.944906893303986</v>
       </c>
       <c r="C11" t="n">
-        <v>955405.9680777241</v>
+        <v>956280.360860514</v>
       </c>
       <c r="D11" t="n">
         <v>9277.204659999999</v>
@@ -657,10 +657,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.478629008222519</v>
+        <v>4.389056428058069</v>
       </c>
       <c r="C12" t="n">
-        <v>950451.0756419157</v>
+        <v>951422.6231783489</v>
       </c>
       <c r="D12" t="n">
         <v>9187.220369999999</v>
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.898990800592226</v>
+        <v>4.801010984580381</v>
       </c>
       <c r="C13" t="n">
-        <v>945496.1832061072</v>
+        <v>946564.8854961838</v>
       </c>
       <c r="D13" t="n">
         <v>9905.217914000001</v>
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.276015637075545</v>
+        <v>5.170495324334034</v>
       </c>
       <c r="C14" t="n">
-        <v>940541.2907702988</v>
+        <v>941707.1478140187</v>
       </c>
       <c r="D14" t="n">
         <v>11043.76888</v>
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.633045599726314</v>
+        <v>5.520384687731788</v>
       </c>
       <c r="C15" t="n">
-        <v>935586.3983344904</v>
+        <v>936849.4101318535</v>
       </c>
       <c r="D15" t="n">
         <v>11662.25693</v>
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.983070393365074</v>
+        <v>5.863408985497774</v>
       </c>
       <c r="C16" t="n">
-        <v>930631.5058986819</v>
+        <v>931991.6724496884</v>
       </c>
       <c r="D16" t="n">
         <v>11895.65777</v>
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.340056502974067</v>
+        <v>6.213255372914587</v>
       </c>
       <c r="C17" t="n">
-        <v>925676.6134628735</v>
+        <v>927133.9347675233</v>
       </c>
       <c r="D17" t="n">
         <v>11663.68955</v>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.695530445186762</v>
+        <v>6.561619836283028</v>
       </c>
       <c r="C18" t="n">
-        <v>920721.7210270651</v>
+        <v>922276.1970853582</v>
       </c>
       <c r="D18" t="n">
         <v>11713.30627</v>
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.100527636124889</v>
+        <v>6.958517083402392</v>
       </c>
       <c r="C19" t="n">
-        <v>915766.8285912566</v>
+        <v>917418.4594031931</v>
       </c>
       <c r="D19" t="n">
         <v>10280.99762</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.50365304450483</v>
+        <v>7.353579983614734</v>
       </c>
       <c r="C20" t="n">
-        <v>910811.9361554482</v>
+        <v>912560.721721028</v>
       </c>
       <c r="D20" t="n">
         <v>10328.73411</v>
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.884430686265466</v>
+        <v>7.726742072540157</v>
       </c>
       <c r="C21" t="n">
-        <v>905857.0437196398</v>
+        <v>907702.9840388629</v>
       </c>
       <c r="D21" t="n">
         <v>10934.92553</v>
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.27080207297703</v>
+        <v>8.10538603151749</v>
       </c>
       <c r="C22" t="n">
-        <v>900902.1512838313</v>
+        <v>902845.2463566978</v>
       </c>
       <c r="D22" t="n">
         <v>10776.61364</v>
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.660795409925893</v>
+        <v>8.487579501727376</v>
       </c>
       <c r="C23" t="n">
-        <v>895947.2588480229</v>
+        <v>897987.5086745326</v>
       </c>
       <c r="D23" t="n">
         <v>10676.52896</v>
@@ -885,10 +885,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.026274924564653</v>
+        <v>8.845749426073363</v>
       </c>
       <c r="C24" t="n">
-        <v>890992.3664122145</v>
+        <v>893129.7709923675</v>
       </c>
       <c r="D24" t="n">
         <v>11392.63622</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.388498622987832</v>
+        <v>9.200728650528079</v>
       </c>
       <c r="C25" t="n">
-        <v>886037.473976406</v>
+        <v>888272.0333102024</v>
       </c>
       <c r="D25" t="n">
         <v>11495.03794</v>
@@ -923,10 +923,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.70802213246794</v>
+        <v>9.513861689818585</v>
       </c>
       <c r="C26" t="n">
-        <v>881082.5815405976</v>
+        <v>883414.2956280373</v>
       </c>
       <c r="D26" t="n">
         <v>13031.20125</v>
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10.01112800661087</v>
+        <v>9.810905446478651</v>
       </c>
       <c r="C27" t="n">
-        <v>876127.6891047892</v>
+        <v>878556.5579458722</v>
       </c>
       <c r="D27" t="n">
         <v>13737.03221</v>
@@ -961,10 +961,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.28011275475657</v>
+        <v>10.07451049966144</v>
       </c>
       <c r="C28" t="n">
-        <v>871172.7966689807</v>
+        <v>873698.8202637071</v>
       </c>
       <c r="D28" t="n">
         <v>15479.59572</v>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10.54107324282672</v>
+        <v>10.33025177797019</v>
       </c>
       <c r="C29" t="n">
-        <v>866217.9042331723</v>
+        <v>868841.082581542</v>
       </c>
       <c r="D29" t="n">
         <v>15955.57698</v>
@@ -999,10 +999,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>10.7677347140206</v>
+        <v>10.55238001974019</v>
       </c>
       <c r="C30" t="n">
-        <v>861263.0117973639</v>
+        <v>863983.3448993769</v>
       </c>
       <c r="D30" t="n">
         <v>18370.01734</v>
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10.99678639044351</v>
+        <v>10.77685066263464</v>
       </c>
       <c r="C31" t="n">
-        <v>856308.1193615554</v>
+        <v>859125.6072172117</v>
       </c>
       <c r="D31" t="n">
         <v>18178.32212</v>
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>11.21204500755728</v>
+        <v>10.98780410740614</v>
       </c>
       <c r="C32" t="n">
-        <v>851353.226925747</v>
+        <v>854267.8695350466</v>
       </c>
       <c r="D32" t="n">
         <v>19343.1288</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>11.42953707034459</v>
+        <v>11.2009463289377</v>
       </c>
       <c r="C33" t="n">
-        <v>846398.3344899386</v>
+        <v>849410.1318528815</v>
       </c>
       <c r="D33" t="n">
         <v>19144.49246</v>
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11.60691179889177</v>
+        <v>11.37477356291394</v>
       </c>
       <c r="C34" t="n">
-        <v>841443.4420541301</v>
+        <v>844552.3941707164</v>
       </c>
       <c r="D34" t="n">
         <v>23474.45541</v>
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11.76534577968709</v>
+        <v>11.53003886409335</v>
       </c>
       <c r="C35" t="n">
-        <v>836488.5496183217</v>
+        <v>839694.6564885513</v>
       </c>
       <c r="D35" t="n">
         <v>26280.82142</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>11.89224778818213</v>
+        <v>11.65440283241849</v>
       </c>
       <c r="C36" t="n">
-        <v>831533.6571825133</v>
+        <v>834836.9188063862</v>
       </c>
       <c r="D36" t="n">
         <v>32810.94764</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12.00083063023937</v>
+        <v>11.76081401763458</v>
       </c>
       <c r="C37" t="n">
-        <v>826578.7647467048</v>
+        <v>829979.1811242211</v>
       </c>
       <c r="D37" t="n">
         <v>38346.5295</v>
@@ -1151,10 +1151,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12.11716242572147</v>
+        <v>11.87481917720704</v>
       </c>
       <c r="C38" t="n">
-        <v>821623.8723108964</v>
+        <v>825121.443442056</v>
       </c>
       <c r="D38" t="n">
         <v>35792.23667</v>
@@ -1170,10 +1170,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>12.24612857482463</v>
+        <v>12.00120600332814</v>
       </c>
       <c r="C39" t="n">
-        <v>816668.979875088</v>
+        <v>820263.7057598908</v>
       </c>
       <c r="D39" t="n">
         <v>32285.79891</v>
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12.37186701098114</v>
+        <v>12.12442967076152</v>
       </c>
       <c r="C40" t="n">
-        <v>811714.0874392795</v>
+        <v>815405.9680777257</v>
       </c>
       <c r="D40" t="n">
         <v>33114.57724</v>
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>12.47894119127078</v>
+        <v>12.22936236744537</v>
       </c>
       <c r="C41" t="n">
-        <v>806759.1950034711</v>
+        <v>810548.2303955606</v>
       </c>
       <c r="D41" t="n">
         <v>38886.82729</v>
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>12.56444573516089</v>
+        <v>12.31315682045768</v>
       </c>
       <c r="C42" t="n">
-        <v>801804.3025676627</v>
+        <v>805690.4927133955</v>
       </c>
       <c r="D42" t="n">
         <v>48696.53666</v>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>12.63681800942848</v>
+        <v>12.38408164923992</v>
       </c>
       <c r="C43" t="n">
-        <v>796849.4101318542</v>
+        <v>800832.7550312304</v>
       </c>
       <c r="D43" t="n">
         <v>57532.73886</v>
@@ -1265,10 +1265,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>12.72901953679098</v>
+        <v>12.47443914605517</v>
       </c>
       <c r="C44" t="n">
-        <v>791894.5176960458</v>
+        <v>795975.0173490653</v>
       </c>
       <c r="D44" t="n">
         <v>45159.50305</v>
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>12.81038440255329</v>
+        <v>12.55417671450224</v>
       </c>
       <c r="C45" t="n">
-        <v>786939.6252602374</v>
+        <v>791117.2796669002</v>
       </c>
       <c r="D45" t="n">
         <v>51174.11695</v>
@@ -1303,10 +1303,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12.88063842272732</v>
+        <v>12.62302565427278</v>
       </c>
       <c r="C46" t="n">
-        <v>781984.7328244289</v>
+        <v>786259.5419847351</v>
       </c>
       <c r="D46" t="n">
         <v>59267.42905</v>
@@ -1322,10 +1322,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>12.95302937879819</v>
+        <v>12.69396879122223</v>
       </c>
       <c r="C47" t="n">
-        <v>777029.8403886205</v>
+        <v>781401.8043025699</v>
       </c>
       <c r="D47" t="n">
         <v>57517.89149</v>
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>13.02745174733744</v>
+        <v>12.76690271239069</v>
       </c>
       <c r="C48" t="n">
-        <v>772074.9479528121</v>
+        <v>776544.0666204048</v>
       </c>
       <c r="D48" t="n">
         <v>55947.89897</v>
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>13.09831140147699</v>
+        <v>12.83634517344745</v>
       </c>
       <c r="C49" t="n">
-        <v>767120.0555170036</v>
+        <v>771686.3289382397</v>
       </c>
       <c r="D49" t="n">
         <v>58760.87326</v>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>13.16750475062585</v>
+        <v>12.90415465561334</v>
       </c>
       <c r="C50" t="n">
-        <v>762165.1630811952</v>
+        <v>766828.5912560746</v>
       </c>
       <c r="D50" t="n">
         <v>60175.94476</v>
@@ -1398,10 +1398,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>13.24160437287517</v>
+        <v>12.97677228541767</v>
       </c>
       <c r="C51" t="n">
-        <v>757210.2706453868</v>
+        <v>761970.8535739095</v>
       </c>
       <c r="D51" t="n">
         <v>56191.58411</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>13.32644468365359</v>
+        <v>13.05991578998053</v>
       </c>
       <c r="C52" t="n">
-        <v>752255.3782095783</v>
+        <v>757113.1158917444</v>
       </c>
       <c r="D52" t="n">
         <v>49077.79236</v>
@@ -1436,10 +1436,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>13.39998327616597</v>
+        <v>13.13198361064265</v>
       </c>
       <c r="C53" t="n">
-        <v>747300.4857737699</v>
+        <v>752255.3782095793</v>
       </c>
       <c r="D53" t="n">
         <v>56620.27262</v>
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>13.47146332402271</v>
+        <v>13.20203405754226</v>
       </c>
       <c r="C54" t="n">
-        <v>742345.5933379615</v>
+        <v>747397.6405274142</v>
       </c>
       <c r="D54" t="n">
         <v>58250.87253</v>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>13.56116911930883</v>
+        <v>13.28994573692266</v>
       </c>
       <c r="C55" t="n">
-        <v>737390.700902153</v>
+        <v>742539.902845249</v>
       </c>
       <c r="D55" t="n">
         <v>46415.89925</v>
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>13.6811613824372</v>
+        <v>13.40753815478846</v>
       </c>
       <c r="C56" t="n">
-        <v>732435.8084663446</v>
+        <v>737682.1651630839</v>
       </c>
       <c r="D56" t="n">
         <v>34700.36357</v>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>13.7979291741673</v>
+        <v>13.52197059068395</v>
       </c>
       <c r="C57" t="n">
-        <v>727480.9160305362</v>
+        <v>732824.4274809188</v>
       </c>
       <c r="D57" t="n">
         <v>35658.59296</v>
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>13.91412128539861</v>
+        <v>13.63583885969064</v>
       </c>
       <c r="C58" t="n">
-        <v>722526.0235947277</v>
+        <v>727966.6897987537</v>
       </c>
       <c r="D58" t="n">
         <v>35835.26551</v>
@@ -1550,10 +1550,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>14.02083831485868</v>
+        <v>13.74042154856151</v>
       </c>
       <c r="C59" t="n">
-        <v>717571.1311589193</v>
+        <v>723108.9521165886</v>
       </c>
       <c r="D59" t="n">
         <v>39016.97018</v>
@@ -1569,10 +1569,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>14.13766326625424</v>
+        <v>13.85491000092915</v>
       </c>
       <c r="C60" t="n">
-        <v>712616.2387231109</v>
+        <v>718251.2144344235</v>
       </c>
       <c r="D60" t="n">
         <v>35641.14606</v>
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>14.25772902598504</v>
+        <v>13.97257444546534</v>
       </c>
       <c r="C61" t="n">
-        <v>707661.3462873024</v>
+        <v>713393.4767522584</v>
       </c>
       <c r="D61" t="n">
         <v>34679.12222</v>
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>14.37573533227767</v>
+        <v>14.08822062563212</v>
       </c>
       <c r="C62" t="n">
-        <v>702706.453851494</v>
+        <v>708535.7390700933</v>
       </c>
       <c r="D62" t="n">
         <v>35284.34443</v>
@@ -1626,10 +1626,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>14.49729115464967</v>
+        <v>14.20734533155668</v>
       </c>
       <c r="C63" t="n">
-        <v>697751.5614156856</v>
+        <v>703678.0013879281</v>
       </c>
       <c r="D63" t="n">
         <v>34254.01659</v>
@@ -1645,10 +1645,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>14.62822742826939</v>
+        <v>14.33566287970401</v>
       </c>
       <c r="C64" t="n">
-        <v>692796.6689798771</v>
+        <v>698820.263705763</v>
       </c>
       <c r="D64" t="n">
         <v>31800.01264</v>
@@ -1664,10 +1664,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>14.74590128198991</v>
+        <v>14.45098325635012</v>
       </c>
       <c r="C65" t="n">
-        <v>687841.7765440687</v>
+        <v>693962.5260235979</v>
       </c>
       <c r="D65" t="n">
         <v>35384.02988</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>14.85023755711336</v>
+        <v>14.5532328059711</v>
       </c>
       <c r="C66" t="n">
-        <v>682886.8841082603</v>
+        <v>689104.7883414328</v>
       </c>
       <c r="D66" t="n">
         <v>39907.26285</v>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>14.94531844077047</v>
+        <v>14.64641207195507</v>
       </c>
       <c r="C67" t="n">
-        <v>677931.9916724518</v>
+        <v>684247.0506592677</v>
       </c>
       <c r="D67" t="n">
         <v>43791.92742</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>15.03387179213979</v>
+        <v>14.73319435629699</v>
       </c>
       <c r="C68" t="n">
-        <v>672977.0992366434</v>
+        <v>679389.3129771026</v>
       </c>
       <c r="D68" t="n">
         <v>47019.96132</v>
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>15.11834396631408</v>
+        <v>14.8159770869878</v>
       </c>
       <c r="C69" t="n">
-        <v>668022.206800835</v>
+        <v>674531.5752949375</v>
       </c>
       <c r="D69" t="n">
         <v>49291.67737</v>
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>15.20360633381676</v>
+        <v>14.89953420714043</v>
       </c>
       <c r="C70" t="n">
-        <v>663067.3143650265</v>
+        <v>669673.8376127724</v>
       </c>
       <c r="D70" t="n">
         <v>48834.85268</v>
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>15.28403622059619</v>
+        <v>14.97835549618427</v>
       </c>
       <c r="C71" t="n">
-        <v>658112.4219292181</v>
+        <v>664816.0999306072</v>
       </c>
       <c r="D71" t="n">
         <v>51769.00432</v>
@@ -1797,10 +1797,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>15.37444062577588</v>
+        <v>15.06695181326037</v>
       </c>
       <c r="C72" t="n">
-        <v>653157.5294934097</v>
+        <v>659958.3622484421</v>
       </c>
       <c r="D72" t="n">
         <v>46057.21533</v>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>15.462541583079</v>
+        <v>15.15329075141742</v>
       </c>
       <c r="C73" t="n">
-        <v>648202.6370576012</v>
+        <v>655100.624566277</v>
       </c>
       <c r="D73" t="n">
         <v>47261.4065</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>15.5588490574279</v>
+        <v>15.24767207627934</v>
       </c>
       <c r="C74" t="n">
-        <v>643247.7446217928</v>
+        <v>650242.8868841119</v>
       </c>
       <c r="D74" t="n">
         <v>43234.18493</v>
@@ -1854,10 +1854,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>15.6452184725596</v>
+        <v>15.33231410310841</v>
       </c>
       <c r="C75" t="n">
-        <v>638292.8521859844</v>
+        <v>645385.1492019468</v>
       </c>
       <c r="D75" t="n">
         <v>48208.90763</v>
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>15.72129121818791</v>
+        <v>15.40686539382416</v>
       </c>
       <c r="C76" t="n">
-        <v>633337.9597501759</v>
+        <v>640527.4115197817</v>
       </c>
       <c r="D76" t="n">
         <v>54734.12484</v>
@@ -1892,10 +1892,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>15.78894119550838</v>
+        <v>15.47316237159822</v>
       </c>
       <c r="C77" t="n">
-        <v>628383.0673143675</v>
+        <v>635669.6738376166</v>
       </c>
       <c r="D77" t="n">
         <v>61548.80343</v>
@@ -1911,10 +1911,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>15.85731870573995</v>
+        <v>15.54017233162515</v>
       </c>
       <c r="C78" t="n">
-        <v>623428.1748785591</v>
+        <v>630811.9361554515</v>
       </c>
       <c r="D78" t="n">
         <v>60893.92758</v>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>15.92522060780967</v>
+        <v>15.60671619565349</v>
       </c>
       <c r="C79" t="n">
-        <v>618473.2824427506</v>
+        <v>625954.1984732863</v>
       </c>
       <c r="D79" t="n">
         <v>61320.44949</v>
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>15.99095328553118</v>
+        <v>15.67113421982056</v>
       </c>
       <c r="C80" t="n">
-        <v>613518.3900069422</v>
+        <v>621096.4607911212</v>
       </c>
       <c r="D80" t="n">
         <v>63344.06722</v>
@@ -1968,10 +1968,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>16.05450171685913</v>
+        <v>15.73341168252195</v>
       </c>
       <c r="C81" t="n">
-        <v>608563.4975711338</v>
+        <v>616238.7231089561</v>
       </c>
       <c r="D81" t="n">
         <v>65521.28934</v>
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>16.12542657826993</v>
+        <v>15.80291804670454</v>
       </c>
       <c r="C82" t="n">
-        <v>603608.6051353253</v>
+        <v>611380.985426791</v>
       </c>
       <c r="D82" t="n">
         <v>58706.84938</v>
@@ -2006,10 +2006,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>16.19810307900357</v>
+        <v>15.87414101742351</v>
       </c>
       <c r="C83" t="n">
-        <v>598653.7126995169</v>
+        <v>606523.2477446259</v>
       </c>
       <c r="D83" t="n">
         <v>57291.90473</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>16.2823670335354</v>
+        <v>15.95671969286469</v>
       </c>
       <c r="C84" t="n">
-        <v>593698.8202637085</v>
+        <v>601665.5100624608</v>
       </c>
       <c r="D84" t="n">
         <v>49413.4791</v>
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>16.36545187192601</v>
+        <v>16.03814283448749</v>
       </c>
       <c r="C85" t="n">
-        <v>588743.9278279</v>
+        <v>596807.7723802957</v>
       </c>
       <c r="D85" t="n">
         <v>50114.74099</v>
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>16.45459845403671</v>
+        <v>16.12550648495597</v>
       </c>
       <c r="C86" t="n">
-        <v>583789.0353920916</v>
+        <v>591950.0346981306</v>
       </c>
       <c r="D86" t="n">
         <v>46707.06445</v>
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>16.53655832270957</v>
+        <v>16.20582715625538</v>
       </c>
       <c r="C87" t="n">
-        <v>578834.1429562832</v>
+        <v>587092.2970159655</v>
       </c>
       <c r="D87" t="n">
         <v>50802.60893</v>
@@ -2101,10 +2101,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>16.62450643188301</v>
+        <v>16.29201630324535</v>
       </c>
       <c r="C88" t="n">
-        <v>573879.2505204747</v>
+        <v>582234.5593338003</v>
       </c>
       <c r="D88" t="n">
         <v>47343.54377</v>
@@ -2120,10 +2120,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>16.72385628211483</v>
+        <v>16.38937915647254</v>
       </c>
       <c r="C89" t="n">
-        <v>568924.3580846663</v>
+        <v>577376.8216516352</v>
       </c>
       <c r="D89" t="n">
         <v>41910.23083</v>
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>16.82042299574903</v>
+        <v>16.48401453583405</v>
       </c>
       <c r="C90" t="n">
-        <v>563969.4656488579</v>
+        <v>572519.0839694701</v>
       </c>
       <c r="D90" t="n">
         <v>43118.1201</v>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>16.93520427837344</v>
+        <v>16.59650019280597</v>
       </c>
       <c r="C91" t="n">
-        <v>559014.5732130494</v>
+        <v>567661.346287305</v>
       </c>
       <c r="D91" t="n">
         <v>36275.73295</v>
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>17.04500766187789</v>
+        <v>16.70410750864034</v>
       </c>
       <c r="C92" t="n">
-        <v>554059.680777241</v>
+        <v>562803.6086051399</v>
       </c>
       <c r="D92" t="n">
         <v>37920.28099</v>
@@ -2196,10 +2196,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>17.14319420246299</v>
+        <v>16.80033031841374</v>
       </c>
       <c r="C93" t="n">
-        <v>549104.7883414326</v>
+        <v>557945.8709229748</v>
       </c>
       <c r="D93" t="n">
         <v>42406.78133</v>
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>17.24196156572766</v>
+        <v>16.89712233441311</v>
       </c>
       <c r="C94" t="n">
-        <v>544149.8959056241</v>
+        <v>553088.1332408097</v>
       </c>
       <c r="D94" t="n">
         <v>42157.39915</v>
@@ -2234,10 +2234,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>17.35032771135237</v>
+        <v>17.00332115712533</v>
       </c>
       <c r="C95" t="n">
-        <v>539195.0034698157</v>
+        <v>548230.3955586446</v>
       </c>
       <c r="D95" t="n">
         <v>38423.20987</v>
@@ -2253,10 +2253,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>17.460755097336</v>
+        <v>17.11153999538929</v>
       </c>
       <c r="C96" t="n">
-        <v>534240.1110340073</v>
+        <v>543372.6578764794</v>
       </c>
       <c r="D96" t="n">
         <v>37706.00127</v>
@@ -2272,10 +2272,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>17.56910406166612</v>
+        <v>17.21772198043281</v>
       </c>
       <c r="C97" t="n">
-        <v>529285.2185981988</v>
+        <v>538514.9201943143</v>
       </c>
       <c r="D97" t="n">
         <v>38429.30278</v>
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>17.67912203825686</v>
+        <v>17.32553959749173</v>
       </c>
       <c r="C98" t="n">
-        <v>524330.3261623904</v>
+        <v>533657.1825121492</v>
       </c>
       <c r="D98" t="n">
         <v>37846.31644</v>
@@ -2310,10 +2310,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>17.78007150596294</v>
+        <v>17.42447007584369</v>
       </c>
       <c r="C99" t="n">
-        <v>519375.4337265819</v>
+        <v>528799.4448299841</v>
       </c>
       <c r="D99" t="n">
         <v>41246.13285</v>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>17.86899954135474</v>
+        <v>17.51161955052765</v>
       </c>
       <c r="C100" t="n">
-        <v>514420.5412907734</v>
+        <v>523941.7071478189</v>
       </c>
       <c r="D100" t="n">
         <v>46821.85025</v>
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>17.95864860596153</v>
+        <v>17.59947563384231</v>
       </c>
       <c r="C101" t="n">
-        <v>509465.6488549649</v>
+        <v>519083.9694656538</v>
       </c>
       <c r="D101" t="n">
         <v>46445.27162</v>
@@ -2367,10 +2367,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>18.05731383626815</v>
+        <v>17.6961675595428</v>
       </c>
       <c r="C102" t="n">
-        <v>504510.7564191564</v>
+        <v>514226.2317834886</v>
       </c>
       <c r="D102" t="n">
         <v>42201.03823</v>
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>18.16213883778001</v>
+        <v>17.79889606102441</v>
       </c>
       <c r="C103" t="n">
-        <v>499555.863983348</v>
+        <v>509368.4941013234</v>
       </c>
       <c r="D103" t="n">
         <v>39721.20292</v>
@@ -2405,10 +2405,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>18.26762401936713</v>
+        <v>17.90227153897979</v>
       </c>
       <c r="C104" t="n">
-        <v>494600.9715475395</v>
+        <v>504510.7564191582</v>
       </c>
       <c r="D104" t="n">
         <v>39472.60737</v>
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>18.37585220873175</v>
+        <v>18.00833516455713</v>
       </c>
       <c r="C105" t="n">
-        <v>489646.079111731</v>
+        <v>499653.0187369931</v>
       </c>
       <c r="D105" t="n">
         <v>38472.18715</v>
@@ -2443,10 +2443,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>18.49810039615805</v>
+        <v>18.1281383882349</v>
       </c>
       <c r="C106" t="n">
-        <v>484691.1866759225</v>
+        <v>494795.2810548279</v>
       </c>
       <c r="D106" t="n">
         <v>34060.01548</v>
@@ -2462,10 +2462,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>18.63110976850711</v>
+        <v>18.25848757313698</v>
       </c>
       <c r="C107" t="n">
-        <v>479736.294240114</v>
+        <v>489937.5433726627</v>
       </c>
       <c r="D107" t="n">
         <v>31304.37414</v>
@@ -2481,10 +2481,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>18.76848548824105</v>
+        <v>18.39311577847625</v>
       </c>
       <c r="C108" t="n">
-        <v>474781.4018043055</v>
+        <v>485079.8056904976</v>
       </c>
       <c r="D108" t="n">
         <v>30309.39648</v>
@@ -2500,10 +2500,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>18.90990190092812</v>
+        <v>18.53170386290957</v>
       </c>
       <c r="C109" t="n">
-        <v>469826.509368497</v>
+        <v>480222.0680083324</v>
       </c>
       <c r="D109" t="n">
         <v>29443.36571</v>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>19.04911071603399</v>
+        <v>18.66812850171333</v>
       </c>
       <c r="C110" t="n">
-        <v>464871.6169326885</v>
+        <v>475364.3303261672</v>
       </c>
       <c r="D110" t="n">
         <v>29910.28372</v>
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>19.20483817979637</v>
+        <v>18.82074141620046</v>
       </c>
       <c r="C111" t="n">
-        <v>459916.72449688</v>
+        <v>470506.5926440021</v>
       </c>
       <c r="D111" t="n">
         <v>26737.57766</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>19.407421751517</v>
+        <v>19.01927331648668</v>
       </c>
       <c r="C112" t="n">
-        <v>454961.8320610715</v>
+        <v>465648.8549618369</v>
       </c>
       <c r="D112" t="n">
         <v>20553.37025</v>
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>19.60543050101849</v>
+        <v>19.21332189099813</v>
       </c>
       <c r="C113" t="n">
-        <v>450006.939625263</v>
+        <v>460791.1172796717</v>
       </c>
       <c r="D113" t="n">
         <v>21028.23823</v>
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>19.82120017316795</v>
+        <v>19.42477616970461</v>
       </c>
       <c r="C114" t="n">
-        <v>445052.0471894545</v>
+        <v>455933.3795975065</v>
       </c>
       <c r="D114" t="n">
         <v>19297.31419</v>
@@ -2614,10 +2614,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>20.02084078924933</v>
+        <v>19.62042397346437</v>
       </c>
       <c r="C115" t="n">
-        <v>440097.1547536461</v>
+        <v>451075.6419153414</v>
       </c>
       <c r="D115" t="n">
         <v>20856.35297</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>20.22119652438667</v>
+        <v>19.81677259389896</v>
       </c>
       <c r="C116" t="n">
-        <v>435142.2623178376</v>
+        <v>446217.9042331762</v>
       </c>
       <c r="D116" t="n">
         <v>20781.9115</v>
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>20.40537604873827</v>
+        <v>19.99726852776353</v>
       </c>
       <c r="C117" t="n">
-        <v>430187.3698820291</v>
+        <v>441360.166551011</v>
       </c>
       <c r="D117" t="n">
         <v>22607.15555</v>
@@ -2671,10 +2671,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>20.58379767371657</v>
+        <v>20.17212172024227</v>
       </c>
       <c r="C118" t="n">
-        <v>425232.4774462206</v>
+        <v>436502.4288688459</v>
       </c>
       <c r="D118" t="n">
         <v>23336.71805</v>
@@ -2690,10 +2690,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>20.76342925753448</v>
+        <v>20.34816067238382</v>
       </c>
       <c r="C119" t="n">
-        <v>420277.5850104121</v>
+        <v>431644.6911866807</v>
       </c>
       <c r="D119" t="n">
         <v>23179.52705</v>
@@ -2709,10 +2709,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>20.93464897707328</v>
+        <v>20.51595599753184</v>
       </c>
       <c r="C120" t="n">
-        <v>415322.6925746036</v>
+        <v>426786.9535045155</v>
       </c>
       <c r="D120" t="n">
         <v>24318.31548</v>
@@ -2728,10 +2728,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>21.12802993738089</v>
+        <v>20.70546933863329</v>
       </c>
       <c r="C121" t="n">
-        <v>410367.8001387951</v>
+        <v>421929.2158223504</v>
       </c>
       <c r="D121" t="n">
         <v>21531.46385</v>
@@ -2747,10 +2747,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>21.34030333028907</v>
+        <v>20.91349726368331</v>
       </c>
       <c r="C122" t="n">
-        <v>405412.9077029866</v>
+        <v>417071.4781401852</v>
       </c>
       <c r="D122" t="n">
         <v>19615.15336</v>
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>21.54860884521202</v>
+        <v>21.1176366683078</v>
       </c>
       <c r="C123" t="n">
-        <v>400458.0152671781</v>
+        <v>412213.74045802</v>
       </c>
       <c r="D123" t="n">
         <v>19988.78982</v>
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>21.73986960886312</v>
+        <v>21.30507221668589</v>
       </c>
       <c r="C124" t="n">
-        <v>395503.1228313696</v>
+        <v>407356.0027758548</v>
       </c>
       <c r="D124" t="n">
         <v>21770.14813</v>
@@ -2804,10 +2804,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>21.9542919299538</v>
+        <v>21.51520609135475</v>
       </c>
       <c r="C125" t="n">
-        <v>390548.2303955611</v>
+        <v>402498.2650936897</v>
       </c>
       <c r="D125" t="n">
         <v>19418.57142</v>
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>22.17572338920639</v>
+        <v>21.73220892142229</v>
       </c>
       <c r="C126" t="n">
-        <v>385593.3379597527</v>
+        <v>397640.5274115245</v>
       </c>
       <c r="D126" t="n">
         <v>18803.90063</v>
@@ -2842,10 +2842,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>22.3943623474866</v>
+        <v>21.94647510053689</v>
       </c>
       <c r="C127" t="n">
-        <v>380638.4455239442</v>
+        <v>392782.7897293593</v>
       </c>
       <c r="D127" t="n">
         <v>19044.06785</v>
@@ -2861,10 +2861,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>22.60847764291662</v>
+        <v>22.15630809005831</v>
       </c>
       <c r="C128" t="n">
-        <v>375683.5530881357</v>
+        <v>387925.0520471942</v>
       </c>
       <c r="D128" t="n">
         <v>19446.41623</v>
@@ -2880,10 +2880,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>22.82456928143808</v>
+        <v>22.36807789580934</v>
       </c>
       <c r="C129" t="n">
-        <v>370728.6606523272</v>
+        <v>383067.314365029</v>
       </c>
       <c r="D129" t="n">
         <v>19268.5621</v>
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>23.03735669898808</v>
+        <v>22.57660956500834</v>
       </c>
       <c r="C130" t="n">
-        <v>365773.7682165187</v>
+        <v>378209.5766828638</v>
       </c>
       <c r="D130" t="n">
         <v>19567.76958</v>
@@ -2918,10 +2918,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>23.23915162424121</v>
+        <v>22.77436859175641</v>
       </c>
       <c r="C131" t="n">
-        <v>360818.8757807102</v>
+        <v>373351.8390006986</v>
       </c>
       <c r="D131" t="n">
         <v>20633.69607</v>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>23.43814090388532</v>
+        <v>22.96937808580764</v>
       </c>
       <c r="C132" t="n">
-        <v>355863.9833449017</v>
+        <v>368494.1013185335</v>
       </c>
       <c r="D132" t="n">
         <v>20924.62048</v>
@@ -2956,10 +2956,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>23.69277445842344</v>
+        <v>23.21891896925499</v>
       </c>
       <c r="C133" t="n">
-        <v>350909.0909090932</v>
+        <v>363636.3636363683</v>
       </c>
       <c r="D133" t="n">
         <v>16352.02856</v>
@@ -2975,10 +2975,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>23.94835839780444</v>
+        <v>23.46939122984838</v>
       </c>
       <c r="C134" t="n">
-        <v>345954.1984732847</v>
+        <v>358778.6259542031</v>
       </c>
       <c r="D134" t="n">
         <v>16291.2238</v>
@@ -2994,10 +2994,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>24.20162597128049</v>
+        <v>23.7175934518549</v>
       </c>
       <c r="C135" t="n">
-        <v>340999.3060374762</v>
+        <v>353920.888272038</v>
       </c>
       <c r="D135" t="n">
         <v>16440.22209</v>
@@ -3013,10 +3013,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>24.44471085094024</v>
+        <v>23.95581663392147</v>
       </c>
       <c r="C136" t="n">
-        <v>336044.4136016677</v>
+        <v>349063.1505898728</v>
       </c>
       <c r="D136" t="n">
         <v>17128.89408</v>
@@ -3032,10 +3032,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>24.68817087128186</v>
+        <v>24.19440745385625</v>
       </c>
       <c r="C137" t="n">
-        <v>331089.5211658592</v>
+        <v>344205.4129077076</v>
       </c>
       <c r="D137" t="n">
         <v>17102.50065</v>
@@ -3051,10 +3051,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>24.93662036033873</v>
+        <v>24.43788795313198</v>
       </c>
       <c r="C138" t="n">
-        <v>326134.6287300508</v>
+        <v>339347.6752255425</v>
       </c>
       <c r="D138" t="n">
         <v>16759.04093</v>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>25.18384239579864</v>
+        <v>24.6801655478827</v>
       </c>
       <c r="C139" t="n">
-        <v>321179.7362942423</v>
+        <v>334489.9375433773</v>
       </c>
       <c r="D139" t="n">
         <v>16842.24931</v>
@@ -3089,10 +3089,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>25.43428734807187</v>
+        <v>24.92560160111046</v>
       </c>
       <c r="C140" t="n">
-        <v>316224.8438584338</v>
+        <v>329632.1998612121</v>
       </c>
       <c r="D140" t="n">
         <v>16625.51039</v>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>25.6778685451586</v>
+        <v>25.16431117425545</v>
       </c>
       <c r="C141" t="n">
-        <v>311269.9514226253</v>
+        <v>324774.4621790469</v>
       </c>
       <c r="D141" t="n">
         <v>17093.9925</v>
@@ -3127,10 +3127,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>25.87726182721844</v>
+        <v>25.3597165906741</v>
       </c>
       <c r="C142" t="n">
-        <v>306315.0589868168</v>
+        <v>319916.7244968818</v>
       </c>
       <c r="D142" t="n">
         <v>20882.22388</v>
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>26.06051779776704</v>
+        <v>25.53930744181172</v>
       </c>
       <c r="C143" t="n">
-        <v>301360.1665510083</v>
+        <v>315058.9868147166</v>
       </c>
       <c r="D143" t="n">
         <v>22721.08867</v>
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>26.23565288225958</v>
+        <v>25.71093982461442</v>
       </c>
       <c r="C144" t="n">
-        <v>296405.2741151998</v>
+        <v>310201.2491325514</v>
       </c>
       <c r="D144" t="n">
         <v>23774.64897</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>26.41704920415025</v>
+        <v>25.88870822006727</v>
       </c>
       <c r="C145" t="n">
-        <v>291450.3816793913</v>
+        <v>305343.5114503863</v>
       </c>
       <c r="D145" t="n">
         <v>22954.02196</v>
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>26.60816203737947</v>
+        <v>26.07599879663191</v>
       </c>
       <c r="C146" t="n">
-        <v>286495.4892435828</v>
+        <v>300485.7737682211</v>
       </c>
       <c r="D146" t="n">
         <v>21786.99926</v>
@@ -3222,10 +3222,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>26.77925295241607</v>
+        <v>26.24366789336777</v>
       </c>
       <c r="C147" t="n">
-        <v>281540.5968077743</v>
+        <v>295628.0360860559</v>
       </c>
       <c r="D147" t="n">
         <v>24336.62334</v>
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>26.95597276532963</v>
+        <v>26.41685331002305</v>
       </c>
       <c r="C148" t="n">
-        <v>276585.7043719658</v>
+        <v>290770.2984038907</v>
       </c>
       <c r="D148" t="n">
         <v>23561.45068</v>
@@ -3260,10 +3260,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>27.14155056796396</v>
+        <v>26.5987195566047</v>
       </c>
       <c r="C149" t="n">
-        <v>271630.8119361573</v>
+        <v>285912.5607217256</v>
       </c>
       <c r="D149" t="n">
         <v>22436.81678</v>
@@ -3279,10 +3279,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>27.32947703168518</v>
+        <v>26.7828874910515</v>
       </c>
       <c r="C150" t="n">
-        <v>266675.9195003489</v>
+        <v>281054.8230395604</v>
       </c>
       <c r="D150" t="n">
         <v>22156.40668</v>
@@ -3298,10 +3298,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>27.47796266984595</v>
+        <v>26.92840341644905</v>
       </c>
       <c r="C151" t="n">
-        <v>261721.0270645404</v>
+        <v>276197.0853573952</v>
       </c>
       <c r="D151" t="n">
         <v>28041.60192</v>
@@ -3317,10 +3317,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>27.62670043700579</v>
+        <v>27.07416642826569</v>
       </c>
       <c r="C152" t="n">
-        <v>256766.1346287319</v>
+        <v>271339.3476752301</v>
       </c>
       <c r="D152" t="n">
         <v>27994.06792</v>
@@ -3336,10 +3336,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>27.77444068054749</v>
+        <v>27.21895186693655</v>
       </c>
       <c r="C153" t="n">
-        <v>251811.2421929235</v>
+        <v>266481.6099930649</v>
       </c>
       <c r="D153" t="n">
         <v>28183.08036</v>
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>27.92138347439549</v>
+        <v>27.3629558049076</v>
       </c>
       <c r="C154" t="n">
-        <v>246856.349757115</v>
+        <v>261623.8723108997</v>
       </c>
       <c r="D154" t="n">
         <v>28336.02824</v>
@@ -3374,10 +3374,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>28.05872408018153</v>
+        <v>27.49754959857792</v>
       </c>
       <c r="C155" t="n">
-        <v>241901.4573213065</v>
+        <v>256766.1346287346</v>
       </c>
       <c r="D155" t="n">
         <v>30317.1457</v>
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>28.20963071882204</v>
+        <v>27.64543810444562</v>
       </c>
       <c r="C156" t="n">
-        <v>236946.5648854981</v>
+        <v>251908.3969465694</v>
       </c>
       <c r="D156" t="n">
         <v>27591.72952</v>
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>28.35209352180762</v>
+        <v>27.78505165137149</v>
       </c>
       <c r="C157" t="n">
-        <v>231991.6724496896</v>
+        <v>247050.6592644042</v>
       </c>
       <c r="D157" t="n">
         <v>29227.10398</v>
@@ -3431,10 +3431,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>28.49844530399139</v>
+        <v>27.92847639791158</v>
       </c>
       <c r="C158" t="n">
-        <v>227036.7800138812</v>
+        <v>242192.921582239</v>
       </c>
       <c r="D158" t="n">
         <v>28450.45748</v>
@@ -3450,10 +3450,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>28.65305210246633</v>
+        <v>28.07999106041703</v>
       </c>
       <c r="C159" t="n">
-        <v>222081.8875780727</v>
+        <v>237335.1839000739</v>
       </c>
       <c r="D159" t="n">
         <v>26931.38463</v>
@@ -3469,10 +3469,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>28.80870786989141</v>
+        <v>28.23253371249361</v>
       </c>
       <c r="C160" t="n">
-        <v>217126.9951422642</v>
+        <v>232477.4462179087</v>
       </c>
       <c r="D160" t="n">
         <v>26749.89321</v>
@@ -3488,10 +3488,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>28.95701374124681</v>
+        <v>28.3778734664219</v>
       </c>
       <c r="C161" t="n">
-        <v>212172.1027064558</v>
+        <v>227619.7085357435</v>
       </c>
       <c r="D161" t="n">
         <v>28075.59214</v>
@@ -3507,10 +3507,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>29.11052766949037</v>
+        <v>28.52831711610058</v>
       </c>
       <c r="C162" t="n">
-        <v>207217.2102706473</v>
+        <v>222761.9708535784</v>
       </c>
       <c r="D162" t="n">
         <v>27123.10996</v>
@@ -3526,10 +3526,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>29.27107865671871</v>
+        <v>28.68565708358435</v>
       </c>
       <c r="C163" t="n">
-        <v>202262.3178348388</v>
+        <v>217904.2331714132</v>
       </c>
       <c r="D163" t="n">
         <v>25934.2856</v>
@@ -3545,10 +3545,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>29.42918403796283</v>
+        <v>28.84060035720359</v>
       </c>
       <c r="C164" t="n">
-        <v>197307.4253990304</v>
+        <v>213046.495489248</v>
       </c>
       <c r="D164" t="n">
         <v>26335.44237</v>
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>29.56578848610945</v>
+        <v>28.97447271638728</v>
       </c>
       <c r="C165" t="n">
-        <v>192352.5329632219</v>
+        <v>208188.7578070828</v>
       </c>
       <c r="D165" t="n">
         <v>30480.52397</v>
@@ -3583,10 +3583,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>29.70175063858864</v>
+        <v>29.10771562581688</v>
       </c>
       <c r="C166" t="n">
-        <v>187397.6405274135</v>
+        <v>203331.0201249177</v>
       </c>
       <c r="D166" t="n">
         <v>30624.51631</v>
@@ -3602,10 +3602,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>29.83975000183704</v>
+        <v>29.24295500180032</v>
       </c>
       <c r="C167" t="n">
-        <v>182442.748091605</v>
+        <v>198473.2824427525</v>
       </c>
       <c r="D167" t="n">
         <v>30172.42296</v>
@@ -3621,10 +3621,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>29.97739716054242</v>
+        <v>29.37784921733159</v>
       </c>
       <c r="C168" t="n">
-        <v>177487.8556557965</v>
+        <v>193615.5447605873</v>
       </c>
       <c r="D168" t="n">
         <v>30249.62662</v>
@@ -3640,10 +3640,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>30.11581289056329</v>
+        <v>29.51349663275205</v>
       </c>
       <c r="C169" t="n">
-        <v>172532.9632199881</v>
+        <v>188757.8070784222</v>
       </c>
       <c r="D169" t="n">
         <v>30081.66164</v>
@@ -3659,10 +3659,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>30.25802651492127</v>
+        <v>29.65286598462287</v>
       </c>
       <c r="C170" t="n">
-        <v>167578.0707841796</v>
+        <v>183900.069396257</v>
       </c>
       <c r="D170" t="n">
         <v>29278.31405</v>
@@ -3678,10 +3678,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>30.40141454507453</v>
+        <v>29.79338625417306</v>
       </c>
       <c r="C171" t="n">
-        <v>162623.1783483711</v>
+        <v>179042.3317140918</v>
       </c>
       <c r="D171" t="n">
         <v>29038.51285</v>
@@ -3697,10 +3697,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>30.54360413523984</v>
+        <v>29.93273205253506</v>
       </c>
       <c r="C172" t="n">
-        <v>157668.2859125627</v>
+        <v>174184.5940319267</v>
       </c>
       <c r="D172" t="n">
         <v>29283.26294</v>
@@ -3716,10 +3716,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>30.70259548046547</v>
+        <v>30.08854357085619</v>
       </c>
       <c r="C173" t="n">
-        <v>152713.3934767542</v>
+        <v>169326.8563497615</v>
       </c>
       <c r="D173" t="n">
         <v>26188.69065</v>
@@ -3735,10 +3735,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>30.8621905978679</v>
+        <v>30.24494678591057</v>
       </c>
       <c r="C174" t="n">
-        <v>147758.5010409458</v>
+        <v>164469.1186675963</v>
       </c>
       <c r="D174" t="n">
         <v>26089.61492</v>
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>31.02253209036803</v>
+        <v>30.4020814485607</v>
       </c>
       <c r="C175" t="n">
-        <v>142803.6086051373</v>
+        <v>159611.3809854311</v>
       </c>
       <c r="D175" t="n">
         <v>25968.17013</v>
@@ -3773,10 +3773,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>31.18372057806803</v>
+        <v>30.56004616650669</v>
       </c>
       <c r="C176" t="n">
-        <v>137848.7161693288</v>
+        <v>154753.643303266</v>
       </c>
       <c r="D176" t="n">
         <v>25831.7155</v>
@@ -3792,10 +3792,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>31.34064877969384</v>
+        <v>30.71383580409998</v>
       </c>
       <c r="C177" t="n">
-        <v>132893.8237335204</v>
+        <v>149895.9056211008</v>
       </c>
       <c r="D177" t="n">
         <v>26532.99479</v>
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>31.49924597604226</v>
+        <v>30.86926105652144</v>
       </c>
       <c r="C178" t="n">
-        <v>127938.9312977119</v>
+        <v>145038.1679389356</v>
       </c>
       <c r="D178" t="n">
         <v>26253.7753</v>
@@ -3830,10 +3830,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>31.64807555207121</v>
+        <v>31.01511404102981</v>
       </c>
       <c r="C179" t="n">
-        <v>122984.0388619034</v>
+        <v>140180.4302567705</v>
       </c>
       <c r="D179" t="n">
         <v>27976.79915</v>
@@ -3849,10 +3849,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>31.79713063828486</v>
+        <v>31.16118802551919</v>
       </c>
       <c r="C180" t="n">
-        <v>118029.146426095</v>
+        <v>135322.6925746053</v>
       </c>
       <c r="D180" t="n">
         <v>27934.47216</v>
@@ -3868,10 +3868,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>31.95042122271892</v>
+        <v>31.31141279826456</v>
       </c>
       <c r="C181" t="n">
-        <v>113074.2539902865</v>
+        <v>130464.9548924401</v>
       </c>
       <c r="D181" t="n">
         <v>27162.62823</v>
@@ -3887,10 +3887,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>32.08856589910838</v>
+        <v>31.44679458112623</v>
       </c>
       <c r="C182" t="n">
-        <v>108119.361554478</v>
+        <v>125607.2172102749</v>
       </c>
       <c r="D182" t="n">
         <v>30140.68486</v>
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>32.20914409733846</v>
+        <v>31.56496121539171</v>
       </c>
       <c r="C183" t="n">
-        <v>103164.4691186696</v>
+        <v>120749.4795281098</v>
       </c>
       <c r="D183" t="n">
         <v>34531.74137</v>
@@ -3925,10 +3925,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>32.32795705543142</v>
+        <v>31.68139791432281</v>
       </c>
       <c r="C184" t="n">
-        <v>98209.57668286112</v>
+        <v>115891.7418459446</v>
       </c>
       <c r="D184" t="n">
         <v>35044.78992</v>
@@ -3944,10 +3944,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>32.44027809132314</v>
+        <v>31.7914725294967</v>
       </c>
       <c r="C185" t="n">
-        <v>93254.68424705266</v>
+        <v>111034.0041637794</v>
       </c>
       <c r="D185" t="n">
         <v>37070.30587</v>
@@ -3963,10 +3963,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>32.55168620488293</v>
+        <v>31.9006524807853</v>
       </c>
       <c r="C186" t="n">
-        <v>88299.7918112442</v>
+        <v>106176.2664816143</v>
       </c>
       <c r="D186" t="n">
         <v>37374.07468</v>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>32.66285600826805</v>
+        <v>32.00959888810271</v>
       </c>
       <c r="C187" t="n">
-        <v>83344.89937543574</v>
+        <v>101318.5287994491</v>
       </c>
       <c r="D187" t="n">
         <v>37454.19196</v>
@@ -4001,10 +4001,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>32.76700603283728</v>
+        <v>32.11166591218056</v>
       </c>
       <c r="C188" t="n">
-        <v>78390.00693962727</v>
+        <v>96460.79111728392</v>
       </c>
       <c r="D188" t="n">
         <v>39978.62865</v>
@@ -4020,10 +4020,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>32.86208672013177</v>
+        <v>32.20484498572916</v>
       </c>
       <c r="C189" t="n">
-        <v>73435.11450381881</v>
+        <v>91603.05343511875</v>
       </c>
       <c r="D189" t="n">
         <v>43792.01786</v>
@@ -4039,10 +4039,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>32.96278699113941</v>
+        <v>32.30353125131664</v>
       </c>
       <c r="C190" t="n">
-        <v>68480.22206801035</v>
+        <v>86745.31575295358</v>
       </c>
       <c r="D190" t="n">
         <v>41348.20209</v>
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>33.05959516814013</v>
+        <v>32.39840326477734</v>
       </c>
       <c r="C191" t="n">
-        <v>63525.32963220188</v>
+        <v>81887.57807078841</v>
       </c>
       <c r="D191" t="n">
         <v>43010.57292</v>
@@ -4077,10 +4077,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>33.15807558407365</v>
+        <v>32.49491407239219</v>
       </c>
       <c r="C192" t="n">
-        <v>58570.43719639341</v>
+        <v>77029.84038862324</v>
       </c>
       <c r="D192" t="n">
         <v>42280.23528</v>
@@ -4096,10 +4096,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>33.25281728284379</v>
+        <v>32.58776093718693</v>
       </c>
       <c r="C193" t="n">
-        <v>53615.54476058494</v>
+        <v>72172.10270645807</v>
       </c>
       <c r="D193" t="n">
         <v>43948.70696</v>
@@ -4115,10 +4115,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>33.35263194221027</v>
+        <v>32.68557930336607</v>
       </c>
       <c r="C194" t="n">
-        <v>48660.65232477647</v>
+        <v>67314.3650242929</v>
       </c>
       <c r="D194" t="n">
         <v>41715.06653</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>33.45283432844101</v>
+        <v>32.7837776418722</v>
       </c>
       <c r="C195" t="n">
-        <v>43705.759888968</v>
+        <v>62456.62734212774</v>
       </c>
       <c r="D195" t="n">
         <v>41553.65269</v>
@@ -4153,10 +4153,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>33.55189891265234</v>
+        <v>32.88086093439931</v>
       </c>
       <c r="C196" t="n">
-        <v>38750.86745315953</v>
+        <v>57598.88965996257</v>
       </c>
       <c r="D196" t="n">
         <v>42030.91538</v>
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>33.64969148219286</v>
+        <v>32.97669765254901</v>
       </c>
       <c r="C197" t="n">
-        <v>33795.97501735106</v>
+        <v>52741.15197779741</v>
       </c>
       <c r="D197" t="n">
         <v>42577.62298</v>
@@ -4191,10 +4191,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>33.73590445939392</v>
+        <v>33.06118637020606</v>
       </c>
       <c r="C198" t="n">
-        <v>28841.0825815426</v>
+        <v>47883.41429563225</v>
       </c>
       <c r="D198" t="n">
         <v>48296.3852</v>
@@ -4210,10 +4210,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>33.81577000373251</v>
+        <v>33.13945460365787</v>
       </c>
       <c r="C199" t="n">
-        <v>23886.19014573413</v>
+        <v>43025.67661346708</v>
       </c>
       <c r="D199" t="n">
         <v>52134.81221</v>
@@ -4229,10 +4229,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>33.89625969460069</v>
+        <v>33.2183345007087</v>
       </c>
       <c r="C200" t="n">
-        <v>18931.29770992566</v>
+        <v>38167.93893130192</v>
       </c>
       <c r="D200" t="n">
         <v>51730.53979</v>
@@ -4248,10 +4248,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>33.96220794756653</v>
+        <v>33.28296378861521</v>
       </c>
       <c r="C201" t="n">
-        <v>13976.4052741172</v>
+        <v>33310.20124913676</v>
       </c>
       <c r="D201" t="n">
         <v>63137.00468</v>
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>34.02253454841246</v>
+        <v>33.34208385744422</v>
       </c>
       <c r="C202" t="n">
-        <v>9021.512838308732</v>
+        <v>28452.46356697159</v>
       </c>
       <c r="D202" t="n">
         <v>69020.54977</v>
@@ -4286,10 +4286,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>34.08343400058043</v>
+        <v>33.40176532056883</v>
       </c>
       <c r="C203" t="n">
-        <v>4066.620402500266</v>
+        <v>23594.72588480643</v>
       </c>
       <c r="D203" t="n">
         <v>68371.30726</v>
@@ -4305,10 +4305,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>34.14536351709081</v>
+        <v>33.46245624674901</v>
       </c>
       <c r="C204" t="n">
-        <v>-888.2720333082008</v>
+        <v>18736.98820264127</v>
       </c>
       <c r="D204" t="n">
         <v>67234.09758</v>
@@ -4324,10 +4324,10 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>34.2037340729733</v>
+        <v>33.51965939151385</v>
       </c>
       <c r="C205" t="n">
-        <v>-5843.164469116668</v>
+        <v>13879.2505204761</v>
       </c>
       <c r="D205" t="n">
         <v>71333.48471999999</v>
@@ -4343,10 +4343,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>34.26376322294004</v>
+        <v>33.57848795848125</v>
       </c>
       <c r="C206" t="n">
-        <v>-10798.05690492513</v>
+        <v>9021.51283831094</v>
       </c>
       <c r="D206" t="n">
         <v>69362.554</v>
@@ -4362,10 +4362,10 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>34.32710057721502</v>
+        <v>33.64055856567073</v>
       </c>
       <c r="C207" t="n">
-        <v>-15752.9493407336</v>
+        <v>4163.775156145777</v>
       </c>
       <c r="D207" t="n">
         <v>65739.64453999999</v>
@@ -10290,10 +10290,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.46429261726531</v>
+        <v>10.25500676492</v>
       </c>
       <c r="C4" t="n">
-        <v>906220.7900749679</v>
+        <v>908059.5981127135</v>
       </c>
       <c r="D4" t="n">
         <v>8786.107695000001</v>
@@ -10309,10 +10309,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.46429261726531</v>
+        <v>10.25500676492</v>
       </c>
       <c r="C5" t="n">
-        <v>906220.7900749679</v>
+        <v>908059.5981127135</v>
       </c>
       <c r="D5" t="n">
         <v>9463.605662</v>
@@ -10328,10 +10328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.46429261726531</v>
+        <v>10.25500676492</v>
       </c>
       <c r="C6" t="n">
-        <v>906220.7900749679</v>
+        <v>908059.5981127135</v>
       </c>
       <c r="D6" t="n">
         <v>9760.063252</v>
@@ -10347,16 +10347,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.16430583945823</v>
+        <v>13.88837724728636</v>
       </c>
       <c r="C7" t="n">
-        <v>870797.7663006851</v>
+        <v>873260.6760996847</v>
       </c>
       <c r="D7" t="n">
         <v>9386.035291</v>
       </c>
       <c r="E7" t="n">
-        <v>694.5690936133885</v>
+        <v>695.9784402605785</v>
       </c>
     </row>
     <row r="8">
@@ -10366,16 +10366,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.01336937471606</v>
+        <v>14.72281292114053</v>
       </c>
       <c r="C8" t="n">
-        <v>862742.7567775834</v>
+        <v>865341.2723673817</v>
       </c>
       <c r="D8" t="n">
         <v>9300.915457999999</v>
       </c>
       <c r="E8" t="n">
-        <v>157.9413631980726</v>
+        <v>158.3880746460595</v>
       </c>
     </row>
     <row r="9">
@@ -10385,16 +10385,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.64614815214657</v>
+        <v>16.32775557245047</v>
       </c>
       <c r="C9" t="n">
-        <v>847520.6383755121</v>
+        <v>850372.6779895647</v>
       </c>
       <c r="D9" t="n">
         <v>9140.029071000001</v>
       </c>
       <c r="E9" t="n">
-        <v>298.4729098445354</v>
+        <v>299.3718875563395</v>
       </c>
     </row>
     <row r="10">
@@ -10404,16 +10404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.33273026802906</v>
+        <v>17.00287029318293</v>
       </c>
       <c r="C10" t="n">
-        <v>841166.7966426028</v>
+        <v>844122.4589651198</v>
       </c>
       <c r="D10" t="n">
         <v>9072.850074</v>
       </c>
       <c r="E10" t="n">
-        <v>124.5851320178309</v>
+        <v>125.0043804888981</v>
       </c>
     </row>
     <row r="11">
@@ -10423,10 +10423,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.33273026802906</v>
+        <v>17.00287029318293</v>
       </c>
       <c r="C11" t="n">
-        <v>841166.7966426028</v>
+        <v>844122.4589651198</v>
       </c>
       <c r="D11" t="n">
         <v>9277.204659999999</v>
@@ -10442,16 +10442,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.22080097391932</v>
+        <v>17.87623764715291</v>
       </c>
       <c r="C12" t="n">
-        <v>832844.7173378643</v>
+        <v>835934.8892254402</v>
       </c>
       <c r="D12" t="n">
         <v>9187.220369999999</v>
       </c>
       <c r="E12" t="n">
-        <v>163.1780255831055</v>
+        <v>163.7513947935923</v>
       </c>
     </row>
     <row r="13">
@@ -10461,10 +10461,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.22080097391932</v>
+        <v>17.87623764715291</v>
       </c>
       <c r="C13" t="n">
-        <v>832844.7173378643</v>
+        <v>835934.8892254402</v>
       </c>
       <c r="D13" t="n">
         <v>9905.217914000001</v>
@@ -10480,10 +10480,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.22080097391932</v>
+        <v>17.87623764715291</v>
       </c>
       <c r="C14" t="n">
-        <v>832844.7173378643</v>
+        <v>835934.8892254402</v>
       </c>
       <c r="D14" t="n">
         <v>11043.76888</v>
@@ -10499,10 +10499,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.22080097391932</v>
+        <v>17.87623764715291</v>
       </c>
       <c r="C15" t="n">
-        <v>832844.7173378643</v>
+        <v>835934.8892254402</v>
       </c>
       <c r="D15" t="n">
         <v>11662.25693</v>
@@ -10518,10 +10518,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.22080097391932</v>
+        <v>17.87623764715291</v>
       </c>
       <c r="C16" t="n">
-        <v>832844.7173378643</v>
+        <v>835934.8892254402</v>
       </c>
       <c r="D16" t="n">
         <v>11895.65777</v>
@@ -10537,16 +10537,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.61321411202463</v>
+        <v>19.24586557918456</v>
       </c>
       <c r="C17" t="n">
-        <v>816279.2292782988</v>
+        <v>819633.9555537814</v>
       </c>
       <c r="D17" t="n">
         <v>11663.68955</v>
       </c>
       <c r="E17" t="n">
-        <v>324.8134913640308</v>
+        <v>326.0186734331768</v>
       </c>
     </row>
     <row r="18">
@@ -10556,10 +10556,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.61321411202463</v>
+        <v>19.24586557918456</v>
       </c>
       <c r="C18" t="n">
-        <v>816279.2292782988</v>
+        <v>819633.9555537814</v>
       </c>
       <c r="D18" t="n">
         <v>11713.30627</v>
@@ -10575,16 +10575,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.32190341080368</v>
+        <v>28.79948363685801</v>
       </c>
       <c r="C19" t="n">
-        <v>714467.9174727506</v>
+        <v>719408.7264585469</v>
       </c>
       <c r="D19" t="n">
         <v>10280.99762</v>
       </c>
       <c r="E19" t="n">
-        <v>1996.300231481337</v>
+        <v>2004.504581904689</v>
       </c>
     </row>
     <row r="20">
@@ -10594,10 +10594,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.32190341080368</v>
+        <v>28.79948363685801</v>
       </c>
       <c r="C20" t="n">
-        <v>714467.9174727506</v>
+        <v>719408.7264585469</v>
       </c>
       <c r="D20" t="n">
         <v>10328.73411</v>
@@ -10613,10 +10613,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29.32190341080368</v>
+        <v>28.79948363685801</v>
       </c>
       <c r="C21" t="n">
-        <v>714467.9174727506</v>
+        <v>719408.7264585469</v>
       </c>
       <c r="D21" t="n">
         <v>10934.92553</v>
@@ -10632,16 +10632,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.28174181611946</v>
+        <v>29.7466301576877</v>
       </c>
       <c r="C22" t="n">
-        <v>703917.2336688102</v>
+        <v>708993.3875652289</v>
       </c>
       <c r="D22" t="n">
         <v>10776.61364</v>
       </c>
       <c r="E22" t="n">
-        <v>206.876153018439</v>
+        <v>208.3067778663623</v>
       </c>
     </row>
     <row r="23">
@@ -10651,16 +10651,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.89405950761724</v>
+        <v>30.3510287859987</v>
       </c>
       <c r="C23" t="n">
-        <v>697249.057551494</v>
+        <v>702408.8166891608</v>
       </c>
       <c r="D23" t="n">
         <v>10676.52896</v>
       </c>
       <c r="E23" t="n">
-        <v>130.7485513199266</v>
+        <v>131.6914175213613</v>
       </c>
     </row>
     <row r="24">
@@ -10670,10 +10670,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30.89405950761724</v>
+        <v>30.3510287859987</v>
       </c>
       <c r="C24" t="n">
-        <v>697249.057551494</v>
+        <v>702408.8166891608</v>
       </c>
       <c r="D24" t="n">
         <v>11392.63622</v>
@@ -10689,10 +10689,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.89405950761724</v>
+        <v>30.3510287859987</v>
       </c>
       <c r="C25" t="n">
-        <v>697249.057551494</v>
+        <v>702408.8166891608</v>
       </c>
       <c r="D25" t="n">
         <v>11495.03794</v>
@@ -10708,10 +10708,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>30.89405950761724</v>
+        <v>30.3510287859987</v>
       </c>
       <c r="C26" t="n">
-        <v>697249.057551494</v>
+        <v>702408.8166891608</v>
       </c>
       <c r="D26" t="n">
         <v>13031.20125</v>
@@ -10727,10 +10727,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>30.89405950761724</v>
+        <v>30.3510287859987</v>
       </c>
       <c r="C27" t="n">
-        <v>697249.057551494</v>
+        <v>702408.8166891608</v>
       </c>
       <c r="D27" t="n">
         <v>13737.03221</v>
@@ -10746,10 +10746,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.89405950761724</v>
+        <v>30.3510287859987</v>
       </c>
       <c r="C28" t="n">
-        <v>697249.057551494</v>
+        <v>702408.8166891608</v>
       </c>
       <c r="D28" t="n">
         <v>15479.59572</v>
@@ -10765,10 +10765,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>30.89405950761724</v>
+        <v>30.3510287859987</v>
       </c>
       <c r="C29" t="n">
-        <v>697249.057551494</v>
+        <v>702408.8166891608</v>
       </c>
       <c r="D29" t="n">
         <v>15955.57698</v>
@@ -10784,10 +10784,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30.89405950761724</v>
+        <v>30.3510287859987</v>
       </c>
       <c r="C30" t="n">
-        <v>697249.057551494</v>
+        <v>702408.8166891608</v>
       </c>
       <c r="D30" t="n">
         <v>18370.01734</v>
@@ -10803,16 +10803,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.29431367139712</v>
+        <v>30.74618057501934</v>
       </c>
       <c r="C31" t="n">
-        <v>689827.5894500508</v>
+        <v>695079.0243349655</v>
       </c>
       <c r="D31" t="n">
         <v>18178.32212</v>
       </c>
       <c r="E31" t="n">
-        <v>145.5189823812379</v>
+        <v>146.5958470839057</v>
       </c>
     </row>
     <row r="32">
@@ -10822,10 +10822,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.29431367139712</v>
+        <v>30.74618057501934</v>
       </c>
       <c r="C32" t="n">
-        <v>689827.5894500508</v>
+        <v>695079.0243349655</v>
       </c>
       <c r="D32" t="n">
         <v>19343.1288</v>
@@ -10841,16 +10841,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>31.66433664030659</v>
+        <v>31.11156361272567</v>
       </c>
       <c r="C33" t="n">
-        <v>682602.0094729705</v>
+        <v>687941.1949366177</v>
       </c>
       <c r="D33" t="n">
         <v>19144.49246</v>
       </c>
       <c r="E33" t="n">
-        <v>141.6780387662815</v>
+        <v>142.7565879669546</v>
       </c>
     </row>
     <row r="34">
@@ -10860,10 +10860,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.66433664030659</v>
+        <v>31.11156361272567</v>
       </c>
       <c r="C34" t="n">
-        <v>682602.0094729705</v>
+        <v>687941.1949366177</v>
       </c>
       <c r="D34" t="n">
         <v>23474.45541</v>
@@ -10879,10 +10879,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.66433664030659</v>
+        <v>31.11156361272567</v>
       </c>
       <c r="C35" t="n">
-        <v>682602.0094729705</v>
+        <v>687941.1949366177</v>
       </c>
       <c r="D35" t="n">
         <v>26280.82142</v>
@@ -10898,10 +10898,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>31.66433664030659</v>
+        <v>31.11156361272567</v>
       </c>
       <c r="C36" t="n">
-        <v>682602.0094729705</v>
+        <v>687941.1949366177</v>
       </c>
       <c r="D36" t="n">
         <v>32810.94764</v>
@@ -10917,10 +10917,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.66433664030659</v>
+        <v>31.11156361272567</v>
       </c>
       <c r="C37" t="n">
-        <v>682602.0094729705</v>
+        <v>687941.1949366177</v>
       </c>
       <c r="D37" t="n">
         <v>38346.5295</v>
@@ -10936,16 +10936,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32.93468649849428</v>
+        <v>32.36624418435463</v>
       </c>
       <c r="C38" t="n">
-        <v>636223.9734394565</v>
+        <v>642116.884768256</v>
       </c>
       <c r="D38" t="n">
         <v>35792.23667</v>
       </c>
       <c r="E38" t="n">
-        <v>909.3732555590982</v>
+        <v>916.4862033672351</v>
       </c>
     </row>
     <row r="39">
@@ -10955,16 +10955,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.8652130906344</v>
+        <v>34.27568378046684</v>
       </c>
       <c r="C39" t="n">
-        <v>572648.8082283284</v>
+        <v>579210.9839204289</v>
       </c>
       <c r="D39" t="n">
         <v>32285.79891</v>
       </c>
       <c r="E39" t="n">
-        <v>1246.571866884867</v>
+        <v>1258.118016956541</v>
       </c>
     </row>
     <row r="40">
@@ -10974,10 +10974,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.8652130906344</v>
+        <v>34.27568378046684</v>
       </c>
       <c r="C40" t="n">
-        <v>572648.8082283284</v>
+        <v>579210.9839204289</v>
       </c>
       <c r="D40" t="n">
         <v>33114.57724</v>
@@ -10993,10 +10993,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>34.8652130906344</v>
+        <v>34.27568378046684</v>
       </c>
       <c r="C41" t="n">
-        <v>572648.8082283284</v>
+        <v>579210.9839204289</v>
       </c>
       <c r="D41" t="n">
         <v>38886.82729</v>
@@ -11012,10 +11012,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.8652130906344</v>
+        <v>34.27568378046684</v>
       </c>
       <c r="C42" t="n">
-        <v>572648.8082283284</v>
+        <v>579210.9839204289</v>
       </c>
       <c r="D42" t="n">
         <v>48696.53666</v>
@@ -11031,10 +11031,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.8652130906344</v>
+        <v>34.27568378046684</v>
       </c>
       <c r="C43" t="n">
-        <v>572648.8082283284</v>
+        <v>579210.9839204289</v>
       </c>
       <c r="D43" t="n">
         <v>57532.73886</v>
@@ -11050,16 +11050,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>37.59235318034606</v>
+        <v>36.97890726144631</v>
       </c>
       <c r="C44" t="n">
-        <v>447029.391205235</v>
+        <v>454643.4032733638</v>
       </c>
       <c r="D44" t="n">
         <v>45159.50305</v>
       </c>
       <c r="E44" t="n">
-        <v>2463.125823982222</v>
+        <v>2491.351612941301</v>
       </c>
     </row>
     <row r="45">
@@ -11069,10 +11069,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>37.59235318034606</v>
+        <v>36.97890726144631</v>
       </c>
       <c r="C45" t="n">
-        <v>447029.391205235</v>
+        <v>454643.4032733638</v>
       </c>
       <c r="D45" t="n">
         <v>51174.11695</v>
@@ -11088,10 +11088,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.59235318034606</v>
+        <v>36.97890726144631</v>
       </c>
       <c r="C46" t="n">
-        <v>447029.391205235</v>
+        <v>454643.4032733638</v>
       </c>
       <c r="D46" t="n">
         <v>59267.42905</v>
@@ -11107,16 +11107,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>37.82177794926027</v>
+        <v>37.20757305074503</v>
       </c>
       <c r="C47" t="n">
-        <v>433569.441662439</v>
+        <v>441222.6134199363</v>
       </c>
       <c r="D47" t="n">
         <v>57517.89149</v>
       </c>
       <c r="E47" t="n">
-        <v>263.9205792705095</v>
+        <v>268.4157970685504</v>
       </c>
     </row>
     <row r="48">
@@ -11126,16 +11126,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>38.03330675104951</v>
+        <v>37.41853041105519</v>
       </c>
       <c r="C48" t="n">
-        <v>421498.1577900542</v>
+        <v>429179.1225203336</v>
       </c>
       <c r="D48" t="n">
         <v>55947.89897</v>
       </c>
       <c r="E48" t="n">
-        <v>236.6918406349967</v>
+        <v>240.8698179920544</v>
       </c>
     </row>
     <row r="49">
@@ -11145,10 +11145,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>38.03330675104951</v>
+        <v>37.41853041105519</v>
       </c>
       <c r="C49" t="n">
-        <v>421498.1577900542</v>
+        <v>429179.1225203336</v>
       </c>
       <c r="D49" t="n">
         <v>58760.87326</v>
@@ -11164,10 +11164,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>38.03330675104951</v>
+        <v>37.41853041105519</v>
       </c>
       <c r="C50" t="n">
-        <v>421498.1577900542</v>
+        <v>429179.1225203336</v>
       </c>
       <c r="D50" t="n">
         <v>60175.94476</v>
@@ -11183,16 +11183,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>38.52996783285731</v>
+        <v>37.91412791741183</v>
       </c>
       <c r="C51" t="n">
-        <v>393031.8213784362</v>
+        <v>400762.3786803895</v>
       </c>
       <c r="D51" t="n">
         <v>56191.58411</v>
       </c>
       <c r="E51" t="n">
-        <v>558.1634590513344</v>
+        <v>568.3348767988813</v>
       </c>
     </row>
     <row r="52">
@@ -11202,16 +11202,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>39.54381517502936</v>
+        <v>38.92724088526719</v>
       </c>
       <c r="C52" t="n">
-        <v>342279.2842477014</v>
+        <v>350026.3094215845</v>
       </c>
       <c r="D52" t="n">
         <v>49077.79236</v>
       </c>
       <c r="E52" t="n">
-        <v>995.1477868771527</v>
+        <v>1014.721385176102</v>
       </c>
     </row>
     <row r="53">
@@ -11221,10 +11221,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>39.54381517502936</v>
+        <v>38.92724088526719</v>
       </c>
       <c r="C53" t="n">
-        <v>342279.2842477014</v>
+        <v>350026.3094215845</v>
       </c>
       <c r="D53" t="n">
         <v>56620.27262</v>
@@ -11240,10 +11240,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>39.54381517502936</v>
+        <v>38.92724088526719</v>
       </c>
       <c r="C54" t="n">
-        <v>342279.2842477014</v>
+        <v>350026.3094215845</v>
       </c>
       <c r="D54" t="n">
         <v>58250.87253</v>
@@ -11259,16 +11259,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>41.04204587939473</v>
+        <v>40.42873917768785</v>
       </c>
       <c r="C55" t="n">
-        <v>271346.7243120802</v>
+        <v>278910.6018041923</v>
       </c>
       <c r="D55" t="n">
         <v>46415.89925</v>
       </c>
       <c r="E55" t="n">
-        <v>1390.834508541591</v>
+        <v>1422.314152347844</v>
       </c>
     </row>
     <row r="56">
@@ -11278,16 +11278,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>43.01576768996289</v>
+        <v>42.41690432170324</v>
       </c>
       <c r="C56" t="n">
-        <v>201488.0826110712</v>
+        <v>208512.5881975231</v>
       </c>
       <c r="D56" t="n">
         <v>34700.36357</v>
       </c>
       <c r="E56" t="n">
-        <v>1369.77728825508</v>
+        <v>1407.960272133384</v>
       </c>
     </row>
     <row r="57">
@@ -11297,10 +11297,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>43.01576768996289</v>
+        <v>42.41690432170324</v>
       </c>
       <c r="C57" t="n">
-        <v>201488.0826110712</v>
+        <v>208512.5881975231</v>
       </c>
       <c r="D57" t="n">
         <v>35658.59296</v>
@@ -11316,10 +11316,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>43.01576768996289</v>
+        <v>42.41690432170324</v>
       </c>
       <c r="C58" t="n">
-        <v>201488.0826110712</v>
+        <v>208512.5881975231</v>
       </c>
       <c r="D58" t="n">
         <v>35835.26551</v>
@@ -11335,10 +11335,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>43.01576768996289</v>
+        <v>42.41690432170324</v>
       </c>
       <c r="C59" t="n">
-        <v>201488.0826110712</v>
+        <v>208512.5881975231</v>
       </c>
       <c r="D59" t="n">
         <v>39016.97018</v>
@@ -11354,16 +11354,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>43.50489732198953</v>
+        <v>42.91296290011628</v>
       </c>
       <c r="C60" t="n">
-        <v>183706.2791405889</v>
+        <v>190471.6736592219</v>
       </c>
       <c r="D60" t="n">
         <v>35641.14606</v>
       </c>
       <c r="E60" t="n">
-        <v>348.6628131467108</v>
+        <v>360.8182907660234</v>
       </c>
     </row>
     <row r="61">
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>43.64788218989157</v>
+        <v>43.05824849340225</v>
       </c>
       <c r="C61" t="n">
-        <v>178648.517636812</v>
+        <v>185330.4727955796</v>
       </c>
       <c r="D61" t="n">
         <v>34679.12222</v>
       </c>
       <c r="E61" t="n">
-        <v>99.1717941917054</v>
+        <v>102.8240172728451</v>
       </c>
     </row>
     <row r="62">
@@ -11392,10 +11392,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>43.64788218989157</v>
+        <v>43.05824849340225</v>
       </c>
       <c r="C62" t="n">
-        <v>178648.517636812</v>
+        <v>185330.4727955796</v>
       </c>
       <c r="D62" t="n">
         <v>35284.34443</v>
@@ -11411,16 +11411,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>43.80017566447326</v>
+        <v>43.21307837713619</v>
       </c>
       <c r="C63" t="n">
-        <v>173327.5211678447</v>
+        <v>179918.6917689979</v>
       </c>
       <c r="D63" t="n">
         <v>34254.01659</v>
       </c>
       <c r="E63" t="n">
-        <v>104.3332640973985</v>
+        <v>108.2356205316342</v>
       </c>
     </row>
     <row r="64">
@@ -11430,16 +11430,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>44.19066033312902</v>
+        <v>43.61030543295335</v>
       </c>
       <c r="C64" t="n">
-        <v>160661.7554208855</v>
+        <v>167029.0740180435</v>
       </c>
       <c r="D64" t="n">
         <v>31800.01264</v>
       </c>
       <c r="E64" t="n">
-        <v>248.3483479795904</v>
+        <v>257.7923550190895</v>
       </c>
     </row>
     <row r="65">
@@ -11449,10 +11449,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>44.19066033312902</v>
+        <v>43.61030543295335</v>
       </c>
       <c r="C65" t="n">
-        <v>160661.7554208855</v>
+        <v>167029.0740180435</v>
       </c>
       <c r="D65" t="n">
         <v>35384.02988</v>
@@ -11468,10 +11468,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>44.19066033312902</v>
+        <v>43.61030543295335</v>
       </c>
       <c r="C66" t="n">
-        <v>160661.7554208855</v>
+        <v>167029.0740180435</v>
       </c>
       <c r="D66" t="n">
         <v>39907.26285</v>
@@ -11487,10 +11487,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>44.19066033312902</v>
+        <v>43.61030543295335</v>
       </c>
       <c r="C67" t="n">
-        <v>160661.7554208855</v>
+        <v>167029.0740180435</v>
       </c>
       <c r="D67" t="n">
         <v>43791.92742</v>
@@ -11506,10 +11506,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>44.19066033312902</v>
+        <v>43.61030543295335</v>
       </c>
       <c r="C68" t="n">
-        <v>160661.7554208855</v>
+        <v>167029.0740180435</v>
       </c>
       <c r="D68" t="n">
         <v>47019.96132</v>
@@ -11525,10 +11525,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>44.19066033312902</v>
+        <v>43.61030543295335</v>
       </c>
       <c r="C69" t="n">
-        <v>160661.7554208855</v>
+        <v>167029.0740180435</v>
       </c>
       <c r="D69" t="n">
         <v>49291.67737</v>
@@ -11544,16 +11544,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>44.22115041544633</v>
+        <v>43.64136992368292</v>
       </c>
       <c r="C70" t="n">
-        <v>159142.9971691555</v>
+        <v>165481.0843972699</v>
       </c>
       <c r="D70" t="n">
         <v>48834.85268</v>
       </c>
       <c r="E70" t="n">
-        <v>29.77957356333354</v>
+        <v>30.95979241547112</v>
       </c>
     </row>
     <row r="71">
@@ -11563,10 +11563,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>44.22115041544633</v>
+        <v>43.64136992368292</v>
       </c>
       <c r="C71" t="n">
-        <v>159142.9971691555</v>
+        <v>165481.0843972699</v>
       </c>
       <c r="D71" t="n">
         <v>51769.00432</v>
@@ -11582,16 +11582,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>44.60238491875386</v>
+        <v>44.02985925803252</v>
       </c>
       <c r="C72" t="n">
-        <v>141233.2255668936</v>
+        <v>147223.1895752822</v>
       </c>
       <c r="D72" t="n">
         <v>46057.21533</v>
       </c>
       <c r="E72" t="n">
-        <v>351.1719922012144</v>
+        <v>365.1578964397541</v>
       </c>
     </row>
     <row r="73">
@@ -11601,10 +11601,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>44.60238491875386</v>
+        <v>44.02985925803252</v>
       </c>
       <c r="C73" t="n">
-        <v>141233.2255668936</v>
+        <v>147223.1895752822</v>
       </c>
       <c r="D73" t="n">
         <v>47261.4065</v>
@@ -11620,16 +11620,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>44.88074598043045</v>
+        <v>44.31422279306696</v>
       </c>
       <c r="C74" t="n">
-        <v>128957.8176767001</v>
+        <v>134678.0613497442</v>
       </c>
       <c r="D74" t="n">
         <v>43234.18493</v>
       </c>
       <c r="E74" t="n">
-        <v>240.6942723567352</v>
+        <v>250.9025645107599</v>
       </c>
     </row>
     <row r="75">
@@ -11639,10 +11639,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>44.88074598043045</v>
+        <v>44.31422279306696</v>
       </c>
       <c r="C75" t="n">
-        <v>128957.8176767001</v>
+        <v>134678.0613497442</v>
       </c>
       <c r="D75" t="n">
         <v>48208.90763</v>
@@ -11658,10 +11658,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>44.88074598043045</v>
+        <v>44.31422279306696</v>
       </c>
       <c r="C76" t="n">
-        <v>128957.8176767001</v>
+        <v>134678.0613497442</v>
       </c>
       <c r="D76" t="n">
         <v>54734.12484</v>
@@ -11677,10 +11677,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>44.88074598043045</v>
+        <v>44.31422279306696</v>
       </c>
       <c r="C77" t="n">
-        <v>128957.8176767001</v>
+        <v>134678.0613497442</v>
       </c>
       <c r="D77" t="n">
         <v>61548.80343</v>
@@ -11696,16 +11696,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>44.90327867083384</v>
+        <v>44.33728433313402</v>
       </c>
       <c r="C78" t="n">
-        <v>127558.2715787415</v>
+        <v>133245.0942571658</v>
       </c>
       <c r="D78" t="n">
         <v>60893.92758</v>
       </c>
       <c r="E78" t="n">
-        <v>27.44208035212931</v>
+        <v>28.65934185156764</v>
       </c>
     </row>
     <row r="79">
@@ -11715,10 +11715,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>44.90327867083384</v>
+        <v>44.33728433313402</v>
       </c>
       <c r="C79" t="n">
-        <v>127558.2715787415</v>
+        <v>133245.0942571658</v>
       </c>
       <c r="D79" t="n">
         <v>61320.44949</v>
@@ -11734,10 +11734,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>44.90327867083384</v>
+        <v>44.33728433313402</v>
       </c>
       <c r="C80" t="n">
-        <v>127558.2715787415</v>
+        <v>133245.0942571658</v>
       </c>
       <c r="D80" t="n">
         <v>63344.06722</v>
@@ -11753,10 +11753,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>44.90327867083384</v>
+        <v>44.33728433313402</v>
       </c>
       <c r="C81" t="n">
-        <v>127558.2715787415</v>
+        <v>133245.0942571658</v>
       </c>
       <c r="D81" t="n">
         <v>65521.28934</v>
@@ -11772,16 +11772,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>45.12925741284229</v>
+        <v>44.56861662729445</v>
       </c>
       <c r="C82" t="n">
-        <v>114026.4416091666</v>
+        <v>119387.1451245061</v>
       </c>
       <c r="D82" t="n">
         <v>58706.84938</v>
       </c>
       <c r="E82" t="n">
-        <v>265.3299994034302</v>
+        <v>277.1589826531938</v>
       </c>
     </row>
     <row r="83">
@@ -11791,16 +11791,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>45.17722666946053</v>
+        <v>44.61783656497001</v>
       </c>
       <c r="C83" t="n">
-        <v>111223.2265274225</v>
+        <v>116509.6920835626</v>
       </c>
       <c r="D83" t="n">
         <v>57291.90473</v>
       </c>
       <c r="E83" t="n">
-        <v>54.96500160282571</v>
+        <v>57.54906081887007</v>
       </c>
     </row>
     <row r="84">
@@ -11810,16 +11810,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>45.48675202814138</v>
+        <v>44.93558899178535</v>
       </c>
       <c r="C84" t="n">
-        <v>95622.60718848431</v>
+        <v>100488.0054494665</v>
       </c>
       <c r="D84" t="n">
         <v>49413.4791</v>
       </c>
       <c r="E84" t="n">
-        <v>305.8944968419246</v>
+        <v>320.4337326819221</v>
       </c>
     </row>
     <row r="85">
@@ -11829,10 +11829,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>45.48675202814138</v>
+        <v>44.93558899178535</v>
       </c>
       <c r="C85" t="n">
-        <v>95622.60718848431</v>
+        <v>100488.0054494665</v>
       </c>
       <c r="D85" t="n">
         <v>50114.74099</v>
@@ -11848,16 +11848,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>45.62596217203399</v>
+        <v>45.07895645589472</v>
       </c>
       <c r="C86" t="n">
-        <v>88990.46808234084</v>
+        <v>93655.07342274272</v>
       </c>
       <c r="D86" t="n">
         <v>46707.06445</v>
       </c>
       <c r="E86" t="n">
-        <v>130.0419432577151</v>
+        <v>136.6586405344761</v>
       </c>
     </row>
     <row r="87">
@@ -11867,10 +11867,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>45.62596217203399</v>
+        <v>45.07895645589472</v>
       </c>
       <c r="C87" t="n">
-        <v>88990.46808234084</v>
+        <v>93655.07342274272</v>
       </c>
       <c r="D87" t="n">
         <v>50802.60893</v>
@@ -11886,16 +11886,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>45.75394610612086</v>
+        <v>45.2109550631848</v>
       </c>
       <c r="C88" t="n">
-        <v>82810.07083733597</v>
+        <v>87278.2552168071</v>
       </c>
       <c r="D88" t="n">
         <v>47343.54377</v>
       </c>
       <c r="E88" t="n">
-        <v>121.184259705978</v>
+        <v>127.5363641187125</v>
       </c>
     </row>
     <row r="89">
@@ -11905,16 +11905,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>45.9807064256162</v>
+        <v>45.44517078044095</v>
       </c>
       <c r="C89" t="n">
-        <v>73116.42195753919</v>
+        <v>77261.89320229751</v>
       </c>
       <c r="D89" t="n">
         <v>41910.23083</v>
       </c>
       <c r="E89" t="n">
-        <v>190.0715466626819</v>
+        <v>200.3272402901918</v>
       </c>
     </row>
     <row r="90">
@@ -11924,10 +11924,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>45.9807064256162</v>
+        <v>45.44517078044095</v>
       </c>
       <c r="C90" t="n">
-        <v>73116.42195753919</v>
+        <v>77261.89320229751</v>
       </c>
       <c r="D90" t="n">
         <v>43118.1201</v>
@@ -11943,16 +11943,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>46.30055657653004</v>
+        <v>45.77639573631605</v>
       </c>
       <c r="C91" t="n">
-        <v>61281.56732580006</v>
+        <v>65001.2523393376</v>
       </c>
       <c r="D91" t="n">
         <v>36275.73295</v>
       </c>
       <c r="E91" t="n">
-        <v>232.0559731713555</v>
+        <v>245.2128172591982</v>
       </c>
     </row>
     <row r="92">
@@ -11962,10 +11962,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>46.30055657653004</v>
+        <v>45.77639573631605</v>
       </c>
       <c r="C92" t="n">
-        <v>61281.56732580006</v>
+        <v>65001.2523393376</v>
       </c>
       <c r="D92" t="n">
         <v>37920.28099</v>
@@ -11981,10 +11981,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>46.30055657653004</v>
+        <v>45.77639573631605</v>
       </c>
       <c r="C93" t="n">
-        <v>61281.56732580006</v>
+        <v>65001.2523393376</v>
       </c>
       <c r="D93" t="n">
         <v>42406.78133</v>
@@ -12000,16 +12000,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>46.3091050026115</v>
+        <v>45.78528169104226</v>
       </c>
       <c r="C94" t="n">
-        <v>60913.98032717143</v>
+        <v>64618.99852278476</v>
       </c>
       <c r="D94" t="n">
         <v>42157.39915</v>
       </c>
       <c r="E94" t="n">
-        <v>7.207588208404509</v>
+        <v>7.645076331056764</v>
       </c>
     </row>
     <row r="95">
@@ -12019,16 +12019,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>46.44953046218096</v>
+        <v>45.93126902376011</v>
       </c>
       <c r="C95" t="n">
-        <v>55410.47148496025</v>
+        <v>58895.22104994892</v>
       </c>
       <c r="D95" t="n">
         <v>38423.20987</v>
       </c>
       <c r="E95" t="n">
-        <v>107.9119380825723</v>
+        <v>114.4755494567167</v>
       </c>
     </row>
     <row r="96">
@@ -12038,16 +12038,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>46.47696092992912</v>
+        <v>45.959841474957</v>
       </c>
       <c r="C96" t="n">
-        <v>54355.49236817649</v>
+        <v>57795.88137533979</v>
       </c>
       <c r="D96" t="n">
         <v>37706.00127</v>
       </c>
       <c r="E96" t="n">
-        <v>20.68586503497562</v>
+        <v>21.98679349218269</v>
       </c>
     </row>
     <row r="97">
@@ -12057,10 +12057,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>46.47696092992912</v>
+        <v>45.959841474957</v>
       </c>
       <c r="C97" t="n">
-        <v>54355.49236817649</v>
+        <v>57795.88137533979</v>
       </c>
       <c r="D97" t="n">
         <v>38429.30278</v>
@@ -12076,16 +12076,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>46.49874884589298</v>
+        <v>45.98254510096733</v>
       </c>
       <c r="C98" t="n">
-        <v>53514.40815879721</v>
+        <v>56919.09707501106</v>
       </c>
       <c r="D98" t="n">
         <v>37846.31644</v>
       </c>
       <c r="E98" t="n">
-        <v>16.49184724273102</v>
+        <v>17.53568600657463</v>
       </c>
     </row>
     <row r="99">
@@ -12095,10 +12095,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>46.49874884589298</v>
+        <v>45.98254510096733</v>
       </c>
       <c r="C99" t="n">
-        <v>53514.40815879721</v>
+        <v>56919.09707501106</v>
       </c>
       <c r="D99" t="n">
         <v>41246.13285</v>
@@ -12114,10 +12114,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>46.49874884589298</v>
+        <v>45.98254510096733</v>
       </c>
       <c r="C100" t="n">
-        <v>53514.40815879721</v>
+        <v>56919.09707501106</v>
       </c>
       <c r="D100" t="n">
         <v>46821.85025</v>
@@ -12133,16 +12133,16 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>46.50801578521097</v>
+        <v>45.99220449028024</v>
       </c>
       <c r="C101" t="n">
-        <v>53075.39453481308</v>
+        <v>56461.30833998889</v>
       </c>
       <c r="D101" t="n">
         <v>46445.27162</v>
       </c>
       <c r="E101" t="n">
-        <v>8.608110274198687</v>
+        <v>9.155774700443358</v>
       </c>
     </row>
     <row r="102">
@@ -12152,16 +12152,16 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>46.62294431371323</v>
+        <v>46.11201961061739</v>
       </c>
       <c r="C102" t="n">
-        <v>48128.28924527104</v>
+        <v>51301.79561153978</v>
       </c>
       <c r="D102" t="n">
         <v>42201.03823</v>
       </c>
       <c r="E102" t="n">
-        <v>97.0020645008243</v>
+        <v>103.1902545689823</v>
       </c>
     </row>
     <row r="103">
@@ -12171,16 +12171,16 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>46.69414394364825</v>
+        <v>46.18639614760691</v>
       </c>
       <c r="C103" t="n">
-        <v>45243.59159782355</v>
+        <v>48287.17773577718</v>
       </c>
       <c r="D103" t="n">
         <v>39721.20292</v>
       </c>
       <c r="E103" t="n">
-        <v>56.56269896955857</v>
+        <v>60.29235751525213</v>
       </c>
     </row>
     <row r="104">
@@ -12190,16 +12190,16 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>46.70131746205076</v>
+        <v>46.19389911469998</v>
       </c>
       <c r="C104" t="n">
-        <v>44954.77097295257</v>
+        <v>47984.97194580274</v>
       </c>
       <c r="D104" t="n">
         <v>39472.60737</v>
       </c>
       <c r="E104" t="n">
-        <v>5.663149507274071</v>
+        <v>6.044115799488756</v>
       </c>
     </row>
     <row r="105">
@@ -12209,16 +12209,16 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>46.73093272267138</v>
+        <v>46.2248783783222</v>
       </c>
       <c r="C105" t="n">
-        <v>43792.61984687795</v>
+        <v>46768.80865208532</v>
       </c>
       <c r="D105" t="n">
         <v>38472.18715</v>
       </c>
       <c r="E105" t="n">
-        <v>22.7872769818554</v>
+        <v>24.32326587434845</v>
       </c>
     </row>
     <row r="106">
@@ -12228,16 +12228,16 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>46.87838843830075</v>
+        <v>46.37920578804508</v>
       </c>
       <c r="C106" t="n">
-        <v>38669.82901078835</v>
+        <v>41405.14134172858</v>
       </c>
       <c r="D106" t="n">
         <v>34060.01548</v>
       </c>
       <c r="E106" t="n">
-        <v>100.4468791390117</v>
+        <v>107.2733462071348</v>
       </c>
     </row>
     <row r="107">
@@ -12247,16 +12247,16 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>46.97832975725093</v>
+        <v>46.48407624783272</v>
       </c>
       <c r="C107" t="n">
-        <v>35478.65656151743</v>
+        <v>38055.2391892528</v>
       </c>
       <c r="D107" t="n">
         <v>31304.37414</v>
       </c>
       <c r="E107" t="n">
-        <v>62.57200880923367</v>
+        <v>66.99804304951562</v>
       </c>
     </row>
     <row r="108">
@@ -12266,16 +12266,16 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>47.01553448937202</v>
+        <v>46.52318478278633</v>
       </c>
       <c r="C108" t="n">
-        <v>34328.45052519153</v>
+        <v>36845.69215694586</v>
       </c>
       <c r="D108" t="n">
         <v>30309.39648</v>
       </c>
       <c r="E108" t="n">
-        <v>22.55305953580216</v>
+        <v>24.19094064613877</v>
       </c>
     </row>
     <row r="109">
@@ -12285,16 +12285,16 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>47.04884818257757</v>
+        <v>46.55822617685948</v>
       </c>
       <c r="C109" t="n">
-        <v>33327.96592794549</v>
+        <v>35792.89972767665</v>
       </c>
       <c r="D109" t="n">
         <v>29443.36571</v>
       </c>
       <c r="E109" t="n">
-        <v>19.61734504404</v>
+        <v>21.05584858538419</v>
       </c>
     </row>
     <row r="110">
@@ -12304,10 +12304,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>47.04884818257757</v>
+        <v>46.55822617685948</v>
       </c>
       <c r="C110" t="n">
-        <v>33327.96592794549</v>
+        <v>35792.89972767665</v>
       </c>
       <c r="D110" t="n">
         <v>29910.28372</v>
@@ -12323,16 +12323,16 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>47.18106784837484</v>
+        <v>46.69738482653937</v>
       </c>
       <c r="C111" t="n">
-        <v>29722.02767386303</v>
+        <v>31996.20054106752</v>
       </c>
       <c r="D111" t="n">
         <v>26737.57766</v>
       </c>
       <c r="E111" t="n">
-        <v>70.70467164867549</v>
+        <v>75.93398373218244</v>
       </c>
     </row>
     <row r="112">
@@ -12342,16 +12342,16 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>47.51553800711297</v>
+        <v>47.05024563750386</v>
       </c>
       <c r="C112" t="n">
-        <v>22710.04888353954</v>
+        <v>24595.71187324272</v>
       </c>
       <c r="D112" t="n">
         <v>20553.37025</v>
       </c>
       <c r="E112" t="n">
-        <v>137.4897802024215</v>
+        <v>148.0097733564962</v>
       </c>
     </row>
     <row r="113">
@@ -12361,10 +12361,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>47.51553800711297</v>
+        <v>47.05024563750386</v>
       </c>
       <c r="C113" t="n">
-        <v>22710.04888353954</v>
+        <v>24595.71187324272</v>
       </c>
       <c r="D113" t="n">
         <v>21028.23823</v>
@@ -12380,16 +12380,16 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>47.6124095735225</v>
+        <v>47.15306235293103</v>
       </c>
       <c r="C114" t="n">
-        <v>20803.30060939581</v>
+        <v>22571.13385122031</v>
       </c>
       <c r="D114" t="n">
         <v>19297.31419</v>
       </c>
       <c r="E114" t="n">
-        <v>37.38722106164165</v>
+        <v>40.49156044044799</v>
       </c>
     </row>
     <row r="115">
@@ -12399,10 +12399,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>47.6124095735225</v>
+        <v>47.15306235293103</v>
       </c>
       <c r="C115" t="n">
-        <v>20803.30060939581</v>
+        <v>22571.13385122031</v>
       </c>
       <c r="D115" t="n">
         <v>20856.35297</v>
@@ -12418,16 +12418,16 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>47.61598249380149</v>
+        <v>47.15686136377568</v>
       </c>
       <c r="C116" t="n">
-        <v>20727.56345410065</v>
+        <v>22490.57190513758</v>
       </c>
       <c r="D116" t="n">
         <v>20781.9115</v>
       </c>
       <c r="E116" t="n">
-        <v>1.485042260689504</v>
+        <v>1.611238921654707</v>
       </c>
     </row>
     <row r="117">
@@ -12437,10 +12437,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>47.61598249380149</v>
+        <v>47.15686136377568</v>
       </c>
       <c r="C117" t="n">
-        <v>20727.56345410065</v>
+        <v>22490.57190513758</v>
       </c>
       <c r="D117" t="n">
         <v>22607.15555</v>
@@ -12456,10 +12456,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>47.61598249380149</v>
+        <v>47.15686136377568</v>
       </c>
       <c r="C118" t="n">
-        <v>20727.56345410065</v>
+        <v>22490.57190513758</v>
       </c>
       <c r="D118" t="n">
         <v>23336.71805</v>
@@ -12475,16 +12475,16 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>47.62200575338786</v>
+        <v>47.16326622762126</v>
       </c>
       <c r="C119" t="n">
-        <v>20585.15481941897</v>
+        <v>22339.08035946411</v>
       </c>
       <c r="D119" t="n">
         <v>23179.52705</v>
       </c>
       <c r="E119" t="n">
-        <v>2.79232617022899</v>
+        <v>3.029830913469391</v>
       </c>
     </row>
     <row r="120">
@@ -12494,10 +12494,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>47.62200575338786</v>
+        <v>47.16326622762126</v>
       </c>
       <c r="C120" t="n">
-        <v>20585.15481941897</v>
+        <v>22339.08035946411</v>
       </c>
       <c r="D120" t="n">
         <v>24318.31548</v>
@@ -12513,16 +12513,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>47.73156800281517</v>
+        <v>47.27978560857686</v>
       </c>
       <c r="C121" t="n">
-        <v>18178.93849429273</v>
+        <v>19779.04685041311</v>
       </c>
       <c r="D121" t="n">
         <v>21531.46385</v>
       </c>
       <c r="E121" t="n">
-        <v>47.18071225737723</v>
+        <v>51.20067018101992</v>
       </c>
     </row>
     <row r="122">
@@ -12532,16 +12532,16 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>47.81405189240437</v>
+        <v>47.3677348396477</v>
       </c>
       <c r="C122" t="n">
-        <v>16528.64566739088</v>
+        <v>18018.70230413889</v>
       </c>
       <c r="D122" t="n">
         <v>19615.15336</v>
       </c>
       <c r="E122" t="n">
-        <v>32.35868288042845</v>
+        <v>35.20689092548448</v>
       </c>
     </row>
     <row r="123">
@@ -12551,10 +12551,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>47.81405189240437</v>
+        <v>47.3677348396477</v>
       </c>
       <c r="C123" t="n">
-        <v>16528.64566739088</v>
+        <v>18018.70230413889</v>
       </c>
       <c r="D123" t="n">
         <v>19988.78982</v>
@@ -12570,10 +12570,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>47.81405189240437</v>
+        <v>47.3677348396477</v>
       </c>
       <c r="C124" t="n">
-        <v>16528.64566739088</v>
+        <v>18018.70230413889</v>
       </c>
       <c r="D124" t="n">
         <v>21770.14813</v>
@@ -12589,16 +12589,16 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>47.90599469951271</v>
+        <v>47.465961657595</v>
       </c>
       <c r="C125" t="n">
-        <v>14707.53974167459</v>
+        <v>16072.35079427269</v>
       </c>
       <c r="D125" t="n">
         <v>19418.57142</v>
       </c>
       <c r="E125" t="n">
-        <v>35.70795932777037</v>
+        <v>38.92703019732404</v>
       </c>
     </row>
     <row r="126">
@@ -12608,16 +12608,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>47.93075280344613</v>
+        <v>47.49247612022028</v>
       </c>
       <c r="C126" t="n">
-        <v>14232.67983700036</v>
+        <v>15563.60046726883</v>
       </c>
       <c r="D126" t="n">
         <v>18803.90063</v>
       </c>
       <c r="E126" t="n">
-        <v>9.310978523024136</v>
+        <v>10.17500654007711</v>
       </c>
     </row>
     <row r="127">
@@ -12627,10 +12627,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>47.93075280344613</v>
+        <v>47.49247612022028</v>
       </c>
       <c r="C127" t="n">
-        <v>14232.67983700036</v>
+        <v>15563.60046726883</v>
       </c>
       <c r="D127" t="n">
         <v>19044.06785</v>
@@ -12646,10 +12646,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>47.93075280344613</v>
+        <v>47.49247612022028</v>
       </c>
       <c r="C128" t="n">
-        <v>14232.67983700036</v>
+        <v>15563.60046726883</v>
       </c>
       <c r="D128" t="n">
         <v>19446.41623</v>
@@ -12665,16 +12665,16 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>47.93750836958834</v>
+        <v>47.49971566434692</v>
       </c>
       <c r="C129" t="n">
-        <v>14099.90639035395</v>
+        <v>15421.2580125957</v>
       </c>
       <c r="D129" t="n">
         <v>19268.5621</v>
       </c>
       <c r="E129" t="n">
-        <v>2.603400914635505</v>
+        <v>2.846849093462696</v>
       </c>
     </row>
     <row r="130">
@@ -12684,10 +12684,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>47.93750836958834</v>
+        <v>47.49971566434692</v>
       </c>
       <c r="C130" t="n">
-        <v>14099.90639035395</v>
+        <v>15421.2580125957</v>
       </c>
       <c r="D130" t="n">
         <v>19567.76958</v>
@@ -12703,10 +12703,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>47.93750836958834</v>
+        <v>47.49971566434692</v>
       </c>
       <c r="C131" t="n">
-        <v>14099.90639035395</v>
+        <v>15421.2580125957</v>
       </c>
       <c r="D131" t="n">
         <v>20633.69607</v>
@@ -12722,10 +12722,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>47.93750836958834</v>
+        <v>47.49971566434692</v>
       </c>
       <c r="C132" t="n">
-        <v>14099.90639035395</v>
+        <v>15421.2580125957</v>
       </c>
       <c r="D132" t="n">
         <v>20924.62048</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>48.1259381088857</v>
+        <v>47.70168205161031</v>
       </c>
       <c r="C133" t="n">
-        <v>10957.07374223919</v>
+        <v>12051.29869352324</v>
       </c>
       <c r="D133" t="n">
         <v>16352.02856</v>
       </c>
       <c r="E133" t="n">
-        <v>61.62416957087751</v>
+        <v>67.3991863814491</v>
       </c>
     </row>
     <row r="134">
@@ -12760,16 +12760,16 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>48.12843906929219</v>
+        <v>47.70437775533163</v>
       </c>
       <c r="C134" t="n">
-        <v>10915.51516242816</v>
+        <v>12006.48612962273</v>
       </c>
       <c r="D134" t="n">
         <v>16291.2238</v>
       </c>
       <c r="E134" t="n">
-        <v>0.8148741139419413</v>
+        <v>0.8962512780102496</v>
       </c>
     </row>
     <row r="135">
@@ -12779,10 +12779,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>48.12843906929219</v>
+        <v>47.70437775533163</v>
       </c>
       <c r="C135" t="n">
-        <v>10915.51516242816</v>
+        <v>12006.48612962273</v>
       </c>
       <c r="D135" t="n">
         <v>16440.22209</v>
@@ -12798,10 +12798,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>48.12843906929219</v>
+        <v>47.70437775533163</v>
       </c>
       <c r="C136" t="n">
-        <v>10915.51516242816</v>
+        <v>12006.48612962273</v>
       </c>
       <c r="D136" t="n">
         <v>17128.89408</v>
@@ -12817,16 +12817,16 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>48.12942251668004</v>
+        <v>47.70543786035652</v>
       </c>
       <c r="C137" t="n">
-        <v>10898.35936464646</v>
+        <v>11987.98567362551</v>
       </c>
       <c r="D137" t="n">
         <v>17102.50065</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3363881917978996</v>
+        <v>0.3700091199444509</v>
       </c>
     </row>
     <row r="138">
@@ -12836,16 +12836,16 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>48.14248206506059</v>
+        <v>47.71951580733724</v>
       </c>
       <c r="C138" t="n">
-        <v>10675.11654869266</v>
+        <v>11747.23782703341</v>
       </c>
       <c r="D138" t="n">
         <v>16759.04093</v>
       </c>
       <c r="E138" t="n">
-        <v>4.377310116741178</v>
+        <v>4.814956931841963</v>
       </c>
     </row>
     <row r="139">
@@ -12855,10 +12855,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>48.14248206506059</v>
+        <v>47.71951580733724</v>
       </c>
       <c r="C139" t="n">
-        <v>10675.11654869266</v>
+        <v>11747.23782703341</v>
       </c>
       <c r="D139" t="n">
         <v>16842.24931</v>
@@ -12874,16 +12874,16 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>48.15074500225548</v>
+        <v>47.72842675029291</v>
       </c>
       <c r="C140" t="n">
-        <v>10534.99348954347</v>
+        <v>11596.06540387597</v>
       </c>
       <c r="D140" t="n">
         <v>16625.51039</v>
       </c>
       <c r="E140" t="n">
-        <v>2.747510963709601</v>
+        <v>3.023448463148733</v>
       </c>
     </row>
     <row r="141">
@@ -12893,10 +12893,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>48.15074500225548</v>
+        <v>47.72842675029291</v>
       </c>
       <c r="C141" t="n">
-        <v>10534.99348954347</v>
+        <v>11596.06540387597</v>
       </c>
       <c r="D141" t="n">
         <v>17093.9925</v>
@@ -12912,10 +12912,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>48.15074500225548</v>
+        <v>47.72842675029291</v>
       </c>
       <c r="C142" t="n">
-        <v>10534.99348954347</v>
+        <v>11596.06540387597</v>
       </c>
       <c r="D142" t="n">
         <v>20882.22388</v>
@@ -12931,10 +12931,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>48.15074500225548</v>
+        <v>47.72842675029291</v>
       </c>
       <c r="C143" t="n">
-        <v>10534.99348954347</v>
+        <v>11596.06540387597</v>
       </c>
       <c r="D143" t="n">
         <v>22721.08867</v>
@@ -12950,10 +12950,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>48.15074500225548</v>
+        <v>47.72842675029291</v>
       </c>
       <c r="C144" t="n">
-        <v>10534.99348954347</v>
+        <v>11596.06540387597</v>
       </c>
       <c r="D144" t="n">
         <v>23774.64897</v>
@@ -12969,16 +12969,16 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>48.16658689879218</v>
+        <v>47.74551547418937</v>
       </c>
       <c r="C145" t="n">
-        <v>10164.08554373217</v>
+        <v>11195.80525735793</v>
       </c>
       <c r="D145" t="n">
         <v>22954.02196</v>
       </c>
       <c r="E145" t="n">
-        <v>7.272704819829379</v>
+        <v>8.005202930360815</v>
       </c>
     </row>
     <row r="146">
@@ -12988,16 +12988,16 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>48.19030562728453</v>
+        <v>47.77111927875495</v>
       </c>
       <c r="C146" t="n">
-        <v>9636.990425218886</v>
+        <v>10626.5908990688</v>
       </c>
       <c r="D146" t="n">
         <v>21786.99926</v>
       </c>
       <c r="E146" t="n">
-        <v>10.33519840222133</v>
+        <v>11.38428716578262</v>
       </c>
     </row>
     <row r="147">
@@ -13007,10 +13007,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>48.19030562728453</v>
+        <v>47.77111927875495</v>
       </c>
       <c r="C147" t="n">
-        <v>9636.990425218886</v>
+        <v>10626.5908990688</v>
       </c>
       <c r="D147" t="n">
         <v>24336.62334</v>
@@ -13026,16 +13026,16 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>48.20333362061044</v>
+        <v>47.78519777071328</v>
       </c>
       <c r="C148" t="n">
-        <v>9323.892834566952</v>
+        <v>10288.11161955332</v>
       </c>
       <c r="D148" t="n">
         <v>23561.45068</v>
       </c>
       <c r="E148" t="n">
-        <v>6.13916844415559</v>
+        <v>6.769585590309683</v>
       </c>
     </row>
     <row r="149">
@@ -13045,16 +13045,16 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>48.22316921302095</v>
+        <v>47.80664689894036</v>
       </c>
       <c r="C149" t="n">
-        <v>8869.944330876791</v>
+        <v>9797.040027592511</v>
       </c>
       <c r="D149" t="n">
         <v>22436.81678</v>
       </c>
       <c r="E149" t="n">
-        <v>8.900951052748244</v>
+        <v>9.82143183921608</v>
       </c>
     </row>
     <row r="150">
@@ -13064,16 +13064,16 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>48.22817248344538</v>
+        <v>47.81206259198338</v>
       </c>
       <c r="C150" t="n">
-        <v>8756.872746737756</v>
+        <v>9674.598907678832</v>
       </c>
       <c r="D150" t="n">
         <v>22156.40668</v>
       </c>
       <c r="E150" t="n">
-        <v>2.217089885079146</v>
+        <v>2.448822398273583</v>
       </c>
     </row>
     <row r="151">
@@ -13083,10 +13083,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>48.22817248344538</v>
+        <v>47.81206259198338</v>
       </c>
       <c r="C151" t="n">
-        <v>8756.872746737756</v>
+        <v>9674.598907678832</v>
       </c>
       <c r="D151" t="n">
         <v>28041.60192</v>
@@ -13102,16 +13102,16 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>48.22870273819684</v>
+        <v>47.81263670127375</v>
       </c>
       <c r="C152" t="n">
-        <v>8741.731879460003</v>
+        <v>9658.199260262483</v>
       </c>
       <c r="D152" t="n">
         <v>27994.06792</v>
       </c>
       <c r="E152" t="n">
-        <v>0.2968797505441725</v>
+        <v>0.3279929483269708</v>
       </c>
     </row>
     <row r="153">
@@ -13121,10 +13121,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>48.22870273819684</v>
+        <v>47.81263670127375</v>
       </c>
       <c r="C153" t="n">
-        <v>8741.731879460003</v>
+        <v>9658.199260262483</v>
       </c>
       <c r="D153" t="n">
         <v>28183.08036</v>
@@ -13140,10 +13140,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>48.22870273819684</v>
+        <v>47.81263670127375</v>
       </c>
       <c r="C154" t="n">
-        <v>8741.731879460003</v>
+        <v>9658.199260262483</v>
       </c>
       <c r="D154" t="n">
         <v>28336.02824</v>
@@ -13159,10 +13159,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>48.22870273819684</v>
+        <v>47.81263670127375</v>
       </c>
       <c r="C155" t="n">
-        <v>8741.731879460003</v>
+        <v>9658.199260262483</v>
       </c>
       <c r="D155" t="n">
         <v>30317.1457</v>
@@ -13178,16 +13178,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>48.25718425255213</v>
+        <v>47.8434748168528</v>
       </c>
       <c r="C156" t="n">
-        <v>7940.160554240818</v>
+        <v>8789.957480707906</v>
       </c>
       <c r="D156" t="n">
         <v>27591.72952</v>
       </c>
       <c r="E156" t="n">
-        <v>15.71708480821933</v>
+        <v>17.36483559109154</v>
       </c>
     </row>
     <row r="157">
@@ -13197,10 +13197,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>48.25718425255213</v>
+        <v>47.8434748168528</v>
       </c>
       <c r="C157" t="n">
-        <v>7940.160554240818</v>
+        <v>8789.957480707906</v>
       </c>
       <c r="D157" t="n">
         <v>29227.10398</v>
@@ -13216,16 +13216,16 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>48.26460038768619</v>
+        <v>47.85152046804753</v>
       </c>
       <c r="C158" t="n">
-        <v>7724.948268197315</v>
+        <v>8556.383544774601</v>
       </c>
       <c r="D158" t="n">
         <v>28450.45748</v>
       </c>
       <c r="E158" t="n">
-        <v>4.21984874595104</v>
+        <v>4.671478718666127</v>
       </c>
     </row>
     <row r="159">
@@ -13235,16 +13235,16 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>48.27991571366108</v>
+        <v>47.86814490650752</v>
       </c>
       <c r="C159" t="n">
-        <v>7304.23607494261</v>
+        <v>8099.52727291356</v>
       </c>
       <c r="D159" t="n">
         <v>26931.38463</v>
       </c>
       <c r="E159" t="n">
-        <v>8.249258691268723</v>
+        <v>9.137125437220815</v>
       </c>
     </row>
     <row r="160">
@@ -13254,16 +13254,16 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>48.28175585069052</v>
+        <v>47.8701445893087</v>
       </c>
       <c r="C160" t="n">
-        <v>7254.028136532512</v>
+        <v>8044.944312316266</v>
       </c>
       <c r="D160" t="n">
         <v>26749.89321</v>
       </c>
       <c r="E160" t="n">
-        <v>0.9844693805901625</v>
+        <v>1.091659211945856</v>
       </c>
     </row>
     <row r="161">
@@ -13273,10 +13273,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>48.28175585069052</v>
+        <v>47.8701445893087</v>
       </c>
       <c r="C161" t="n">
-        <v>7254.028136532512</v>
+        <v>8044.944312316266</v>
       </c>
       <c r="D161" t="n">
         <v>28075.59214</v>
@@ -13292,16 +13292,16 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>48.29082920114453</v>
+        <v>47.88000596643595</v>
       </c>
       <c r="C162" t="n">
-        <v>7003.008704821565</v>
+        <v>7772.014499888325</v>
       </c>
       <c r="D162" t="n">
         <v>27123.10996</v>
       </c>
       <c r="E162" t="n">
-        <v>4.921949641391121</v>
+        <v>5.458596248558832</v>
       </c>
     </row>
     <row r="163">
@@ -13311,16 +13311,16 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>48.30266475505383</v>
+        <v>47.89287848715741</v>
       </c>
       <c r="C163" t="n">
-        <v>6689.923136797137</v>
+        <v>7431.361817457491</v>
       </c>
       <c r="D163" t="n">
         <v>25934.2856</v>
       </c>
       <c r="E163" t="n">
-        <v>6.138932706361333</v>
+        <v>6.813053648616684</v>
       </c>
     </row>
     <row r="164">
@@ -13330,10 +13330,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>48.30266475505383</v>
+        <v>47.89287848715741</v>
       </c>
       <c r="C164" t="n">
-        <v>6689.923136797137</v>
+        <v>7431.361817457491</v>
       </c>
       <c r="D164" t="n">
         <v>26335.44237</v>
@@ -13349,10 +13349,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>48.30266475505383</v>
+        <v>47.89287848715741</v>
       </c>
       <c r="C165" t="n">
-        <v>6689.923136797137</v>
+        <v>7431.361817457491</v>
       </c>
       <c r="D165" t="n">
         <v>30480.52397</v>
@@ -13368,10 +13368,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>48.30266475505383</v>
+        <v>47.89287848715741</v>
       </c>
       <c r="C166" t="n">
-        <v>6689.923136797137</v>
+        <v>7431.361817457491</v>
       </c>
       <c r="D166" t="n">
         <v>30624.51631</v>
@@ -13387,16 +13387,16 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>48.30593793454802</v>
+        <v>47.89644171157795</v>
       </c>
       <c r="C167" t="n">
-        <v>6589.188185551788</v>
+        <v>7321.65659876578</v>
       </c>
       <c r="D167" t="n">
         <v>30172.42296</v>
       </c>
       <c r="E167" t="n">
-        <v>1.975195122457835</v>
+        <v>2.194104373834233</v>
       </c>
     </row>
     <row r="168">
@@ -13406,10 +13406,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>48.30593793454802</v>
+        <v>47.89644171157795</v>
       </c>
       <c r="C168" t="n">
-        <v>6589.188185551788</v>
+        <v>7321.65659876578</v>
       </c>
       <c r="D168" t="n">
         <v>30249.62662</v>
@@ -13425,16 +13425,16 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>48.30715420123916</v>
+        <v>47.8977661517151</v>
       </c>
       <c r="C169" t="n">
-        <v>6551.869116023435</v>
+        <v>7281.002149716631</v>
       </c>
       <c r="D169" t="n">
         <v>30081.66164</v>
       </c>
       <c r="E169" t="n">
-        <v>0.7317464613402536</v>
+        <v>0.8130889809829772</v>
       </c>
     </row>
     <row r="170">
@@ -13444,16 +13444,16 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>48.3131303420441</v>
+        <v>47.90427453083739</v>
       </c>
       <c r="C170" t="n">
-        <v>6373.398362183791</v>
+        <v>7086.558917166541</v>
       </c>
       <c r="D170" t="n">
         <v>29278.31405</v>
       </c>
       <c r="E170" t="n">
-        <v>3.49942654587537</v>
+        <v>3.888864651001811</v>
       </c>
     </row>
     <row r="171">
@@ -13463,16 +13463,16 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>48.31492797897008</v>
+        <v>47.90623334120487</v>
       </c>
       <c r="C171" t="n">
-        <v>6320.153645149398</v>
+        <v>7028.517141629016</v>
       </c>
       <c r="D171" t="n">
         <v>29038.51285</v>
       </c>
       <c r="E171" t="n">
-        <v>1.044014059497882</v>
+        <v>1.160835510750489</v>
       </c>
     </row>
     <row r="172">
@@ -13482,10 +13482,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>48.31492797897008</v>
+        <v>47.90623334120487</v>
       </c>
       <c r="C172" t="n">
-        <v>6320.153645149398</v>
+        <v>7028.517141629016</v>
       </c>
       <c r="D172" t="n">
         <v>29283.26294</v>
@@ -13501,16 +13501,16 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>48.34043119888646</v>
+        <v>47.93402773226637</v>
       </c>
       <c r="C173" t="n">
-        <v>5638.899789440986</v>
+        <v>6285.763356613993</v>
       </c>
       <c r="D173" t="n">
         <v>26188.69065</v>
       </c>
       <c r="E173" t="n">
-        <v>13.35791873938063</v>
+        <v>14.85507570030047</v>
       </c>
     </row>
     <row r="174">
@@ -13520,16 +13520,16 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>48.34124887291374</v>
+        <v>47.93492097589856</v>
       </c>
       <c r="C174" t="n">
-        <v>5617.140332929309</v>
+        <v>6261.983374579504</v>
       </c>
       <c r="D174" t="n">
         <v>26089.61492</v>
       </c>
       <c r="E174" t="n">
-        <v>0.4266560100328763</v>
+        <v>0.4755996406897759</v>
       </c>
     </row>
     <row r="175">
@@ -13539,16 +13539,16 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>48.34225577014224</v>
+        <v>47.93602101432816</v>
       </c>
       <c r="C175" t="n">
-        <v>5590.470108825602</v>
+        <v>6232.834410202635</v>
       </c>
       <c r="D175" t="n">
         <v>25968.17013</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5229455706609086</v>
+        <v>0.5829792875373784</v>
       </c>
     </row>
     <row r="176">
@@ -13558,16 +13558,16 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>48.34339298364911</v>
+        <v>47.93726353992487</v>
       </c>
       <c r="C176" t="n">
-        <v>5560.506409537778</v>
+        <v>6200.082810492769</v>
       </c>
       <c r="D176" t="n">
         <v>25831.7155</v>
       </c>
       <c r="E176" t="n">
-        <v>0.587523515447531</v>
+        <v>0.6550319941973285</v>
       </c>
     </row>
     <row r="177">
@@ -13577,10 +13577,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>48.34339298364911</v>
+        <v>47.93726353992487</v>
       </c>
       <c r="C177" t="n">
-        <v>5560.506409537778</v>
+        <v>6200.082810492769</v>
       </c>
       <c r="D177" t="n">
         <v>26532.99479</v>
@@ -13596,16 +13596,16 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>48.34562183979638</v>
+        <v>47.93969905745414</v>
       </c>
       <c r="C178" t="n">
-        <v>5500.820203301987</v>
+        <v>6134.836351357442</v>
       </c>
       <c r="D178" t="n">
         <v>26253.7753</v>
       </c>
       <c r="E178" t="n">
-        <v>1.170317769329247</v>
+        <v>1.304929182706521</v>
       </c>
     </row>
     <row r="179">
@@ -13615,10 +13615,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>48.34562183979638</v>
+        <v>47.93969905745414</v>
       </c>
       <c r="C179" t="n">
-        <v>5500.820203301987</v>
+        <v>6134.836351357442</v>
       </c>
       <c r="D179" t="n">
         <v>27976.79915</v>
@@ -13634,16 +13634,16 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>48.34591976438008</v>
+        <v>47.9400246751127</v>
       </c>
       <c r="C180" t="n">
-        <v>5492.331389992846</v>
+        <v>6125.554762155501</v>
       </c>
       <c r="D180" t="n">
         <v>27934.47216</v>
       </c>
       <c r="E180" t="n">
-        <v>0.1664473197870806</v>
+        <v>0.1856317840388322</v>
       </c>
     </row>
     <row r="181">
@@ -13653,16 +13653,16 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>48.35150670386549</v>
+        <v>47.94613112414387</v>
       </c>
       <c r="C181" t="n">
-        <v>5337.540310603689</v>
+        <v>5956.302512319815</v>
       </c>
       <c r="D181" t="n">
         <v>27162.62823</v>
       </c>
       <c r="E181" t="n">
-        <v>3.035119203708953</v>
+        <v>3.385044996713719</v>
       </c>
     </row>
     <row r="182">
@@ -13672,10 +13672,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>48.35150670386549</v>
+        <v>47.94613112414387</v>
       </c>
       <c r="C182" t="n">
-        <v>5337.540310603689</v>
+        <v>5956.302512319815</v>
       </c>
       <c r="D182" t="n">
         <v>30140.68486</v>
@@ -13691,10 +13691,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>48.35150670386549</v>
+        <v>47.94613112414387</v>
       </c>
       <c r="C183" t="n">
-        <v>5337.540310603689</v>
+        <v>5956.302512319815</v>
       </c>
       <c r="D183" t="n">
         <v>34531.74137</v>
@@ -13710,10 +13710,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>48.35150670386549</v>
+        <v>47.94613112414387</v>
       </c>
       <c r="C184" t="n">
-        <v>5337.540310603689</v>
+        <v>5956.302512319815</v>
       </c>
       <c r="D184" t="n">
         <v>35044.78992</v>
@@ -13729,10 +13729,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>48.35150670386549</v>
+        <v>47.94613112414387</v>
       </c>
       <c r="C185" t="n">
-        <v>5337.540310603689</v>
+        <v>5956.302512319815</v>
       </c>
       <c r="D185" t="n">
         <v>37070.30587</v>
@@ -13748,10 +13748,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>48.35150670386549</v>
+        <v>47.94613112414387</v>
       </c>
       <c r="C186" t="n">
-        <v>5337.540310603689</v>
+        <v>5956.302512319815</v>
       </c>
       <c r="D186" t="n">
         <v>37374.07468</v>
@@ -13767,10 +13767,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>48.35150670386549</v>
+        <v>47.94613112414387</v>
       </c>
       <c r="C187" t="n">
-        <v>5337.540310603689</v>
+        <v>5956.302512319815</v>
       </c>
       <c r="D187" t="n">
         <v>37454.19196</v>
@@ -13786,10 +13786,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>48.35150670386549</v>
+        <v>47.94613112414387</v>
       </c>
       <c r="C188" t="n">
-        <v>5337.540310603689</v>
+        <v>5956.302512319815</v>
       </c>
       <c r="D188" t="n">
         <v>39978.62865</v>
@@ -13805,10 +13805,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>48.35150670386549</v>
+        <v>47.94613112414387</v>
       </c>
       <c r="C189" t="n">
-        <v>5337.540310603689</v>
+        <v>5956.302512319815</v>
       </c>
       <c r="D189" t="n">
         <v>43792.01786</v>
@@ -13824,16 +13824,16 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>48.3587104440947</v>
+        <v>47.95400919165398</v>
       </c>
       <c r="C190" t="n">
-        <v>5033.721369666098</v>
+        <v>5623.910749578197</v>
       </c>
       <c r="D190" t="n">
         <v>41348.20209</v>
       </c>
       <c r="E190" t="n">
-        <v>5.957234136031201</v>
+        <v>6.647835254832347</v>
       </c>
     </row>
     <row r="191">
@@ -13843,10 +13843,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>48.3587104440947</v>
+        <v>47.95400919165398</v>
       </c>
       <c r="C191" t="n">
-        <v>5033.721369666098</v>
+        <v>5623.910749578197</v>
       </c>
       <c r="D191" t="n">
         <v>43010.57292</v>
@@ -13862,16 +13862,16 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>48.36073206738981</v>
+        <v>47.95622267142036</v>
       </c>
       <c r="C192" t="n">
-        <v>4946.537166930064</v>
+        <v>5528.414376812894</v>
       </c>
       <c r="D192" t="n">
         <v>42280.23528</v>
       </c>
       <c r="E192" t="n">
-        <v>1.709494171294799</v>
+        <v>1.909927455306057</v>
       </c>
     </row>
     <row r="193">
@@ -13881,10 +13881,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>48.36073206738981</v>
+        <v>47.95622267142036</v>
       </c>
       <c r="C193" t="n">
-        <v>4946.537166930064</v>
+        <v>5528.414376812894</v>
       </c>
       <c r="D193" t="n">
         <v>43948.70696</v>
@@ -13900,16 +13900,16 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>48.36675871080717</v>
+        <v>47.96282353690833</v>
       </c>
       <c r="C194" t="n">
-        <v>4690.107299200373</v>
+        <v>5247.43933294911</v>
       </c>
       <c r="D194" t="n">
         <v>41715.06653</v>
       </c>
       <c r="E194" t="n">
-        <v>5.028036622150798</v>
+        <v>5.619500877275672</v>
       </c>
     </row>
     <row r="195">
@@ -13919,16 +13919,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>48.36719544923037</v>
+        <v>47.96330240083813</v>
       </c>
       <c r="C195" t="n">
-        <v>4671.596260911506</v>
+        <v>5227.134694760671</v>
       </c>
       <c r="D195" t="n">
         <v>41553.65269</v>
       </c>
       <c r="E195" t="n">
-        <v>0.3629615350758172</v>
+        <v>0.406092763768785</v>
       </c>
     </row>
     <row r="196">
@@ -13938,10 +13938,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>48.36719544923037</v>
+        <v>47.96330240083813</v>
       </c>
       <c r="C196" t="n">
-        <v>4671.596260911506</v>
+        <v>5227.134694760671</v>
       </c>
       <c r="D196" t="n">
         <v>42030.91538</v>
@@ -13957,10 +13957,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>48.36719544923037</v>
+        <v>47.96330240083813</v>
       </c>
       <c r="C197" t="n">
-        <v>4671.596260911506</v>
+        <v>5227.134694760671</v>
       </c>
       <c r="D197" t="n">
         <v>42577.62298</v>
@@ -13976,10 +13976,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>48.36719544923037</v>
+        <v>47.96330240083813</v>
       </c>
       <c r="C198" t="n">
-        <v>4671.596260911506</v>
+        <v>5227.134694760671</v>
       </c>
       <c r="D198" t="n">
         <v>48296.3852</v>
@@ -13995,10 +13995,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>48.36719544923037</v>
+        <v>47.96330240083813</v>
       </c>
       <c r="C199" t="n">
-        <v>4671.596260911506</v>
+        <v>5227.134694760671</v>
       </c>
       <c r="D199" t="n">
         <v>52134.81221</v>
@@ -14014,16 +14014,16 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>48.36789571773301</v>
+        <v>47.96407027323758</v>
       </c>
       <c r="C200" t="n">
-        <v>4634.646487918838</v>
+        <v>5186.601578726707</v>
       </c>
       <c r="D200" t="n">
         <v>51730.53979</v>
       </c>
       <c r="E200" t="n">
-        <v>0.7245053527974019</v>
+        <v>0.8106623206792696</v>
       </c>
     </row>
     <row r="201">
@@ -14033,10 +14033,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>48.36789571773301</v>
+        <v>47.96407027323758</v>
       </c>
       <c r="C201" t="n">
-        <v>4634.646487918838</v>
+        <v>5186.601578726707</v>
       </c>
       <c r="D201" t="n">
         <v>63137.00468</v>
@@ -14052,10 +14052,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>48.36789571773301</v>
+        <v>47.96407027323758</v>
       </c>
       <c r="C202" t="n">
-        <v>4634.646487918838</v>
+        <v>5186.601578726707</v>
       </c>
       <c r="D202" t="n">
         <v>69020.54977</v>
@@ -14071,16 +14071,16 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>48.36853335143517</v>
+        <v>47.96476957337522</v>
       </c>
       <c r="C203" t="n">
-        <v>4590.178721153979</v>
+        <v>5137.813757728994</v>
       </c>
       <c r="D203" t="n">
         <v>68371.30726</v>
       </c>
       <c r="E203" t="n">
-        <v>0.8719169953893847</v>
+        <v>0.9757564199542513</v>
       </c>
     </row>
     <row r="204">
@@ -14090,16 +14090,16 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>48.36966890252732</v>
+        <v>47.96601518174271</v>
       </c>
       <c r="C204" t="n">
-        <v>4512.304013158834</v>
+        <v>5052.357273518332</v>
       </c>
       <c r="D204" t="n">
         <v>67234.09758</v>
       </c>
       <c r="E204" t="n">
-        <v>1.526955058728338</v>
+        <v>1.709129684213262</v>
       </c>
     </row>
     <row r="205">
@@ -14109,10 +14109,10 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>48.36966890252732</v>
+        <v>47.96601518174271</v>
       </c>
       <c r="C205" t="n">
-        <v>4512.304013158834</v>
+        <v>5052.357273518332</v>
       </c>
       <c r="D205" t="n">
         <v>71333.48471999999</v>
@@ -14128,16 +14128,16 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>48.37146632925231</v>
+        <v>47.96798748173002</v>
       </c>
       <c r="C206" t="n">
-        <v>4385.136422719769</v>
+        <v>4912.761595585598</v>
       </c>
       <c r="D206" t="n">
         <v>69362.554</v>
       </c>
       <c r="E206" t="n">
-        <v>2.493482165471864</v>
+        <v>2.791913558654666</v>
       </c>
     </row>
     <row r="207">
@@ -14147,16 +14147,16 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>48.37495040960294</v>
+        <v>47.97181270525846</v>
       </c>
       <c r="C207" t="n">
-        <v>4151.513374845158</v>
+        <v>4656.160743498003</v>
       </c>
       <c r="D207" t="n">
         <v>65739.64453999999</v>
       </c>
       <c r="E207" t="n">
-        <v>4.580844075972766</v>
+        <v>5.132017041751896</v>
       </c>
     </row>
   </sheetData>

--- a/Results/BITCOIN(05-2020-04-2024)Results.xlsx
+++ b/Results/BITCOIN(05-2020-04-2024)Results.xlsx
@@ -6275,22 +6275,22 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>bitcoin_change</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash_change</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>net_worth</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>percent_changes</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>bitcoin_change</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>cash_change</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>net_worth</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       <c r="C2" t="n">
         <v>1000000</v>
       </c>
-      <c r="I2" t="n">
+      <c r="H2" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -6324,16 +6324,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.105094029608682</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1000000</v>
       </c>
     </row>
     <row r="4">
@@ -6355,16 +6355,16 @@
         <v>1838.808037745728</v>
       </c>
       <c r="F4" t="n">
+        <v>10.25500676492</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-91940.4018872864</v>
+      </c>
+      <c r="H4" t="n">
+        <v>998161.1919622542</v>
+      </c>
+      <c r="I4" t="n">
         <v>-0.0919404018872864</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10.25500676492</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-91940.4018872864</v>
-      </c>
-      <c r="I4" t="n">
-        <v>998161.1919622542</v>
       </c>
     </row>
     <row r="5">
@@ -6386,16 +6386,16 @@
         <v>1400.411998105379</v>
       </c>
       <c r="F5" t="n">
+        <v>-7.250955963084969</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>936488.7502898952</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.07711013687955931</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-7.250955963084969</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>936488.7502898952</v>
       </c>
     </row>
     <row r="6">
@@ -6417,16 +6417,16 @@
         <v>568.9188025105681</v>
       </c>
       <c r="F6" t="n">
+        <v>-2.856233674234167</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>909502.3026278269</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.03132607175195293</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-2.856233674234167</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>909502.3026278269</v>
       </c>
     </row>
     <row r="7">
@@ -6448,16 +6448,16 @@
         <v>695.9784402605785</v>
       </c>
       <c r="F7" t="n">
+        <v>3.63337048236636</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-34798.92201302892</v>
+      </c>
+      <c r="H7" t="n">
+        <v>908751.036448729</v>
+      </c>
+      <c r="I7" t="n">
         <v>-0.03832228863100402</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.63337048236636</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-34798.92201302892</v>
-      </c>
-      <c r="I7" t="n">
-        <v>908751.036448729</v>
       </c>
     </row>
     <row r="8">
@@ -6479,16 +6479,16 @@
         <v>158.3880746460595</v>
       </c>
       <c r="F8" t="n">
+        <v>0.8344356738541719</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-7919.403732302973</v>
+      </c>
+      <c r="H8" t="n">
+        <v>908270.7943161809</v>
+      </c>
+      <c r="I8" t="n">
         <v>-0.00906877402023191</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.8344356738541719</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-7919.403732302973</v>
-      </c>
-      <c r="I8" t="n">
-        <v>908270.7943161809</v>
       </c>
     </row>
     <row r="9">
@@ -6510,16 +6510,16 @@
         <v>299.3718875563395</v>
       </c>
       <c r="F9" t="n">
+        <v>1.604942651309937</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-14968.59437781698</v>
+      </c>
+      <c r="H9" t="n">
+        <v>907228.8314747374</v>
+      </c>
+      <c r="I9" t="n">
         <v>-0.01729790876247729</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.604942651309937</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-14968.59437781698</v>
-      </c>
-      <c r="I9" t="n">
-        <v>907228.8314747374</v>
       </c>
     </row>
     <row r="10">
@@ -6541,16 +6541,16 @@
         <v>125.0043804888981</v>
       </c>
       <c r="F10" t="n">
+        <v>0.6751147207324618</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-6250.219024444904</v>
+      </c>
+      <c r="H10" t="n">
+        <v>906685.9357139539</v>
+      </c>
+      <c r="I10" t="n">
         <v>-0.007349976294183811</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.6751147207324618</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-6250.219024444904</v>
-      </c>
-      <c r="I10" t="n">
-        <v>906685.9357139539</v>
       </c>
     </row>
     <row r="11">
@@ -6572,16 +6572,16 @@
         <v>380.2560258974221</v>
       </c>
       <c r="F11" t="n">
+        <v>-2.008422359087385</v>
+      </c>
+      <c r="G11" t="n">
+        <v>19012.8012948711</v>
+      </c>
+      <c r="H11" t="n">
+        <v>908475.3557054687</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.0225237477014656</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-2.008422359087385</v>
-      </c>
-      <c r="H11" t="n">
-        <v>19012.8012948711</v>
-      </c>
-      <c r="I11" t="n">
-        <v>908475.3557054687</v>
       </c>
     </row>
     <row r="12">
@@ -6603,16 +6603,16 @@
         <v>167.4396898956863</v>
       </c>
       <c r="F12" t="n">
+        <v>0.8930388599014993</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-8371.984494784316</v>
+      </c>
+      <c r="H12" t="n">
+        <v>907868.139547691</v>
+      </c>
+      <c r="I12" t="n">
         <v>-0.009699504678168902</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.8930388599014993</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-8371.984494784316</v>
-      </c>
-      <c r="I12" t="n">
-        <v>907868.139547691</v>
       </c>
     </row>
     <row r="13">
@@ -6634,16 +6634,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>912018.378709776</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.07815177116514532</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>912018.378709776</v>
       </c>
     </row>
     <row r="14">
@@ -6665,16 +6665,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>918599.5416212786</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.1149445651660803</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>918599.5416212786</v>
       </c>
     </row>
     <row r="15">
@@ -6696,16 +6696,16 @@
         <v>957.3921319505826</v>
       </c>
       <c r="F15" t="n">
+        <v>-4.022567393872238</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>875262.3718725543</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.05600334964633921</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-4.022567393872238</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>875262.3718725543</v>
       </c>
     </row>
     <row r="16">
@@ -6727,16 +6727,16 @@
         <v>342.1335471550979</v>
       </c>
       <c r="F16" t="n">
+        <v>-1.409299438058716</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>858908.0836650864</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.02001335088061726</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-1.409299438058716</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>858908.0836650864</v>
       </c>
     </row>
     <row r="17">
@@ -6758,16 +6758,16 @@
         <v>333.3618357795521</v>
       </c>
       <c r="F17" t="n">
+        <v>1.400477086017611</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-16668.09178897761</v>
+      </c>
+      <c r="H17" t="n">
+        <v>858493.8970670812</v>
+      </c>
+      <c r="I17" t="n">
         <v>-0.01950024323875624</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.400477086017611</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-16668.09178897761</v>
-      </c>
-      <c r="I17" t="n">
-        <v>858493.8970670812</v>
       </c>
     </row>
     <row r="18">
@@ -6789,16 +6789,16 @@
         <v>71.30425393857819</v>
       </c>
       <c r="F18" t="n">
+        <v>-0.298285416811724</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3565.212696928909</v>
+      </c>
+      <c r="H18" t="n">
+        <v>858651.9763703257</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.004253947242620152</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.298285416811724</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3565.212696928909</v>
-      </c>
-      <c r="I18" t="n">
-        <v>858651.9763703257</v>
       </c>
     </row>
     <row r="19">
@@ -6820,16 +6820,16 @@
         <v>2058.37265538758</v>
       </c>
       <c r="F19" t="n">
+        <v>9.810357305966523</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-102918.632769379</v>
+      </c>
+      <c r="H19" t="n">
+        <v>854515.8652851193</v>
+      </c>
+      <c r="I19" t="n">
         <v>-0.1222804746144488</v>
-      </c>
-      <c r="G19" t="n">
-        <v>9.810357305966523</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-102918.632769379</v>
-      </c>
-      <c r="I19" t="n">
-        <v>854515.8652851193</v>
       </c>
     </row>
     <row r="20">
@@ -6851,16 +6851,16 @@
         <v>68.60217291865224</v>
       </c>
       <c r="F20" t="n">
+        <v>-0.3254519321742865</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3430.108645932612</v>
+      </c>
+      <c r="H20" t="n">
+        <v>855122.0270837786</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.004643176835984845</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.3254519321742865</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3430.108645932612</v>
-      </c>
-      <c r="I20" t="n">
-        <v>855122.0270837786</v>
       </c>
     </row>
     <row r="21">
@@ -6882,16 +6882,16 @@
         <v>871.1584914735878</v>
       </c>
       <c r="F21" t="n">
+        <v>-3.903708897248046</v>
+      </c>
+      <c r="G21" t="n">
+        <v>43557.92457367939</v>
+      </c>
+      <c r="H21" t="n">
+        <v>862622.2084387544</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.05868980782583056</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-3.903708897248046</v>
-      </c>
-      <c r="H21" t="n">
-        <v>43557.92457367939</v>
-      </c>
-      <c r="I21" t="n">
-        <v>862622.2084387544</v>
       </c>
     </row>
     <row r="22">
@@ -6913,16 +6913,16 @@
         <v>227.5102265134882</v>
       </c>
       <c r="F22" t="n">
+        <v>1.034462352606057</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-11375.51132567441</v>
+      </c>
+      <c r="H22" t="n">
+        <v>861281.4777400397</v>
+      </c>
+      <c r="I22" t="n">
         <v>-0.01447763769087148</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.034462352606057</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-11375.51132567441</v>
-      </c>
-      <c r="I22" t="n">
-        <v>861281.4777400397</v>
       </c>
     </row>
     <row r="23">
@@ -6944,16 +6944,16 @@
         <v>143.8318260070665</v>
       </c>
       <c r="F23" t="n">
+        <v>0.6601171130384174</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-7191.591300353323</v>
+      </c>
+      <c r="H23" t="n">
+        <v>860330.3347790623</v>
+      </c>
+      <c r="I23" t="n">
         <v>-0.009287210560144006</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.6601171130384174</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-7191.591300353323</v>
-      </c>
-      <c r="I23" t="n">
-        <v>860330.3347790623</v>
       </c>
     </row>
     <row r="24">
@@ -6975,16 +6975,16 @@
         <v>1029.11869052004</v>
       </c>
       <c r="F24" t="n">
+        <v>-4.426264023681955</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>816152.5558593003</v>
+      </c>
+      <c r="I24" t="n">
         <v>0.06707304056242645</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-4.426264023681955</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>816152.5558593003</v>
       </c>
     </row>
     <row r="25">
@@ -7006,16 +7006,16 @@
         <v>137.9115033945399</v>
       </c>
       <c r="F25" t="n">
+        <v>-0.5878765865415191</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6895.575169726995</v>
+      </c>
+      <c r="H25" t="n">
+        <v>816730.8084715609</v>
+      </c>
+      <c r="I25" t="n">
         <v>0.008988413043526447</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.5878765865415191</v>
-      </c>
-      <c r="H25" t="n">
-        <v>6895.575169726995</v>
-      </c>
-      <c r="I25" t="n">
-        <v>816730.8084715609</v>
       </c>
     </row>
     <row r="26">
@@ -7037,16 +7037,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>822433.441972915</v>
+      </c>
+      <c r="I26" t="n">
         <v>0.1336370804531681</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>822433.441972915</v>
       </c>
     </row>
     <row r="27">
@@ -7068,16 +7068,16 @@
         <v>838.5325053207365</v>
       </c>
       <c r="F27" t="n">
+        <v>-2.991045819256771</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>783965.5753643187</v>
+      </c>
+      <c r="I27" t="n">
         <v>0.05416468876957903</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-2.991045819256771</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>783965.5753643187</v>
       </c>
     </row>
     <row r="28">
@@ -7099,16 +7099,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>785222.3322188186</v>
+      </c>
+      <c r="I28" t="n">
         <v>0.1268515268335387</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>785222.3322188186</v>
       </c>
     </row>
     <row r="29">
@@ -7130,16 +7130,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>785565.6153804858</v>
+      </c>
+      <c r="I29" t="n">
         <v>0.03074894645891957</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>785565.6153804858</v>
       </c>
     </row>
     <row r="30">
@@ -7161,16 +7161,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>787306.9375502651</v>
+      </c>
+      <c r="I30" t="n">
         <v>0.1513226605986391</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>787306.9375502651</v>
       </c>
     </row>
     <row r="31">
@@ -7192,16 +7192,16 @@
         <v>161.54940689528</v>
       </c>
       <c r="F31" t="n">
+        <v>0.435459383193542</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-8077.470344764002</v>
+      </c>
+      <c r="H31" t="n">
+        <v>787007.135344934</v>
+      </c>
+      <c r="I31" t="n">
         <v>-0.01043522259407937</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.435459383193542</v>
-      </c>
-      <c r="H31" t="n">
-        <v>-8077.470344764002</v>
-      </c>
-      <c r="I31" t="n">
-        <v>787007.135344934</v>
       </c>
     </row>
     <row r="32">
@@ -7223,16 +7223,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>788354.4333239984</v>
+      </c>
+      <c r="I32" t="n">
         <v>0.06407668828348377</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>788354.4333239984</v>
       </c>
     </row>
     <row r="33">
@@ -7254,16 +7254,16 @@
         <v>157.3185228313832</v>
       </c>
       <c r="F33" t="n">
+        <v>0.4026540601608499</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-7865.926141569161</v>
+      </c>
+      <c r="H33" t="n">
+        <v>787967.3579290217</v>
+      </c>
+      <c r="I33" t="n">
         <v>-0.01026909048964185</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.4026540601608499</v>
-      </c>
-      <c r="H33" t="n">
-        <v>-7865.926141569161</v>
-      </c>
-      <c r="I33" t="n">
-        <v>787967.3579290217</v>
       </c>
     </row>
     <row r="34">
@@ -7285,16 +7285,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>794719.1771896001</v>
+      </c>
+      <c r="I34" t="n">
         <v>0.2261727731381183</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>794719.1771896001</v>
       </c>
     </row>
     <row r="35">
@@ -7316,16 +7316,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>799095.213727869</v>
+      </c>
+      <c r="I35" t="n">
         <v>0.1195497812828707</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>799095.213727869</v>
       </c>
     </row>
     <row r="36">
@@ -7347,16 +7347,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>809277.8024694663</v>
+      </c>
+      <c r="I36" t="n">
         <v>0.2484749664266772</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>809277.8024694663</v>
       </c>
     </row>
     <row r="37">
@@ -7378,16 +7378,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>817909.5733766183</v>
+      </c>
+      <c r="I37" t="n">
         <v>0.1687114289028197</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>817909.5733766183</v>
       </c>
     </row>
     <row r="38">
@@ -7409,16 +7409,16 @@
         <v>1009.972693816772</v>
       </c>
       <c r="F38" t="n">
+        <v>1.382664694953299</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-50498.63469083862</v>
+      </c>
+      <c r="H38" t="n">
+        <v>812916.6281433365</v>
+      </c>
+      <c r="I38" t="n">
         <v>-0.066610795378497</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.382664694953299</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-50498.63469083862</v>
-      </c>
-      <c r="I38" t="n">
-        <v>812916.6281433365</v>
       </c>
     </row>
     <row r="39">
@@ -7440,16 +7440,16 @@
         <v>1386.452778074019</v>
       </c>
       <c r="F39" t="n">
+        <v>2.104212638968795</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-69322.63890370095</v>
+      </c>
+      <c r="H39" t="n">
+        <v>801214.2717846143</v>
+      </c>
+      <c r="I39" t="n">
         <v>-0.09796643312148721</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2.104212638968795</v>
-      </c>
-      <c r="H39" t="n">
-        <v>-69322.63890370095</v>
-      </c>
-      <c r="I39" t="n">
-        <v>801214.2717846143</v>
       </c>
     </row>
     <row r="40">
@@ -7471,16 +7471,16 @@
         <v>327.7006742124644</v>
       </c>
       <c r="F40" t="n">
+        <v>-0.4849022507530207</v>
+      </c>
+      <c r="G40" t="n">
+        <v>16385.03371062322</v>
+      </c>
+      <c r="H40" t="n">
+        <v>805724.155560551</v>
+      </c>
+      <c r="I40" t="n">
         <v>0.02567005798153865</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-0.4849022507530207</v>
-      </c>
-      <c r="H40" t="n">
-        <v>16385.03371062322</v>
-      </c>
-      <c r="I40" t="n">
-        <v>805724.155560551</v>
       </c>
     </row>
     <row r="41">
@@ -7502,16 +7502,16 @@
         <v>2282.35966679768</v>
       </c>
       <c r="F41" t="n">
+        <v>-2.875925640296337</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>720217.4962320802</v>
+      </c>
+      <c r="I41" t="n">
         <v>0.1743114522696531</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-2.875925640296337</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>720217.4962320802</v>
       </c>
     </row>
     <row r="42">
@@ -7533,16 +7533,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>736750.5292059554</v>
+      </c>
+      <c r="I42" t="n">
         <v>0.2522630426196438</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>736750.5292059554</v>
       </c>
     </row>
     <row r="43">
@@ -7564,16 +7564,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>751642.8381242194</v>
+      </c>
+      <c r="I43" t="n">
         <v>0.1814544278927782</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>751642.8381242194</v>
       </c>
     </row>
     <row r="44">
@@ -7595,16 +7595,16 @@
         <v>2815.959493693511</v>
       </c>
       <c r="F44" t="n">
+        <v>3.055436970557674</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-140797.9746846755</v>
+      </c>
+      <c r="H44" t="n">
+        <v>727973.3438391823</v>
+      </c>
+      <c r="I44" t="n">
         <v>-0.2150642582844699</v>
-      </c>
-      <c r="G44" t="n">
-        <v>3.055436970557674</v>
-      </c>
-      <c r="H44" t="n">
-        <v>-140797.9746846755</v>
-      </c>
-      <c r="I44" t="n">
-        <v>727973.3438391823</v>
       </c>
     </row>
     <row r="45">
@@ -7626,16 +7626,16 @@
         <v>1368.834262329149</v>
       </c>
       <c r="F45" t="n">
+        <v>-1.31067975085261</v>
+      </c>
+      <c r="G45" t="n">
+        <v>68441.71311645747</v>
+      </c>
+      <c r="H45" t="n">
+        <v>757856.3280253721</v>
+      </c>
+      <c r="I45" t="n">
         <v>0.1331860072361891</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-1.31067975085261</v>
-      </c>
-      <c r="H45" t="n">
-        <v>68441.71311645747</v>
-      </c>
-      <c r="I45" t="n">
-        <v>757856.3280253721</v>
       </c>
     </row>
     <row r="46">
@@ -7657,16 +7657,16 @@
         <v>1841.914224652569</v>
       </c>
       <c r="F46" t="n">
+        <v>-1.522822880200097</v>
+      </c>
+      <c r="G46" t="n">
+        <v>92095.71123262846</v>
+      </c>
+      <c r="H46" t="n">
+        <v>787459.3679348198</v>
+      </c>
+      <c r="I46" t="n">
         <v>0.1581524524967889</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-1.522822880200097</v>
-      </c>
-      <c r="H46" t="n">
-        <v>92095.71123262846</v>
-      </c>
-      <c r="I46" t="n">
-        <v>787459.3679348198</v>
       </c>
     </row>
     <row r="47">
@@ -7688,16 +7688,16 @@
         <v>398.1680279360466</v>
       </c>
       <c r="F47" t="n">
+        <v>0.3392028612915741</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-19908.40139680233</v>
+      </c>
+      <c r="H47" t="n">
+        <v>783724.2916410456</v>
+      </c>
+      <c r="I47" t="n">
         <v>-0.02951937662968353</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.3392028612915741</v>
-      </c>
-      <c r="H47" t="n">
-        <v>-19908.40139680233</v>
-      </c>
-      <c r="I47" t="n">
-        <v>783724.2916410456</v>
       </c>
     </row>
     <row r="48">
@@ -7719,16 +7719,16 @@
         <v>357.3063190268091</v>
       </c>
       <c r="F48" t="n">
+        <v>0.3129341754495852</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-17865.31595134046</v>
+      </c>
+      <c r="H48" t="n">
+        <v>779839.9789238402</v>
+      </c>
+      <c r="I48" t="n">
         <v>-0.02729572450118338</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.3129341754495852</v>
-      </c>
-      <c r="H48" t="n">
-        <v>-17865.31595134046</v>
-      </c>
-      <c r="I48" t="n">
-        <v>779839.9789238402</v>
       </c>
     </row>
     <row r="49">
@@ -7750,16 +7750,16 @@
         <v>640.1899857949331</v>
       </c>
       <c r="F49" t="n">
+        <v>-0.5338468876245513</v>
+      </c>
+      <c r="G49" t="n">
+        <v>32009.49928974666</v>
+      </c>
+      <c r="H49" t="n">
+        <v>787679.8240548597</v>
+      </c>
+      <c r="I49" t="n">
         <v>0.05027846160064656</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-0.5338468876245513</v>
-      </c>
-      <c r="H49" t="n">
-        <v>32009.49928974666</v>
-      </c>
-      <c r="I49" t="n">
-        <v>787679.8240548597</v>
       </c>
     </row>
     <row r="50">
@@ -7781,16 +7781,16 @@
         <v>322.0486609864515</v>
       </c>
       <c r="F50" t="n">
+        <v>-0.2622374181456246</v>
+      </c>
+      <c r="G50" t="n">
+        <v>16102.43304932258</v>
+      </c>
+      <c r="H50" t="n">
+        <v>790868.2399635027</v>
+      </c>
+      <c r="I50" t="n">
         <v>0.02408186641030185</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-0.2622374181456246</v>
-      </c>
-      <c r="H50" t="n">
-        <v>16102.43304932258</v>
-      </c>
-      <c r="I50" t="n">
-        <v>790868.2399635027</v>
       </c>
     </row>
     <row r="51">
@@ -7812,16 +7812,16 @@
         <v>906.7796307250959</v>
       </c>
       <c r="F51" t="n">
+        <v>0.7907269853533534</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-45338.9815362548</v>
+      </c>
+      <c r="H51" t="n">
+        <v>782935.5923064224</v>
+      </c>
+      <c r="I51" t="n">
         <v>-0.06621185036464054</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.7907269853533534</v>
-      </c>
-      <c r="H51" t="n">
-        <v>-45338.9815362548</v>
-      </c>
-      <c r="I51" t="n">
-        <v>782935.5923064224</v>
       </c>
     </row>
     <row r="52">
@@ -7843,16 +7843,16 @@
         <v>1618.99035322524</v>
       </c>
       <c r="F52" t="n">
+        <v>1.616424119612473</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-80949.51766126198</v>
+      </c>
+      <c r="H52" t="n">
+        <v>763147.348617939</v>
+      </c>
+      <c r="I52" t="n">
         <v>-0.1265988824247084</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1.616424119612473</v>
-      </c>
-      <c r="H52" t="n">
-        <v>-80949.51766126198</v>
-      </c>
-      <c r="I52" t="n">
-        <v>763147.348617939</v>
       </c>
     </row>
     <row r="53">
@@ -7874,16 +7874,16 @@
         <v>1716.55331073359</v>
       </c>
       <c r="F53" t="n">
+        <v>-1.48552997599371</v>
+      </c>
+      <c r="G53" t="n">
+        <v>85827.6655366795</v>
+      </c>
+      <c r="H53" t="n">
+        <v>796319.9106493848</v>
+      </c>
+      <c r="I53" t="n">
         <v>0.1536841796932042</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-1.48552997599371</v>
-      </c>
-      <c r="H53" t="n">
-        <v>85827.6655366795</v>
-      </c>
-      <c r="I53" t="n">
-        <v>796319.9106493848</v>
       </c>
     </row>
     <row r="54">
@@ -7905,16 +7905,16 @@
         <v>371.0996353330049</v>
       </c>
       <c r="F54" t="n">
+        <v>-0.3121649743864745</v>
+      </c>
+      <c r="G54" t="n">
+        <v>18554.98176665025</v>
+      </c>
+      <c r="H54" t="n">
+        <v>801069.1426581332</v>
+      </c>
+      <c r="I54" t="n">
         <v>0.02879887069678325</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-0.3121649743864745</v>
-      </c>
-      <c r="H54" t="n">
-        <v>18554.98176665025</v>
-      </c>
-      <c r="I54" t="n">
-        <v>801069.1426581332</v>
       </c>
     </row>
     <row r="55">
@@ -7936,16 +7936,16 @@
         <v>2693.459162759223</v>
       </c>
       <c r="F55" t="n">
+        <v>2.843411441074298</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-134672.9581379611</v>
+      </c>
+      <c r="H55" t="n">
+        <v>770293.4503886227</v>
+      </c>
+      <c r="I55" t="n">
         <v>-0.2031724636211213</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2.843411441074298</v>
-      </c>
-      <c r="H55" t="n">
-        <v>-134672.9581379611</v>
-      </c>
-      <c r="I55" t="n">
-        <v>770293.4503886227</v>
       </c>
     </row>
     <row r="56">
@@ -7967,16 +7967,16 @@
         <v>2666.276989171927</v>
       </c>
       <c r="F56" t="n">
+        <v>3.765020277262312</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-133313.8494585963</v>
+      </c>
+      <c r="H56" t="n">
+        <v>706516.255743399</v>
+      </c>
+      <c r="I56" t="n">
         <v>-0.2524035054647789</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3.765020277262312</v>
-      </c>
-      <c r="H56" t="n">
-        <v>-133313.8494585963</v>
-      </c>
-      <c r="I56" t="n">
-        <v>706516.255743399</v>
       </c>
     </row>
     <row r="57">
@@ -7998,16 +7998,16 @@
         <v>218.0783741085626</v>
       </c>
       <c r="F57" t="n">
+        <v>-0.2996708351141729</v>
+      </c>
+      <c r="G57" t="n">
+        <v>10903.91870542813</v>
+      </c>
+      <c r="H57" t="n">
+        <v>715340.4311904556</v>
+      </c>
+      <c r="I57" t="n">
         <v>0.02761439049671607</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-0.2996708351141729</v>
-      </c>
-      <c r="H57" t="n">
-        <v>10903.91870542813</v>
-      </c>
-      <c r="I57" t="n">
-        <v>715340.4311904556</v>
       </c>
     </row>
     <row r="58">
@@ -8029,16 +8029,16 @@
         <v>40.20797405683077</v>
       </c>
       <c r="F58" t="n">
+        <v>-0.05497910231012288</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2010.398702841539</v>
+      </c>
+      <c r="H58" t="n">
+        <v>716914.4357763396</v>
+      </c>
+      <c r="I58" t="n">
         <v>0.004954557522731701</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-0.05497910231012288</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2010.398702841539</v>
-      </c>
-      <c r="I58" t="n">
-        <v>716914.4357763396</v>
       </c>
     </row>
     <row r="59">
@@ -8060,16 +8060,16 @@
         <v>724.1073886569272</v>
       </c>
       <c r="F59" t="n">
+        <v>-0.9093802486584938</v>
+      </c>
+      <c r="G59" t="n">
+        <v>36205.36943284636</v>
+      </c>
+      <c r="H59" t="n">
+        <v>745085.834758576</v>
+      </c>
+      <c r="I59" t="n">
         <v>0.08878697073172598</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-0.9093802486584938</v>
-      </c>
-      <c r="H59" t="n">
-        <v>36205.36943284636</v>
-      </c>
-      <c r="I59" t="n">
-        <v>745085.834758576</v>
       </c>
     </row>
     <row r="60">
@@ -8091,16 +8091,16 @@
         <v>768.2860106869277</v>
       </c>
       <c r="F60" t="n">
+        <v>1.056251515040632</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-38414.30053434639</v>
+      </c>
+      <c r="H60" t="n">
+        <v>718265.5742013052</v>
+      </c>
+      <c r="I60" t="n">
         <v>-0.08652194428286071</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1.056251515040632</v>
-      </c>
-      <c r="H60" t="n">
-        <v>-38414.30053434639</v>
-      </c>
-      <c r="I60" t="n">
-        <v>718265.5742013052</v>
       </c>
     </row>
     <row r="61">
@@ -8122,16 +8122,16 @@
         <v>218.9419329758569</v>
       </c>
       <c r="F61" t="n">
+        <v>0.3093548518258024</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-10947.09664879285</v>
+      </c>
+      <c r="H61" t="n">
+        <v>709606.3443288235</v>
+      </c>
+      <c r="I61" t="n">
         <v>-0.02699194460190716</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.3093548518258024</v>
-      </c>
-      <c r="H61" t="n">
-        <v>-10947.09664879285</v>
-      </c>
-      <c r="I61" t="n">
-        <v>709606.3443288235</v>
       </c>
     </row>
     <row r="62">
@@ -8153,16 +8153,16 @@
         <v>137.7393314258405</v>
       </c>
       <c r="F62" t="n">
+        <v>-0.191281072353657</v>
+      </c>
+      <c r="G62" t="n">
+        <v>6886.966571292025</v>
+      </c>
+      <c r="H62" t="n">
+        <v>715241.2113927349</v>
+      </c>
+      <c r="I62" t="n">
         <v>0.01745206254531318</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-0.191281072353657</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6886.966571292025</v>
-      </c>
-      <c r="I62" t="n">
-        <v>715241.2113927349</v>
       </c>
     </row>
     <row r="63">
@@ -8184,16 +8184,16 @@
         <v>234.4868801675836</v>
       </c>
       <c r="F63" t="n">
+        <v>0.3354309442229296</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-11724.34400837918</v>
+      </c>
+      <c r="H63" t="n">
+        <v>705845.5187305785</v>
+      </c>
+      <c r="I63" t="n">
         <v>-0.0292007080376411</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.3354309442229296</v>
-      </c>
-      <c r="H63" t="n">
-        <v>-11724.34400837918</v>
-      </c>
-      <c r="I63" t="n">
-        <v>705845.5187305785</v>
       </c>
     </row>
     <row r="64">
@@ -8215,16 +8215,16 @@
         <v>558.493818971666</v>
       </c>
       <c r="F64" t="n">
+        <v>0.8605718947164428</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-27924.6909485833</v>
+      </c>
+      <c r="H64" t="n">
+        <v>682643.9908605965</v>
+      </c>
+      <c r="I64" t="n">
         <v>-0.07164134879050686</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.8605718947164428</v>
-      </c>
-      <c r="H64" t="n">
-        <v>-27924.6909485833</v>
-      </c>
-      <c r="I64" t="n">
-        <v>682643.9908605965</v>
       </c>
     </row>
     <row r="65">
@@ -8246,16 +8246,16 @@
         <v>815.6675850615039</v>
       </c>
       <c r="F65" t="n">
+        <v>-1.129540976637161</v>
+      </c>
+      <c r="G65" t="n">
+        <v>40783.3792530752</v>
+      </c>
+      <c r="H65" t="n">
+        <v>719613.6018195963</v>
+      </c>
+      <c r="I65" t="n">
         <v>0.1127048998556625</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-1.129540976637161</v>
-      </c>
-      <c r="H65" t="n">
-        <v>40783.3792530752</v>
-      </c>
-      <c r="I65" t="n">
-        <v>719613.6018195963</v>
       </c>
     </row>
     <row r="66">
@@ -8277,16 +8277,16 @@
         <v>1029.418740550051</v>
       </c>
       <c r="F66" t="n">
+        <v>-1.263968377799995</v>
+      </c>
+      <c r="G66" t="n">
+        <v>51470.93702750256</v>
+      </c>
+      <c r="H66" t="n">
+        <v>761162.1700335216</v>
+      </c>
+      <c r="I66" t="n">
         <v>0.1278326122078212</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-1.263968377799995</v>
-      </c>
-      <c r="H66" t="n">
-        <v>51470.93702750256</v>
-      </c>
-      <c r="I66" t="n">
-        <v>761162.1700335216</v>
       </c>
     </row>
     <row r="67">
@@ -8308,16 +8308,16 @@
         <v>884.0903255771966</v>
       </c>
       <c r="F67" t="n">
+        <v>-0.9892331419397167</v>
+      </c>
+      <c r="G67" t="n">
+        <v>44204.51627885983</v>
+      </c>
+      <c r="H67" t="n">
+        <v>791935.0169029712</v>
+      </c>
+      <c r="I67" t="n">
         <v>0.09734229542630737</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-0.9892331419397167</v>
-      </c>
-      <c r="H67" t="n">
-        <v>44204.51627885983</v>
-      </c>
-      <c r="I67" t="n">
-        <v>791935.0169029712</v>
       </c>
     </row>
     <row r="68">
@@ -8339,16 +8339,16 @@
         <v>734.6512138177297</v>
       </c>
       <c r="F68" t="n">
+        <v>-0.7655878156104948</v>
+      </c>
+      <c r="G68" t="n">
+        <v>36732.56069088649</v>
+      </c>
+      <c r="H68" t="n">
+        <v>814313.0052630081</v>
+      </c>
+      <c r="I68" t="n">
         <v>0.07371298981751925</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-0.7655878156104948</v>
-      </c>
-      <c r="H68" t="n">
-        <v>36732.56069088649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>814313.0052630081</v>
       </c>
     </row>
     <row r="69">
@@ -8370,16 +8370,16 @@
         <v>517.0078770181793</v>
       </c>
       <c r="F69" t="n">
+        <v>-0.5139485472107153</v>
+      </c>
+      <c r="G69" t="n">
+        <v>25850.39385090897</v>
+      </c>
+      <c r="H69" t="n">
+        <v>828322.2276589982</v>
+      </c>
+      <c r="I69" t="n">
         <v>0.04831386471246879</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-0.5139485472107153</v>
-      </c>
-      <c r="H69" t="n">
-        <v>25850.39385090897</v>
-      </c>
-      <c r="I69" t="n">
-        <v>828322.2276589982</v>
       </c>
     </row>
     <row r="70">
@@ -8401,16 +8401,16 @@
         <v>103.9663223519441</v>
       </c>
       <c r="F70" t="n">
+        <v>0.1043179105837995</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-5198.316117597207</v>
+      </c>
+      <c r="H70" t="n">
+        <v>825739.8647704765</v>
+      </c>
+      <c r="I70" t="n">
         <v>-0.00926778544318777</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.1043179105837995</v>
-      </c>
-      <c r="H70" t="n">
-        <v>-5198.316117597207</v>
-      </c>
-      <c r="I70" t="n">
-        <v>825739.8647704765</v>
       </c>
     </row>
     <row r="71">
@@ -8432,16 +8432,16 @@
         <v>667.7680999109948</v>
       </c>
       <c r="F71" t="n">
+        <v>-0.6320507285282621</v>
+      </c>
+      <c r="G71" t="n">
+        <v>33388.40499554974</v>
+      </c>
+      <c r="H71" t="n">
+        <v>842632.2776838716</v>
+      </c>
+      <c r="I71" t="n">
         <v>0.06008314715776053</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-0.6320507285282621</v>
-      </c>
-      <c r="H71" t="n">
-        <v>33388.40499554974</v>
-      </c>
-      <c r="I71" t="n">
-        <v>842632.2776838716</v>
       </c>
     </row>
     <row r="72">
@@ -8463,16 +8463,16 @@
         <v>1299.915937863677</v>
       </c>
       <c r="F72" t="n">
+        <v>1.382972906610595</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-64995.79689318383</v>
+      </c>
+      <c r="H72" t="n">
+        <v>813358.6717905917</v>
+      </c>
+      <c r="I72" t="n">
         <v>-0.1103322164493196</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1.382972906610595</v>
-      </c>
-      <c r="H72" t="n">
-        <v>-64995.79689318383</v>
-      </c>
-      <c r="I72" t="n">
-        <v>813358.6717905917</v>
       </c>
     </row>
     <row r="73">
@@ -8494,16 +8494,16 @@
         <v>274.0555186576851</v>
       </c>
       <c r="F73" t="n">
+        <v>-0.2841371302444537</v>
+      </c>
+      <c r="G73" t="n">
+        <v>13702.77593288426</v>
+      </c>
+      <c r="H73" t="n">
+        <v>821195.6602038632</v>
+      </c>
+      <c r="I73" t="n">
         <v>0.02614554877823088</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-0.2841371302444537</v>
-      </c>
-      <c r="H73" t="n">
-        <v>13702.77593288426</v>
-      </c>
-      <c r="I73" t="n">
-        <v>821195.6602038632</v>
       </c>
     </row>
     <row r="74">
@@ -8525,16 +8525,16 @@
         <v>916.5341215014616</v>
       </c>
       <c r="F74" t="n">
+        <v>1.038765320227158</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-45826.70607507308</v>
+      </c>
+      <c r="H74" t="n">
+        <v>796130.4099074984</v>
+      </c>
+      <c r="I74" t="n">
         <v>-0.08521163182056367</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1.038765320227158</v>
-      </c>
-      <c r="H74" t="n">
-        <v>-45826.70607507308</v>
-      </c>
-      <c r="I74" t="n">
-        <v>796130.4099074984</v>
       </c>
     </row>
     <row r="75">
@@ -8556,16 +8556,16 @@
         <v>1132.170907486941</v>
       </c>
       <c r="F75" t="n">
+        <v>-1.150749460921982</v>
+      </c>
+      <c r="G75" t="n">
+        <v>56608.54537434706</v>
+      </c>
+      <c r="H75" t="n">
+        <v>832260.4350695333</v>
+      </c>
+      <c r="I75" t="n">
         <v>0.1150645654140241</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-1.150749460921982</v>
-      </c>
-      <c r="H75" t="n">
-        <v>56608.54537434706</v>
-      </c>
-      <c r="I75" t="n">
-        <v>832260.4350695333</v>
       </c>
     </row>
     <row r="76">
@@ -8587,16 +8587,16 @@
         <v>1485.039777231222</v>
       </c>
       <c r="F76" t="n">
+        <v>-1.329462182816366</v>
+      </c>
+      <c r="G76" t="n">
+        <v>74251.9888615611</v>
+      </c>
+      <c r="H76" t="n">
+        <v>872142.3797497727</v>
+      </c>
+      <c r="I76" t="n">
         <v>0.1353529364340836</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-1.329462182816366</v>
-      </c>
-      <c r="H76" t="n">
-        <v>74251.9888615611</v>
-      </c>
-      <c r="I76" t="n">
-        <v>872142.3797497727</v>
       </c>
     </row>
     <row r="77">
@@ -8618,16 +8618,16 @@
         <v>1550.91676637014</v>
       </c>
       <c r="F77" t="n">
+        <v>-1.234709975126756</v>
+      </c>
+      <c r="G77" t="n">
+        <v>77545.83831850701</v>
+      </c>
+      <c r="H77" t="n">
+        <v>904733.6467972748</v>
+      </c>
+      <c r="I77" t="n">
         <v>0.1245051165049377</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-1.234709975126756</v>
-      </c>
-      <c r="H77" t="n">
-        <v>77545.83831850701</v>
-      </c>
-      <c r="I77" t="n">
-        <v>904733.6467972748</v>
       </c>
     </row>
     <row r="78">
@@ -8649,16 +8649,16 @@
         <v>149.0397415288652</v>
       </c>
       <c r="F78" t="n">
+        <v>0.1199289916933027</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-7451.987076443259</v>
+      </c>
+      <c r="H78" t="n">
+        <v>902410.2783802703</v>
+      </c>
+      <c r="I78" t="n">
         <v>-0.01063994445878697</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.1199289916933027</v>
-      </c>
-      <c r="H78" t="n">
-        <v>-7451.987076443259</v>
-      </c>
-      <c r="I78" t="n">
-        <v>902410.2783802703</v>
       </c>
     </row>
     <row r="79">
@@ -8680,16 +8680,16 @@
         <v>97.06987243887157</v>
       </c>
       <c r="F79" t="n">
+        <v>-0.07756668108377734</v>
+      </c>
+      <c r="G79" t="n">
+        <v>4853.493621943579</v>
+      </c>
+      <c r="H79" t="n">
+        <v>903974.6450746523</v>
+      </c>
+      <c r="I79" t="n">
         <v>0.007004342254646794</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-0.07756668108377734</v>
-      </c>
-      <c r="H79" t="n">
-        <v>4853.493621943579</v>
-      </c>
-      <c r="I79" t="n">
-        <v>903974.6450746523</v>
       </c>
     </row>
     <row r="80">
@@ -8711,16 +8711,16 @@
         <v>460.5444885964724</v>
       </c>
       <c r="F80" t="n">
+        <v>-0.3562556200070152</v>
+      </c>
+      <c r="G80" t="n">
+        <v>23027.22442982362</v>
+      </c>
+      <c r="H80" t="n">
+        <v>911239.7607979666</v>
+      </c>
+      <c r="I80" t="n">
         <v>0.03300069955178664</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-0.3562556200070152</v>
-      </c>
-      <c r="H80" t="n">
-        <v>23027.22442982362</v>
-      </c>
-      <c r="I80" t="n">
-        <v>911239.7607979666</v>
       </c>
     </row>
     <row r="81">
@@ -8742,16 +8742,16 @@
         <v>495.502501757746</v>
       </c>
       <c r="F81" t="n">
+        <v>-0.3705608181813833</v>
+      </c>
+      <c r="G81" t="n">
+        <v>24775.1250878873</v>
+      </c>
+      <c r="H81" t="n">
+        <v>918280.6935677526</v>
+      </c>
+      <c r="I81" t="n">
         <v>0.03437136602609216</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-0.3705608181813833</v>
-      </c>
-      <c r="H81" t="n">
-        <v>24775.1250878873</v>
-      </c>
-      <c r="I81" t="n">
-        <v>918280.6935677526</v>
       </c>
     </row>
     <row r="82">
@@ -8773,16 +8773,16 @@
         <v>1550.862457826741</v>
       </c>
       <c r="F82" t="n">
+        <v>1.294436019579668</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-77543.12289133703</v>
+      </c>
+      <c r="H82" t="n">
+        <v>898768.5963218356</v>
+      </c>
+      <c r="I82" t="n">
         <v>-0.1040034472557283</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1.294436019579668</v>
-      </c>
-      <c r="H82" t="n">
-        <v>-77543.12289133703</v>
-      </c>
-      <c r="I82" t="n">
-        <v>898768.5963218356</v>
       </c>
     </row>
     <row r="83">
@@ -8804,16 +8804,16 @@
         <v>322.0197918638339</v>
       </c>
       <c r="F83" t="n">
+        <v>0.2754136012005454</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-16100.98959319169</v>
+      </c>
+      <c r="H83" t="n">
+        <v>892885.5653449915</v>
+      </c>
+      <c r="I83" t="n">
         <v>-0.0241018665614516</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.2754136012005454</v>
-      </c>
-      <c r="H83" t="n">
-        <v>-16100.98959319169</v>
-      </c>
-      <c r="I83" t="n">
-        <v>892885.5653449915</v>
       </c>
     </row>
     <row r="84">
@@ -8835,16 +8835,16 @@
         <v>1793.009346045656</v>
       </c>
       <c r="F84" t="n">
+        <v>1.778005911675164</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-89650.46730228282</v>
+      </c>
+      <c r="H84" t="n">
+        <v>857958.9658358202</v>
+      </c>
+      <c r="I84" t="n">
         <v>-0.1375137668598857</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1.778005911675164</v>
-      </c>
-      <c r="H84" t="n">
-        <v>-89650.46730228282</v>
-      </c>
-      <c r="I84" t="n">
-        <v>857958.9658358202</v>
       </c>
     </row>
     <row r="85">
@@ -8866,16 +8866,16 @@
         <v>159.5964957780078</v>
       </c>
       <c r="F85" t="n">
+        <v>-0.1560464673394769</v>
+      </c>
+      <c r="G85" t="n">
+        <v>7979.824788900389</v>
+      </c>
+      <c r="H85" t="n">
+        <v>862314.6445397924</v>
+      </c>
+      <c r="I85" t="n">
         <v>0.01419171251999541</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-0.1560464673394769</v>
-      </c>
-      <c r="H85" t="n">
-        <v>7979.824788900389</v>
-      </c>
-      <c r="I85" t="n">
-        <v>862314.6445397924</v>
       </c>
     </row>
     <row r="86">
@@ -8897,16 +8897,16 @@
         <v>775.5351349963207</v>
       </c>
       <c r="F86" t="n">
+        <v>0.8136075786886605</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-38776.75674981604</v>
+      </c>
+      <c r="H86" t="n">
+        <v>841680.6357563739</v>
+      </c>
+      <c r="I86" t="n">
         <v>-0.06799748881631405</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.8136075786886605</v>
-      </c>
-      <c r="H86" t="n">
-        <v>-38776.75674981604</v>
-      </c>
-      <c r="I86" t="n">
-        <v>841680.6357563739</v>
       </c>
     </row>
     <row r="87">
@@ -8928,16 +8928,16 @@
         <v>932.0833723203785</v>
       </c>
       <c r="F87" t="n">
+        <v>-0.8990106257461953</v>
+      </c>
+      <c r="G87" t="n">
+        <v>46604.16861601893</v>
+      </c>
+      <c r="H87" t="n">
+        <v>869811.9573909878</v>
+      </c>
+      <c r="I87" t="n">
         <v>0.08768576077788602</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-0.8990106257461953</v>
-      </c>
-      <c r="H87" t="n">
-        <v>46604.16861601893</v>
-      </c>
-      <c r="I87" t="n">
-        <v>869811.9573909878</v>
       </c>
     </row>
     <row r="88">
@@ -8959,16 +8959,16 @@
         <v>787.2304000489654</v>
       </c>
       <c r="F88" t="n">
+        <v>0.814774022616417</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-39361.52000244827</v>
+      </c>
+      <c r="H88" t="n">
+        <v>849162.1972657784</v>
+      </c>
+      <c r="I88" t="n">
         <v>-0.06808833705304759</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.814774022616417</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-39361.52000244827</v>
-      </c>
-      <c r="I88" t="n">
-        <v>849162.1972657784</v>
       </c>
     </row>
     <row r="89">
@@ -8990,16 +8990,16 @@
         <v>1236.539042053608</v>
       </c>
       <c r="F89" t="n">
+        <v>1.445718905877637</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-61826.95210268041</v>
+      </c>
+      <c r="H89" t="n">
+        <v>812299.7458560744</v>
+      </c>
+      <c r="I89" t="n">
         <v>-0.1147635455088789</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1.445718905877637</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-61826.95210268041</v>
-      </c>
-      <c r="I89" t="n">
-        <v>812299.7458560744</v>
       </c>
     </row>
     <row r="90">
@@ -9021,16 +9021,16 @@
         <v>274.8971497365349</v>
       </c>
       <c r="F90" t="n">
+        <v>-0.3123967442423403</v>
+      </c>
+      <c r="G90" t="n">
+        <v>13744.85748682675</v>
+      </c>
+      <c r="H90" t="n">
+        <v>822240.9700343638</v>
+      </c>
+      <c r="I90" t="n">
         <v>0.02882086894008166</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-0.3123967442423403</v>
-      </c>
-      <c r="H90" t="n">
-        <v>13744.85748682675</v>
-      </c>
-      <c r="I90" t="n">
-        <v>822240.9700343638</v>
       </c>
     </row>
     <row r="91">
@@ -9052,16 +9052,16 @@
         <v>1557.222811432785</v>
       </c>
       <c r="F91" t="n">
+        <v>2.103442482206454</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-77861.14057163922</v>
+      </c>
+      <c r="H91" t="n">
+        <v>768063.989403857</v>
+      </c>
+      <c r="I91" t="n">
         <v>-0.1586893661906193</v>
-      </c>
-      <c r="G91" t="n">
-        <v>2.103442482206454</v>
-      </c>
-      <c r="H91" t="n">
-        <v>-77861.14057163922</v>
-      </c>
-      <c r="I91" t="n">
-        <v>768063.989403857</v>
       </c>
     </row>
     <row r="92">
@@ -9083,16 +9083,16 @@
         <v>374.274016690955</v>
       </c>
       <c r="F92" t="n">
+        <v>-0.4836310897246017</v>
+      </c>
+      <c r="G92" t="n">
+        <v>18713.70083454775</v>
+      </c>
+      <c r="H92" t="n">
+        <v>784544.4828370863</v>
+      </c>
+      <c r="I92" t="n">
         <v>0.04533466056403973</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-0.4836310897246017</v>
-      </c>
-      <c r="H92" t="n">
-        <v>18713.70083454775</v>
-      </c>
-      <c r="I92" t="n">
-        <v>784544.4828370863</v>
       </c>
     </row>
     <row r="93">
@@ -9114,16 +9114,16 @@
         <v>1021.058954980198</v>
       </c>
       <c r="F93" t="n">
+        <v>-1.179808682123099</v>
+      </c>
+      <c r="G93" t="n">
+        <v>51052.94774900992</v>
+      </c>
+      <c r="H93" t="n">
+        <v>827335.1944325932</v>
+      </c>
+      <c r="I93" t="n">
         <v>0.1183140056684479</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-1.179808682123099</v>
-      </c>
-      <c r="H93" t="n">
-        <v>51052.94774900992</v>
-      </c>
-      <c r="I93" t="n">
-        <v>827335.1944325932</v>
       </c>
     </row>
     <row r="94">
@@ -9145,16 +9145,16 @@
         <v>56.75557534928981</v>
       </c>
       <c r="F94" t="n">
+        <v>0.06596761774178854</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-2837.778767464491</v>
+      </c>
+      <c r="H94" t="n">
+        <v>825250.8954307704</v>
+      </c>
+      <c r="I94" t="n">
         <v>-0.005880714644654701</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.06596761774178854</v>
-      </c>
-      <c r="H94" t="n">
-        <v>-2837.778767464491</v>
-      </c>
-      <c r="I94" t="n">
-        <v>825250.8954307704</v>
       </c>
     </row>
     <row r="95">
@@ -9176,16 +9176,16 @@
         <v>849.8444477851215</v>
       </c>
       <c r="F95" t="n">
+        <v>1.083781862118303</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-42492.22238925607</v>
+      </c>
+      <c r="H95" t="n">
+        <v>793794.7637591789</v>
+      </c>
+      <c r="I95" t="n">
         <v>-0.08857731632621361</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1.083781862118303</v>
-      </c>
-      <c r="H95" t="n">
-        <v>-42492.22238925607</v>
-      </c>
-      <c r="I95" t="n">
-        <v>793794.7637591789</v>
       </c>
     </row>
     <row r="96">
@@ -9207,16 +9207,16 @@
         <v>163.2257234196063</v>
       </c>
       <c r="F96" t="n">
+        <v>0.2121163787771948</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-8161.286170980313</v>
+      </c>
+      <c r="H96" t="n">
+        <v>786975.831219187</v>
+      </c>
+      <c r="I96" t="n">
         <v>-0.01866602510374801</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.2121163787771948</v>
-      </c>
-      <c r="H96" t="n">
-        <v>-8161.286170980313</v>
-      </c>
-      <c r="I96" t="n">
-        <v>786975.831219187</v>
       </c>
     </row>
     <row r="97">
@@ -9238,16 +9238,16 @@
         <v>164.6123766784775</v>
       </c>
       <c r="F97" t="n">
+        <v>-0.2098920842624092</v>
+      </c>
+      <c r="G97" t="n">
+        <v>8230.618833923872</v>
+      </c>
+      <c r="H97" t="n">
+        <v>794006.1168078243</v>
+      </c>
+      <c r="I97" t="n">
         <v>0.0191826628557263</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-0.2098920842624092</v>
-      </c>
-      <c r="H97" t="n">
-        <v>8230.618833923872</v>
-      </c>
-      <c r="I97" t="n">
-        <v>794006.1168078243</v>
       </c>
     </row>
     <row r="98">
@@ -9269,16 +9269,16 @@
         <v>132.678787022699</v>
       </c>
       <c r="F98" t="n">
+        <v>0.1717805370680944</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-6633.939351134949</v>
+      </c>
+      <c r="H98" t="n">
+        <v>788462.0191039144</v>
+      </c>
+      <c r="I98" t="n">
         <v>-0.01517035953885177</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.1717805370680944</v>
-      </c>
-      <c r="H98" t="n">
-        <v>-6633.939351134949</v>
-      </c>
-      <c r="I98" t="n">
-        <v>788462.0191039144</v>
       </c>
     </row>
     <row r="99">
@@ -9300,16 +9300,16 @@
         <v>773.7462894562336</v>
       </c>
       <c r="F99" t="n">
+        <v>-0.9192029788886122</v>
+      </c>
+      <c r="G99" t="n">
+        <v>38687.31447281168</v>
+      </c>
+      <c r="H99" t="n">
+        <v>821377.698344439</v>
+      </c>
+      <c r="I99" t="n">
         <v>0.08983216148366589</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-0.9192029788886122</v>
-      </c>
-      <c r="H99" t="n">
-        <v>38687.31447281168</v>
-      </c>
-      <c r="I99" t="n">
-        <v>821377.698344439</v>
       </c>
     </row>
     <row r="100">
@@ -9331,16 +9331,16 @@
         <v>1268.948122203622</v>
       </c>
       <c r="F100" t="n">
+        <v>-1.327979515033742</v>
+      </c>
+      <c r="G100" t="n">
+        <v>63447.40611018111</v>
+      </c>
+      <c r="H100" t="n">
+        <v>870234.3752450173</v>
+      </c>
+      <c r="I100" t="n">
         <v>0.1351815798168822</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-1.327979515033742</v>
-      </c>
-      <c r="H100" t="n">
-        <v>63447.40611018111</v>
-      </c>
-      <c r="I100" t="n">
-        <v>870234.3752450173</v>
       </c>
     </row>
     <row r="101">
@@ -9362,16 +9362,16 @@
         <v>85.70354469552511</v>
       </c>
       <c r="F101" t="n">
+        <v>0.0904176796389404</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-4285.177234776255</v>
+      </c>
+      <c r="H101" t="n">
+        <v>867434.7306375747</v>
+      </c>
+      <c r="I101" t="n">
         <v>-0.008042796856367366</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.0904176796389404</v>
-      </c>
-      <c r="H101" t="n">
-        <v>-4285.177234776255</v>
-      </c>
-      <c r="I101" t="n">
-        <v>867434.7306375747</v>
       </c>
     </row>
     <row r="102">
@@ -9393,16 +9393,16 @@
         <v>965.9226973078682</v>
       </c>
       <c r="F102" t="n">
+        <v>1.121541415880126</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-48296.13486539341</v>
+      </c>
+      <c r="H102" t="n">
+        <v>835497.5530584485</v>
+      </c>
+      <c r="I102" t="n">
         <v>-0.09138138807164115</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1.121541415880126</v>
-      </c>
-      <c r="H102" t="n">
-        <v>-48296.13486539341</v>
-      </c>
-      <c r="I102" t="n">
-        <v>835497.5530584485</v>
       </c>
     </row>
     <row r="103">
@@ -9424,16 +9424,16 @@
         <v>564.3726419848199</v>
       </c>
       <c r="F103" t="n">
+        <v>0.6962090124247469</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-28218.63209924099</v>
+      </c>
+      <c r="H103" t="n">
+        <v>814055.9508878251</v>
+      </c>
+      <c r="I103" t="n">
         <v>-0.05876242419640573</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.6962090124247469</v>
-      </c>
-      <c r="H103" t="n">
-        <v>-28218.63209924099</v>
-      </c>
-      <c r="I103" t="n">
-        <v>814055.9508878251</v>
       </c>
     </row>
     <row r="104">
@@ -9455,16 +9455,16 @@
         <v>56.57655037550568</v>
       </c>
       <c r="F104" t="n">
+        <v>0.07023227379974768</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-2828.827518775284</v>
+      </c>
+      <c r="H104" t="n">
+        <v>811733.424458639</v>
+      </c>
+      <c r="I104" t="n">
         <v>-0.00625851010858574</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.07023227379974768</v>
-      </c>
-      <c r="H104" t="n">
-        <v>-2828.827518775284</v>
-      </c>
-      <c r="I104" t="n">
-        <v>811733.424458639</v>
       </c>
     </row>
     <row r="105">
@@ -9486,16 +9486,16 @@
         <v>227.6803626352251</v>
       </c>
       <c r="F105" t="n">
+        <v>0.289984495179033</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-11384.01813176125</v>
+      </c>
+      <c r="H105" t="n">
+        <v>802316.6462066669</v>
+      </c>
+      <c r="I105" t="n">
         <v>-0.02534467030825889</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.289984495179033</v>
-      </c>
-      <c r="H105" t="n">
-        <v>-11384.01813176125</v>
-      </c>
-      <c r="I105" t="n">
-        <v>802316.6462066669</v>
       </c>
     </row>
     <row r="106">
@@ -9517,16 +9517,16 @@
         <v>1004.142884911368</v>
       </c>
       <c r="F106" t="n">
+        <v>1.444597152034443</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-50207.14424556842</v>
+      </c>
+      <c r="H106" t="n">
+        <v>759506.1947589237</v>
+      </c>
+      <c r="I106" t="n">
         <v>-0.1146847111342355</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1.444597152034443</v>
-      </c>
-      <c r="H106" t="n">
-        <v>-50207.14424556842</v>
-      </c>
-      <c r="I106" t="n">
-        <v>759506.1947589237</v>
       </c>
     </row>
     <row r="107">
@@ -9548,16 +9548,16 @@
         <v>627.1418820221546</v>
       </c>
       <c r="F107" t="n">
+        <v>0.9816504262840239</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-31357.09410110773</v>
+      </c>
+      <c r="H107" t="n">
+        <v>728787.9462426705</v>
+      </c>
+      <c r="I107" t="n">
         <v>-0.08090546352270776</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.9816504262840239</v>
-      </c>
-      <c r="H107" t="n">
-        <v>-31357.09410110773</v>
-      </c>
-      <c r="I107" t="n">
-        <v>728787.9462426705</v>
       </c>
     </row>
     <row r="108">
@@ -9579,16 +9579,16 @@
         <v>226.4417191035461</v>
       </c>
       <c r="F108" t="n">
+        <v>0.3660793524343299</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-11322.0859551773</v>
+      </c>
+      <c r="H108" t="n">
+        <v>716719.8076110273</v>
+      </c>
+      <c r="I108" t="n">
         <v>-0.03178398186624792</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.3660793524343299</v>
-      </c>
-      <c r="H108" t="n">
-        <v>-11322.0859551773</v>
-      </c>
-      <c r="I108" t="n">
-        <v>716719.8076110273</v>
       </c>
     </row>
     <row r="109">
@@ -9610,16 +9610,16 @@
         <v>197.0953763478146</v>
       </c>
       <c r="F109" t="n">
+        <v>0.3280084734933287</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-9854.76881739073</v>
+      </c>
+      <c r="H109" t="n">
+        <v>705898.6368999206</v>
+      </c>
+      <c r="I109" t="n">
         <v>-0.02857301268177549</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.3280084734933287</v>
-      </c>
-      <c r="H109" t="n">
-        <v>-9854.76881739073</v>
-      </c>
-      <c r="I109" t="n">
-        <v>705898.6368999206</v>
       </c>
     </row>
     <row r="110">
@@ -9641,16 +9641,16 @@
         <v>106.2634078284803</v>
       </c>
       <c r="F110" t="n">
+        <v>-0.1740841722645997</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5313.170391424012</v>
+      </c>
+      <c r="H110" t="n">
+        <v>711885.9931690171</v>
+      </c>
+      <c r="I110" t="n">
         <v>0.01585817377669631</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-0.1740841722645997</v>
-      </c>
-      <c r="H110" t="n">
-        <v>5313.170391424012</v>
-      </c>
-      <c r="I110" t="n">
-        <v>711885.9931690171</v>
       </c>
     </row>
     <row r="111">
@@ -9672,16 +9672,16 @@
         <v>722.0594424568671</v>
       </c>
       <c r="F111" t="n">
+        <v>1.323265447988473</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-36102.97212284336</v>
+      </c>
+      <c r="H111" t="n">
+        <v>671754.2485406329</v>
+      </c>
+      <c r="I111" t="n">
         <v>-0.1060740877519165</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1.323265447988473</v>
-      </c>
-      <c r="H111" t="n">
-        <v>-36102.97212284336</v>
-      </c>
-      <c r="I111" t="n">
-        <v>671754.2485406329</v>
       </c>
     </row>
     <row r="112">
@@ -9703,16 +9703,16 @@
         <v>1407.431155000291</v>
       </c>
       <c r="F112" t="n">
+        <v>3.355368280538531</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-70371.55775001457</v>
+      </c>
+      <c r="H112" t="n">
+        <v>585346.4991059485</v>
+      </c>
+      <c r="I112" t="n">
         <v>-0.2312927329707847</v>
-      </c>
-      <c r="G112" t="n">
-        <v>3.355368280538531</v>
-      </c>
-      <c r="H112" t="n">
-        <v>-70371.55775001457</v>
-      </c>
-      <c r="I112" t="n">
-        <v>585346.4991059485</v>
       </c>
     </row>
     <row r="113">
@@ -9734,16 +9734,16 @@
         <v>108.0726995804389</v>
       </c>
       <c r="F113" t="n">
+        <v>-0.2518310008437405</v>
+      </c>
+      <c r="G113" t="n">
+        <v>5403.634979021945</v>
+      </c>
+      <c r="H113" t="n">
+        <v>593574.8653233681</v>
+      </c>
+      <c r="I113" t="n">
         <v>0.02310414176477938</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-0.2518310008437405</v>
-      </c>
-      <c r="H113" t="n">
-        <v>5403.634979021945</v>
-      </c>
-      <c r="I113" t="n">
-        <v>593574.8653233681</v>
       </c>
     </row>
     <row r="114">
@@ -9765,16 +9765,16 @@
         <v>393.931875068687</v>
       </c>
       <c r="F114" t="n">
+        <v>1.000277120863194</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-19696.59375343435</v>
+      </c>
+      <c r="H114" t="n">
+        <v>564017.8465813103</v>
+      </c>
+      <c r="I114" t="n">
         <v>-0.08231426813162931</v>
-      </c>
-      <c r="G114" t="n">
-        <v>1.000277120863194</v>
-      </c>
-      <c r="H114" t="n">
-        <v>-19696.59375343435</v>
-      </c>
-      <c r="I114" t="n">
-        <v>564017.8465813103</v>
       </c>
     </row>
     <row r="115">
@@ -9796,16 +9796,16 @@
         <v>354.8134150994855</v>
       </c>
       <c r="F115" t="n">
+        <v>-0.8336000721162896</v>
+      </c>
+      <c r="G115" t="n">
+        <v>17740.67075497428</v>
+      </c>
+      <c r="H115" t="n">
+        <v>592199.2472947881</v>
+      </c>
+      <c r="I115" t="n">
         <v>0.08079045429067551</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-0.8336000721162896</v>
-      </c>
-      <c r="H115" t="n">
-        <v>17740.67075497428</v>
-      </c>
-      <c r="I115" t="n">
-        <v>592199.2472947881</v>
       </c>
     </row>
     <row r="116">
@@ -9827,16 +9827,16 @@
         <v>16.94174162603349</v>
       </c>
       <c r="F116" t="n">
+        <v>0.03994557188233822</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-847.0870813016746</v>
+      </c>
+      <c r="H116" t="n">
+        <v>590915.6873972667</v>
+      </c>
+      <c r="I116" t="n">
         <v>-0.003569246747361774</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.03994557188233822</v>
-      </c>
-      <c r="H116" t="n">
-        <v>-847.0870813016746</v>
-      </c>
-      <c r="I116" t="n">
-        <v>590915.6873972667</v>
       </c>
     </row>
     <row r="117">
@@ -9858,16 +9858,16 @@
         <v>415.3976687934068</v>
       </c>
       <c r="F117" t="n">
+        <v>-0.900355895099635</v>
+      </c>
+      <c r="G117" t="n">
+        <v>20769.88343967034</v>
+      </c>
+      <c r="H117" t="n">
+        <v>622460.4382521218</v>
+      </c>
+      <c r="I117" t="n">
         <v>0.08782849691184573</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-0.900355895099635</v>
-      </c>
-      <c r="H117" t="n">
-        <v>20769.88343967034</v>
-      </c>
-      <c r="I117" t="n">
-        <v>622460.4382521218</v>
       </c>
     </row>
     <row r="118">
@@ -9889,16 +9889,16 @@
         <v>166.0372823782604</v>
       </c>
       <c r="F118" t="n">
+        <v>-0.3486277213061141</v>
+      </c>
+      <c r="G118" t="n">
+        <v>8301.864118913021</v>
+      </c>
+      <c r="H118" t="n">
+        <v>634412.2244935761</v>
+      </c>
+      <c r="I118" t="n">
         <v>0.03227130889538202</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-0.3486277213061141</v>
-      </c>
-      <c r="H118" t="n">
-        <v>8301.864118913021</v>
-      </c>
-      <c r="I118" t="n">
-        <v>634412.2244935761</v>
       </c>
     </row>
     <row r="119">
@@ -9920,16 +9920,16 @@
         <v>35.77427081890989</v>
       </c>
       <c r="F119" t="n">
+        <v>0.07562446232597246</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1788.713540945495</v>
+      </c>
+      <c r="H119" t="n">
+        <v>631891.9025550483</v>
+      </c>
+      <c r="I119" t="n">
         <v>-0.006735780055413529</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.07562446232597246</v>
-      </c>
-      <c r="H119" t="n">
-        <v>-1788.713540945495</v>
-      </c>
-      <c r="I119" t="n">
-        <v>631891.9025550483</v>
       </c>
     </row>
     <row r="120">
@@ -9951,16 +9951,16 @@
         <v>259.1708539309599</v>
       </c>
       <c r="F120" t="n">
+        <v>-0.5222142895983612</v>
+      </c>
+      <c r="G120" t="n">
+        <v>12958.54269654799</v>
+      </c>
+      <c r="H120" t="n">
+        <v>650236.7874001611</v>
+      </c>
+      <c r="I120" t="n">
         <v>0.04912906236367754</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-0.5222142895983612</v>
-      </c>
-      <c r="H120" t="n">
-        <v>12958.54269654799</v>
-      </c>
-      <c r="I120" t="n">
-        <v>650236.7874001611</v>
       </c>
     </row>
     <row r="121">
@@ -9982,16 +9982,16 @@
         <v>634.2448673508101</v>
       </c>
       <c r="F121" t="n">
+        <v>1.443376015522962</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-31712.2433675405</v>
+      </c>
+      <c r="H121" t="n">
+        <v>606798.3806689756</v>
+      </c>
+      <c r="I121" t="n">
         <v>-0.1145988764021085</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1.443376015522962</v>
-      </c>
-      <c r="H121" t="n">
-        <v>-31712.2433675405</v>
-      </c>
-      <c r="I121" t="n">
-        <v>606798.3806689756</v>
       </c>
     </row>
     <row r="122">
@@ -10013,16 +10013,16 @@
         <v>436.1229996779612</v>
       </c>
       <c r="F122" t="n">
+        <v>1.089465200297577</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-21806.14998389806</v>
+      </c>
+      <c r="H122" t="n">
+        <v>574163.0641107515</v>
+      </c>
+      <c r="I122" t="n">
         <v>-0.08900047406669936</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1.089465200297577</v>
-      </c>
-      <c r="H122" t="n">
-        <v>-21806.14998389806</v>
-      </c>
-      <c r="I122" t="n">
-        <v>574163.0641107515</v>
       </c>
     </row>
     <row r="123">
@@ -10044,16 +10044,16 @@
         <v>85.03395173934221</v>
       </c>
       <c r="F123" t="n">
+        <v>-0.2084500198735777</v>
+      </c>
+      <c r="G123" t="n">
+        <v>4251.697586967111</v>
+      </c>
+      <c r="H123" t="n">
+        <v>580933.2639707931</v>
+      </c>
+      <c r="I123" t="n">
         <v>0.01904835782532987</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-0.2084500198735777</v>
-      </c>
-      <c r="H123" t="n">
-        <v>4251.697586967111</v>
-      </c>
-      <c r="I123" t="n">
-        <v>580933.2639707931</v>
       </c>
     </row>
     <row r="124">
@@ -10075,16 +10075,16 @@
         <v>405.4099446371362</v>
       </c>
       <c r="F124" t="n">
+        <v>-0.9124920587859899</v>
+      </c>
+      <c r="G124" t="n">
+        <v>20270.49723185681</v>
+      </c>
+      <c r="H124" t="n">
+        <v>612839.7099604086</v>
+      </c>
+      <c r="I124" t="n">
         <v>0.08911786686643941</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-0.9124920587859899</v>
-      </c>
-      <c r="H124" t="n">
-        <v>20270.49723185681</v>
-      </c>
-      <c r="I124" t="n">
-        <v>612839.7099604086</v>
       </c>
     </row>
     <row r="125">
@@ -10106,16 +10106,16 @@
         <v>535.1829435208234</v>
       </c>
       <c r="F125" t="n">
+        <v>1.350457954157801</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-26759.14717604117</v>
+      </c>
+      <c r="H125" t="n">
+        <v>572865.7052907278</v>
+      </c>
+      <c r="I125" t="n">
         <v>-0.1080184064875263</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1.350457954157801</v>
-      </c>
-      <c r="H125" t="n">
-        <v>-26759.14717604117</v>
-      </c>
-      <c r="I125" t="n">
-        <v>572865.7052907278</v>
       </c>
     </row>
     <row r="126">
@@ -10137,16 +10137,16 @@
         <v>139.8896839255011</v>
       </c>
       <c r="F126" t="n">
+        <v>0.364530458186619</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-6994.484196275055</v>
+      </c>
+      <c r="H126" t="n">
+        <v>561586.9465290928</v>
+      </c>
+      <c r="I126" t="n">
         <v>-0.03165375952254268</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.364530458186619</v>
-      </c>
-      <c r="H126" t="n">
-        <v>-6994.484196275055</v>
-      </c>
-      <c r="I126" t="n">
-        <v>561586.9465290928</v>
       </c>
     </row>
     <row r="127">
@@ -10168,16 +10168,16 @@
         <v>54.65839119354637</v>
       </c>
       <c r="F127" t="n">
+        <v>-0.1406349310230887</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2732.919559677318</v>
+      </c>
+      <c r="H127" t="n">
+        <v>566081.3873648411</v>
+      </c>
+      <c r="I127" t="n">
         <v>0.01277220214708183</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-0.1406349310230887</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2732.919559677318</v>
-      </c>
-      <c r="I127" t="n">
-        <v>566081.3873648411</v>
       </c>
     </row>
     <row r="128">
@@ -10199,16 +10199,16 @@
         <v>91.56834621364929</v>
       </c>
       <c r="F128" t="n">
+        <v>-0.2307288351437706</v>
+      </c>
+      <c r="G128" t="n">
+        <v>4578.417310682465</v>
+      </c>
+      <c r="H128" t="n">
+        <v>573554.2694278164</v>
+      </c>
+      <c r="I128" t="n">
         <v>0.02112722886565432</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-0.2307288351437706</v>
-      </c>
-      <c r="H128" t="n">
-        <v>4578.417310682465</v>
-      </c>
-      <c r="I128" t="n">
-        <v>573554.2694278164</v>
       </c>
     </row>
     <row r="129">
@@ -10230,16 +10230,16 @@
         <v>40.47688361853821</v>
       </c>
       <c r="F129" t="n">
+        <v>0.1029328128905048</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-2023.84418092691</v>
+      </c>
+      <c r="H129" t="n">
+        <v>570291.9917491882</v>
+      </c>
+      <c r="I129" t="n">
         <v>-0.009145856382813818</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.1029328128905048</v>
-      </c>
-      <c r="H129" t="n">
-        <v>-2023.84418092691</v>
-      </c>
-      <c r="I129" t="n">
-        <v>570291.9917491882</v>
       </c>
     </row>
     <row r="130">
@@ -10261,16 +10261,16 @@
         <v>68.09505264654892</v>
       </c>
       <c r="F130" t="n">
+        <v>-0.1705180330358784</v>
+      </c>
+      <c r="G130" t="n">
+        <v>3404.752632327446</v>
+      </c>
+      <c r="H130" t="n">
+        <v>575810.983533995</v>
+      </c>
+      <c r="I130" t="n">
         <v>0.01552827234576061</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-0.1705180330358784</v>
-      </c>
-      <c r="H130" t="n">
-        <v>3404.752632327446</v>
-      </c>
-      <c r="I130" t="n">
-        <v>575810.983533995</v>
       </c>
     </row>
     <row r="131">
@@ -10292,16 +10292,16 @@
         <v>242.5885892087356</v>
       </c>
       <c r="F131" t="n">
+        <v>-0.5760887836528089</v>
+      </c>
+      <c r="G131" t="n">
+        <v>12129.42946043678</v>
+      </c>
+      <c r="H131" t="n">
+        <v>595290.629173788</v>
+      </c>
+      <c r="I131" t="n">
         <v>0.05447358144943986</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-0.5760887836528089</v>
-      </c>
-      <c r="H131" t="n">
-        <v>12129.42946043678</v>
-      </c>
-      <c r="I131" t="n">
-        <v>595290.629173788</v>
       </c>
     </row>
     <row r="132">
@@ -10323,16 +10323,16 @@
         <v>66.20995242203202</v>
       </c>
       <c r="F132" t="n">
+        <v>-0.1550464282867399</v>
+      </c>
+      <c r="G132" t="n">
+        <v>3310.497621101601</v>
+      </c>
+      <c r="H132" t="n">
+        <v>600439.6305447153</v>
+      </c>
+      <c r="I132" t="n">
         <v>0.01409948120845804</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-0.1550464282867399</v>
-      </c>
-      <c r="H132" t="n">
-        <v>3310.497621101601</v>
-      </c>
-      <c r="I132" t="n">
-        <v>600439.6305447153</v>
       </c>
     </row>
     <row r="133">
@@ -10354,16 +10354,16 @@
         <v>1040.652083709883</v>
       </c>
       <c r="F133" t="n">
+        <v>3.118386927632927</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-52032.60418549416</v>
+      </c>
+      <c r="H133" t="n">
+        <v>520219.3866737796</v>
+      </c>
+      <c r="I133" t="n">
         <v>-0.21852687480619</v>
-      </c>
-      <c r="G133" t="n">
-        <v>3.118386927632927</v>
-      </c>
-      <c r="H133" t="n">
-        <v>-52032.60418549416</v>
-      </c>
-      <c r="I133" t="n">
-        <v>520219.3866737796</v>
       </c>
     </row>
     <row r="134">
@@ -10385,16 +10385,16 @@
         <v>13.83823470376081</v>
       </c>
       <c r="F134" t="n">
+        <v>0.04162201126254738</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-691.9117351880407</v>
+      </c>
+      <c r="H134" t="n">
+        <v>518963.0325992397</v>
+      </c>
+      <c r="I134" t="n">
         <v>-0.003718484209888201</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.04162201126254738</v>
-      </c>
-      <c r="H134" t="n">
-        <v>-691.9117351880407</v>
-      </c>
-      <c r="I134" t="n">
-        <v>518963.0325992397</v>
       </c>
     </row>
     <row r="135">
@@ -10416,16 +10416,16 @@
         <v>33.90973515032344</v>
       </c>
       <c r="F135" t="n">
+        <v>-0.1010677966069891</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1695.486757516172</v>
+      </c>
+      <c r="H135" t="n">
+        <v>522047.8518807844</v>
+      </c>
+      <c r="I135" t="n">
         <v>0.009145923708935822</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-0.1010677966069891</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1695.486757516172</v>
-      </c>
-      <c r="I135" t="n">
-        <v>522047.8518807844</v>
       </c>
     </row>
     <row r="136">
@@ -10447,16 +10447,16 @@
         <v>156.7312268237859</v>
       </c>
       <c r="F136" t="n">
+        <v>-0.4483552807610981</v>
+      </c>
+      <c r="G136" t="n">
+        <v>7836.561341189295</v>
+      </c>
+      <c r="H136" t="n">
+        <v>536236.3232444535</v>
+      </c>
+      <c r="I136" t="n">
         <v>0.04188945783274385</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-0.4483552807610981</v>
-      </c>
-      <c r="H136" t="n">
-        <v>7836.561341189295</v>
-      </c>
-      <c r="I136" t="n">
-        <v>536236.3232444535</v>
       </c>
     </row>
     <row r="137">
@@ -10478,16 +10478,16 @@
         <v>6.006741560648001</v>
       </c>
       <c r="F137" t="n">
+        <v>0.01720978367404722</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-300.3370780324</v>
+      </c>
+      <c r="H137" t="n">
+        <v>535704.3821477022</v>
+      </c>
+      <c r="I137" t="n">
         <v>-0.001540871808578341</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.01720978367404722</v>
-      </c>
-      <c r="H137" t="n">
-        <v>-300.3370780324</v>
-      </c>
-      <c r="I137" t="n">
-        <v>535704.3821477022</v>
       </c>
     </row>
     <row r="138">
@@ -10509,16 +10509,16 @@
         <v>78.16618660525816</v>
       </c>
       <c r="F138" t="n">
+        <v>0.2285419052113771</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-3908.309330262908</v>
+      </c>
+      <c r="H138" t="n">
+        <v>528776.2811690171</v>
+      </c>
+      <c r="I138" t="n">
         <v>-0.02008242695199094</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.2285419052113771</v>
-      </c>
-      <c r="H138" t="n">
-        <v>-3908.309330262908</v>
-      </c>
-      <c r="I138" t="n">
-        <v>528776.2811690171</v>
       </c>
     </row>
     <row r="139">
@@ -10540,16 +10540,16 @@
         <v>18.93695644485235</v>
       </c>
       <c r="F139" t="n">
+        <v>-0.05509423644778984</v>
+      </c>
+      <c r="G139" t="n">
+        <v>946.8478222426177</v>
+      </c>
+      <c r="H139" t="n">
+        <v>530473.7363920233</v>
+      </c>
+      <c r="I139" t="n">
         <v>0.004964984592349226</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-0.05509423644778984</v>
-      </c>
-      <c r="H139" t="n">
-        <v>946.8478222426177</v>
-      </c>
-      <c r="I139" t="n">
-        <v>530473.7363920233</v>
       </c>
     </row>
     <row r="140">
@@ -10571,16 +10571,16 @@
         <v>49.32646793441157</v>
       </c>
       <c r="F140" t="n">
+        <v>0.1453788107605981</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-2466.323396720578</v>
+      </c>
+      <c r="H140" t="n">
+        <v>526064.1923643289</v>
+      </c>
+      <c r="I140" t="n">
         <v>-0.01286876331128243</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.1453788107605981</v>
-      </c>
-      <c r="H140" t="n">
-        <v>-2466.323396720578</v>
-      </c>
-      <c r="I140" t="n">
-        <v>526064.1923643289</v>
       </c>
     </row>
     <row r="141">
@@ -10602,16 +10602,16 @@
         <v>106.6193730999515</v>
       </c>
       <c r="F141" t="n">
+        <v>-0.3056248727087966</v>
+      </c>
+      <c r="G141" t="n">
+        <v>5330.968654997574</v>
+      </c>
+      <c r="H141" t="n">
+        <v>535663.5481629395</v>
+      </c>
+      <c r="I141" t="n">
         <v>0.02817850995310111</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-0.3056248727087966</v>
-      </c>
-      <c r="H141" t="n">
-        <v>5330.968654997574</v>
-      </c>
-      <c r="I141" t="n">
-        <v>535663.5481629395</v>
       </c>
     </row>
     <row r="142">
@@ -10633,16 +10633,16 @@
         <v>862.1436043591151</v>
       </c>
       <c r="F142" t="n">
+        <v>-2.023014256353076</v>
+      </c>
+      <c r="G142" t="n">
+        <v>43107.18021795576</v>
+      </c>
+      <c r="H142" t="n">
+        <v>612127.903885451</v>
+      </c>
+      <c r="I142" t="n">
         <v>0.2216118545740558</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-2.023014256353076</v>
-      </c>
-      <c r="H142" t="n">
-        <v>43107.18021795576</v>
-      </c>
-      <c r="I142" t="n">
-        <v>612127.903885451</v>
       </c>
     </row>
     <row r="143">
@@ -10664,16 +10664,16 @@
         <v>418.4975411875889</v>
       </c>
       <c r="F143" t="n">
+        <v>-0.9025262748640932</v>
+      </c>
+      <c r="G143" t="n">
+        <v>20924.87705937944</v>
+      </c>
+      <c r="H143" t="n">
+        <v>645524.808610348</v>
+      </c>
+      <c r="I143" t="n">
         <v>0.08805885812579457</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-0.9025262748640932</v>
-      </c>
-      <c r="H143" t="n">
-        <v>20924.87705937944</v>
-      </c>
-      <c r="I143" t="n">
-        <v>645524.808610348</v>
       </c>
     </row>
     <row r="144">
@@ -10695,16 +10695,16 @@
         <v>239.7742332337863</v>
       </c>
       <c r="F144" t="n">
+        <v>-0.4941792176734515</v>
+      </c>
+      <c r="G144" t="n">
+        <v>11988.71166168931</v>
+      </c>
+      <c r="H144" t="n">
+        <v>663708.3854594736</v>
+      </c>
+      <c r="I144" t="n">
         <v>0.04636927020979745</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-0.4941792176734515</v>
-      </c>
-      <c r="H144" t="n">
-        <v>11988.71166168931</v>
-      </c>
-      <c r="I144" t="n">
-        <v>663708.3854594736</v>
       </c>
     </row>
     <row r="145">
@@ -10726,16 +10726,16 @@
         <v>186.762174024292</v>
       </c>
       <c r="F145" t="n">
+        <v>0.3986816141910804</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-9338.108701214598</v>
+      </c>
+      <c r="H145" t="n">
+        <v>649950.5807912536</v>
+      </c>
+      <c r="I145" t="n">
         <v>-0.03451689280609388</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.3986816141910804</v>
-      </c>
-      <c r="H145" t="n">
-        <v>-9338.108701214598</v>
-      </c>
-      <c r="I145" t="n">
-        <v>649950.5807912536</v>
       </c>
     </row>
     <row r="146">
@@ -10757,16 +10757,16 @@
         <v>265.5965425604241</v>
       </c>
       <c r="F146" t="n">
+        <v>0.5973392861565086</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-13279.8271280212</v>
+      </c>
+      <c r="H146" t="n">
+        <v>629920.1849063137</v>
+      </c>
+      <c r="I146" t="n">
         <v>-0.05084175235318969</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.5973392861565086</v>
-      </c>
-      <c r="H146" t="n">
-        <v>-13279.8271280212</v>
-      </c>
-      <c r="I146" t="n">
-        <v>629920.1849063137</v>
       </c>
     </row>
     <row r="147">
@@ -10788,16 +10788,16 @@
         <v>580.2555001516276</v>
       </c>
       <c r="F147" t="n">
+        <v>-1.16830174466717</v>
+      </c>
+      <c r="G147" t="n">
+        <v>29012.77500758138</v>
+      </c>
+      <c r="H147" t="n">
+        <v>675204.0892509674</v>
+      </c>
+      <c r="I147" t="n">
         <v>0.1170250225638461</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-1.16830174466717</v>
-      </c>
-      <c r="H147" t="n">
-        <v>29012.77500758138</v>
-      </c>
-      <c r="I147" t="n">
-        <v>675204.0892509674</v>
       </c>
     </row>
     <row r="148">
@@ -10819,16 +10819,16 @@
         <v>176.4174581894308</v>
       </c>
       <c r="F148" t="n">
+        <v>0.3668897797799821</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-8820.87290947154</v>
+      </c>
+      <c r="H148" t="n">
+        <v>662341.8737645734</v>
+      </c>
+      <c r="I148" t="n">
         <v>-0.03185210409719874</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.3668897797799821</v>
-      </c>
-      <c r="H148" t="n">
-        <v>-8820.87290947154</v>
-      </c>
-      <c r="I148" t="n">
-        <v>662341.8737645734</v>
       </c>
     </row>
     <row r="149">
@@ -10850,16 +10850,16 @@
         <v>255.9494990853618</v>
       </c>
       <c r="F149" t="n">
+        <v>0.5589708013465682</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-12797.47495426809</v>
+      </c>
+      <c r="H149" t="n">
+        <v>643268.5324298493</v>
+      </c>
+      <c r="I149" t="n">
         <v>-0.04773194635908558</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.5589708013465682</v>
-      </c>
-      <c r="H149" t="n">
-        <v>-12797.47495426809</v>
-      </c>
-      <c r="I149" t="n">
-        <v>643268.5324298493</v>
       </c>
     </row>
     <row r="150">
@@ -10881,16 +10881,16 @@
         <v>63.81705605128604</v>
       </c>
       <c r="F150" t="n">
+        <v>0.1411346068735825</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-3190.852802564302</v>
+      </c>
+      <c r="H150" t="n">
+        <v>638356.148178678</v>
+      </c>
+      <c r="I150" t="n">
         <v>-0.01249776662837289</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.1411346068735825</v>
-      </c>
-      <c r="H150" t="n">
-        <v>-3190.852802564302</v>
-      </c>
-      <c r="I150" t="n">
-        <v>638356.148178678</v>
       </c>
     </row>
     <row r="151">
@@ -10912,16 +10912,16 @@
         <v>1339.380551926769</v>
       </c>
       <c r="F151" t="n">
+        <v>-2.340438582347998</v>
+      </c>
+      <c r="G151" t="n">
+        <v>66969.02759633846</v>
+      </c>
+      <c r="H151" t="n">
+        <v>742286.9636652733</v>
+      </c>
+      <c r="I151" t="n">
         <v>0.2656204737978749</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-2.340438582347998</v>
-      </c>
-      <c r="H151" t="n">
-        <v>66969.02759633846</v>
-      </c>
-      <c r="I151" t="n">
-        <v>742286.9636652733</v>
       </c>
     </row>
     <row r="152">
@@ -10943,16 +10943,16 @@
         <v>10.8180124123268</v>
       </c>
       <c r="F152" t="n">
+        <v>0.0189355334036788</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-540.9006206163398</v>
+      </c>
+      <c r="H152" t="n">
+        <v>741558.7776256474</v>
+      </c>
+      <c r="I152" t="n">
         <v>-0.001695124270560918</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.0189355334036788</v>
-      </c>
-      <c r="H152" t="n">
-        <v>-540.9006206163398</v>
-      </c>
-      <c r="I152" t="n">
-        <v>741558.7776256474</v>
       </c>
     </row>
     <row r="153">
@@ -10974,16 +10974,16 @@
         <v>43.01634455346013</v>
       </c>
       <c r="F153" t="n">
+        <v>-0.07478958496357729</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2150.817227673007</v>
+      </c>
+      <c r="H153" t="n">
+        <v>744457.8887198436</v>
+      </c>
+      <c r="I153" t="n">
         <v>0.006751874737896207</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-0.07478958496357729</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2150.817227673007</v>
-      </c>
-      <c r="I153" t="n">
-        <v>744457.8887198436</v>
       </c>
     </row>
     <row r="154">
@@ -11005,16 +11005,16 @@
         <v>34.80860151216137</v>
       </c>
       <c r="F154" t="n">
+        <v>-0.06019267978030172</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1740.430075608068</v>
+      </c>
+      <c r="H154" t="n">
+        <v>746792.3953784617</v>
+      </c>
+      <c r="I154" t="n">
         <v>0.005426939782532689</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-0.06019267978030172</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1740.430075608068</v>
-      </c>
-      <c r="I154" t="n">
-        <v>746792.3953784617</v>
       </c>
     </row>
     <row r="155">
@@ -11036,16 +11036,16 @@
         <v>450.8720762518935</v>
       </c>
       <c r="F155" t="n">
+        <v>-0.7287207032930803</v>
+      </c>
+      <c r="G155" t="n">
+        <v>22543.60381259468</v>
+      </c>
+      <c r="H155" t="n">
+        <v>776911.7605862846</v>
+      </c>
+      <c r="I155" t="n">
         <v>0.06991514277231682</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-0.7287207032930803</v>
-      </c>
-      <c r="H155" t="n">
-        <v>22543.60381259468</v>
-      </c>
-      <c r="I155" t="n">
-        <v>776911.7605862846</v>
       </c>
     </row>
     <row r="156">
@@ -11067,16 +11067,16 @@
         <v>620.2630972355893</v>
       </c>
       <c r="F156" t="n">
+        <v>1.101521807196371</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-31013.15486177946</v>
+      </c>
+      <c r="H156" t="n">
+        <v>737462.7251560085</v>
+      </c>
+      <c r="I156" t="n">
         <v>-0.08989685925479456</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1.101521807196371</v>
-      </c>
-      <c r="H156" t="n">
-        <v>-31013.15486177946</v>
-      </c>
-      <c r="I156" t="n">
-        <v>737462.7251560085</v>
       </c>
     </row>
     <row r="157">
@@ -11098,16 +11098,16 @@
         <v>372.1862499912136</v>
       </c>
       <c r="F157" t="n">
+        <v>-0.6239799284270199</v>
+      </c>
+      <c r="G157" t="n">
+        <v>18609.31249956068</v>
+      </c>
+      <c r="H157" t="n">
+        <v>762935.3527675713</v>
+      </c>
+      <c r="I157" t="n">
         <v>0.05927045851962958</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-0.6239799284270199</v>
-      </c>
-      <c r="H157" t="n">
-        <v>18609.31249956068</v>
-      </c>
-      <c r="I157" t="n">
-        <v>762935.3527675713</v>
       </c>
     </row>
     <row r="158">
@@ -11129,16 +11129,16 @@
         <v>176.7528816634454</v>
       </c>
       <c r="F158" t="n">
+        <v>0.3044201031775052</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-8837.64408317227</v>
+      </c>
+      <c r="H158" t="n">
+        <v>751322.902078667</v>
+      </c>
+      <c r="I158" t="n">
         <v>-0.0265728174960973</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.3044201031775052</v>
-      </c>
-      <c r="H158" t="n">
-        <v>-8837.64408317227</v>
-      </c>
-      <c r="I158" t="n">
-        <v>751322.902078667</v>
       </c>
     </row>
     <row r="159">
@@ -11160,16 +11160,16 @@
         <v>345.7177798318839</v>
       </c>
       <c r="F159" t="n">
+        <v>0.6290122637397537</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-17285.88899159419</v>
+      </c>
+      <c r="H159" t="n">
+        <v>728147.2254896257</v>
+      </c>
+      <c r="I159" t="n">
         <v>-0.05339361769728564</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.6290122637397537</v>
-      </c>
-      <c r="H159" t="n">
-        <v>-17285.88899159419</v>
-      </c>
-      <c r="I159" t="n">
-        <v>728147.2254896257</v>
       </c>
     </row>
     <row r="160">
@@ -11191,16 +11191,16 @@
         <v>41.30467527014039</v>
       </c>
       <c r="F160" t="n">
+        <v>0.07566120254567099</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-2065.233763507019</v>
+      </c>
+      <c r="H160" t="n">
+        <v>725264.1482824653</v>
+      </c>
+      <c r="I160" t="n">
         <v>-0.00673903040981529</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.07566120254567099</v>
-      </c>
-      <c r="H160" t="n">
-        <v>-2065.233763507019</v>
-      </c>
-      <c r="I160" t="n">
-        <v>725264.1482824653</v>
       </c>
     </row>
     <row r="161">
@@ -11222,16 +11222,16 @@
         <v>301.7088290433896</v>
       </c>
       <c r="F161" t="n">
+        <v>-0.5265688627120115</v>
+      </c>
+      <c r="G161" t="n">
+        <v>15085.44145216948</v>
+      </c>
+      <c r="H161" t="n">
+        <v>746423.8079486958</v>
+      </c>
+      <c r="I161" t="n">
         <v>0.0495590363517568</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-0.5265688627120115</v>
-      </c>
-      <c r="H161" t="n">
-        <v>15085.44145216948</v>
-      </c>
-      <c r="I161" t="n">
-        <v>746423.8079486958</v>
       </c>
     </row>
     <row r="162">
@@ -11253,16 +11253,16 @@
         <v>216.7703968898084</v>
       </c>
       <c r="F162" t="n">
+        <v>0.3916125202185558</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-10838.51984449042</v>
+      </c>
+      <c r="H162" t="n">
+        <v>731722.6586929079</v>
+      </c>
+      <c r="I162" t="n">
         <v>-0.03392563103390343</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.3916125202185558</v>
-      </c>
-      <c r="H162" t="n">
-        <v>-10838.51984449042</v>
-      </c>
-      <c r="I162" t="n">
-        <v>731722.6586929079</v>
       </c>
     </row>
     <row r="163">
@@ -11284,16 +11284,16 @@
         <v>270.5582673992633</v>
       </c>
       <c r="F163" t="n">
+        <v>0.5111902948490665</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-13527.91336996316</v>
+      </c>
+      <c r="H163" t="n">
+        <v>712908.1119117655</v>
+      </c>
+      <c r="I163" t="n">
         <v>-0.04383068024843868</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.5111902948490665</v>
-      </c>
-      <c r="H163" t="n">
-        <v>-13527.91336996316</v>
-      </c>
-      <c r="I163" t="n">
-        <v>712908.1119117655</v>
       </c>
     </row>
     <row r="164">
@@ -11315,16 +11315,16 @@
         <v>91.29715397713159</v>
       </c>
       <c r="F164" t="n">
+        <v>-0.169868441244621</v>
+      </c>
+      <c r="G164" t="n">
+        <v>4564.857698856579</v>
+      </c>
+      <c r="H164" t="n">
+        <v>719461.9580937297</v>
+      </c>
+      <c r="I164" t="n">
         <v>0.01546820206221533</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-0.169868441244621</v>
-      </c>
-      <c r="H164" t="n">
-        <v>4564.857698856579</v>
-      </c>
-      <c r="I164" t="n">
-        <v>719461.9580937297</v>
       </c>
     </row>
     <row r="165">
@@ -11346,16 +11346,16 @@
         <v>943.3572642510144</v>
       </c>
       <c r="F165" t="n">
+        <v>-1.516525962407847</v>
+      </c>
+      <c r="G165" t="n">
+        <v>47167.86321255072</v>
+      </c>
+      <c r="H165" t="n">
+        <v>786477.5672152832</v>
+      </c>
+      <c r="I165" t="n">
         <v>0.1573955562152191</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-1.516525962407847</v>
-      </c>
-      <c r="H165" t="n">
-        <v>47167.86321255072</v>
-      </c>
-      <c r="I165" t="n">
-        <v>786477.5672152832</v>
       </c>
     </row>
     <row r="166">
@@ -11377,16 +11377,16 @@
         <v>32.77045738629189</v>
       </c>
       <c r="F166" t="n">
+        <v>-0.05243355995157277</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1638.522869314595</v>
+      </c>
+      <c r="H166" t="n">
+        <v>788587.1953319933</v>
+      </c>
+      <c r="I166" t="n">
         <v>0.004724076926686792</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-0.05243355995157277</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1638.522869314595</v>
-      </c>
-      <c r="I166" t="n">
-        <v>788587.1953319933</v>
       </c>
     </row>
     <row r="167">
@@ -11408,16 +11408,16 @@
         <v>102.8895416297898</v>
       </c>
       <c r="F167" t="n">
+        <v>0.167092564841193</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-5144.477081489491</v>
+      </c>
+      <c r="H167" t="n">
+        <v>781987.2920056502</v>
+      </c>
+      <c r="I167" t="n">
         <v>-0.01476246499450424</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.167092564841193</v>
-      </c>
-      <c r="H167" t="n">
-        <v>-5144.477081489491</v>
-      </c>
-      <c r="I167" t="n">
-        <v>781987.2920056502</v>
       </c>
     </row>
     <row r="168">
@@ -11439,16 +11439,16 @@
         <v>17.57037388305329</v>
       </c>
       <c r="F168" t="n">
+        <v>-0.02846145280022671</v>
+      </c>
+      <c r="G168" t="n">
+        <v>878.5186941526647</v>
+      </c>
+      <c r="H168" t="n">
+        <v>783127.2529625825</v>
+      </c>
+      <c r="I168" t="n">
         <v>0.002558749096893848</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-0.02846145280022671</v>
-      </c>
-      <c r="H168" t="n">
-        <v>878.5186941526647</v>
-      </c>
-      <c r="I168" t="n">
-        <v>783127.2529625825</v>
       </c>
     </row>
     <row r="169">
@@ -11470,16 +11470,16 @@
         <v>38.22626411571175</v>
       </c>
       <c r="F169" t="n">
+        <v>0.0622667379244505</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-1911.313205785587</v>
+      </c>
+      <c r="H169" t="n">
+        <v>780651.9241358954</v>
+      </c>
+      <c r="I169" t="n">
         <v>-0.005552629859204545</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.0622667379244505</v>
-      </c>
-      <c r="H169" t="n">
-        <v>-1911.313205785587</v>
-      </c>
-      <c r="I169" t="n">
-        <v>780651.9241358954</v>
       </c>
     </row>
     <row r="170">
@@ -11501,16 +11501,16 @@
         <v>182.8296419411969</v>
       </c>
       <c r="F170" t="n">
+        <v>0.3059825248072523</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-9141.482097059845</v>
+      </c>
+      <c r="H170" t="n">
+        <v>768762.8305659235</v>
+      </c>
+      <c r="I170" t="n">
         <v>-0.02670555900847496</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.3059825248072523</v>
-      </c>
-      <c r="H170" t="n">
-        <v>-9141.482097059845</v>
-      </c>
-      <c r="I170" t="n">
-        <v>768762.8305659235</v>
       </c>
     </row>
     <row r="171">
@@ -11532,16 +11532,16 @@
         <v>54.57509063177719</v>
       </c>
       <c r="F171" t="n">
+        <v>0.09209078490936159</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-2728.75453158886</v>
+      </c>
+      <c r="H171" t="n">
+        <v>765140.5323828519</v>
+      </c>
+      <c r="I171" t="n">
         <v>-0.00819040329953704</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.09209078490936159</v>
-      </c>
-      <c r="H171" t="n">
-        <v>-2728.75453158886</v>
-      </c>
-      <c r="I171" t="n">
-        <v>765140.5323828519</v>
       </c>
     </row>
     <row r="172">
@@ -11563,16 +11563,16 @@
         <v>55.70138241128737</v>
       </c>
       <c r="F172" t="n">
+        <v>-0.09320572450363282</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2785.069120564368</v>
+      </c>
+      <c r="H172" t="n">
+        <v>768860.1248628304</v>
+      </c>
+      <c r="I172" t="n">
         <v>0.008428465027264692</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-0.09320572450363282</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2785.069120564368</v>
-      </c>
-      <c r="I172" t="n">
-        <v>768860.1248628304</v>
       </c>
     </row>
     <row r="173">
@@ -11594,16 +11594,16 @@
         <v>704.2773897434005</v>
       </c>
       <c r="F173" t="n">
+        <v>1.317728807393684</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-35213.86948717002</v>
+      </c>
+      <c r="H173" t="n">
+        <v>722118.7565682572</v>
+      </c>
+      <c r="I173" t="n">
         <v>-0.1056771677507602</v>
-      </c>
-      <c r="G173" t="n">
-        <v>1.317728807393684</v>
-      </c>
-      <c r="H173" t="n">
-        <v>-35213.86948717002</v>
-      </c>
-      <c r="I173" t="n">
-        <v>722118.7565682572</v>
       </c>
     </row>
     <row r="174">
@@ -11625,16 +11625,16 @@
         <v>22.54812296251843</v>
       </c>
       <c r="F174" t="n">
+        <v>0.04234857542172582</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-1127.406148125922</v>
+      </c>
+      <c r="H174" t="n">
+        <v>720491.7314340123</v>
+      </c>
+      <c r="I174" t="n">
         <v>-0.00378314942599089</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.04234857542172582</v>
-      </c>
-      <c r="H174" t="n">
-        <v>-1127.406148125922</v>
-      </c>
-      <c r="I174" t="n">
-        <v>720491.7314340123</v>
       </c>
     </row>
     <row r="175">
@@ -11656,16 +11656,16 @@
         <v>27.6389793754459</v>
       </c>
       <c r="F175" t="n">
+        <v>0.05215269241602313</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-1381.948968772295</v>
+      </c>
+      <c r="H175" t="n">
+        <v>718492.2177932387</v>
+      </c>
+      <c r="I175" t="n">
         <v>-0.004654909256897586</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.05215269241602313</v>
-      </c>
-      <c r="H175" t="n">
-        <v>-1381.948968772295</v>
-      </c>
-      <c r="I175" t="n">
-        <v>718492.2177932387</v>
       </c>
     </row>
     <row r="176">
@@ -11687,16 +11687,16 @@
         <v>31.05498971387792</v>
       </c>
       <c r="F176" t="n">
+        <v>0.05890799223071414</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1552.749485693896</v>
+      </c>
+      <c r="H176" t="n">
+        <v>716238.4599086295</v>
+      </c>
+      <c r="I176" t="n">
         <v>-0.005254687924366282</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.05890799223071414</v>
-      </c>
-      <c r="H176" t="n">
-        <v>-1552.749485693896</v>
-      </c>
-      <c r="I176" t="n">
-        <v>716238.4599086295</v>
       </c>
     </row>
     <row r="177">
@@ -11718,16 +11718,16 @@
         <v>159.6004557522573</v>
       </c>
       <c r="F177" t="n">
+        <v>-0.294743295800444</v>
+      </c>
+      <c r="G177" t="n">
+        <v>7980.022787612867</v>
+      </c>
+      <c r="H177" t="n">
+        <v>727862.4758927382</v>
+      </c>
+      <c r="I177" t="n">
         <v>0.0271479952618711</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-0.294743295800444</v>
-      </c>
-      <c r="H177" t="n">
-        <v>7980.022787612867</v>
-      </c>
-      <c r="I177" t="n">
-        <v>727862.4758927382</v>
       </c>
     </row>
     <row r="178">
@@ -11749,16 +11749,16 @@
         <v>63.54609139949454</v>
       </c>
       <c r="F178" t="n">
+        <v>0.1186023131147631</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-3177.304569974727</v>
+      </c>
+      <c r="H178" t="n">
+        <v>723316.5867922357</v>
+      </c>
+      <c r="I178" t="n">
         <v>-0.01052348188396865</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.1186023131147631</v>
-      </c>
-      <c r="H178" t="n">
-        <v>-3177.304569974727</v>
-      </c>
-      <c r="I178" t="n">
-        <v>723316.5867922357</v>
       </c>
     </row>
     <row r="179">
@@ -11780,16 +11780,16 @@
         <v>392.1339124844367</v>
       </c>
       <c r="F179" t="n">
+        <v>-0.6868034333991133</v>
+      </c>
+      <c r="G179" t="n">
+        <v>19606.69562422183</v>
+      </c>
+      <c r="H179" t="n">
+        <v>751572.9779587921</v>
+      </c>
+      <c r="I179" t="n">
         <v>0.06562956490299503</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-0.6868034333991133</v>
-      </c>
-      <c r="H179" t="n">
-        <v>19606.69562422183</v>
-      </c>
-      <c r="I179" t="n">
-        <v>751572.9779587921</v>
       </c>
     </row>
     <row r="180">
@@ -11811,16 +11811,16 @@
         <v>9.632976463087708</v>
       </c>
       <c r="F180" t="n">
+        <v>0.01689725311392093</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-481.6488231543854</v>
+      </c>
+      <c r="H180" t="n">
+        <v>750907.9151228303</v>
+      </c>
+      <c r="I180" t="n">
         <v>-0.001512931832303545</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.01689725311392093</v>
-      </c>
-      <c r="H180" t="n">
-        <v>-481.6488231543854</v>
-      </c>
-      <c r="I180" t="n">
-        <v>750907.9151228303</v>
       </c>
     </row>
     <row r="181">
@@ -11842,16 +11842,16 @@
         <v>175.6598900811879</v>
       </c>
       <c r="F181" t="n">
+        <v>0.3168815087073113</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-8782.994504059392</v>
+      </c>
+      <c r="H181" t="n">
+        <v>738767.2752285795</v>
+      </c>
+      <c r="I181" t="n">
         <v>-0.02763051779103324</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.3168815087073113</v>
-      </c>
-      <c r="H181" t="n">
-        <v>-8782.994504059392</v>
-      </c>
-      <c r="I181" t="n">
-        <v>738767.2752285795</v>
       </c>
     </row>
     <row r="182">
@@ -11873,16 +11873,16 @@
         <v>677.7602050732606</v>
       </c>
       <c r="F182" t="n">
+        <v>-1.101841255527124</v>
+      </c>
+      <c r="G182" t="n">
+        <v>33888.01025366303</v>
+      </c>
+      <c r="H182" t="n">
+        <v>786554.002475125</v>
+      </c>
+      <c r="I182" t="n">
         <v>0.109638014583245</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-1.101841255527124</v>
-      </c>
-      <c r="H182" t="n">
-        <v>33888.01025366303</v>
-      </c>
-      <c r="I182" t="n">
-        <v>786554.002475125</v>
       </c>
     </row>
     <row r="183">
@@ -11904,16 +11904,16 @@
         <v>999.3373969876036</v>
       </c>
       <c r="F183" t="n">
+        <v>-1.418044109844223</v>
+      </c>
+      <c r="G183" t="n">
+        <v>49966.86984938018</v>
+      </c>
+      <c r="H183" t="n">
+        <v>852175.872655004</v>
+      </c>
+      <c r="I183" t="n">
         <v>0.1456853595197306</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-1.418044109844223</v>
-      </c>
-      <c r="H183" t="n">
-        <v>49966.86984938018</v>
-      </c>
-      <c r="I183" t="n">
-        <v>852175.872655004</v>
       </c>
     </row>
     <row r="184">
@@ -11935,16 +11935,16 @@
         <v>116.7620141798776</v>
       </c>
       <c r="F184" t="n">
+        <v>-0.1632578967622471</v>
+      </c>
+      <c r="G184" t="n">
+        <v>5838.100708993878</v>
+      </c>
+      <c r="H184" t="n">
+        <v>859115.5692414999</v>
+      </c>
+      <c r="I184" t="n">
         <v>0.01485730315487995</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-0.1632578967622471</v>
-      </c>
-      <c r="H184" t="n">
-        <v>5838.100708993878</v>
-      </c>
-      <c r="I184" t="n">
-        <v>859115.5692414999</v>
       </c>
     </row>
     <row r="185">
@@ -11966,16 +11966,16 @@
         <v>460.9764944769216</v>
       </c>
       <c r="F185" t="n">
+        <v>-0.6093245712237</v>
+      </c>
+      <c r="G185" t="n">
+        <v>23048.82472384608</v>
+      </c>
+      <c r="H185" t="n">
+        <v>886182.8136054773</v>
+      </c>
+      <c r="I185" t="n">
         <v>0.05779791959443407</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-0.6093245712237</v>
-      </c>
-      <c r="H185" t="n">
-        <v>23048.82472384608</v>
-      </c>
-      <c r="I185" t="n">
-        <v>886182.8136054773</v>
       </c>
     </row>
     <row r="186">
@@ -11997,16 +11997,16 @@
         <v>69.1331416892704</v>
       </c>
       <c r="F186" t="n">
+        <v>-0.09063833611342935</v>
+      </c>
+      <c r="G186" t="n">
+        <v>3456.65708446352</v>
+      </c>
+      <c r="H186" t="n">
+        <v>890057.0236142765</v>
+      </c>
+      <c r="I186" t="n">
         <v>0.008194397183159834</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-0.09063833611342935</v>
-      </c>
-      <c r="H186" t="n">
-        <v>3456.65708446352</v>
-      </c>
-      <c r="I186" t="n">
-        <v>890057.0236142765</v>
       </c>
     </row>
     <row r="187">
@@ -12028,16 +12028,16 @@
         <v>18.23346929528027</v>
       </c>
       <c r="F187" t="n">
+        <v>-0.02385420559660989</v>
+      </c>
+      <c r="G187" t="n">
+        <v>911.6734647640134</v>
+      </c>
+      <c r="H187" t="n">
+        <v>891071.5625691209</v>
+      </c>
+      <c r="I187" t="n">
         <v>0.002143659225973339</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-0.02385420559660989</v>
-      </c>
-      <c r="H187" t="n">
-        <v>911.6734647640134</v>
-      </c>
-      <c r="I187" t="n">
-        <v>891071.5625691209</v>
       </c>
     </row>
     <row r="188">
@@ -12059,16 +12059,16 @@
         <v>574.5232348751082</v>
       </c>
       <c r="F188" t="n">
+        <v>-0.7041671878077364</v>
+      </c>
+      <c r="G188" t="n">
+        <v>28726.16174375541</v>
+      </c>
+      <c r="H188" t="n">
+        <v>922978.721974436</v>
+      </c>
+      <c r="I188" t="n">
         <v>0.06740064483826078</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-0.7041671878077364</v>
-      </c>
-      <c r="H188" t="n">
-        <v>28726.16174375541</v>
-      </c>
-      <c r="I188" t="n">
-        <v>922978.721974436</v>
       </c>
     </row>
     <row r="189">
@@ -12090,16 +12090,16 @@
         <v>867.8691422311058</v>
       </c>
       <c r="F189" t="n">
+        <v>-0.9710808053028179</v>
+      </c>
+      <c r="G189" t="n">
+        <v>43393.45711155529</v>
+      </c>
+      <c r="H189" t="n">
+        <v>968492.0992795475</v>
+      </c>
+      <c r="I189" t="n">
         <v>0.09538569327589982</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-0.9710808053028179</v>
-      </c>
-      <c r="H189" t="n">
-        <v>43393.45711155529</v>
-      </c>
-      <c r="I189" t="n">
-        <v>968492.0992795475</v>
       </c>
     </row>
     <row r="190">
@@ -12121,16 +12121,16 @@
         <v>556.1751448079305</v>
       </c>
       <c r="F190" t="n">
+        <v>0.6590995670445267</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-27808.75724039652</v>
+      </c>
+      <c r="H190" t="n">
+        <v>941697.930825611</v>
+      </c>
+      <c r="I190" t="n">
         <v>-0.05580505054169251</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.6590995670445267</v>
-      </c>
-      <c r="H190" t="n">
-        <v>-27808.75724039652</v>
-      </c>
-      <c r="I190" t="n">
-        <v>941697.930825611</v>
       </c>
     </row>
     <row r="191">
@@ -12152,16 +12152,16 @@
         <v>378.3302114871486</v>
       </c>
       <c r="F191" t="n">
+        <v>-0.4310144949092272</v>
+      </c>
+      <c r="G191" t="n">
+        <v>18916.51057435743</v>
+      </c>
+      <c r="H191" t="n">
+        <v>961019.949739808</v>
+      </c>
+      <c r="I191" t="n">
         <v>0.04020418654193532</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-0.4310144949092272</v>
-      </c>
-      <c r="H191" t="n">
-        <v>18916.51057435743</v>
-      </c>
-      <c r="I191" t="n">
-        <v>961019.949739808</v>
       </c>
     </row>
     <row r="192">
@@ -12183,16 +12183,16 @@
         <v>166.213692403532</v>
       </c>
       <c r="F192" t="n">
+        <v>0.1926306907668909</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-8310.684620176602</v>
+      </c>
+      <c r="H192" t="n">
+        <v>952845.8972340205</v>
+      </c>
+      <c r="I192" t="n">
         <v>-0.01698042110153779</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0.1926306907668909</v>
-      </c>
-      <c r="H192" t="n">
-        <v>-8310.684620176602</v>
-      </c>
-      <c r="I192" t="n">
-        <v>952845.8972340205</v>
       </c>
     </row>
     <row r="193">
@@ -12214,16 +12214,16 @@
         <v>379.7186717687528</v>
       </c>
       <c r="F193" t="n">
+        <v>-0.4233620555344976</v>
+      </c>
+      <c r="G193" t="n">
+        <v>18985.93358843764</v>
+      </c>
+      <c r="H193" t="n">
+        <v>971841.0907392954</v>
+      </c>
+      <c r="I193" t="n">
         <v>0.03946221370223185</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-0.4233620555344976</v>
-      </c>
-      <c r="H193" t="n">
-        <v>18985.93358843764</v>
-      </c>
-      <c r="I193" t="n">
-        <v>971841.0907392954</v>
       </c>
     </row>
     <row r="194">
@@ -12245,16 +12245,16 @@
         <v>508.3424474358397</v>
       </c>
       <c r="F194" t="n">
+        <v>0.5971171089093825</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-25417.12237179199</v>
+      </c>
+      <c r="H194" t="n">
+        <v>947357.210402081</v>
+      </c>
+      <c r="I194" t="n">
         <v>-0.05082380312196576</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.5971171089093825</v>
-      </c>
-      <c r="H194" t="n">
-        <v>-25417.12237179199</v>
-      </c>
-      <c r="I194" t="n">
-        <v>947357.210402081</v>
       </c>
     </row>
     <row r="195">
@@ -12276,16 +12276,16 @@
         <v>36.73532470739422</v>
       </c>
       <c r="F195" t="n">
+        <v>0.0433182354410807</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1836.766235369711</v>
+      </c>
+      <c r="H195" t="n">
+        <v>945491.5018592845</v>
+      </c>
+      <c r="I195" t="n">
         <v>-0.003869437434168077</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.0433182354410807</v>
-      </c>
-      <c r="H195" t="n">
-        <v>-1836.766235369711</v>
-      </c>
-      <c r="I195" t="n">
-        <v>945491.5018592845</v>
       </c>
     </row>
     <row r="196">
@@ -12307,16 +12307,16 @@
         <v>108.6176990019874</v>
       </c>
       <c r="F196" t="n">
+        <v>-0.1266274408486933</v>
+      </c>
+      <c r="G196" t="n">
+        <v>5430.884950099369</v>
+      </c>
+      <c r="H196" t="n">
+        <v>951028.6365701738</v>
+      </c>
+      <c r="I196" t="n">
         <v>0.01148545697198962</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-0.1266274408486933</v>
-      </c>
-      <c r="H196" t="n">
-        <v>5430.884950099369</v>
-      </c>
-      <c r="I196" t="n">
-        <v>951028.6365701738</v>
       </c>
     </row>
     <row r="197">
@@ -12338,16 +12338,16 @@
         <v>124.4222998845763</v>
       </c>
       <c r="F197" t="n">
+        <v>-0.1431900671676304</v>
+      </c>
+      <c r="G197" t="n">
+        <v>6221.114994228818</v>
+      </c>
+      <c r="H197" t="n">
+        <v>957302.2331909644</v>
+      </c>
+      <c r="I197" t="n">
         <v>0.01300727321918254</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-0.1431900671676304</v>
-      </c>
-      <c r="H197" t="n">
-        <v>6221.114994228818</v>
-      </c>
-      <c r="I197" t="n">
-        <v>957302.2331909644</v>
       </c>
     </row>
     <row r="198">
@@ -12369,16 +12369,16 @@
         <v>1301.502938509403</v>
       </c>
       <c r="F198" t="n">
+        <v>-1.32046412423762</v>
+      </c>
+      <c r="G198" t="n">
+        <v>65075.14692547014</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1022107.487252532</v>
+      </c>
+      <c r="I198" t="n">
         <v>0.1343137972424218</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-1.32046412423762</v>
-      </c>
-      <c r="H198" t="n">
-        <v>65075.14692547014</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1022107.487252532</v>
       </c>
     </row>
     <row r="199">
@@ -12400,16 +12400,16 @@
         <v>873.5673631083164</v>
       </c>
       <c r="F199" t="n">
+        <v>-0.8210406631923591</v>
+      </c>
+      <c r="G199" t="n">
+        <v>43678.36815541582</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1060536.198449717</v>
+      </c>
+      <c r="I199" t="n">
         <v>0.07947648657564541</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-0.8210406631923591</v>
-      </c>
-      <c r="H199" t="n">
-        <v>43678.36815541582</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1060536.198449717</v>
       </c>
     </row>
     <row r="200">
@@ -12431,16 +12431,16 @@
         <v>92.00622833174899</v>
       </c>
       <c r="F200" t="n">
+        <v>0.08714978050793891</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-4600.311416587449</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1056820.717701661</v>
+      </c>
+      <c r="I200" t="n">
         <v>-0.007754366091731127</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0.08714978050793891</v>
-      </c>
-      <c r="H200" t="n">
-        <v>-4600.311416587449</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1056820.717701661</v>
       </c>
     </row>
     <row r="201">
@@ -12462,16 +12462,16 @@
         <v>2595.937197811896</v>
       </c>
       <c r="F201" t="n">
+        <v>-2.014680983639956</v>
+      </c>
+      <c r="G201" t="n">
+        <v>129796.8598905948</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1162646.329439491</v>
+      </c>
+      <c r="I201" t="n">
         <v>0.2204976970335997</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-2.014680983639956</v>
-      </c>
-      <c r="H201" t="n">
-        <v>129796.8598905948</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1162646.329439491</v>
       </c>
     </row>
     <row r="202">
@@ -12493,16 +12493,16 @@
         <v>1339.005002989541</v>
       </c>
       <c r="F202" t="n">
+        <v>-0.9506044991691102</v>
+      </c>
+      <c r="G202" t="n">
+        <v>66950.25014947703</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1205378.5531929</v>
+      </c>
+      <c r="I202" t="n">
         <v>0.09318695303680979</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-0.9506044991691102</v>
-      </c>
-      <c r="H202" t="n">
-        <v>66950.25014947703</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1205378.5531929</v>
       </c>
     </row>
     <row r="203">
@@ -12524,16 +12524,16 @@
         <v>147.7576793829725</v>
       </c>
       <c r="F203" t="n">
+        <v>0.1058942205424441</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-7387.883969148625</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1201280.27374723</v>
+      </c>
+      <c r="I203" t="n">
         <v>-0.009406510266340876</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0.1058942205424441</v>
-      </c>
-      <c r="H203" t="n">
-        <v>-7387.883969148625</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1201280.27374723</v>
       </c>
     </row>
     <row r="204">
@@ -12555,16 +12555,16 @@
         <v>258.8115545432379</v>
       </c>
       <c r="F204" t="n">
+        <v>0.1886210513575939</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-12940.57772716189</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1193981.325634199</v>
+      </c>
+      <c r="I204" t="n">
         <v>-0.01663284973732415</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0.1886210513575939</v>
-      </c>
-      <c r="H204" t="n">
-        <v>-12940.57772716189</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1193981.325634199</v>
       </c>
     </row>
     <row r="205">
@@ -12586,16 +12586,16 @@
         <v>932.9579030473569</v>
       </c>
       <c r="F205" t="n">
+        <v>-0.6408622462334754</v>
+      </c>
+      <c r="G205" t="n">
+        <v>46647.89515236785</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1221065.635610307</v>
+      </c>
+      <c r="I205" t="n">
         <v>0.06097184743384477</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-0.6408622462334754</v>
-      </c>
-      <c r="H205" t="n">
-        <v>46647.89515236785</v>
-      </c>
-      <c r="I205" t="n">
-        <v>1221065.635610307</v>
       </c>
     </row>
     <row r="206">
@@ -12617,16 +12617,16 @@
         <v>448.5537298101617</v>
       </c>
       <c r="F206" t="n">
+        <v>0.3168731757007955</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-22427.68649050808</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1209306.95531158</v>
+      </c>
+      <c r="I206" t="n">
         <v>-0.02762981126936861</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0.3168731757007955</v>
-      </c>
-      <c r="H206" t="n">
-        <v>-22427.68649050808</v>
-      </c>
-      <c r="I206" t="n">
-        <v>1209306.95531158</v>
       </c>
     </row>
     <row r="207">
@@ -12648,16 +12648,16 @@
         <v>824.5188603319003</v>
       </c>
       <c r="F207" t="n">
+        <v>0.6145671221523024</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-41225.94301659502</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1186544.4768174</v>
+      </c>
+      <c r="I207" t="n">
         <v>-0.05223148876553781</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0.6145671221523024</v>
-      </c>
-      <c r="H207" t="n">
-        <v>-41225.94301659502</v>
-      </c>
-      <c r="I207" t="n">
-        <v>1186544.4768174</v>
       </c>
     </row>
   </sheetData>
